--- a/gd/数值规划/装备强化强化石消耗.xlsx
+++ b/gd/数值规划/装备强化强化石消耗.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="19995" windowHeight="13230"/>
+    <workbookView xWindow="1740" yWindow="210" windowWidth="25665" windowHeight="11940" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="文档说明" sheetId="1" r:id="rId1"/>
     <sheet name="强化消耗石头" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="强化产出投放" sheetId="2" r:id="rId3"/>
+    <sheet name="升阶消耗" sheetId="3" r:id="rId4"/>
+    <sheet name="升阶产出" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="46">
   <si>
     <t>高级</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -189,12 +190,16 @@
     <t>每个进阶阶段强化等级为9级</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>产出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +224,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -438,7 +451,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -449,22 +462,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1">
@@ -474,9 +478,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1">
@@ -500,18 +501,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -557,7 +550,48 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -862,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O42" sqref="O42"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -882,11 +916,11 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
       <c r="F3" t="s">
         <v>38</v>
       </c>
@@ -943,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR60"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -961,30 +995,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
       <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="24">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="34">
         <v>0.08</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
       <c r="I2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="23">
+      <c r="J2" s="35">
         <v>3</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -992,34 +1026,34 @@
       </c>
     </row>
     <row r="3" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
       <c r="I4" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
       <c r="I5" s="1" t="s">
         <v>29</v>
       </c>
@@ -1031,19 +1065,19 @@
       <c r="C7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="16" t="s">
         <v>22</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -1052,7 +1086,7 @@
       <c r="J7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="20" t="s">
+      <c r="K7" s="16" t="s">
         <v>19</v>
       </c>
       <c r="L7" s="1" t="s">
@@ -1195,40 +1229,40 @@
       </c>
     </row>
     <row r="8" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="19">
-        <v>1</v>
-      </c>
-      <c r="C8" s="19">
-        <v>1</v>
-      </c>
-      <c r="D8" s="19">
-        <v>1</v>
-      </c>
-      <c r="E8" s="19">
+      <c r="B8" s="15">
+        <v>1</v>
+      </c>
+      <c r="C8" s="15">
+        <v>1</v>
+      </c>
+      <c r="D8" s="37">
+        <v>1</v>
+      </c>
+      <c r="E8" s="37">
         <v>100</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="15">
         <f>(MATCH(1,$R$9:$R$21,0)+1)/2</f>
         <v>1</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="15">
         <f>D8*F8</f>
         <v>1</v>
       </c>
-      <c r="H8" s="19">
-        <v>1</v>
-      </c>
-      <c r="I8" s="19">
-        <v>1</v>
-      </c>
-      <c r="J8" s="19">
+      <c r="H8" s="15">
+        <v>1</v>
+      </c>
+      <c r="I8" s="15">
+        <v>1</v>
+      </c>
+      <c r="J8" s="15">
         <v>2</v>
       </c>
-      <c r="K8" s="19"/>
-      <c r="L8" s="18">
+      <c r="K8" s="15"/>
+      <c r="L8" s="14">
         <v>3</v>
       </c>
       <c r="R8" s="1">
@@ -1419,39 +1453,39 @@
       </c>
     </row>
     <row r="9" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A9" s="32"/>
-      <c r="B9" s="17">
+      <c r="A9" s="26"/>
+      <c r="B9" s="13">
         <v>2</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="13">
         <v>2</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="38">
         <v>2</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="38">
         <v>100</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="13">
         <f>(MATCH(1,$S$9:$S$21,0)+1)/2</f>
         <v>1</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="13">
         <f>D9*F9</f>
         <v>2</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="13">
         <f t="shared" ref="H9:H16" si="0">H8+G9</f>
         <v>3</v>
       </c>
-      <c r="I9" s="17">
-        <v>1</v>
-      </c>
-      <c r="J9" s="17">
+      <c r="I9" s="13">
+        <v>1</v>
+      </c>
+      <c r="J9" s="13">
         <v>2</v>
       </c>
-      <c r="K9" s="17"/>
-      <c r="L9" s="16"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="12"/>
       <c r="Q9" s="1">
         <v>1</v>
       </c>
@@ -1649,39 +1683,39 @@
       </c>
     </row>
     <row r="10" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A10" s="32"/>
-      <c r="B10" s="17">
+      <c r="A10" s="26"/>
+      <c r="B10" s="13">
         <v>3</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="13">
         <v>3</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="38">
         <v>2</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="38">
         <v>90</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="13">
         <f>(MATCH(1,$T$9:$T$21,0)+1)/2</f>
         <v>1.5</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="13">
         <f>D10*F10</f>
         <v>3</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="13">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I10" s="17">
-        <v>1</v>
-      </c>
-      <c r="J10" s="17">
+      <c r="I10" s="13">
+        <v>1</v>
+      </c>
+      <c r="J10" s="13">
         <v>2</v>
       </c>
-      <c r="K10" s="17"/>
-      <c r="L10" s="16"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="12"/>
       <c r="Q10" s="1">
         <v>2</v>
       </c>
@@ -1879,39 +1913,39 @@
       </c>
     </row>
     <row r="11" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A11" s="32"/>
-      <c r="B11" s="17">
+      <c r="A11" s="26"/>
+      <c r="B11" s="13">
         <v>4</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="13">
         <v>4</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="38">
         <v>2</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="38">
         <v>80</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="13">
         <f>(MATCH(1,$U$9:$U$21,0)+1)/2</f>
         <v>2</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="13">
         <f>D11*F11</f>
         <v>4</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="13">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I11" s="17">
-        <v>1</v>
-      </c>
-      <c r="J11" s="17">
+      <c r="I11" s="13">
+        <v>1</v>
+      </c>
+      <c r="J11" s="13">
         <v>2</v>
       </c>
-      <c r="K11" s="17"/>
-      <c r="L11" s="16"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="12"/>
       <c r="Q11" s="1">
         <v>3</v>
       </c>
@@ -2109,39 +2143,39 @@
       </c>
     </row>
     <row r="12" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A12" s="32"/>
-      <c r="B12" s="17">
+      <c r="A12" s="26"/>
+      <c r="B12" s="13">
         <v>5</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="13">
         <v>5</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="38">
         <v>3</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="38">
         <v>75</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="13">
         <f>(MATCH(1,$V$9:$V$21,0)+1)/2</f>
         <v>2.5</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="13">
         <f>D12*F12</f>
         <v>7.5</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="13">
         <f t="shared" si="0"/>
         <v>17.5</v>
       </c>
-      <c r="I12" s="17">
-        <v>1</v>
-      </c>
-      <c r="J12" s="17">
+      <c r="I12" s="13">
+        <v>1</v>
+      </c>
+      <c r="J12" s="13">
         <v>2</v>
       </c>
-      <c r="K12" s="17"/>
-      <c r="L12" s="16"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="12"/>
       <c r="Q12" s="1">
         <v>4</v>
       </c>
@@ -2339,39 +2373,39 @@
       </c>
     </row>
     <row r="13" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A13" s="32"/>
-      <c r="B13" s="17">
+      <c r="A13" s="26"/>
+      <c r="B13" s="13">
         <v>6</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="13">
         <v>6</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="38">
         <v>4</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="38">
         <v>70</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="13">
         <f>(MATCH(1,$W$9:$W$21,0)+1)/2</f>
         <v>2.5</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="13">
         <f>F13*D13</f>
         <v>10</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="13">
         <f t="shared" si="0"/>
         <v>27.5</v>
       </c>
-      <c r="I13" s="17">
-        <v>1</v>
-      </c>
-      <c r="J13" s="17">
+      <c r="I13" s="13">
+        <v>1</v>
+      </c>
+      <c r="J13" s="13">
         <v>2</v>
       </c>
-      <c r="K13" s="17"/>
-      <c r="L13" s="16"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="12"/>
       <c r="Q13" s="1">
         <v>5</v>
       </c>
@@ -2569,39 +2603,39 @@
       </c>
     </row>
     <row r="14" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A14" s="32"/>
-      <c r="B14" s="17">
+      <c r="A14" s="26"/>
+      <c r="B14" s="13">
         <v>7</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="13">
         <v>7</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="38">
         <v>4</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="38">
         <v>65</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="13">
         <f>(MATCH(1,$X$9:$X$21,0)+1)/2</f>
         <v>3</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="13">
         <f>F14*D14</f>
         <v>12</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="13">
         <f t="shared" si="0"/>
         <v>39.5</v>
       </c>
-      <c r="I14" s="17">
-        <v>1</v>
-      </c>
-      <c r="J14" s="17">
+      <c r="I14" s="13">
+        <v>1</v>
+      </c>
+      <c r="J14" s="13">
         <v>2</v>
       </c>
-      <c r="K14" s="17"/>
-      <c r="L14" s="16"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="12"/>
       <c r="Q14" s="1">
         <v>6</v>
       </c>
@@ -2799,39 +2833,39 @@
       </c>
     </row>
     <row r="15" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A15" s="32"/>
-      <c r="B15" s="17">
+      <c r="A15" s="26"/>
+      <c r="B15" s="13">
         <v>8</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="13">
         <v>8</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="38">
         <v>5</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="38">
         <v>60</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="13">
         <f>(MATCH(1,$Y$9:$Y$40,0)+1)/2</f>
         <v>3.5</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="13">
         <f>F15*D15</f>
         <v>17.5</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="13">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="I15" s="17">
-        <v>1</v>
-      </c>
-      <c r="J15" s="17">
+      <c r="I15" s="13">
+        <v>1</v>
+      </c>
+      <c r="J15" s="13">
         <v>2</v>
       </c>
-      <c r="K15" s="17"/>
-      <c r="L15" s="16"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="12"/>
       <c r="Q15" s="1">
         <v>7</v>
       </c>
@@ -3029,39 +3063,39 @@
       </c>
     </row>
     <row r="16" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A16" s="32"/>
-      <c r="B16" s="17">
+      <c r="A16" s="26"/>
+      <c r="B16" s="13">
         <v>9</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="13">
         <v>9</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="38">
         <v>6</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="38">
         <v>60</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="13">
         <f>(MATCH(1,$Z$9:$Z$40,0)+1)/2</f>
         <v>3.5</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="13">
         <f>F16*D16</f>
         <v>21</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="13">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="I16" s="17">
-        <v>1</v>
-      </c>
-      <c r="J16" s="17">
+      <c r="I16" s="13">
+        <v>1</v>
+      </c>
+      <c r="J16" s="13">
         <v>2</v>
       </c>
-      <c r="K16" s="17"/>
-      <c r="L16" s="16"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="12"/>
       <c r="Q16" s="1">
         <v>8</v>
       </c>
@@ -3259,20 +3293,20 @@
       </c>
     </row>
     <row r="17" spans="1:70" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="33"/>
-      <c r="B17" s="15">
+      <c r="A17" s="27"/>
+      <c r="B17" s="11">
         <v>10</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="14"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="10"/>
       <c r="Q17" s="1">
         <v>9</v>
       </c>
@@ -3470,40 +3504,40 @@
       </c>
     </row>
     <row r="18" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="9">
         <v>11</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12">
+      <c r="C18" s="9"/>
+      <c r="D18" s="40">
         <f>1*J2</f>
         <v>3</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="40">
         <v>90</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="9">
         <f>(MATCH(1,$AC$8:$AC$26,0)+1)/2</f>
         <v>2</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="9">
         <f t="shared" ref="G18:G26" si="46">F18*D18</f>
         <v>6</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="9">
         <f t="shared" ref="H18:H26" si="47">H16+G18</f>
         <v>84</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="9">
         <v>2</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="9">
         <v>3</v>
       </c>
-      <c r="K18" s="12"/>
-      <c r="L18" s="11"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="8"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="Q18" s="1">
@@ -3703,16 +3737,16 @@
       </c>
     </row>
     <row r="19" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A19" s="29"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="3">
         <v>12</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="3">
+      <c r="D19" s="41">
         <f>2*$J$2</f>
         <v>6</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="41">
         <v>80</v>
       </c>
       <c r="F19" s="3">
@@ -3734,7 +3768,7 @@
         <v>4</v>
       </c>
       <c r="K19" s="3"/>
-      <c r="L19" s="10"/>
+      <c r="L19" s="7"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="Q19" s="1">
@@ -3934,16 +3968,16 @@
       </c>
     </row>
     <row r="20" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A20" s="29"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="3">
         <v>13</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="3">
+      <c r="D20" s="41">
         <f>2*$J$2</f>
         <v>6</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="41">
         <v>70</v>
       </c>
       <c r="F20" s="3">
@@ -3965,7 +3999,7 @@
         <v>4</v>
       </c>
       <c r="K20" s="3"/>
-      <c r="L20" s="10"/>
+      <c r="L20" s="7"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="Q20" s="1">
@@ -4165,16 +4199,16 @@
       </c>
     </row>
     <row r="21" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A21" s="29"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="3">
         <v>14</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="3">
+      <c r="D21" s="41">
         <f>3*$J$2</f>
         <v>9</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="41">
         <v>60</v>
       </c>
       <c r="F21" s="3">
@@ -4196,7 +4230,7 @@
         <v>4</v>
       </c>
       <c r="K21" s="3"/>
-      <c r="L21" s="10"/>
+      <c r="L21" s="7"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="Q21" s="1">
@@ -4396,16 +4430,16 @@
       </c>
     </row>
     <row r="22" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A22" s="29"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="3">
         <v>15</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="3">
+      <c r="D22" s="41">
         <f>3*$J$2</f>
         <v>9</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="41">
         <v>50</v>
       </c>
       <c r="F22" s="3">
@@ -4430,7 +4464,7 @@
       <c r="K22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L22" s="10"/>
+      <c r="L22" s="7"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="Q22" s="1">
@@ -4630,16 +4664,16 @@
       </c>
     </row>
     <row r="23" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A23" s="29"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="3">
         <v>16</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="3">
+      <c r="D23" s="41">
         <f>3*$J$2</f>
         <v>9</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="41">
         <v>50</v>
       </c>
       <c r="F23" s="3">
@@ -4662,7 +4696,7 @@
         <v>3</v>
       </c>
       <c r="K23" s="3"/>
-      <c r="L23" s="10"/>
+      <c r="L23" s="7"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="Q23" s="1">
@@ -4862,16 +4896,16 @@
       </c>
     </row>
     <row r="24" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A24" s="29"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="3">
         <v>17</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="3">
+      <c r="D24" s="41">
         <f>4*$J$2</f>
         <v>12</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="41">
         <v>40</v>
       </c>
       <c r="F24" s="3">
@@ -4894,7 +4928,7 @@
         <v>3</v>
       </c>
       <c r="K24" s="3"/>
-      <c r="L24" s="10"/>
+      <c r="L24" s="7"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="Q24" s="1">
@@ -5094,16 +5128,16 @@
       </c>
     </row>
     <row r="25" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A25" s="29"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="3">
         <v>18</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="3">
+      <c r="D25" s="41">
         <f>4*$J$2</f>
         <v>12</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="41">
         <v>40</v>
       </c>
       <c r="F25" s="3">
@@ -5126,7 +5160,7 @@
         <v>3</v>
       </c>
       <c r="K25" s="3"/>
-      <c r="L25" s="10"/>
+      <c r="L25" s="7"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="Q25" s="1">
@@ -5326,16 +5360,16 @@
       </c>
     </row>
     <row r="26" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A26" s="29"/>
+      <c r="A26" s="23"/>
       <c r="B26" s="3">
         <v>19</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" s="3">
+      <c r="D26" s="41">
         <f>5*$J$2</f>
         <v>15</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="41">
         <v>30</v>
       </c>
       <c r="F26" s="3">
@@ -5358,7 +5392,7 @@
         <v>3</v>
       </c>
       <c r="K26" s="3"/>
-      <c r="L26" s="10"/>
+      <c r="L26" s="7"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="Q26" s="1">
@@ -5558,20 +5592,20 @@
       </c>
     </row>
     <row r="27" spans="1:70" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="30"/>
-      <c r="B27" s="8">
+      <c r="A27" s="24"/>
+      <c r="B27" s="6">
         <v>20</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="7"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="5"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="Q27" s="1">
@@ -5771,43 +5805,43 @@
       </c>
     </row>
     <row r="28" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="9">
         <v>21</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12">
+      <c r="C28" s="9"/>
+      <c r="D28" s="40">
         <f>4*$J$2</f>
         <v>12</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="40">
         <v>85</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="9">
         <f>(MATCH(1,$AN$8:$AN$26,0)+1)/2</f>
         <v>2</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="9">
         <f t="shared" ref="G28:G57" si="48">F28*D28</f>
         <v>24</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H28" s="9">
         <f>H26+G28</f>
         <v>309</v>
       </c>
-      <c r="I28" s="12">
+      <c r="I28" s="9">
         <v>3</v>
       </c>
-      <c r="J28" s="12">
+      <c r="J28" s="9">
         <f>$J$2+2</f>
         <v>5</v>
       </c>
-      <c r="K28" s="12" t="s">
+      <c r="K28" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="L28" s="11"/>
+      <c r="L28" s="8"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="Q28" s="1">
@@ -6007,16 +6041,16 @@
       </c>
     </row>
     <row r="29" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A29" s="35"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="3">
         <v>22</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="3">
+      <c r="D29" s="41">
         <f>5*$J$2</f>
         <v>15</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="41">
         <v>75</v>
       </c>
       <c r="F29" s="3">
@@ -6041,7 +6075,7 @@
       <c r="K29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L29" s="10"/>
+      <c r="L29" s="7"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="Q29" s="1">
@@ -6241,16 +6275,16 @@
       </c>
     </row>
     <row r="30" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A30" s="35"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="3">
         <v>23</v>
       </c>
       <c r="C30" s="3"/>
-      <c r="D30" s="3">
+      <c r="D30" s="41">
         <f>5*$J$2</f>
         <v>15</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="41">
         <v>70</v>
       </c>
       <c r="F30" s="3">
@@ -6275,7 +6309,7 @@
       <c r="K30" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L30" s="10"/>
+      <c r="L30" s="7"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="Q30" s="1">
@@ -6475,16 +6509,16 @@
       </c>
     </row>
     <row r="31" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A31" s="35"/>
+      <c r="A31" s="29"/>
       <c r="B31" s="3">
         <v>24</v>
       </c>
       <c r="C31" s="3"/>
-      <c r="D31" s="3">
+      <c r="D31" s="41">
         <f>6*$J$2</f>
         <v>18</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="41">
         <v>65</v>
       </c>
       <c r="F31" s="3">
@@ -6509,7 +6543,7 @@
       <c r="K31" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L31" s="10"/>
+      <c r="L31" s="7"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="Q31" s="1">
@@ -6709,16 +6743,16 @@
       </c>
     </row>
     <row r="32" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A32" s="35"/>
+      <c r="A32" s="29"/>
       <c r="B32" s="3">
         <v>25</v>
       </c>
       <c r="C32" s="3"/>
-      <c r="D32" s="3">
+      <c r="D32" s="41">
         <f>6*$J$2</f>
         <v>18</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="41">
         <v>60</v>
       </c>
       <c r="F32" s="3">
@@ -6741,7 +6775,7 @@
         <v>6</v>
       </c>
       <c r="K32" s="3"/>
-      <c r="L32" s="10"/>
+      <c r="L32" s="7"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="Q32" s="1">
@@ -6941,16 +6975,16 @@
       </c>
     </row>
     <row r="33" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A33" s="35"/>
+      <c r="A33" s="29"/>
       <c r="B33" s="3">
         <v>26</v>
       </c>
       <c r="C33" s="3"/>
-      <c r="D33" s="3">
+      <c r="D33" s="41">
         <f>7*$J$2</f>
         <v>21</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="41">
         <v>50</v>
       </c>
       <c r="F33" s="3">
@@ -6973,7 +7007,7 @@
         <v>6</v>
       </c>
       <c r="K33" s="3"/>
-      <c r="L33" s="10"/>
+      <c r="L33" s="7"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="Q33" s="1">
@@ -7173,16 +7207,16 @@
       </c>
     </row>
     <row r="34" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A34" s="35"/>
+      <c r="A34" s="29"/>
       <c r="B34" s="3">
         <v>27</v>
       </c>
       <c r="C34" s="3"/>
-      <c r="D34" s="4">
+      <c r="D34" s="43">
         <f>2*$J$2*$J$2</f>
         <v>18</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="41">
         <v>35</v>
       </c>
       <c r="F34" s="3">
@@ -7205,7 +7239,7 @@
         <v>9</v>
       </c>
       <c r="K34" s="3"/>
-      <c r="L34" s="10"/>
+      <c r="L34" s="7"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="Q34" s="1">
@@ -7405,16 +7439,16 @@
       </c>
     </row>
     <row r="35" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A35" s="35"/>
+      <c r="A35" s="29"/>
       <c r="B35" s="3">
         <v>28</v>
       </c>
       <c r="C35" s="3"/>
-      <c r="D35" s="4">
+      <c r="D35" s="43">
         <f>3*$J$2*$J$2</f>
         <v>27</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="41">
         <v>25</v>
       </c>
       <c r="F35" s="3">
@@ -7437,7 +7471,7 @@
         <v>9</v>
       </c>
       <c r="K35" s="3"/>
-      <c r="L35" s="10"/>
+      <c r="L35" s="7"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="Q35" s="1">
@@ -7637,16 +7671,16 @@
       </c>
     </row>
     <row r="36" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A36" s="35"/>
+      <c r="A36" s="29"/>
       <c r="B36" s="3">
         <v>29</v>
       </c>
       <c r="C36" s="3"/>
-      <c r="D36" s="4">
+      <c r="D36" s="43">
         <f>3*$J$2*$J$2</f>
         <v>27</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="41">
         <v>10</v>
       </c>
       <c r="F36" s="3">
@@ -7669,7 +7703,7 @@
         <v>9</v>
       </c>
       <c r="K36" s="3"/>
-      <c r="L36" s="10"/>
+      <c r="L36" s="7"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="Q36" s="1">
@@ -7869,16 +7903,16 @@
       </c>
     </row>
     <row r="37" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A37" s="35"/>
+      <c r="A37" s="29"/>
       <c r="B37" s="3">
         <v>30</v>
       </c>
       <c r="C37" s="3"/>
-      <c r="D37" s="4">
+      <c r="D37" s="43">
         <f>4*$J$2*$J$2</f>
         <v>36</v>
       </c>
-      <c r="E37" s="3"/>
+      <c r="E37" s="41"/>
       <c r="F37" s="3">
         <f>(MATCH(1,$AV$8:$AV$46,0)+1)/2</f>
         <v>7</v>
@@ -7899,7 +7933,7 @@
         <v>9</v>
       </c>
       <c r="K37" s="3"/>
-      <c r="L37" s="10"/>
+      <c r="L37" s="7"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="Q37" s="1">
@@ -8099,16 +8133,16 @@
       </c>
     </row>
     <row r="38" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A38" s="35"/>
+      <c r="A38" s="29"/>
       <c r="B38" s="3">
         <v>31</v>
       </c>
       <c r="C38" s="3"/>
-      <c r="D38" s="4">
+      <c r="D38" s="43">
         <f>4*$J$2*$J$2</f>
         <v>36</v>
       </c>
-      <c r="E38" s="3"/>
+      <c r="E38" s="41"/>
       <c r="F38" s="3">
         <f>(MATCH(1,$AV$8:$AV$46,0)+1)/2</f>
         <v>7</v>
@@ -8129,7 +8163,7 @@
         <v>9</v>
       </c>
       <c r="K38" s="3"/>
-      <c r="L38" s="10"/>
+      <c r="L38" s="7"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="Q38" s="1">
@@ -8329,37 +8363,37 @@
       </c>
     </row>
     <row r="39" spans="1:70" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="36"/>
-      <c r="B39" s="8">
+      <c r="A39" s="30"/>
+      <c r="B39" s="6">
         <v>32</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="9">
+      <c r="C39" s="6"/>
+      <c r="D39" s="44">
         <f>4*$J$2*$J$2</f>
         <v>36</v>
       </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8">
+      <c r="E39" s="42"/>
+      <c r="F39" s="6">
         <f>(MATCH(1,$AV$8:$AV$46,0)+1)/2</f>
         <v>7</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G39" s="6">
         <f t="shared" si="48"/>
         <v>252</v>
       </c>
-      <c r="H39" s="8">
+      <c r="H39" s="6">
         <f>H38</f>
         <v>1078.5</v>
       </c>
-      <c r="I39" s="8">
+      <c r="I39" s="6">
         <v>3</v>
       </c>
-      <c r="J39" s="8">
+      <c r="J39" s="6">
         <f t="shared" si="50"/>
         <v>9</v>
       </c>
-      <c r="K39" s="8"/>
-      <c r="L39" s="7"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="5"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="Q39" s="1">
@@ -8559,41 +8593,41 @@
       </c>
     </row>
     <row r="40" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A40" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B40" s="12">
+      <c r="A40" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="9">
         <v>33</v>
       </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="13">
+      <c r="C40" s="9"/>
+      <c r="D40" s="45">
         <f>4*$J$2*$J$2</f>
         <v>36</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="40">
         <v>70</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F40" s="9">
         <f>(MATCH(1,AY$8:AY$46,0)+1)/2</f>
         <v>3</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G40" s="9">
         <f t="shared" si="48"/>
         <v>108</v>
       </c>
-      <c r="H40" s="12">
+      <c r="H40" s="9">
         <f>H36+G40</f>
         <v>1186.5</v>
       </c>
-      <c r="I40" s="12">
+      <c r="I40" s="9">
         <v>4</v>
       </c>
-      <c r="J40" s="12">
+      <c r="J40" s="9">
         <f t="shared" ref="J40:J48" si="51">$J$2*$J$2</f>
         <v>9</v>
       </c>
-      <c r="K40" s="12"/>
-      <c r="L40" s="11"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="8"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="Q40" s="1">
@@ -8793,16 +8827,16 @@
       </c>
     </row>
     <row r="41" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A41" s="38"/>
+      <c r="A41" s="32"/>
       <c r="B41" s="3">
         <v>34</v>
       </c>
       <c r="C41" s="3"/>
-      <c r="D41" s="4">
+      <c r="D41" s="43">
         <f>4*$J$2*$J$2</f>
         <v>36</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="41">
         <v>60</v>
       </c>
       <c r="F41" s="3">
@@ -8825,7 +8859,7 @@
         <v>9</v>
       </c>
       <c r="K41" s="3"/>
-      <c r="L41" s="10"/>
+      <c r="L41" s="7"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="Q41" s="1">
@@ -9025,16 +9059,16 @@
       </c>
     </row>
     <row r="42" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A42" s="38"/>
+      <c r="A42" s="32"/>
       <c r="B42" s="3">
         <v>35</v>
       </c>
       <c r="C42" s="3"/>
-      <c r="D42" s="4">
+      <c r="D42" s="43">
         <f>6*$J$2*$J$2</f>
         <v>54</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="41">
         <v>50</v>
       </c>
       <c r="F42" s="3">
@@ -9059,7 +9093,7 @@
       <c r="K42" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L42" s="10"/>
+      <c r="L42" s="7"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="Q42" s="1">
@@ -9259,16 +9293,16 @@
       </c>
     </row>
     <row r="43" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A43" s="38"/>
+      <c r="A43" s="32"/>
       <c r="B43" s="3">
         <v>36</v>
       </c>
       <c r="C43" s="3"/>
-      <c r="D43" s="4">
+      <c r="D43" s="43">
         <f>6*$J$2*$J$2</f>
         <v>54</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="41">
         <v>40</v>
       </c>
       <c r="F43" s="3">
@@ -9293,7 +9327,7 @@
       <c r="K43" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L43" s="10"/>
+      <c r="L43" s="7"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="Q43" s="1">
@@ -9493,16 +9527,16 @@
       </c>
     </row>
     <row r="44" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A44" s="38"/>
+      <c r="A44" s="32"/>
       <c r="B44" s="3">
         <v>37</v>
       </c>
       <c r="C44" s="3"/>
-      <c r="D44" s="4">
+      <c r="D44" s="43">
         <f>7*$J$2*$J$2</f>
         <v>63</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="41">
         <v>25</v>
       </c>
       <c r="F44" s="3">
@@ -9527,7 +9561,7 @@
       <c r="K44" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L44" s="10"/>
+      <c r="L44" s="7"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="Q44" s="1">
@@ -9727,16 +9761,16 @@
       </c>
     </row>
     <row r="45" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A45" s="38"/>
+      <c r="A45" s="32"/>
       <c r="B45" s="3">
         <v>38</v>
       </c>
       <c r="C45" s="3"/>
-      <c r="D45" s="4">
+      <c r="D45" s="43">
         <f>7*$J$2*$J$2</f>
         <v>63</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="41">
         <v>10</v>
       </c>
       <c r="F45" s="3">
@@ -9759,7 +9793,7 @@
         <v>9</v>
       </c>
       <c r="K45" s="3"/>
-      <c r="L45" s="10"/>
+      <c r="L45" s="7"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="Q45" s="1">
@@ -9959,16 +9993,16 @@
       </c>
     </row>
     <row r="46" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A46" s="38"/>
+      <c r="A46" s="32"/>
       <c r="B46" s="3">
         <v>39</v>
       </c>
       <c r="C46" s="3"/>
-      <c r="D46" s="4">
+      <c r="D46" s="43">
         <f>8*$J$2*$J$2</f>
         <v>72</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="41">
         <v>5</v>
       </c>
       <c r="F46" s="3">
@@ -9991,7 +10025,7 @@
         <v>9</v>
       </c>
       <c r="K46" s="3"/>
-      <c r="L46" s="10"/>
+      <c r="L46" s="7"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -10193,16 +10227,16 @@
       </c>
     </row>
     <row r="47" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A47" s="38"/>
+      <c r="A47" s="32"/>
       <c r="B47" s="3">
         <v>40</v>
       </c>
       <c r="C47" s="3"/>
-      <c r="D47" s="4">
+      <c r="D47" s="43">
         <f>9*$J$2*$J$2</f>
         <v>81</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="41">
         <v>3</v>
       </c>
       <c r="F47" s="3">
@@ -10225,105 +10259,105 @@
         <v>9</v>
       </c>
       <c r="K47" s="3"/>
-      <c r="L47" s="10"/>
+      <c r="L47" s="7"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
     </row>
     <row r="48" spans="1:70" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="39"/>
-      <c r="B48" s="8">
+      <c r="A48" s="33"/>
+      <c r="B48" s="6">
         <v>41</v>
       </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="9">
+      <c r="C48" s="6"/>
+      <c r="D48" s="44">
         <f>9*$J$2*$J$2</f>
         <v>81</v>
       </c>
-      <c r="E48" s="8">
-        <v>1</v>
-      </c>
-      <c r="F48" s="8">
+      <c r="E48" s="42">
+        <v>1</v>
+      </c>
+      <c r="F48" s="6">
         <f>(MATCH(1,BG$8:BG$46,0)+1)/2</f>
         <v>7.5</v>
       </c>
-      <c r="G48" s="8">
+      <c r="G48" s="6">
         <f t="shared" si="48"/>
         <v>607.5</v>
       </c>
-      <c r="H48" s="8">
+      <c r="H48" s="6">
         <f t="shared" si="52"/>
         <v>4381.5</v>
       </c>
-      <c r="I48" s="8">
+      <c r="I48" s="6">
         <v>4</v>
       </c>
-      <c r="J48" s="8">
+      <c r="J48" s="6">
         <f t="shared" si="51"/>
         <v>9</v>
       </c>
-      <c r="K48" s="8"/>
-      <c r="L48" s="7"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="5"/>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="4">
         <v>42</v>
       </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6">
+      <c r="C49" s="4"/>
+      <c r="D49" s="46">
         <f>4*$J$2*$J$2</f>
         <v>36</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49" s="47">
         <v>65</v>
       </c>
-      <c r="F49" s="5">
+      <c r="F49" s="4">
         <f>(MATCH(1,BJ$8:BJ$46,0)+1)/2</f>
         <v>3.5</v>
       </c>
-      <c r="G49" s="5">
+      <c r="G49" s="4">
         <f t="shared" si="48"/>
         <v>126</v>
       </c>
-      <c r="H49" s="5">
+      <c r="H49" s="4">
         <f t="shared" si="52"/>
         <v>4507.5</v>
       </c>
-      <c r="I49" s="5">
+      <c r="I49" s="4">
         <v>5</v>
       </c>
-      <c r="J49" s="5">
+      <c r="J49" s="4">
         <f t="shared" ref="J49:J57" si="53">2*$J$2*$J$2</f>
         <v>18</v>
       </c>
-      <c r="K49" s="5" t="s">
+      <c r="K49" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="L49" s="5"/>
+      <c r="L49" s="4"/>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" s="3"/>
       <c r="P49" s="2"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A50" s="26"/>
+      <c r="A50" s="20"/>
       <c r="B50" s="3">
         <v>43</v>
       </c>
       <c r="C50" s="3"/>
-      <c r="D50" s="4">
+      <c r="D50" s="43">
         <f>5*$J$2*$J$2</f>
         <v>45</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="41">
         <v>50</v>
       </c>
       <c r="F50" s="3">
@@ -10353,16 +10387,16 @@
       <c r="P50" s="2"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A51" s="26"/>
+      <c r="A51" s="20"/>
       <c r="B51" s="3">
         <v>44</v>
       </c>
       <c r="C51" s="3"/>
-      <c r="D51" s="4">
+      <c r="D51" s="43">
         <f>6*$J$2*$J$2</f>
         <v>54</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="41">
         <v>40</v>
       </c>
       <c r="F51" s="3">
@@ -10392,16 +10426,16 @@
       <c r="P51" s="2"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A52" s="26"/>
+      <c r="A52" s="20"/>
       <c r="B52" s="3">
         <v>45</v>
       </c>
       <c r="C52" s="3"/>
-      <c r="D52" s="4">
+      <c r="D52" s="43">
         <f>7*$J$2*$J$2</f>
         <v>63</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="41">
         <v>30</v>
       </c>
       <c r="F52" s="3">
@@ -10431,16 +10465,16 @@
       <c r="P52" s="2"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A53" s="26"/>
+      <c r="A53" s="20"/>
       <c r="B53" s="3">
         <v>46</v>
       </c>
       <c r="C53" s="3"/>
-      <c r="D53" s="4">
+      <c r="D53" s="43">
         <f>8*$J$2*$J$2</f>
         <v>72</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="41">
         <v>25</v>
       </c>
       <c r="F53" s="3">
@@ -10470,16 +10504,16 @@
       <c r="P53" s="2"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A54" s="26"/>
+      <c r="A54" s="20"/>
       <c r="B54" s="3">
         <v>47</v>
       </c>
       <c r="C54" s="3"/>
-      <c r="D54" s="4">
+      <c r="D54" s="43">
         <f>9*$J$2*$J$2</f>
         <v>81</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="41">
         <v>10</v>
       </c>
       <c r="F54" s="3">
@@ -10507,16 +10541,16 @@
       <c r="N54" s="2"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A55" s="26"/>
+      <c r="A55" s="20"/>
       <c r="B55" s="3">
         <v>48</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="D55" s="4">
+      <c r="D55" s="43">
         <f>10*$J$2*$J$2</f>
         <v>90</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="41">
         <v>5</v>
       </c>
       <c r="F55" s="3">
@@ -10544,16 +10578,16 @@
       <c r="N55" s="2"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A56" s="26"/>
+      <c r="A56" s="20"/>
       <c r="B56" s="3">
         <v>49</v>
       </c>
       <c r="C56" s="3"/>
-      <c r="D56" s="4">
+      <c r="D56" s="43">
         <f>11*$J$2*$J$2</f>
         <v>99</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="41">
         <v>3</v>
       </c>
       <c r="F56" s="3">
@@ -10581,16 +10615,16 @@
       <c r="N56" s="2"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A57" s="26"/>
+      <c r="A57" s="20"/>
       <c r="B57" s="3">
         <v>50</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="4">
+      <c r="D57" s="43">
         <f>12*$J$2*$J$2</f>
         <v>108</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="41">
         <v>1</v>
       </c>
       <c r="F57" s="3">
@@ -10679,9 +10713,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
@@ -10690,7 +10747,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/gd/数值规划/装备强化强化石消耗.xlsx
+++ b/gd/数值规划/装备强化强化石消耗.xlsx
@@ -4,21 +4,26 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="210" windowWidth="25665" windowHeight="11940" activeTab="2"/>
+    <workbookView xWindow="28980" yWindow="345" windowWidth="25710" windowHeight="12165" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="文档说明" sheetId="1" r:id="rId1"/>
     <sheet name="强化消耗石头" sheetId="4" r:id="rId2"/>
-    <sheet name="强化产出投放" sheetId="2" r:id="rId3"/>
-    <sheet name="升阶消耗" sheetId="3" r:id="rId4"/>
-    <sheet name="升阶产出" sheetId="5" r:id="rId5"/>
+    <sheet name="强化石消耗(宠物强化)" sheetId="7" r:id="rId3"/>
+    <sheet name="强化产出投放" sheetId="2" r:id="rId4"/>
+    <sheet name="升阶消耗" sheetId="3" r:id="rId5"/>
+    <sheet name="升阶产出" sheetId="5" r:id="rId6"/>
+    <sheet name="宠物强化" sheetId="6" r:id="rId7"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+  </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="82">
   <si>
     <t>高级</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -194,11 +199,158 @@
     <t>产出</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能开放</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间梯度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物等级时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进阶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料数量级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗金钱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料递增系数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进阶提升数量级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金钱递增系数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金钱进阶系数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进阶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础系数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗材料数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料总数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总金钱消耗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大冒险</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难副本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间梯度(天)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主线任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+10+20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到送80(月)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精英副本开放数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力限制系数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>均值效率系数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期可进行次数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可投入体力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非R</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置系数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总产出率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -276,7 +428,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -444,6 +596,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -451,7 +640,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -505,6 +694,48 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -550,48 +781,17 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -605,6 +805,275 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>685287</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>81822</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12049125" y="171450"/>
+          <a:ext cx="3037962" cy="5053872"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>323480</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>56487</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="104775" y="66675"/>
+          <a:ext cx="2961905" cy="5304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="副本时间模板"/>
+      <sheetName val="升级时间曲线"/>
+      <sheetName val="疲劳值，副本开启时间"/>
+      <sheetName val="副本玩点分布"/>
+      <sheetName val="投放控制方法"/>
+      <sheetName val="参考"/>
+      <sheetName val="Q&amp;A"/>
+      <sheetName val="玩家历程（未完成）"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="67">
+          <cell r="F67">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="F68">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="F69">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="F70">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="F71">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="F72">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="F73">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="F74">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="F75">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="F76">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="F77">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="F78">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="F79">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="F80">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="F81">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="F82">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="F83">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="F84">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="F85">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="F86">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="F87">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="F88">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="F89">
+            <v>28</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="F90">
+            <v>31</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="F91">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="F92">
+            <v>39</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="F93">
+            <v>43</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="F94">
+            <v>47</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="F95">
+            <v>52</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="F96">
+            <v>58</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="F97">
+            <v>65</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -978,7 +1447,7 @@
   <dimension ref="A1:BR60"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -995,9 +1464,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
       <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
@@ -1006,10 +1475,10 @@
       <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="34">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="19">
         <v>0.08</v>
       </c>
       <c r="F2" s="17"/>
@@ -1018,7 +1487,7 @@
       <c r="I2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="35">
+      <c r="J2" s="20">
         <v>3</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -1026,18 +1495,18 @@
       </c>
     </row>
     <row r="3" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
@@ -1047,9 +1516,9 @@
       </c>
     </row>
     <row r="5" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
@@ -1065,10 +1534,10 @@
       <c r="C7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="21" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="16" t="s">
@@ -1229,7 +1698,7 @@
       </c>
     </row>
     <row r="8" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="39" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="15">
@@ -1238,10 +1707,10 @@
       <c r="C8" s="15">
         <v>1</v>
       </c>
-      <c r="D8" s="37">
-        <v>1</v>
-      </c>
-      <c r="E8" s="37">
+      <c r="D8" s="22">
+        <v>1</v>
+      </c>
+      <c r="E8" s="22">
         <v>100</v>
       </c>
       <c r="F8" s="15">
@@ -1453,17 +1922,17 @@
       </c>
     </row>
     <row r="9" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A9" s="26"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="13">
         <v>2</v>
       </c>
       <c r="C9" s="13">
         <v>2</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="23">
         <v>2</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="23">
         <v>100</v>
       </c>
       <c r="F9" s="13">
@@ -1683,17 +2152,17 @@
       </c>
     </row>
     <row r="10" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A10" s="26"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="13">
         <v>3</v>
       </c>
       <c r="C10" s="13">
         <v>3</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="23">
         <v>2</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="23">
         <v>90</v>
       </c>
       <c r="F10" s="13">
@@ -1913,17 +2382,17 @@
       </c>
     </row>
     <row r="11" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A11" s="26"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="13">
         <v>4</v>
       </c>
       <c r="C11" s="13">
         <v>4</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="23">
         <v>2</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="23">
         <v>80</v>
       </c>
       <c r="F11" s="13">
@@ -2143,17 +2612,17 @@
       </c>
     </row>
     <row r="12" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A12" s="26"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="13">
         <v>5</v>
       </c>
       <c r="C12" s="13">
         <v>5</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="23">
         <v>3</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="23">
         <v>75</v>
       </c>
       <c r="F12" s="13">
@@ -2373,17 +2842,17 @@
       </c>
     </row>
     <row r="13" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A13" s="26"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="13">
         <v>6</v>
       </c>
       <c r="C13" s="13">
         <v>6</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="23">
         <v>4</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="23">
         <v>70</v>
       </c>
       <c r="F13" s="13">
@@ -2603,17 +3072,17 @@
       </c>
     </row>
     <row r="14" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A14" s="26"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="13">
         <v>7</v>
       </c>
       <c r="C14" s="13">
         <v>7</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="23">
         <v>4</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="23">
         <v>65</v>
       </c>
       <c r="F14" s="13">
@@ -2833,17 +3302,17 @@
       </c>
     </row>
     <row r="15" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A15" s="26"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="13">
         <v>8</v>
       </c>
       <c r="C15" s="13">
         <v>8</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="23">
         <v>5</v>
       </c>
-      <c r="E15" s="38">
+      <c r="E15" s="23">
         <v>60</v>
       </c>
       <c r="F15" s="13">
@@ -3063,17 +3532,17 @@
       </c>
     </row>
     <row r="16" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A16" s="26"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="13">
         <v>9</v>
       </c>
       <c r="C16" s="13">
         <v>9</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="23">
         <v>6</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="23">
         <v>60</v>
       </c>
       <c r="F16" s="13">
@@ -3293,13 +3762,13 @@
       </c>
     </row>
     <row r="17" spans="1:70" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="27"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="11">
         <v>10</v>
       </c>
       <c r="C17" s="11"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
@@ -3504,18 +3973,18 @@
       </c>
     </row>
     <row r="18" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="36" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="9">
         <v>11</v>
       </c>
       <c r="C18" s="9"/>
-      <c r="D18" s="40">
+      <c r="D18" s="25">
         <f>1*J2</f>
         <v>3</v>
       </c>
-      <c r="E18" s="40">
+      <c r="E18" s="25">
         <v>90</v>
       </c>
       <c r="F18" s="9">
@@ -3737,16 +4206,16 @@
       </c>
     </row>
     <row r="19" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A19" s="23"/>
+      <c r="A19" s="37"/>
       <c r="B19" s="3">
         <v>12</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="41">
+      <c r="D19" s="26">
         <f>2*$J$2</f>
         <v>6</v>
       </c>
-      <c r="E19" s="41">
+      <c r="E19" s="26">
         <v>80</v>
       </c>
       <c r="F19" s="3">
@@ -3968,16 +4437,16 @@
       </c>
     </row>
     <row r="20" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A20" s="23"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="3">
         <v>13</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="41">
+      <c r="D20" s="26">
         <f>2*$J$2</f>
         <v>6</v>
       </c>
-      <c r="E20" s="41">
+      <c r="E20" s="26">
         <v>70</v>
       </c>
       <c r="F20" s="3">
@@ -4199,16 +4668,16 @@
       </c>
     </row>
     <row r="21" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A21" s="23"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="3">
         <v>14</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="41">
+      <c r="D21" s="26">
         <f>3*$J$2</f>
         <v>9</v>
       </c>
-      <c r="E21" s="41">
+      <c r="E21" s="26">
         <v>60</v>
       </c>
       <c r="F21" s="3">
@@ -4430,16 +4899,16 @@
       </c>
     </row>
     <row r="22" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A22" s="23"/>
+      <c r="A22" s="37"/>
       <c r="B22" s="3">
         <v>15</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="41">
+      <c r="D22" s="26">
         <f>3*$J$2</f>
         <v>9</v>
       </c>
-      <c r="E22" s="41">
+      <c r="E22" s="26">
         <v>50</v>
       </c>
       <c r="F22" s="3">
@@ -4664,16 +5133,16 @@
       </c>
     </row>
     <row r="23" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A23" s="23"/>
+      <c r="A23" s="37"/>
       <c r="B23" s="3">
         <v>16</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="41">
+      <c r="D23" s="26">
         <f>3*$J$2</f>
         <v>9</v>
       </c>
-      <c r="E23" s="41">
+      <c r="E23" s="26">
         <v>50</v>
       </c>
       <c r="F23" s="3">
@@ -4896,16 +5365,16 @@
       </c>
     </row>
     <row r="24" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A24" s="23"/>
+      <c r="A24" s="37"/>
       <c r="B24" s="3">
         <v>17</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="41">
+      <c r="D24" s="26">
         <f>4*$J$2</f>
         <v>12</v>
       </c>
-      <c r="E24" s="41">
+      <c r="E24" s="26">
         <v>40</v>
       </c>
       <c r="F24" s="3">
@@ -5128,16 +5597,16 @@
       </c>
     </row>
     <row r="25" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A25" s="23"/>
+      <c r="A25" s="37"/>
       <c r="B25" s="3">
         <v>18</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="41">
+      <c r="D25" s="26">
         <f>4*$J$2</f>
         <v>12</v>
       </c>
-      <c r="E25" s="41">
+      <c r="E25" s="26">
         <v>40</v>
       </c>
       <c r="F25" s="3">
@@ -5360,16 +5829,16 @@
       </c>
     </row>
     <row r="26" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A26" s="23"/>
+      <c r="A26" s="37"/>
       <c r="B26" s="3">
         <v>19</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" s="41">
+      <c r="D26" s="26">
         <f>5*$J$2</f>
         <v>15</v>
       </c>
-      <c r="E26" s="41">
+      <c r="E26" s="26">
         <v>30</v>
       </c>
       <c r="F26" s="3">
@@ -5592,13 +6061,13 @@
       </c>
     </row>
     <row r="27" spans="1:70" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="24"/>
+      <c r="A27" s="38"/>
       <c r="B27" s="6">
         <v>20</v>
       </c>
       <c r="C27" s="6"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -5805,18 +6274,18 @@
       </c>
     </row>
     <row r="28" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="42" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="9">
         <v>21</v>
       </c>
       <c r="C28" s="9"/>
-      <c r="D28" s="40">
+      <c r="D28" s="25">
         <f>4*$J$2</f>
         <v>12</v>
       </c>
-      <c r="E28" s="40">
+      <c r="E28" s="25">
         <v>85</v>
       </c>
       <c r="F28" s="9">
@@ -6041,16 +6510,16 @@
       </c>
     </row>
     <row r="29" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A29" s="29"/>
+      <c r="A29" s="43"/>
       <c r="B29" s="3">
         <v>22</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="41">
+      <c r="D29" s="26">
         <f>5*$J$2</f>
         <v>15</v>
       </c>
-      <c r="E29" s="41">
+      <c r="E29" s="26">
         <v>75</v>
       </c>
       <c r="F29" s="3">
@@ -6275,16 +6744,16 @@
       </c>
     </row>
     <row r="30" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A30" s="29"/>
+      <c r="A30" s="43"/>
       <c r="B30" s="3">
         <v>23</v>
       </c>
       <c r="C30" s="3"/>
-      <c r="D30" s="41">
+      <c r="D30" s="26">
         <f>5*$J$2</f>
         <v>15</v>
       </c>
-      <c r="E30" s="41">
+      <c r="E30" s="26">
         <v>70</v>
       </c>
       <c r="F30" s="3">
@@ -6509,16 +6978,16 @@
       </c>
     </row>
     <row r="31" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A31" s="29"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="3">
         <v>24</v>
       </c>
       <c r="C31" s="3"/>
-      <c r="D31" s="41">
+      <c r="D31" s="26">
         <f>6*$J$2</f>
         <v>18</v>
       </c>
-      <c r="E31" s="41">
+      <c r="E31" s="26">
         <v>65</v>
       </c>
       <c r="F31" s="3">
@@ -6743,16 +7212,16 @@
       </c>
     </row>
     <row r="32" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A32" s="29"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="3">
         <v>25</v>
       </c>
       <c r="C32" s="3"/>
-      <c r="D32" s="41">
+      <c r="D32" s="26">
         <f>6*$J$2</f>
         <v>18</v>
       </c>
-      <c r="E32" s="41">
+      <c r="E32" s="26">
         <v>60</v>
       </c>
       <c r="F32" s="3">
@@ -6975,16 +7444,16 @@
       </c>
     </row>
     <row r="33" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A33" s="29"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="3">
         <v>26</v>
       </c>
       <c r="C33" s="3"/>
-      <c r="D33" s="41">
+      <c r="D33" s="26">
         <f>7*$J$2</f>
         <v>21</v>
       </c>
-      <c r="E33" s="41">
+      <c r="E33" s="26">
         <v>50</v>
       </c>
       <c r="F33" s="3">
@@ -7207,16 +7676,16 @@
       </c>
     </row>
     <row r="34" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A34" s="29"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="3">
         <v>27</v>
       </c>
       <c r="C34" s="3"/>
-      <c r="D34" s="43">
+      <c r="D34" s="28">
         <f>2*$J$2*$J$2</f>
         <v>18</v>
       </c>
-      <c r="E34" s="41">
+      <c r="E34" s="26">
         <v>35</v>
       </c>
       <c r="F34" s="3">
@@ -7439,16 +7908,16 @@
       </c>
     </row>
     <row r="35" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A35" s="29"/>
+      <c r="A35" s="43"/>
       <c r="B35" s="3">
         <v>28</v>
       </c>
       <c r="C35" s="3"/>
-      <c r="D35" s="43">
+      <c r="D35" s="28">
         <f>3*$J$2*$J$2</f>
         <v>27</v>
       </c>
-      <c r="E35" s="41">
+      <c r="E35" s="26">
         <v>25</v>
       </c>
       <c r="F35" s="3">
@@ -7671,16 +8140,16 @@
       </c>
     </row>
     <row r="36" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A36" s="29"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="3">
         <v>29</v>
       </c>
       <c r="C36" s="3"/>
-      <c r="D36" s="43">
+      <c r="D36" s="28">
         <f>3*$J$2*$J$2</f>
         <v>27</v>
       </c>
-      <c r="E36" s="41">
+      <c r="E36" s="26">
         <v>10</v>
       </c>
       <c r="F36" s="3">
@@ -7903,16 +8372,16 @@
       </c>
     </row>
     <row r="37" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A37" s="29"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="3">
         <v>30</v>
       </c>
       <c r="C37" s="3"/>
-      <c r="D37" s="43">
+      <c r="D37" s="28">
         <f>4*$J$2*$J$2</f>
         <v>36</v>
       </c>
-      <c r="E37" s="41"/>
+      <c r="E37" s="26"/>
       <c r="F37" s="3">
         <f>(MATCH(1,$AV$8:$AV$46,0)+1)/2</f>
         <v>7</v>
@@ -8133,16 +8602,16 @@
       </c>
     </row>
     <row r="38" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A38" s="29"/>
+      <c r="A38" s="43"/>
       <c r="B38" s="3">
         <v>31</v>
       </c>
       <c r="C38" s="3"/>
-      <c r="D38" s="43">
+      <c r="D38" s="28">
         <f>4*$J$2*$J$2</f>
         <v>36</v>
       </c>
-      <c r="E38" s="41"/>
+      <c r="E38" s="26"/>
       <c r="F38" s="3">
         <f>(MATCH(1,$AV$8:$AV$46,0)+1)/2</f>
         <v>7</v>
@@ -8363,16 +8832,16 @@
       </c>
     </row>
     <row r="39" spans="1:70" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="30"/>
+      <c r="A39" s="44"/>
       <c r="B39" s="6">
         <v>32</v>
       </c>
       <c r="C39" s="6"/>
-      <c r="D39" s="44">
+      <c r="D39" s="29">
         <f>4*$J$2*$J$2</f>
         <v>36</v>
       </c>
-      <c r="E39" s="42"/>
+      <c r="E39" s="27"/>
       <c r="F39" s="6">
         <f>(MATCH(1,$AV$8:$AV$46,0)+1)/2</f>
         <v>7</v>
@@ -8593,18 +9062,18 @@
       </c>
     </row>
     <row r="40" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="45" t="s">
         <v>1</v>
       </c>
       <c r="B40" s="9">
         <v>33</v>
       </c>
       <c r="C40" s="9"/>
-      <c r="D40" s="45">
+      <c r="D40" s="30">
         <f>4*$J$2*$J$2</f>
         <v>36</v>
       </c>
-      <c r="E40" s="40">
+      <c r="E40" s="25">
         <v>70</v>
       </c>
       <c r="F40" s="9">
@@ -8827,16 +9296,16 @@
       </c>
     </row>
     <row r="41" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A41" s="32"/>
+      <c r="A41" s="46"/>
       <c r="B41" s="3">
         <v>34</v>
       </c>
       <c r="C41" s="3"/>
-      <c r="D41" s="43">
+      <c r="D41" s="28">
         <f>4*$J$2*$J$2</f>
         <v>36</v>
       </c>
-      <c r="E41" s="41">
+      <c r="E41" s="26">
         <v>60</v>
       </c>
       <c r="F41" s="3">
@@ -9059,16 +9528,16 @@
       </c>
     </row>
     <row r="42" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A42" s="32"/>
+      <c r="A42" s="46"/>
       <c r="B42" s="3">
         <v>35</v>
       </c>
       <c r="C42" s="3"/>
-      <c r="D42" s="43">
+      <c r="D42" s="28">
         <f>6*$J$2*$J$2</f>
         <v>54</v>
       </c>
-      <c r="E42" s="41">
+      <c r="E42" s="26">
         <v>50</v>
       </c>
       <c r="F42" s="3">
@@ -9293,16 +9762,16 @@
       </c>
     </row>
     <row r="43" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A43" s="32"/>
+      <c r="A43" s="46"/>
       <c r="B43" s="3">
         <v>36</v>
       </c>
       <c r="C43" s="3"/>
-      <c r="D43" s="43">
+      <c r="D43" s="28">
         <f>6*$J$2*$J$2</f>
         <v>54</v>
       </c>
-      <c r="E43" s="41">
+      <c r="E43" s="26">
         <v>40</v>
       </c>
       <c r="F43" s="3">
@@ -9527,16 +9996,16 @@
       </c>
     </row>
     <row r="44" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A44" s="32"/>
+      <c r="A44" s="46"/>
       <c r="B44" s="3">
         <v>37</v>
       </c>
       <c r="C44" s="3"/>
-      <c r="D44" s="43">
+      <c r="D44" s="28">
         <f>7*$J$2*$J$2</f>
         <v>63</v>
       </c>
-      <c r="E44" s="41">
+      <c r="E44" s="26">
         <v>25</v>
       </c>
       <c r="F44" s="3">
@@ -9761,16 +10230,16 @@
       </c>
     </row>
     <row r="45" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A45" s="32"/>
+      <c r="A45" s="46"/>
       <c r="B45" s="3">
         <v>38</v>
       </c>
       <c r="C45" s="3"/>
-      <c r="D45" s="43">
+      <c r="D45" s="28">
         <f>7*$J$2*$J$2</f>
         <v>63</v>
       </c>
-      <c r="E45" s="41">
+      <c r="E45" s="26">
         <v>10</v>
       </c>
       <c r="F45" s="3">
@@ -9993,16 +10462,16 @@
       </c>
     </row>
     <row r="46" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A46" s="32"/>
+      <c r="A46" s="46"/>
       <c r="B46" s="3">
         <v>39</v>
       </c>
       <c r="C46" s="3"/>
-      <c r="D46" s="43">
+      <c r="D46" s="28">
         <f>8*$J$2*$J$2</f>
         <v>72</v>
       </c>
-      <c r="E46" s="41">
+      <c r="E46" s="26">
         <v>5</v>
       </c>
       <c r="F46" s="3">
@@ -10227,16 +10696,16 @@
       </c>
     </row>
     <row r="47" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A47" s="32"/>
+      <c r="A47" s="46"/>
       <c r="B47" s="3">
         <v>40</v>
       </c>
       <c r="C47" s="3"/>
-      <c r="D47" s="43">
+      <c r="D47" s="28">
         <f>9*$J$2*$J$2</f>
         <v>81</v>
       </c>
-      <c r="E47" s="41">
+      <c r="E47" s="26">
         <v>3</v>
       </c>
       <c r="F47" s="3">
@@ -10266,16 +10735,16 @@
       <c r="P47" s="2"/>
     </row>
     <row r="48" spans="1:70" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="33"/>
+      <c r="A48" s="47"/>
       <c r="B48" s="6">
         <v>41</v>
       </c>
       <c r="C48" s="6"/>
-      <c r="D48" s="44">
+      <c r="D48" s="29">
         <f>9*$J$2*$J$2</f>
         <v>81</v>
       </c>
-      <c r="E48" s="42">
+      <c r="E48" s="27">
         <v>1</v>
       </c>
       <c r="F48" s="6">
@@ -10305,18 +10774,18 @@
       <c r="P48" s="2"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="33" t="s">
         <v>34</v>
       </c>
       <c r="B49" s="4">
         <v>42</v>
       </c>
       <c r="C49" s="4"/>
-      <c r="D49" s="46">
+      <c r="D49" s="31">
         <f>4*$J$2*$J$2</f>
         <v>36</v>
       </c>
-      <c r="E49" s="47">
+      <c r="E49" s="32">
         <v>65</v>
       </c>
       <c r="F49" s="4">
@@ -10348,16 +10817,16 @@
       <c r="P49" s="2"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A50" s="20"/>
+      <c r="A50" s="34"/>
       <c r="B50" s="3">
         <v>43</v>
       </c>
       <c r="C50" s="3"/>
-      <c r="D50" s="43">
+      <c r="D50" s="28">
         <f>5*$J$2*$J$2</f>
         <v>45</v>
       </c>
-      <c r="E50" s="41">
+      <c r="E50" s="26">
         <v>50</v>
       </c>
       <c r="F50" s="3">
@@ -10387,16 +10856,16 @@
       <c r="P50" s="2"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A51" s="20"/>
+      <c r="A51" s="34"/>
       <c r="B51" s="3">
         <v>44</v>
       </c>
       <c r="C51" s="3"/>
-      <c r="D51" s="43">
+      <c r="D51" s="28">
         <f>6*$J$2*$J$2</f>
         <v>54</v>
       </c>
-      <c r="E51" s="41">
+      <c r="E51" s="26">
         <v>40</v>
       </c>
       <c r="F51" s="3">
@@ -10426,16 +10895,16 @@
       <c r="P51" s="2"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A52" s="20"/>
+      <c r="A52" s="34"/>
       <c r="B52" s="3">
         <v>45</v>
       </c>
       <c r="C52" s="3"/>
-      <c r="D52" s="43">
+      <c r="D52" s="28">
         <f>7*$J$2*$J$2</f>
         <v>63</v>
       </c>
-      <c r="E52" s="41">
+      <c r="E52" s="26">
         <v>30</v>
       </c>
       <c r="F52" s="3">
@@ -10465,16 +10934,16 @@
       <c r="P52" s="2"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A53" s="20"/>
+      <c r="A53" s="34"/>
       <c r="B53" s="3">
         <v>46</v>
       </c>
       <c r="C53" s="3"/>
-      <c r="D53" s="43">
+      <c r="D53" s="28">
         <f>8*$J$2*$J$2</f>
         <v>72</v>
       </c>
-      <c r="E53" s="41">
+      <c r="E53" s="26">
         <v>25</v>
       </c>
       <c r="F53" s="3">
@@ -10504,16 +10973,16 @@
       <c r="P53" s="2"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A54" s="20"/>
+      <c r="A54" s="34"/>
       <c r="B54" s="3">
         <v>47</v>
       </c>
       <c r="C54" s="3"/>
-      <c r="D54" s="43">
+      <c r="D54" s="28">
         <f>9*$J$2*$J$2</f>
         <v>81</v>
       </c>
-      <c r="E54" s="41">
+      <c r="E54" s="26">
         <v>10</v>
       </c>
       <c r="F54" s="3">
@@ -10541,16 +11010,16 @@
       <c r="N54" s="2"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A55" s="20"/>
+      <c r="A55" s="34"/>
       <c r="B55" s="3">
         <v>48</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="D55" s="43">
+      <c r="D55" s="28">
         <f>10*$J$2*$J$2</f>
         <v>90</v>
       </c>
-      <c r="E55" s="41">
+      <c r="E55" s="26">
         <v>5</v>
       </c>
       <c r="F55" s="3">
@@ -10578,16 +11047,16 @@
       <c r="N55" s="2"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A56" s="20"/>
+      <c r="A56" s="34"/>
       <c r="B56" s="3">
         <v>49</v>
       </c>
       <c r="C56" s="3"/>
-      <c r="D56" s="43">
+      <c r="D56" s="28">
         <f>11*$J$2*$J$2</f>
         <v>99</v>
       </c>
-      <c r="E56" s="41">
+      <c r="E56" s="26">
         <v>3</v>
       </c>
       <c r="F56" s="3">
@@ -10615,16 +11084,16 @@
       <c r="N56" s="2"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A57" s="20"/>
+      <c r="A57" s="34"/>
       <c r="B57" s="3">
         <v>50</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="43">
+      <c r="D57" s="28">
         <f>12*$J$2*$J$2</f>
         <v>108</v>
       </c>
-      <c r="E57" s="41">
+      <c r="E57" s="26">
         <v>1</v>
       </c>
       <c r="F57" s="3">
@@ -10713,26 +11182,3325 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4">
+        <v>0.01</v>
+      </c>
+      <c r="G4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6">
+        <v>0.4</v>
+      </c>
+      <c r="E6">
+        <f>F100</f>
+        <v>957</v>
+      </c>
+      <c r="G6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <f>SUM($E$12:E12)</f>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f>ROUND(($H$2*B12+$H$6)*$H$4*A12,0)</f>
+        <v>1100</v>
+      </c>
+      <c r="H12">
+        <f>SUM($G$12:G12)</f>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <f>SUM($E$12:E13)</f>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ref="G13:G76" si="0">ROUND(($H$2*B13+$H$6)*$H$4*A13,0)</f>
+        <v>1210</v>
+      </c>
+      <c r="H13">
+        <f>SUM($G$12:G13)</f>
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <f>SUM($E$12:E14)</f>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>1320</v>
+      </c>
+      <c r="H14">
+        <f>SUM($G$12:G14)</f>
+        <v>3630</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <f>SUM($E$12:E15)</f>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>1430</v>
+      </c>
+      <c r="H15">
+        <f>SUM($G$12:G15)</f>
+        <v>5060</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <f>SUM($E$12:E16)</f>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>1540</v>
+      </c>
+      <c r="H16">
+        <f>SUM($G$12:G16)</f>
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="F17">
+        <f>SUM($E$12:E17)</f>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>1650</v>
+      </c>
+      <c r="H17">
+        <f>SUM($G$12:G17)</f>
+        <v>8250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="F18">
+        <f>SUM($E$12:E18)</f>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>1760</v>
+      </c>
+      <c r="H18">
+        <f>SUM($G$12:G18)</f>
+        <v>10010</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="F19">
+        <f>SUM($E$12:E19)</f>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>1870</v>
+      </c>
+      <c r="H19">
+        <f>SUM($G$12:G19)</f>
+        <v>11880</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>9</v>
+      </c>
+      <c r="F20">
+        <f>SUM($E$12:E20)</f>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>1980</v>
+      </c>
+      <c r="H20">
+        <f>SUM($G$12:G20)</f>
+        <v>13860</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="49"/>
+      <c r="D21" s="50"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <f>SUM($E$12:E22)</f>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>3960</v>
+      </c>
+      <c r="H22">
+        <f>SUM($G$12:G22)</f>
+        <v>17820</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <f>SUM($E$12:E23)</f>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>4180</v>
+      </c>
+      <c r="H23">
+        <f>SUM($G$12:G23)</f>
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <f>SUM($E$12:E24)</f>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>4180</v>
+      </c>
+      <c r="H24">
+        <f>SUM($G$12:G24)</f>
+        <v>26180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>12</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <f>SUM($E$12:E25)</f>
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>4400</v>
+      </c>
+      <c r="H25">
+        <f>SUM($G$12:G25)</f>
+        <v>30580</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>12</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="F26">
+        <f>SUM($E$12:E26)</f>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>4400</v>
+      </c>
+      <c r="H26">
+        <f>SUM($G$12:G26)</f>
+        <v>34980</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>13</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
+      </c>
+      <c r="F27">
+        <f>SUM($E$12:E27)</f>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>4620</v>
+      </c>
+      <c r="H27">
+        <f>SUM($G$12:G27)</f>
+        <v>39600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>13</v>
+      </c>
+      <c r="D28">
+        <v>7</v>
+      </c>
+      <c r="F28">
+        <f>SUM($E$12:E28)</f>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>4620</v>
+      </c>
+      <c r="H28">
+        <f>SUM($G$12:G28)</f>
+        <v>44220</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>14</v>
+      </c>
+      <c r="D29">
+        <v>8</v>
+      </c>
+      <c r="F29">
+        <f>SUM($E$12:E29)</f>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>4840</v>
+      </c>
+      <c r="H29">
+        <f>SUM($G$12:G29)</f>
+        <v>49060</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>14</v>
+      </c>
+      <c r="D30">
+        <v>9</v>
+      </c>
+      <c r="F30">
+        <f>SUM($E$12:E30)</f>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>4840</v>
+      </c>
+      <c r="H30">
+        <f>SUM($G$12:G30)</f>
+        <v>53900</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="49"/>
+      <c r="D31" s="50"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>15</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <f>SUM($E$12:E32)</f>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>7590</v>
+      </c>
+      <c r="H32">
+        <f>SUM($G$12:G32)</f>
+        <v>61490</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>16</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <f>SUM($E$12:E33)</f>
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>7920</v>
+      </c>
+      <c r="H33">
+        <f>SUM($G$12:G33)</f>
+        <v>69410</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>16</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <f>SUM($E$12:E34)</f>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>7920</v>
+      </c>
+      <c r="H34">
+        <f>SUM($G$12:G34)</f>
+        <v>77330</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>17</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="F35">
+        <f>SUM($E$12:E35)</f>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>8250</v>
+      </c>
+      <c r="H35">
+        <f>SUM($G$12:G35)</f>
+        <v>85580</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>17</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="F36">
+        <f>SUM($E$12:E36)</f>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>8250</v>
+      </c>
+      <c r="H36">
+        <f>SUM($G$12:G36)</f>
+        <v>93830</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>18</v>
+      </c>
+      <c r="D37">
+        <v>6</v>
+      </c>
+      <c r="F37">
+        <f>SUM($E$12:E37)</f>
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>8580</v>
+      </c>
+      <c r="H37">
+        <f>SUM($G$12:G37)</f>
+        <v>102410</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>18</v>
+      </c>
+      <c r="D38">
+        <v>7</v>
+      </c>
+      <c r="F38">
+        <f>SUM($E$12:E38)</f>
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>8580</v>
+      </c>
+      <c r="H38">
+        <f>SUM($G$12:G38)</f>
+        <v>110990</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <v>19</v>
+      </c>
+      <c r="D39">
+        <v>8</v>
+      </c>
+      <c r="F39">
+        <f>SUM($E$12:E39)</f>
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>8910</v>
+      </c>
+      <c r="H39">
+        <f>SUM($G$12:G39)</f>
+        <v>119900</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <v>19</v>
+      </c>
+      <c r="D40">
+        <v>9</v>
+      </c>
+      <c r="F40">
+        <f>SUM($E$12:E40)</f>
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>8910</v>
+      </c>
+      <c r="H40">
+        <f>SUM($G$12:G40)</f>
+        <v>128810</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="49"/>
+      <c r="D41" s="50"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>4</v>
+      </c>
+      <c r="B42">
+        <v>20</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <f>ROUND(($D$4+1)*(B42-20)+(A22*$D$6+1),0)</f>
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <f>SUM($E$12:E42)</f>
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>12320</v>
+      </c>
+      <c r="H42">
+        <f>SUM($G$12:G42)</f>
+        <v>141130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>21</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ref="E43:E100" si="1">ROUND(($D$4+1)*(B43-20)+(A23*$D$6+1),0)</f>
+        <v>3</v>
+      </c>
+      <c r="F43">
+        <f>SUM($E$12:E43)</f>
+        <v>5</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>12760</v>
+      </c>
+      <c r="H43">
+        <f>SUM($G$12:G43)</f>
+        <v>153890</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>4</v>
+      </c>
+      <c r="B44">
+        <v>21</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F44">
+        <f>SUM($E$12:E44)</f>
+        <v>8</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>12760</v>
+      </c>
+      <c r="H44">
+        <f>SUM($G$12:G44)</f>
+        <v>166650</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>4</v>
+      </c>
+      <c r="B45">
+        <v>22</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F45">
+        <f>SUM($E$12:E45)</f>
+        <v>12</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>13200</v>
+      </c>
+      <c r="H45">
+        <f>SUM($G$12:G45)</f>
+        <v>179850</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46">
+        <v>22</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F46">
+        <f>SUM($E$12:E46)</f>
+        <v>16</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>13200</v>
+      </c>
+      <c r="H46">
+        <f>SUM($G$12:G46)</f>
+        <v>193050</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>4</v>
+      </c>
+      <c r="B47">
+        <v>23</v>
+      </c>
+      <c r="D47">
+        <v>6</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F47">
+        <f>SUM($E$12:E47)</f>
+        <v>21</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>13640</v>
+      </c>
+      <c r="H47">
+        <f>SUM($G$12:G47)</f>
+        <v>206690</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>4</v>
+      </c>
+      <c r="B48">
+        <v>23</v>
+      </c>
+      <c r="D48">
+        <v>7</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F48">
+        <f>SUM($E$12:E48)</f>
+        <v>26</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="0"/>
+        <v>13640</v>
+      </c>
+      <c r="H48">
+        <f>SUM($G$12:G48)</f>
+        <v>220330</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>4</v>
+      </c>
+      <c r="B49">
+        <v>24</v>
+      </c>
+      <c r="D49">
+        <v>8</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F49">
+        <f>SUM($E$12:E49)</f>
+        <v>32</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="0"/>
+        <v>14080</v>
+      </c>
+      <c r="H49">
+        <f>SUM($G$12:G49)</f>
+        <v>234410</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>4</v>
+      </c>
+      <c r="B50">
+        <v>24</v>
+      </c>
+      <c r="D50">
+        <v>9</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F50">
+        <f>SUM($E$12:E50)</f>
+        <v>38</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="0"/>
+        <v>14080</v>
+      </c>
+      <c r="H50">
+        <f>SUM($G$12:G50)</f>
+        <v>248490</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="49"/>
+      <c r="D51" s="50"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>5</v>
+      </c>
+      <c r="B52">
+        <v>25</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F52">
+        <f>SUM($E$12:E52)</f>
         <v>45</v>
       </c>
+      <c r="G52">
+        <f t="shared" si="0"/>
+        <v>18150</v>
+      </c>
+      <c r="H52">
+        <f>SUM($G$12:G52)</f>
+        <v>266640</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>5</v>
+      </c>
+      <c r="B53">
+        <v>26</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F53">
+        <f>SUM($E$12:E53)</f>
+        <v>53</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="0"/>
+        <v>18700</v>
+      </c>
+      <c r="H53">
+        <f>SUM($G$12:G53)</f>
+        <v>285340</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>5</v>
+      </c>
+      <c r="B54">
+        <v>26</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F54">
+        <f>SUM($E$12:E54)</f>
+        <v>61</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="0"/>
+        <v>18700</v>
+      </c>
+      <c r="H54">
+        <f>SUM($G$12:G54)</f>
+        <v>304040</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>5</v>
+      </c>
+      <c r="B55">
+        <v>27</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F55">
+        <f>SUM($E$12:E55)</f>
+        <v>70</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="0"/>
+        <v>19250</v>
+      </c>
+      <c r="H55">
+        <f>SUM($G$12:G55)</f>
+        <v>323290</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>5</v>
+      </c>
+      <c r="B56">
+        <v>27</v>
+      </c>
+      <c r="D56">
+        <v>5</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F56">
+        <f>SUM($E$12:E56)</f>
+        <v>79</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="0"/>
+        <v>19250</v>
+      </c>
+      <c r="H56">
+        <f>SUM($G$12:G56)</f>
+        <v>342540</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>5</v>
+      </c>
+      <c r="B57">
+        <v>28</v>
+      </c>
+      <c r="D57">
+        <v>6</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F57">
+        <f>SUM($E$12:E57)</f>
+        <v>89</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="0"/>
+        <v>19800</v>
+      </c>
+      <c r="H57">
+        <f>SUM($G$12:G57)</f>
+        <v>362340</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>5</v>
+      </c>
+      <c r="B58">
+        <v>28</v>
+      </c>
+      <c r="D58">
+        <v>7</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F58">
+        <f>SUM($E$12:E58)</f>
+        <v>99</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="0"/>
+        <v>19800</v>
+      </c>
+      <c r="H58">
+        <f>SUM($G$12:G58)</f>
+        <v>382140</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>5</v>
+      </c>
+      <c r="B59">
+        <v>29</v>
+      </c>
+      <c r="D59">
+        <v>8</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="F59">
+        <f>SUM($E$12:E59)</f>
+        <v>110</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="0"/>
+        <v>20350</v>
+      </c>
+      <c r="H59">
+        <f>SUM($G$12:G59)</f>
+        <v>402490</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>5</v>
+      </c>
+      <c r="B60">
+        <v>29</v>
+      </c>
+      <c r="D60">
+        <v>9</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="F60">
+        <f>SUM($E$12:E60)</f>
+        <v>121</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="0"/>
+        <v>20350</v>
+      </c>
+      <c r="H60">
+        <f>SUM($G$12:G60)</f>
+        <v>422840</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" s="49"/>
+      <c r="D61" s="50"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>6</v>
+      </c>
+      <c r="B62">
+        <v>30</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="F62">
+        <f>SUM($E$12:E62)</f>
+        <v>134</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="0"/>
+        <v>25080</v>
+      </c>
+      <c r="H62">
+        <f>SUM($G$12:G62)</f>
+        <v>447920</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>6</v>
+      </c>
+      <c r="B63">
+        <v>31</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="F63">
+        <f>SUM($E$12:E63)</f>
+        <v>148</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="0"/>
+        <v>25740</v>
+      </c>
+      <c r="H63">
+        <f>SUM($G$12:G63)</f>
+        <v>473660</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>6</v>
+      </c>
+      <c r="B64">
+        <v>31</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="F64">
+        <f>SUM($E$12:E64)</f>
+        <v>162</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="0"/>
+        <v>25740</v>
+      </c>
+      <c r="H64">
+        <f>SUM($G$12:G64)</f>
+        <v>499400</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>6</v>
+      </c>
+      <c r="B65">
+        <v>32</v>
+      </c>
+      <c r="D65">
+        <v>4</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="F65">
+        <f>SUM($E$12:E65)</f>
+        <v>177</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="0"/>
+        <v>26400</v>
+      </c>
+      <c r="H65">
+        <f>SUM($G$12:G65)</f>
+        <v>525800</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>6</v>
+      </c>
+      <c r="B66">
+        <v>32</v>
+      </c>
+      <c r="D66">
+        <v>5</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="F66">
+        <f>SUM($E$12:E66)</f>
+        <v>192</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="0"/>
+        <v>26400</v>
+      </c>
+      <c r="H66">
+        <f>SUM($G$12:G66)</f>
+        <v>552200</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>6</v>
+      </c>
+      <c r="B67">
+        <v>33</v>
+      </c>
+      <c r="D67">
+        <v>6</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="F67">
+        <f>SUM($E$12:E67)</f>
+        <v>208</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="0"/>
+        <v>27060</v>
+      </c>
+      <c r="H67">
+        <f>SUM($G$12:G67)</f>
+        <v>579260</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>6</v>
+      </c>
+      <c r="B68">
+        <v>33</v>
+      </c>
+      <c r="D68">
+        <v>7</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="F68">
+        <f>SUM($E$12:E68)</f>
+        <v>224</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="0"/>
+        <v>27060</v>
+      </c>
+      <c r="H68">
+        <f>SUM($G$12:G68)</f>
+        <v>606320</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>6</v>
+      </c>
+      <c r="B69">
+        <v>34</v>
+      </c>
+      <c r="D69">
+        <v>8</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="F69">
+        <f>SUM($E$12:E69)</f>
+        <v>241</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="0"/>
+        <v>27720</v>
+      </c>
+      <c r="H69">
+        <f>SUM($G$12:G69)</f>
+        <v>634040</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>6</v>
+      </c>
+      <c r="B70">
+        <v>34</v>
+      </c>
+      <c r="D70">
+        <v>9</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="F70">
+        <f>SUM($E$12:E70)</f>
+        <v>258</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="0"/>
+        <v>27720</v>
+      </c>
+      <c r="H70">
+        <f>SUM($G$12:G70)</f>
+        <v>661760</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C71" s="49"/>
+      <c r="D71" s="50"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>7</v>
+      </c>
+      <c r="B72">
+        <v>35</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="F72">
+        <f>SUM($E$12:E72)</f>
+        <v>276</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="0"/>
+        <v>33110</v>
+      </c>
+      <c r="H72">
+        <f>SUM($G$12:G72)</f>
+        <v>694870</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>7</v>
+      </c>
+      <c r="B73">
+        <v>36</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="F73">
+        <f>SUM($E$12:E73)</f>
+        <v>295</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="0"/>
+        <v>33880</v>
+      </c>
+      <c r="H73">
+        <f>SUM($G$12:G73)</f>
+        <v>728750</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>7</v>
+      </c>
+      <c r="B74">
+        <v>36</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="F74">
+        <f>SUM($E$12:E74)</f>
+        <v>314</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="0"/>
+        <v>33880</v>
+      </c>
+      <c r="H74">
+        <f>SUM($G$12:G74)</f>
+        <v>762630</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>7</v>
+      </c>
+      <c r="B75">
+        <v>37</v>
+      </c>
+      <c r="D75">
+        <v>4</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F75">
+        <f>SUM($E$12:E75)</f>
+        <v>334</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="0"/>
+        <v>34650</v>
+      </c>
+      <c r="H75">
+        <f>SUM($G$12:G75)</f>
+        <v>797280</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>7</v>
+      </c>
+      <c r="B76">
+        <v>37</v>
+      </c>
+      <c r="D76">
+        <v>5</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F76">
+        <f>SUM($E$12:E76)</f>
+        <v>354</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="0"/>
+        <v>34650</v>
+      </c>
+      <c r="H76">
+        <f>SUM($G$12:G76)</f>
+        <v>831930</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>7</v>
+      </c>
+      <c r="B77">
+        <v>38</v>
+      </c>
+      <c r="D77">
+        <v>6</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="F77">
+        <f>SUM($E$12:E77)</f>
+        <v>375</v>
+      </c>
+      <c r="G77">
+        <f t="shared" ref="G77:G100" si="2">ROUND(($H$2*B77+$H$6)*$H$4*A77,0)</f>
+        <v>35420</v>
+      </c>
+      <c r="H77">
+        <f>SUM($G$12:G77)</f>
+        <v>867350</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>7</v>
+      </c>
+      <c r="B78">
+        <v>38</v>
+      </c>
+      <c r="D78">
+        <v>7</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="F78">
+        <f>SUM($E$12:E78)</f>
+        <v>396</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="2"/>
+        <v>35420</v>
+      </c>
+      <c r="H78">
+        <f>SUM($G$12:G78)</f>
+        <v>902770</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>7</v>
+      </c>
+      <c r="B79">
+        <v>39</v>
+      </c>
+      <c r="D79">
+        <v>8</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="F79">
+        <f>SUM($E$12:E79)</f>
+        <v>418</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="2"/>
+        <v>36190</v>
+      </c>
+      <c r="H79">
+        <f>SUM($G$12:G79)</f>
+        <v>938960</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>7</v>
+      </c>
+      <c r="B80">
+        <v>39</v>
+      </c>
+      <c r="D80">
+        <v>9</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="F80">
+        <f>SUM($E$12:E80)</f>
+        <v>440</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="2"/>
+        <v>36190</v>
+      </c>
+      <c r="H80">
+        <f>SUM($G$12:G80)</f>
+        <v>975150</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C81" s="49"/>
+      <c r="D81" s="50"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>8</v>
+      </c>
+      <c r="B82">
+        <v>40</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="F82">
+        <f>SUM($E$12:E82)</f>
+        <v>464</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="2"/>
+        <v>42240</v>
+      </c>
+      <c r="H82">
+        <f>SUM($G$12:G82)</f>
+        <v>1017390</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>8</v>
+      </c>
+      <c r="B83">
+        <v>41</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="F83">
+        <f>SUM($E$12:E83)</f>
+        <v>489</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="2"/>
+        <v>43120</v>
+      </c>
+      <c r="H83">
+        <f>SUM($G$12:G83)</f>
+        <v>1060510</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>8</v>
+      </c>
+      <c r="B84">
+        <v>41</v>
+      </c>
+      <c r="D84">
+        <v>3</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="F84">
+        <f>SUM($E$12:E84)</f>
+        <v>514</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="2"/>
+        <v>43120</v>
+      </c>
+      <c r="H84">
+        <f>SUM($G$12:G84)</f>
+        <v>1103630</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>8</v>
+      </c>
+      <c r="B85">
+        <v>42</v>
+      </c>
+      <c r="D85">
+        <v>4</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="F85">
+        <f>SUM($E$12:E85)</f>
+        <v>540</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="2"/>
+        <v>44000</v>
+      </c>
+      <c r="H85">
+        <f>SUM($G$12:G85)</f>
+        <v>1147630</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>8</v>
+      </c>
+      <c r="B86">
+        <v>42</v>
+      </c>
+      <c r="D86">
+        <v>5</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="F86">
+        <f>SUM($E$12:E86)</f>
+        <v>566</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="2"/>
+        <v>44000</v>
+      </c>
+      <c r="H86">
+        <f>SUM($G$12:G86)</f>
+        <v>1191630</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>8</v>
+      </c>
+      <c r="B87">
+        <v>43</v>
+      </c>
+      <c r="D87">
+        <v>6</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="F87">
+        <f>SUM($E$12:E87)</f>
+        <v>593</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="2"/>
+        <v>44880</v>
+      </c>
+      <c r="H87">
+        <f>SUM($G$12:G87)</f>
+        <v>1236510</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>8</v>
+      </c>
+      <c r="B88">
+        <v>43</v>
+      </c>
+      <c r="D88">
+        <v>7</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="F88">
+        <f>SUM($E$12:E88)</f>
+        <v>620</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="2"/>
+        <v>44880</v>
+      </c>
+      <c r="H88">
+        <f>SUM($G$12:G88)</f>
+        <v>1281390</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>8</v>
+      </c>
+      <c r="B89">
+        <v>44</v>
+      </c>
+      <c r="D89">
+        <v>8</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="F89">
+        <f>SUM($E$12:E89)</f>
+        <v>648</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="2"/>
+        <v>45760</v>
+      </c>
+      <c r="H89">
+        <f>SUM($G$12:G89)</f>
+        <v>1327150</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>8</v>
+      </c>
+      <c r="B90">
+        <v>44</v>
+      </c>
+      <c r="D90">
+        <v>9</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="F90">
+        <f>SUM($E$12:E90)</f>
+        <v>676</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="2"/>
+        <v>45760</v>
+      </c>
+      <c r="H90">
+        <f>SUM($G$12:G90)</f>
+        <v>1372910</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C91" s="49"/>
+      <c r="D91" s="50"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>9</v>
+      </c>
+      <c r="B92">
+        <v>45</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="F92">
+        <f>SUM($E$12:E92)</f>
+        <v>705</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="2"/>
+        <v>52470</v>
+      </c>
+      <c r="H92">
+        <f>SUM($G$12:G92)</f>
+        <v>1425380</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A93">
+        <v>9</v>
+      </c>
+      <c r="B93">
+        <v>46</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="F93">
+        <f>SUM($E$12:E93)</f>
+        <v>735</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="2"/>
+        <v>53460</v>
+      </c>
+      <c r="H93">
+        <f>SUM($G$12:G93)</f>
+        <v>1478840</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>9</v>
+      </c>
+      <c r="B94">
+        <v>46</v>
+      </c>
+      <c r="D94">
+        <v>3</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="F94">
+        <f>SUM($E$12:E94)</f>
+        <v>765</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="2"/>
+        <v>53460</v>
+      </c>
+      <c r="H94">
+        <f>SUM($G$12:G94)</f>
+        <v>1532300</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A95">
+        <v>9</v>
+      </c>
+      <c r="B95">
+        <v>47</v>
+      </c>
+      <c r="D95">
+        <v>4</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="F95">
+        <f>SUM($E$12:E95)</f>
+        <v>796</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="2"/>
+        <v>54450</v>
+      </c>
+      <c r="H95">
+        <f>SUM($G$12:G95)</f>
+        <v>1586750</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>9</v>
+      </c>
+      <c r="B96">
+        <v>47</v>
+      </c>
+      <c r="D96">
+        <v>5</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="F96">
+        <f>SUM($E$12:E96)</f>
+        <v>827</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="2"/>
+        <v>54450</v>
+      </c>
+      <c r="H96">
+        <f>SUM($G$12:G96)</f>
+        <v>1641200</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A97">
+        <v>9</v>
+      </c>
+      <c r="B97">
+        <v>48</v>
+      </c>
+      <c r="D97">
+        <v>6</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="F97">
+        <f>SUM($E$12:E97)</f>
+        <v>859</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="2"/>
+        <v>55440</v>
+      </c>
+      <c r="H97">
+        <f>SUM($G$12:G97)</f>
+        <v>1696640</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>9</v>
+      </c>
+      <c r="B98">
+        <v>48</v>
+      </c>
+      <c r="D98">
+        <v>7</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="F98">
+        <f>SUM($E$12:E98)</f>
+        <v>891</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="2"/>
+        <v>55440</v>
+      </c>
+      <c r="H98">
+        <f>SUM($G$12:G98)</f>
+        <v>1752080</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A99">
+        <v>9</v>
+      </c>
+      <c r="B99">
+        <v>49</v>
+      </c>
+      <c r="D99">
+        <v>8</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="F99">
+        <f>SUM($E$12:E99)</f>
+        <v>924</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="2"/>
+        <v>56430</v>
+      </c>
+      <c r="H99">
+        <f>SUM($G$12:G99)</f>
+        <v>1808510</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>9</v>
+      </c>
+      <c r="B100">
+        <v>49</v>
+      </c>
+      <c r="D100">
+        <v>9</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="F100">
+        <f>SUM($E$12:E100)</f>
+        <v>957</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="2"/>
+        <v>56430</v>
+      </c>
+      <c r="H100">
+        <f>SUM($G$12:G100)</f>
+        <v>1864940</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B71:D71"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.875" customWidth="1"/>
+    <col min="7" max="7" width="10.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>96</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2">
+        <v>20</v>
+      </c>
+      <c r="L2" s="51">
+        <v>0.7</v>
+      </c>
+      <c r="N2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>216</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>1000</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3">
+        <v>25</v>
+      </c>
+      <c r="L3" s="51">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>480</v>
+      </c>
+      <c r="D4">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" t="s">
+        <v>71</v>
+      </c>
+      <c r="L4" s="51">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <f>'[1]疲劳值，副本开启时间'!$F67</f>
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <f>VLOOKUP($F$2,$B$2:$D$4,3,1)</f>
+        <v>16</v>
+      </c>
+      <c r="I7">
+        <f>ROUND((VLOOKUP($F$2,$B$2:$C$4,2,1)/12*F7)+H7*F7,0)</f>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B8">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <f>'[1]疲劳值，副本开启时间'!$F68</f>
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ref="H8:H37" si="0">VLOOKUP($F$2,$B$2:$D$4,3,1)</f>
+        <v>16</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ref="I8:I37" si="1">ROUND((VLOOKUP($F$2,$B$2:$C$4,2,1)/12*F8)+H8*F8,0)</f>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B9">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <f>'[1]疲劳值，副本开启时间'!$F69</f>
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>3.2</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B10">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <f>'[1]疲劳值，副本开启时间'!$F70</f>
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>3.2</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B11">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <f>'[1]疲劳值，副本开启时间'!$F71</f>
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>3.2</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B12">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <f>'[1]疲劳值，副本开启时间'!$F72</f>
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12" s="52">
+        <f>IF((VLOOKUP($F$2,$B$2:$C$4,2,1)/12)/D12&lt;1,(VLOOKUP($F$2,$B$2:$C$4,2,1)/12)/D12,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="52">
+        <v>3.7</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B13">
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <f>'[1]疲劳值，副本开启时间'!$F73</f>
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>9</v>
+      </c>
+      <c r="E13" s="52">
+        <f t="shared" ref="E13:E37" si="2">IF((VLOOKUP($F$2,$B$2:$C$4,2,1)/12)/D13&lt;1,(VLOOKUP($F$2,$B$2:$C$4,2,1)/12)/D13,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="52">
+        <v>3.7</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B14">
+        <v>27</v>
+      </c>
+      <c r="C14">
+        <f>'[1]疲劳值，副本开启时间'!$F74</f>
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="E14" s="52">
+        <f>IF((VLOOKUP($F$2,$B$2:$C$4,2,1)/12)/D14&lt;1,(VLOOKUP($F$2,$B$2:$C$4,2,1)/12)/D14,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F14" s="52">
+        <v>3.7</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B15">
+        <v>28</v>
+      </c>
+      <c r="C15">
+        <f>'[1]疲劳值，副本开启时间'!$F75</f>
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="E15" s="52">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F15" s="52">
+        <v>3.7</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B16">
+        <v>29</v>
+      </c>
+      <c r="C16">
+        <f>'[1]疲劳值，副本开启时间'!$F76</f>
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>9</v>
+      </c>
+      <c r="E16" s="52">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F16" s="52">
+        <v>3.7</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B17">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <f>'[1]疲劳值，副本开启时间'!$F77</f>
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>9</v>
+      </c>
+      <c r="E17" s="52">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F17" s="52">
+        <v>3.7</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B18">
+        <v>31</v>
+      </c>
+      <c r="C18">
+        <f>'[1]疲劳值，副本开启时间'!$F78</f>
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>12</v>
+      </c>
+      <c r="E18" s="52">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F18" s="52">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B19">
+        <v>32</v>
+      </c>
+      <c r="C19">
+        <f>'[1]疲劳值，副本开启时间'!$F79</f>
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>12</v>
+      </c>
+      <c r="E19" s="52">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F19" s="52">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B20">
+        <v>33</v>
+      </c>
+      <c r="C20">
+        <f>'[1]疲劳值，副本开启时间'!$F80</f>
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>12</v>
+      </c>
+      <c r="E20" s="52">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F20" s="52">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B21">
+        <v>34</v>
+      </c>
+      <c r="C21">
+        <f>'[1]疲劳值，副本开启时间'!$F81</f>
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>12</v>
+      </c>
+      <c r="E21" s="52">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F21" s="52">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B22">
+        <v>35</v>
+      </c>
+      <c r="C22">
+        <f>'[1]疲劳值，副本开启时间'!$F82</f>
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <v>12</v>
+      </c>
+      <c r="E22" s="52">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F22" s="52">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B23">
+        <v>36</v>
+      </c>
+      <c r="C23">
+        <f>'[1]疲劳值，副本开启时间'!$F83</f>
+        <v>13</v>
+      </c>
+      <c r="D23">
+        <v>12</v>
+      </c>
+      <c r="E23" s="52">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F23" s="52">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B24">
+        <v>37</v>
+      </c>
+      <c r="C24">
+        <f>'[1]疲劳值，副本开启时间'!$F84</f>
+        <v>14</v>
+      </c>
+      <c r="D24">
+        <v>12</v>
+      </c>
+      <c r="E24" s="52">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F24" s="52">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B25">
+        <v>38</v>
+      </c>
+      <c r="C25">
+        <f>'[1]疲劳值，副本开启时间'!$F85</f>
+        <v>17</v>
+      </c>
+      <c r="D25">
+        <v>18</v>
+      </c>
+      <c r="E25" s="52">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F25" s="52">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B26">
+        <v>39</v>
+      </c>
+      <c r="C26">
+        <f>'[1]疲劳值，副本开启时间'!$F86</f>
+        <v>19</v>
+      </c>
+      <c r="D26">
+        <v>18</v>
+      </c>
+      <c r="E26" s="52">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F26" s="52">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B27">
+        <v>40</v>
+      </c>
+      <c r="C27">
+        <f>'[1]疲劳值，副本开启时间'!$F87</f>
+        <v>22</v>
+      </c>
+      <c r="D27">
+        <v>18</v>
+      </c>
+      <c r="E27" s="52">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F27" s="52">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B28">
+        <v>41</v>
+      </c>
+      <c r="C28">
+        <f>'[1]疲劳值，副本开启时间'!$F88</f>
+        <v>25</v>
+      </c>
+      <c r="D28">
+        <v>21</v>
+      </c>
+      <c r="E28" s="52">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F28" s="52">
+        <v>5.4</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B29">
+        <v>42</v>
+      </c>
+      <c r="C29">
+        <f>'[1]疲劳值，副本开启时间'!$F89</f>
+        <v>28</v>
+      </c>
+      <c r="D29">
+        <v>21</v>
+      </c>
+      <c r="E29" s="52">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F29" s="52">
+        <v>5.4</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B30">
+        <v>43</v>
+      </c>
+      <c r="C30">
+        <f>'[1]疲劳值，副本开启时间'!$F90</f>
+        <v>31</v>
+      </c>
+      <c r="D30">
+        <v>21</v>
+      </c>
+      <c r="E30" s="52">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F30" s="52">
+        <v>5.4</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B31">
+        <v>44</v>
+      </c>
+      <c r="C31">
+        <f>'[1]疲劳值，副本开启时间'!$F91</f>
+        <v>35</v>
+      </c>
+      <c r="D31">
+        <v>24</v>
+      </c>
+      <c r="E31" s="52">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F31" s="52">
+        <v>6.6</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B32">
+        <v>45</v>
+      </c>
+      <c r="C32">
+        <f>'[1]疲劳值，副本开启时间'!$F92</f>
+        <v>39</v>
+      </c>
+      <c r="D32">
+        <v>24</v>
+      </c>
+      <c r="E32" s="52">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F32" s="52">
+        <v>6.6</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B33">
+        <v>46</v>
+      </c>
+      <c r="C33">
+        <f>'[1]疲劳值，副本开启时间'!$F93</f>
+        <v>43</v>
+      </c>
+      <c r="D33">
+        <v>24</v>
+      </c>
+      <c r="E33" s="52">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F33" s="52">
+        <v>6.6</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B34">
+        <v>47</v>
+      </c>
+      <c r="C34">
+        <f>'[1]疲劳值，副本开启时间'!$F94</f>
+        <v>47</v>
+      </c>
+      <c r="D34">
+        <v>24</v>
+      </c>
+      <c r="E34" s="52">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F34" s="52">
+        <v>6.6</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B35">
+        <v>48</v>
+      </c>
+      <c r="C35">
+        <f>'[1]疲劳值，副本开启时间'!$F95</f>
+        <v>52</v>
+      </c>
+      <c r="D35">
+        <v>24</v>
+      </c>
+      <c r="E35" s="52">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F35" s="52">
+        <v>6.6</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B36">
+        <v>49</v>
+      </c>
+      <c r="C36">
+        <f>'[1]疲劳值，副本开启时间'!$F96</f>
+        <v>58</v>
+      </c>
+      <c r="D36">
+        <v>24</v>
+      </c>
+      <c r="E36" s="52">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F36" s="52">
+        <v>6.6</v>
+      </c>
+      <c r="G36">
+        <v>3</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B37">
+        <v>50</v>
+      </c>
+      <c r="C37">
+        <f>'[1]疲劳值，副本开启时间'!$F97</f>
+        <v>65</v>
+      </c>
+      <c r="D37">
+        <v>24</v>
+      </c>
+      <c r="E37" s="52">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F37" s="52">
+        <v>6.6</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>370</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -10747,15 +14515,34 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/gd/数值规划/装备强化强化石消耗.xlsx
+++ b/gd/数值规划/装备强化强化石消耗.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="28980" yWindow="345" windowWidth="25710" windowHeight="12165" activeTab="3"/>
+    <workbookView xWindow="28410" yWindow="-15" windowWidth="28680" windowHeight="12615" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="文档说明" sheetId="1" r:id="rId1"/>
@@ -12,10 +12,10 @@
     <sheet name="强化石消耗(宠物强化)" sheetId="7" r:id="rId3"/>
     <sheet name="强化产出投放" sheetId="2" r:id="rId4"/>
     <sheet name="升阶消耗" sheetId="3" r:id="rId5"/>
-    <sheet name="升阶产出" sheetId="5" r:id="rId6"/>
-    <sheet name="宠物强化" sheetId="6" r:id="rId7"/>
+    <sheet name="宠物灵魂石合成" sheetId="8" r:id="rId6"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="145621"/>
@@ -23,41 +23,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="159">
   <si>
     <t>高级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>紫</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2中级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1中级</t>
   </si>
   <si>
     <t>1中级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>蓝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>中级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>绿</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>白</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>等级9</t>
@@ -85,6 +85,470 @@
   </si>
   <si>
     <t>等级1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出期望</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分解产出</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>品质</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化需要总数(换算为最低强化石)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化消耗数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化次数期望</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功率</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前需要的强化数量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化等级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>阈值取最大</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>换算为最低</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>几合一</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成数量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次失败额外增加百分比</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>可修改位置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档可修改位置通过黄色荧光标示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐藏部分强化具体模拟情况</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>,若涂黄了表头标示一列都可以修改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则说明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化石共分为,初级,中级,高级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前实现向上合成数量统一</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备进阶后才能继续向上合成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个进阶阶段强化等级为9级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能开放</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间梯度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物等级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物等级时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化等级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进阶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料数量级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗金钱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料递增系数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进阶提升数量级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金钱递增系数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金钱进阶系数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进阶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础系数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗材料数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料总数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>总值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>总金钱消耗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大冒险</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难副本</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间梯度(天)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主线任务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到送80(月)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>精英副本开放数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力限制系数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>均值效率系数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期可进行次数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>可投入体力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>非R</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置系数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>总产出率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大冒险小怪产出</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险效率系数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险时间系数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8小时</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12小时</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>24小时</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>效率隐性提升</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进阶开放等级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>后每5级开放等级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>升阶道具</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物阶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿+1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝+1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝+2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫+1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫+2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫+3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>升阶产出</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化成长属性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化属性一栏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金钱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>精英副本</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日周期投放</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级段</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>升阶材料产出</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物灵魂石产出</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金钱调平后</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险效率基数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大冒险系数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大冒险系数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阈值区间系数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大冒险系数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险产出效率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计基本产出</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>精英副本时间成本</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12点体力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗金钱取当前等级强化半身的金额取整得到</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金钱消耗系数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-4(难)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-8(难)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-4(难)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始T</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始D</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始S</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>次日</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -92,271 +556,124 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>备注</t>
+    <t>4碎片</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>分解产出</t>
+    <t>4碎片</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>品质</t>
+    <t>产出期望</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>强化需要总数(换算为最低强化石)</t>
+    <t>3碎片</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>强化消耗数</t>
+    <t>灵魂石基数</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>强化次数期望</t>
+    <t>初始1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>成功率</t>
+    <t>二等</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>当前需要的强化数量</t>
+    <t>三等</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>强化等级</t>
+    <t>产出平均碎片数</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>等级</t>
+    <t>2星</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>阈值取最大</t>
+    <t>产出期望</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>换算为最低</t>
+    <t>通过进化提高一个宠物的星星</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>几合一</t>
+    <t>3-8,4-4(难)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>合成数量</t>
+    <t>2-8(难)3-4</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>每次失败额外增加百分比</t>
+    <t>4-8,5-4(难)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>橙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>5-8,6-4,6-8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>可修改位置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>6-8三星需要48级能力挑战</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>文档可修改位置通过黄色荧光标示</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>大部分抽奖产出</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>隐藏部分强化具体模拟情况</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>精英副本产出</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>,若涂黄了表头标示一列都可以修改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>1星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>操作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>3,2.5碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>规则说明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>成品时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>强化石共分为,初级,中级,高级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>天</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>目前实现向上合成数量统一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备进阶后才能继续向上合成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每个进阶阶段强化等级为9级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>产出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能开放</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间梯度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物等级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物等级时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>强化等级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>进阶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料数量级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗金钱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料递增系数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>进阶提升数量级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金钱递增系数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金钱进阶系数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>进阶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础系数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗材料数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料总数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总金钱消耗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大冒险</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>困难副本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间梯度(天)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主线任务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+10+20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>签到送80(月)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>精英副本开放数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>体力限制系数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>均值效率系数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>周期可进行次数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可投入体力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>非R</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>重置系数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总产出率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>但是暂无规则</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -389,8 +706,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -424,6 +748,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,149 +966,157 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -790,8 +1128,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -811,13 +1150,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>685287</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>81822</xdr:rowOff>
@@ -850,50 +1189,61 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>323480</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>56487</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="104775" y="66675"/>
-          <a:ext cx="2961905" cy="5304762"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="文档说明"/>
+      <sheetName val="职业调整模型"/>
+      <sheetName val="属性拆分生成"/>
+      <sheetName val="战斗验证"/>
+      <sheetName val="镶嵌宝石"/>
+      <sheetName val="属性能力生成表"/>
+      <sheetName val="宠物升阶生成表"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="3">
+          <cell r="F3"/>
+        </row>
+        <row r="4">
+          <cell r="F4">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="H20">
+            <v>3013</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="H21">
+            <v>441</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="H22">
+            <v>441</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="H23">
+            <v>662</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1437,7 +1787,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1446,8 +1796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR60"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1464,9 +1814,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
       <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,9 +1825,9 @@
       <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
       <c r="E2" s="19">
         <v>0.08</v>
       </c>
@@ -1495,18 +1845,18 @@
       </c>
     </row>
     <row r="3" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
@@ -1516,9 +1866,9 @@
       </c>
     </row>
     <row r="5" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
@@ -1561,6 +1911,9 @@
       <c r="L7" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="M7" s="59" t="s">
+        <v>126</v>
+      </c>
       <c r="R7" s="1" t="s">
         <v>17</v>
       </c>
@@ -1698,7 +2051,7 @@
       </c>
     </row>
     <row r="8" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="47" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="15">
@@ -1922,7 +2275,7 @@
       </c>
     </row>
     <row r="9" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A9" s="40"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="13">
         <v>2</v>
       </c>
@@ -2152,7 +2505,7 @@
       </c>
     </row>
     <row r="10" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A10" s="40"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="13">
         <v>3</v>
       </c>
@@ -2382,7 +2735,7 @@
       </c>
     </row>
     <row r="11" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A11" s="40"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="13">
         <v>4</v>
       </c>
@@ -2612,7 +2965,7 @@
       </c>
     </row>
     <row r="12" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A12" s="40"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="13">
         <v>5</v>
       </c>
@@ -2842,7 +3195,7 @@
       </c>
     </row>
     <row r="13" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A13" s="40"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="13">
         <v>6</v>
       </c>
@@ -3072,7 +3425,7 @@
       </c>
     </row>
     <row r="14" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A14" s="40"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="13">
         <v>7</v>
       </c>
@@ -3302,7 +3655,7 @@
       </c>
     </row>
     <row r="15" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A15" s="40"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="13">
         <v>8</v>
       </c>
@@ -3532,7 +3885,7 @@
       </c>
     </row>
     <row r="16" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A16" s="40"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="13">
         <v>9</v>
       </c>
@@ -3762,7 +4115,7 @@
       </c>
     </row>
     <row r="17" spans="1:70" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="41"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="11">
         <v>10</v>
       </c>
@@ -3973,7 +4326,7 @@
       </c>
     </row>
     <row r="18" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="44" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="9">
@@ -4206,7 +4559,7 @@
       </c>
     </row>
     <row r="19" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A19" s="37"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="3">
         <v>12</v>
       </c>
@@ -4437,7 +4790,7 @@
       </c>
     </row>
     <row r="20" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A20" s="37"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="3">
         <v>13</v>
       </c>
@@ -4668,7 +5021,7 @@
       </c>
     </row>
     <row r="21" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A21" s="37"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="3">
         <v>14</v>
       </c>
@@ -4899,7 +5252,7 @@
       </c>
     </row>
     <row r="22" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A22" s="37"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="3">
         <v>15</v>
       </c>
@@ -5133,7 +5486,7 @@
       </c>
     </row>
     <row r="23" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A23" s="37"/>
+      <c r="A23" s="45"/>
       <c r="B23" s="3">
         <v>16</v>
       </c>
@@ -5365,7 +5718,7 @@
       </c>
     </row>
     <row r="24" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A24" s="37"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="3">
         <v>17</v>
       </c>
@@ -5597,7 +5950,7 @@
       </c>
     </row>
     <row r="25" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A25" s="37"/>
+      <c r="A25" s="45"/>
       <c r="B25" s="3">
         <v>18</v>
       </c>
@@ -5829,7 +6182,7 @@
       </c>
     </row>
     <row r="26" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A26" s="37"/>
+      <c r="A26" s="45"/>
       <c r="B26" s="3">
         <v>19</v>
       </c>
@@ -6061,7 +6414,7 @@
       </c>
     </row>
     <row r="27" spans="1:70" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="38"/>
+      <c r="A27" s="46"/>
       <c r="B27" s="6">
         <v>20</v>
       </c>
@@ -6274,7 +6627,7 @@
       </c>
     </row>
     <row r="28" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="50" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="9">
@@ -6510,7 +6863,7 @@
       </c>
     </row>
     <row r="29" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A29" s="43"/>
+      <c r="A29" s="51"/>
       <c r="B29" s="3">
         <v>22</v>
       </c>
@@ -6744,7 +7097,7 @@
       </c>
     </row>
     <row r="30" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A30" s="43"/>
+      <c r="A30" s="51"/>
       <c r="B30" s="3">
         <v>23</v>
       </c>
@@ -6978,7 +7331,7 @@
       </c>
     </row>
     <row r="31" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A31" s="43"/>
+      <c r="A31" s="51"/>
       <c r="B31" s="3">
         <v>24</v>
       </c>
@@ -7212,7 +7565,7 @@
       </c>
     </row>
     <row r="32" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A32" s="43"/>
+      <c r="A32" s="51"/>
       <c r="B32" s="3">
         <v>25</v>
       </c>
@@ -7444,7 +7797,7 @@
       </c>
     </row>
     <row r="33" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A33" s="43"/>
+      <c r="A33" s="51"/>
       <c r="B33" s="3">
         <v>26</v>
       </c>
@@ -7676,7 +8029,7 @@
       </c>
     </row>
     <row r="34" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A34" s="43"/>
+      <c r="A34" s="51"/>
       <c r="B34" s="3">
         <v>27</v>
       </c>
@@ -7908,7 +8261,7 @@
       </c>
     </row>
     <row r="35" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A35" s="43"/>
+      <c r="A35" s="51"/>
       <c r="B35" s="3">
         <v>28</v>
       </c>
@@ -8140,7 +8493,7 @@
       </c>
     </row>
     <row r="36" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A36" s="43"/>
+      <c r="A36" s="51"/>
       <c r="B36" s="3">
         <v>29</v>
       </c>
@@ -8372,7 +8725,7 @@
       </c>
     </row>
     <row r="37" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A37" s="43"/>
+      <c r="A37" s="51"/>
       <c r="B37" s="3">
         <v>30</v>
       </c>
@@ -8602,7 +8955,7 @@
       </c>
     </row>
     <row r="38" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A38" s="43"/>
+      <c r="A38" s="51"/>
       <c r="B38" s="3">
         <v>31</v>
       </c>
@@ -8832,7 +9185,7 @@
       </c>
     </row>
     <row r="39" spans="1:70" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="44"/>
+      <c r="A39" s="52"/>
       <c r="B39" s="6">
         <v>32</v>
       </c>
@@ -9062,7 +9415,7 @@
       </c>
     </row>
     <row r="40" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A40" s="45" t="s">
+      <c r="A40" s="53" t="s">
         <v>1</v>
       </c>
       <c r="B40" s="9">
@@ -9296,7 +9649,7 @@
       </c>
     </row>
     <row r="41" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A41" s="46"/>
+      <c r="A41" s="54"/>
       <c r="B41" s="3">
         <v>34</v>
       </c>
@@ -9528,7 +9881,7 @@
       </c>
     </row>
     <row r="42" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A42" s="46"/>
+      <c r="A42" s="54"/>
       <c r="B42" s="3">
         <v>35</v>
       </c>
@@ -9762,7 +10115,7 @@
       </c>
     </row>
     <row r="43" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A43" s="46"/>
+      <c r="A43" s="54"/>
       <c r="B43" s="3">
         <v>36</v>
       </c>
@@ -9996,7 +10349,7 @@
       </c>
     </row>
     <row r="44" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A44" s="46"/>
+      <c r="A44" s="54"/>
       <c r="B44" s="3">
         <v>37</v>
       </c>
@@ -10230,7 +10583,7 @@
       </c>
     </row>
     <row r="45" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A45" s="46"/>
+      <c r="A45" s="54"/>
       <c r="B45" s="3">
         <v>38</v>
       </c>
@@ -10462,7 +10815,7 @@
       </c>
     </row>
     <row r="46" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A46" s="46"/>
+      <c r="A46" s="54"/>
       <c r="B46" s="3">
         <v>39</v>
       </c>
@@ -10696,7 +11049,7 @@
       </c>
     </row>
     <row r="47" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A47" s="46"/>
+      <c r="A47" s="54"/>
       <c r="B47" s="3">
         <v>40</v>
       </c>
@@ -10735,7 +11088,7 @@
       <c r="P47" s="2"/>
     </row>
     <row r="48" spans="1:70" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="47"/>
+      <c r="A48" s="55"/>
       <c r="B48" s="6">
         <v>41</v>
       </c>
@@ -10774,7 +11127,7 @@
       <c r="P48" s="2"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A49" s="33" t="s">
+      <c r="A49" s="41" t="s">
         <v>34</v>
       </c>
       <c r="B49" s="4">
@@ -10817,7 +11170,7 @@
       <c r="P49" s="2"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A50" s="34"/>
+      <c r="A50" s="42"/>
       <c r="B50" s="3">
         <v>43</v>
       </c>
@@ -10856,7 +11209,7 @@
       <c r="P50" s="2"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A51" s="34"/>
+      <c r="A51" s="42"/>
       <c r="B51" s="3">
         <v>44</v>
       </c>
@@ -10895,7 +11248,7 @@
       <c r="P51" s="2"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A52" s="34"/>
+      <c r="A52" s="42"/>
       <c r="B52" s="3">
         <v>45</v>
       </c>
@@ -10934,7 +11287,7 @@
       <c r="P52" s="2"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A53" s="34"/>
+      <c r="A53" s="42"/>
       <c r="B53" s="3">
         <v>46</v>
       </c>
@@ -10973,7 +11326,7 @@
       <c r="P53" s="2"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A54" s="34"/>
+      <c r="A54" s="42"/>
       <c r="B54" s="3">
         <v>47</v>
       </c>
@@ -11010,7 +11363,7 @@
       <c r="N54" s="2"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A55" s="34"/>
+      <c r="A55" s="42"/>
       <c r="B55" s="3">
         <v>48</v>
       </c>
@@ -11047,7 +11400,7 @@
       <c r="N55" s="2"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A56" s="34"/>
+      <c r="A56" s="42"/>
       <c r="B56" s="3">
         <v>49</v>
       </c>
@@ -11084,7 +11437,7 @@
       <c r="N56" s="2"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A57" s="34"/>
+      <c r="A57" s="42"/>
       <c r="B57" s="3">
         <v>50</v>
       </c>
@@ -11174,7 +11527,7 @@
     <mergeCell ref="A28:A39"/>
     <mergeCell ref="A40:A48"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -11182,10 +11535,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:N100"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11194,14 +11547,15 @@
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>54</v>
       </c>
@@ -11212,7 +11566,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>56</v>
       </c>
@@ -11225,13 +11579,29 @@
       <c r="H4">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="K4">
+        <f>ROUND(K$11*[1]属性拆分生成!$F4,0)</f>
+        <v>151</v>
+      </c>
+      <c r="L4">
+        <f>ROUND(L$11*[1]属性拆分生成!$F$4,0)</f>
+        <v>22</v>
+      </c>
+      <c r="M4">
+        <f>ROUND(M$11*[1]属性拆分生成!$F$4,0)</f>
+        <v>22</v>
+      </c>
+      <c r="N4">
+        <f>ROUND(N$11*[1]属性拆分生成!$F$4,0)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="E5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>57</v>
       </c>
@@ -11249,7 +11619,28 @@
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8">
+        <f>(K$4)/8*($D$12)+$K$12</f>
+        <v>18.875</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ref="L8:N8" si="0">(L$4)/8*($D$12)+$K$12</f>
+        <v>2.75</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>2.75</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>4.125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>50</v>
       </c>
@@ -11271,16 +11662,35 @@
       <c r="H10" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="K11">
+        <f>[1]属性拆分生成!$H20</f>
+        <v>3013</v>
+      </c>
+      <c r="L11">
+        <f>[1]属性拆分生成!$H21</f>
+        <v>441</v>
+      </c>
+      <c r="M11">
+        <f>[1]属性拆分生成!$H22</f>
+        <v>441</v>
+      </c>
+      <c r="N11">
+        <f>[1]属性拆分生成!$H23</f>
+        <v>662</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>1</v>
       </c>
@@ -11302,8 +11712,27 @@
         <f>SUM($G$12:G12)</f>
         <v>1100</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <f>ROUND(K$11*[1]属性拆分生成!$F3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f>ROUND(L$11*[1]属性拆分生成!$F3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f>ROUND(M$11*[1]属性拆分生成!$F3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f>ROUND(N$11*[1]属性拆分生成!$F3,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>1</v>
       </c>
@@ -11318,15 +11747,34 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <f t="shared" ref="G13:G76" si="0">ROUND(($H$2*B13+$H$6)*$H$4*A13,0)</f>
+        <f t="shared" ref="G13:G76" si="1">ROUND(($H$2*B13+$H$6)*$H$4*A13,0)</f>
         <v>1210</v>
       </c>
       <c r="H13">
         <f>SUM($G$12:G13)</f>
         <v>2310</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <f>ROUND(K$8*$J12,0)</f>
+        <v>19</v>
+      </c>
+      <c r="L13">
+        <f>ROUND(L$8*$J12,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <f t="shared" ref="M13:N13" si="2">ROUND(M$8*$J12,0)</f>
+        <v>3</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>1</v>
       </c>
@@ -11341,15 +11789,34 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1320</v>
       </c>
       <c r="H14">
         <f>SUM($G$12:G14)</f>
         <v>3630</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="K14">
+        <f t="shared" ref="K14:K28" si="3">ROUND(K$8*$J13,0)</f>
+        <v>38</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ref="L14:L28" si="4">ROUND(L$8*$J13,0)</f>
+        <v>6</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ref="M14:M28" si="5">ROUND(M$8*$J13,0)</f>
+        <v>6</v>
+      </c>
+      <c r="N14">
+        <f t="shared" ref="N14:N28" si="6">ROUND(N$8*$J13,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>1</v>
       </c>
@@ -11364,15 +11831,34 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1430</v>
       </c>
       <c r="H15">
         <f>SUM($G$12:G15)</f>
         <v>5060</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>1</v>
       </c>
@@ -11387,15 +11873,34 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1540</v>
       </c>
       <c r="H16">
         <f>SUM($G$12:G16)</f>
         <v>6600</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>1</v>
       </c>
@@ -11410,15 +11915,34 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1650</v>
       </c>
       <c r="H17">
         <f>SUM($G$12:G17)</f>
         <v>8250</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J17">
+        <v>6</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>1</v>
       </c>
@@ -11433,15 +11957,34 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1760</v>
       </c>
       <c r="H18">
         <f>SUM($G$12:G18)</f>
         <v>10010</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J18">
+        <v>7</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="3"/>
+        <v>113</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>1</v>
       </c>
@@ -11456,15 +11999,34 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1870</v>
       </c>
       <c r="H19">
         <f>SUM($G$12:G19)</f>
         <v>11880</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="J19">
+        <v>8</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="3"/>
+        <v>132</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -11479,22 +12041,60 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1980</v>
       </c>
       <c r="H20">
         <f>SUM($G$12:G20)</f>
         <v>13860</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="48" t="s">
+      <c r="J20">
+        <v>9</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="3"/>
+        <v>151</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="6"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="50"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C21" s="57"/>
+      <c r="D21" s="58"/>
+      <c r="J21">
+        <v>10</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="3"/>
+        <v>170</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="6"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>2</v>
       </c>
@@ -11509,15 +12109,34 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3960</v>
       </c>
       <c r="H22">
         <f>SUM($G$12:G22)</f>
         <v>17820</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J22">
+        <v>11</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="3"/>
+        <v>189</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="6"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>2</v>
       </c>
@@ -11532,15 +12151,34 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4180</v>
       </c>
       <c r="H23">
         <f>SUM($G$12:G23)</f>
         <v>22000</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J23">
+        <v>12</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="3"/>
+        <v>208</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>2</v>
       </c>
@@ -11555,15 +12193,34 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4180</v>
       </c>
       <c r="H24">
         <f>SUM($G$12:G24)</f>
         <v>26180</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J24">
+        <v>13</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="3"/>
+        <v>227</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>2</v>
       </c>
@@ -11578,15 +12235,34 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4400</v>
       </c>
       <c r="H25">
         <f>SUM($G$12:G25)</f>
         <v>30580</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J25">
+        <v>14</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="3"/>
+        <v>245</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="6"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>2</v>
       </c>
@@ -11601,15 +12277,34 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4400</v>
       </c>
       <c r="H26">
         <f>SUM($G$12:G26)</f>
         <v>34980</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J26">
+        <v>15</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="3"/>
+        <v>264</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="6"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>2</v>
       </c>
@@ -11624,15 +12319,34 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4620</v>
       </c>
       <c r="H27">
         <f>SUM($G$12:G27)</f>
         <v>39600</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J27">
+        <v>16</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="3"/>
+        <v>283</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="5"/>
+        <v>41</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="6"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>2</v>
       </c>
@@ -11647,15 +12361,34 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4620</v>
       </c>
       <c r="H28">
         <f>SUM($G$12:G28)</f>
         <v>44220</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J28">
+        <v>17</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="3"/>
+        <v>302</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="5"/>
+        <v>44</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>2</v>
       </c>
@@ -11670,15 +12403,34 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4840</v>
       </c>
       <c r="H29">
         <f>SUM($G$12:G29)</f>
         <v>49060</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="J29">
+        <v>18</v>
+      </c>
+      <c r="K29">
+        <f t="shared" ref="K29:K92" si="7">ROUND(K$8*$J28,0)</f>
+        <v>321</v>
+      </c>
+      <c r="L29">
+        <f t="shared" ref="L29:L92" si="8">ROUND(L$8*$J28,0)</f>
+        <v>47</v>
+      </c>
+      <c r="M29">
+        <f t="shared" ref="M29:M92" si="9">ROUND(M$8*$J28,0)</f>
+        <v>47</v>
+      </c>
+      <c r="N29">
+        <f t="shared" ref="N29:N92" si="10">ROUND(N$8*$J28,0)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2</v>
       </c>
@@ -11693,22 +12445,60 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4840</v>
       </c>
       <c r="H30">
         <f>SUM($G$12:G30)</f>
         <v>53900</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="48" t="s">
+      <c r="J30">
+        <v>19</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="7"/>
+        <v>340</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="10"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="49"/>
-      <c r="D31" s="50"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C31" s="57"/>
+      <c r="D31" s="58"/>
+      <c r="J31">
+        <v>20</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="7"/>
+        <v>359</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="8"/>
+        <v>52</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="9"/>
+        <v>52</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="10"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>3</v>
       </c>
@@ -11723,15 +12513,34 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7590</v>
       </c>
       <c r="H32">
         <f>SUM($G$12:G32)</f>
         <v>61490</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J32">
+        <v>21</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="7"/>
+        <v>378</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="8"/>
+        <v>55</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="9"/>
+        <v>55</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="10"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>3</v>
       </c>
@@ -11746,15 +12555,34 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7920</v>
       </c>
       <c r="H33">
         <f>SUM($G$12:G33)</f>
         <v>69410</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J33">
+        <v>22</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="7"/>
+        <v>396</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="8"/>
+        <v>58</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="9"/>
+        <v>58</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="10"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>3</v>
       </c>
@@ -11769,15 +12597,34 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7920</v>
       </c>
       <c r="H34">
         <f>SUM($G$12:G34)</f>
         <v>77330</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J34">
+        <v>23</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="7"/>
+        <v>415</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="8"/>
+        <v>61</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="9"/>
+        <v>61</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="10"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>3</v>
       </c>
@@ -11792,15 +12639,34 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8250</v>
       </c>
       <c r="H35">
         <f>SUM($G$12:G35)</f>
         <v>85580</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J35">
+        <v>24</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="7"/>
+        <v>434</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="8"/>
+        <v>63</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="9"/>
+        <v>63</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="10"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>3</v>
       </c>
@@ -11815,15 +12681,34 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8250</v>
       </c>
       <c r="H36">
         <f>SUM($G$12:G36)</f>
         <v>93830</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J36">
+        <v>25</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="7"/>
+        <v>453</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="8"/>
+        <v>66</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="9"/>
+        <v>66</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="10"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>3</v>
       </c>
@@ -11838,15 +12723,34 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8580</v>
       </c>
       <c r="H37">
         <f>SUM($G$12:G37)</f>
         <v>102410</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J37">
+        <v>26</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="7"/>
+        <v>472</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="8"/>
+        <v>69</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="9"/>
+        <v>69</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="10"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>3</v>
       </c>
@@ -11861,15 +12765,34 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8580</v>
       </c>
       <c r="H38">
         <f>SUM($G$12:G38)</f>
         <v>110990</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J38">
+        <v>27</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="7"/>
+        <v>491</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="8"/>
+        <v>72</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="9"/>
+        <v>72</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="10"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>3</v>
       </c>
@@ -11884,15 +12807,34 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8910</v>
       </c>
       <c r="H39">
         <f>SUM($G$12:G39)</f>
         <v>119900</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="J39">
+        <v>28</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="7"/>
+        <v>510</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="8"/>
+        <v>74</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="9"/>
+        <v>74</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="10"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>3</v>
       </c>
@@ -11907,22 +12849,60 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8910</v>
       </c>
       <c r="H40">
         <f>SUM($G$12:G40)</f>
         <v>128810</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="48" t="s">
+      <c r="J40">
+        <v>29</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="7"/>
+        <v>529</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="8"/>
+        <v>77</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="9"/>
+        <v>77</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="10"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="49"/>
-      <c r="D41" s="50"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C41" s="57"/>
+      <c r="D41" s="58"/>
+      <c r="J41">
+        <v>30</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="7"/>
+        <v>547</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="8"/>
+        <v>80</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="10"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>4</v>
       </c>
@@ -11941,15 +12921,34 @@
         <v>2</v>
       </c>
       <c r="G42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12320</v>
       </c>
       <c r="H42">
         <f>SUM($G$12:G42)</f>
         <v>141130</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J42">
+        <v>31</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="7"/>
+        <v>566</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="8"/>
+        <v>83</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="9"/>
+        <v>83</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="10"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>4</v>
       </c>
@@ -11960,7 +12959,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <f t="shared" ref="E43:E100" si="1">ROUND(($D$4+1)*(B43-20)+(A23*$D$6+1),0)</f>
+        <f t="shared" ref="E43:E100" si="11">ROUND(($D$4+1)*(B43-20)+(A23*$D$6+1),0)</f>
         <v>3</v>
       </c>
       <c r="F43">
@@ -11968,15 +12967,34 @@
         <v>5</v>
       </c>
       <c r="G43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12760</v>
       </c>
       <c r="H43">
         <f>SUM($G$12:G43)</f>
         <v>153890</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J43">
+        <v>32</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="7"/>
+        <v>585</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="8"/>
+        <v>85</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="9"/>
+        <v>85</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="10"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>4</v>
       </c>
@@ -11987,7 +13005,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="F44">
@@ -11995,15 +13013,34 @@
         <v>8</v>
       </c>
       <c r="G44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12760</v>
       </c>
       <c r="H44">
         <f>SUM($G$12:G44)</f>
         <v>166650</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J44">
+        <v>33</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="7"/>
+        <v>604</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="8"/>
+        <v>88</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="9"/>
+        <v>88</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="10"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>4</v>
       </c>
@@ -12014,7 +13051,7 @@
         <v>4</v>
       </c>
       <c r="E45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="F45">
@@ -12022,15 +13059,34 @@
         <v>12</v>
       </c>
       <c r="G45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13200</v>
       </c>
       <c r="H45">
         <f>SUM($G$12:G45)</f>
         <v>179850</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J45">
+        <v>34</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="7"/>
+        <v>623</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="9"/>
+        <v>91</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="10"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>4</v>
       </c>
@@ -12041,7 +13097,7 @@
         <v>5</v>
       </c>
       <c r="E46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="F46">
@@ -12049,15 +13105,34 @@
         <v>16</v>
       </c>
       <c r="G46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13200</v>
       </c>
       <c r="H46">
         <f>SUM($G$12:G46)</f>
         <v>193050</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J46">
+        <v>35</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="7"/>
+        <v>642</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="8"/>
+        <v>94</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="9"/>
+        <v>94</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="10"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>4</v>
       </c>
@@ -12068,7 +13143,7 @@
         <v>6</v>
       </c>
       <c r="E47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="F47">
@@ -12076,15 +13151,34 @@
         <v>21</v>
       </c>
       <c r="G47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13640</v>
       </c>
       <c r="H47">
         <f>SUM($G$12:G47)</f>
         <v>206690</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J47">
+        <v>36</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="7"/>
+        <v>661</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="8"/>
+        <v>96</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="9"/>
+        <v>96</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="10"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>4</v>
       </c>
@@ -12095,7 +13189,7 @@
         <v>7</v>
       </c>
       <c r="E48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="F48">
@@ -12103,15 +13197,34 @@
         <v>26</v>
       </c>
       <c r="G48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13640</v>
       </c>
       <c r="H48">
         <f>SUM($G$12:G48)</f>
         <v>220330</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J48">
+        <v>37</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="7"/>
+        <v>680</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="8"/>
+        <v>99</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="9"/>
+        <v>99</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="10"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>4</v>
       </c>
@@ -12122,7 +13235,7 @@
         <v>8</v>
       </c>
       <c r="E49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="F49">
@@ -12130,15 +13243,34 @@
         <v>32</v>
       </c>
       <c r="G49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14080</v>
       </c>
       <c r="H49">
         <f>SUM($G$12:G49)</f>
         <v>234410</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="J49">
+        <v>38</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="7"/>
+        <v>698</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="8"/>
+        <v>102</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="9"/>
+        <v>102</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="10"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>4</v>
       </c>
@@ -12149,7 +13281,7 @@
         <v>9</v>
       </c>
       <c r="E50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="F50">
@@ -12157,22 +13289,60 @@
         <v>38</v>
       </c>
       <c r="G50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14080</v>
       </c>
       <c r="H50">
         <f>SUM($G$12:G50)</f>
         <v>248490</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="48" t="s">
+      <c r="J50">
+        <v>39</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="7"/>
+        <v>717</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="8"/>
+        <v>105</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="9"/>
+        <v>105</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="10"/>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="49"/>
-      <c r="D51" s="50"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C51" s="57"/>
+      <c r="D51" s="58"/>
+      <c r="J51">
+        <v>40</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="7"/>
+        <v>736</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="8"/>
+        <v>107</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="9"/>
+        <v>107</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="10"/>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>5</v>
       </c>
@@ -12183,7 +13353,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="F52">
@@ -12191,15 +13361,34 @@
         <v>45</v>
       </c>
       <c r="G52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18150</v>
       </c>
       <c r="H52">
         <f>SUM($G$12:G52)</f>
         <v>266640</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J52">
+        <v>41</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="7"/>
+        <v>755</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="8"/>
+        <v>110</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="9"/>
+        <v>110</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="10"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>5</v>
       </c>
@@ -12210,7 +13399,7 @@
         <v>2</v>
       </c>
       <c r="E53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="F53">
@@ -12218,15 +13407,34 @@
         <v>53</v>
       </c>
       <c r="G53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18700</v>
       </c>
       <c r="H53">
         <f>SUM($G$12:G53)</f>
         <v>285340</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J53">
+        <v>42</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="7"/>
+        <v>774</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="8"/>
+        <v>113</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="9"/>
+        <v>113</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="10"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>5</v>
       </c>
@@ -12237,7 +13445,7 @@
         <v>3</v>
       </c>
       <c r="E54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="F54">
@@ -12245,15 +13453,34 @@
         <v>61</v>
       </c>
       <c r="G54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18700</v>
       </c>
       <c r="H54">
         <f>SUM($G$12:G54)</f>
         <v>304040</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J54">
+        <v>43</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="7"/>
+        <v>793</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="8"/>
+        <v>116</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="9"/>
+        <v>116</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="10"/>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>5</v>
       </c>
@@ -12264,7 +13491,7 @@
         <v>4</v>
       </c>
       <c r="E55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="F55">
@@ -12272,15 +13499,34 @@
         <v>70</v>
       </c>
       <c r="G55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19250</v>
       </c>
       <c r="H55">
         <f>SUM($G$12:G55)</f>
         <v>323290</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J55">
+        <v>44</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="7"/>
+        <v>812</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="8"/>
+        <v>118</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="9"/>
+        <v>118</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="10"/>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>5</v>
       </c>
@@ -12291,7 +13537,7 @@
         <v>5</v>
       </c>
       <c r="E56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="F56">
@@ -12299,15 +13545,34 @@
         <v>79</v>
       </c>
       <c r="G56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19250</v>
       </c>
       <c r="H56">
         <f>SUM($G$12:G56)</f>
         <v>342540</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J56">
+        <v>45</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="7"/>
+        <v>831</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="8"/>
+        <v>121</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="9"/>
+        <v>121</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="10"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>5</v>
       </c>
@@ -12318,7 +13583,7 @@
         <v>6</v>
       </c>
       <c r="E57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="F57">
@@ -12326,15 +13591,34 @@
         <v>89</v>
       </c>
       <c r="G57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19800</v>
       </c>
       <c r="H57">
         <f>SUM($G$12:G57)</f>
         <v>362340</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J57">
+        <v>46</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="7"/>
+        <v>849</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="8"/>
+        <v>124</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="9"/>
+        <v>124</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="10"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>5</v>
       </c>
@@ -12345,7 +13629,7 @@
         <v>7</v>
       </c>
       <c r="E58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="F58">
@@ -12353,15 +13637,34 @@
         <v>99</v>
       </c>
       <c r="G58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19800</v>
       </c>
       <c r="H58">
         <f>SUM($G$12:G58)</f>
         <v>382140</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J58">
+        <v>47</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="7"/>
+        <v>868</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="8"/>
+        <v>127</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="9"/>
+        <v>127</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="10"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>5</v>
       </c>
@@ -12372,7 +13675,7 @@
         <v>8</v>
       </c>
       <c r="E59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
       <c r="F59">
@@ -12380,15 +13683,34 @@
         <v>110</v>
       </c>
       <c r="G59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20350</v>
       </c>
       <c r="H59">
         <f>SUM($G$12:G59)</f>
         <v>402490</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="J59">
+        <v>48</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="7"/>
+        <v>887</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="8"/>
+        <v>129</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="9"/>
+        <v>129</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="10"/>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>5</v>
       </c>
@@ -12399,7 +13721,7 @@
         <v>9</v>
       </c>
       <c r="E60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
       <c r="F60">
@@ -12407,22 +13729,60 @@
         <v>121</v>
       </c>
       <c r="G60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20350</v>
       </c>
       <c r="H60">
         <f>SUM($G$12:G60)</f>
         <v>422840</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="48" t="s">
+      <c r="J60">
+        <v>49</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="7"/>
+        <v>906</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="8"/>
+        <v>132</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="9"/>
+        <v>132</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="10"/>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="C61" s="49"/>
-      <c r="D61" s="50"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C61" s="57"/>
+      <c r="D61" s="58"/>
+      <c r="J61">
+        <v>50</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="7"/>
+        <v>925</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="8"/>
+        <v>135</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="9"/>
+        <v>135</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="10"/>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>6</v>
       </c>
@@ -12433,7 +13793,7 @@
         <v>1</v>
       </c>
       <c r="E62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
       <c r="F62">
@@ -12441,15 +13801,34 @@
         <v>134</v>
       </c>
       <c r="G62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25080</v>
       </c>
       <c r="H62">
         <f>SUM($G$12:G62)</f>
         <v>447920</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J62">
+        <v>51</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="7"/>
+        <v>944</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="8"/>
+        <v>138</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="9"/>
+        <v>138</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="10"/>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>6</v>
       </c>
@@ -12460,7 +13839,7 @@
         <v>2</v>
       </c>
       <c r="E63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="F63">
@@ -12468,15 +13847,34 @@
         <v>148</v>
       </c>
       <c r="G63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25740</v>
       </c>
       <c r="H63">
         <f>SUM($G$12:G63)</f>
         <v>473660</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J63">
+        <v>52</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="7"/>
+        <v>963</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="8"/>
+        <v>140</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="9"/>
+        <v>140</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="10"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>6</v>
       </c>
@@ -12487,7 +13885,7 @@
         <v>3</v>
       </c>
       <c r="E64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="F64">
@@ -12495,15 +13893,34 @@
         <v>162</v>
       </c>
       <c r="G64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25740</v>
       </c>
       <c r="H64">
         <f>SUM($G$12:G64)</f>
         <v>499400</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J64">
+        <v>53</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="7"/>
+        <v>982</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="8"/>
+        <v>143</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="9"/>
+        <v>143</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="10"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>6</v>
       </c>
@@ -12514,7 +13931,7 @@
         <v>4</v>
       </c>
       <c r="E65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="F65">
@@ -12522,15 +13939,34 @@
         <v>177</v>
       </c>
       <c r="G65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26400</v>
       </c>
       <c r="H65">
         <f>SUM($G$12:G65)</f>
         <v>525800</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J65">
+        <v>54</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="7"/>
+        <v>1000</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="8"/>
+        <v>146</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="9"/>
+        <v>146</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="10"/>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>6</v>
       </c>
@@ -12541,7 +13977,7 @@
         <v>5</v>
       </c>
       <c r="E66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="F66">
@@ -12549,15 +13985,34 @@
         <v>192</v>
       </c>
       <c r="G66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26400</v>
       </c>
       <c r="H66">
         <f>SUM($G$12:G66)</f>
         <v>552200</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J66">
+        <v>55</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="7"/>
+        <v>1019</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="8"/>
+        <v>149</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="9"/>
+        <v>149</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="10"/>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>6</v>
       </c>
@@ -12568,7 +14023,7 @@
         <v>6</v>
       </c>
       <c r="E67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="F67">
@@ -12576,15 +14031,34 @@
         <v>208</v>
       </c>
       <c r="G67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27060</v>
       </c>
       <c r="H67">
         <f>SUM($G$12:G67)</f>
         <v>579260</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J67">
+        <v>56</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="7"/>
+        <v>1038</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="8"/>
+        <v>151</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="9"/>
+        <v>151</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="10"/>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>6</v>
       </c>
@@ -12595,7 +14069,7 @@
         <v>7</v>
       </c>
       <c r="E68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="F68">
@@ -12603,15 +14077,34 @@
         <v>224</v>
       </c>
       <c r="G68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27060</v>
       </c>
       <c r="H68">
         <f>SUM($G$12:G68)</f>
         <v>606320</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J68">
+        <v>57</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="7"/>
+        <v>1057</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="8"/>
+        <v>154</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="9"/>
+        <v>154</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="10"/>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>6</v>
       </c>
@@ -12622,7 +14115,7 @@
         <v>8</v>
       </c>
       <c r="E69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>17</v>
       </c>
       <c r="F69">
@@ -12630,15 +14123,34 @@
         <v>241</v>
       </c>
       <c r="G69">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27720</v>
       </c>
       <c r="H69">
         <f>SUM($G$12:G69)</f>
         <v>634040</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="J69">
+        <v>58</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="7"/>
+        <v>1076</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="8"/>
+        <v>157</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="9"/>
+        <v>157</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="10"/>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>6</v>
       </c>
@@ -12649,7 +14161,7 @@
         <v>9</v>
       </c>
       <c r="E70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>17</v>
       </c>
       <c r="F70">
@@ -12657,22 +14169,60 @@
         <v>258</v>
       </c>
       <c r="G70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27720</v>
       </c>
       <c r="H70">
         <f>SUM($G$12:G70)</f>
         <v>661760</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="48" t="s">
+      <c r="J70">
+        <v>59</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="7"/>
+        <v>1095</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="9"/>
+        <v>160</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="10"/>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="C71" s="49"/>
-      <c r="D71" s="50"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C71" s="57"/>
+      <c r="D71" s="58"/>
+      <c r="J71">
+        <v>60</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="7"/>
+        <v>1114</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="8"/>
+        <v>162</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="9"/>
+        <v>162</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="10"/>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>7</v>
       </c>
@@ -12683,7 +14233,7 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
       <c r="F72">
@@ -12691,15 +14241,34 @@
         <v>276</v>
       </c>
       <c r="G72">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33110</v>
       </c>
       <c r="H72">
         <f>SUM($G$12:G72)</f>
         <v>694870</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J72">
+        <v>61</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="7"/>
+        <v>1133</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="8"/>
+        <v>165</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="9"/>
+        <v>165</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="10"/>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>7</v>
       </c>
@@ -12710,7 +14279,7 @@
         <v>2</v>
       </c>
       <c r="E73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
       <c r="F73">
@@ -12718,15 +14287,34 @@
         <v>295</v>
       </c>
       <c r="G73">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33880</v>
       </c>
       <c r="H73">
         <f>SUM($G$12:G73)</f>
         <v>728750</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J73">
+        <v>62</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="7"/>
+        <v>1151</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="8"/>
+        <v>168</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="9"/>
+        <v>168</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="10"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>7</v>
       </c>
@@ -12737,7 +14325,7 @@
         <v>3</v>
       </c>
       <c r="E74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
       <c r="F74">
@@ -12745,15 +14333,34 @@
         <v>314</v>
       </c>
       <c r="G74">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33880</v>
       </c>
       <c r="H74">
         <f>SUM($G$12:G74)</f>
         <v>762630</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J74">
+        <v>63</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="7"/>
+        <v>1170</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="8"/>
+        <v>171</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="9"/>
+        <v>171</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="10"/>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>7</v>
       </c>
@@ -12764,7 +14371,7 @@
         <v>4</v>
       </c>
       <c r="E75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F75">
@@ -12772,15 +14379,34 @@
         <v>334</v>
       </c>
       <c r="G75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34650</v>
       </c>
       <c r="H75">
         <f>SUM($G$12:G75)</f>
         <v>797280</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J75">
+        <v>64</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="7"/>
+        <v>1189</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="8"/>
+        <v>173</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="9"/>
+        <v>173</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="10"/>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>7</v>
       </c>
@@ -12791,7 +14417,7 @@
         <v>5</v>
       </c>
       <c r="E76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F76">
@@ -12799,15 +14425,34 @@
         <v>354</v>
       </c>
       <c r="G76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34650</v>
       </c>
       <c r="H76">
         <f>SUM($G$12:G76)</f>
         <v>831930</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J76">
+        <v>65</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="7"/>
+        <v>1208</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="8"/>
+        <v>176</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="9"/>
+        <v>176</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="10"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>7</v>
       </c>
@@ -12818,7 +14463,7 @@
         <v>6</v>
       </c>
       <c r="E77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>21</v>
       </c>
       <c r="F77">
@@ -12826,15 +14471,34 @@
         <v>375</v>
       </c>
       <c r="G77">
-        <f t="shared" ref="G77:G100" si="2">ROUND(($H$2*B77+$H$6)*$H$4*A77,0)</f>
+        <f t="shared" ref="G77:G100" si="12">ROUND(($H$2*B77+$H$6)*$H$4*A77,0)</f>
         <v>35420</v>
       </c>
       <c r="H77">
         <f>SUM($G$12:G77)</f>
         <v>867350</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J77">
+        <v>66</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="7"/>
+        <v>1227</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="8"/>
+        <v>179</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="9"/>
+        <v>179</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="10"/>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>7</v>
       </c>
@@ -12845,7 +14509,7 @@
         <v>7</v>
       </c>
       <c r="E78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>21</v>
       </c>
       <c r="F78">
@@ -12853,15 +14517,34 @@
         <v>396</v>
       </c>
       <c r="G78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>35420</v>
       </c>
       <c r="H78">
         <f>SUM($G$12:G78)</f>
         <v>902770</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J78">
+        <v>67</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="7"/>
+        <v>1246</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="8"/>
+        <v>182</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="9"/>
+        <v>182</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="10"/>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>7</v>
       </c>
@@ -12872,7 +14555,7 @@
         <v>8</v>
       </c>
       <c r="E79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>22</v>
       </c>
       <c r="F79">
@@ -12880,15 +14563,34 @@
         <v>418</v>
       </c>
       <c r="G79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>36190</v>
       </c>
       <c r="H79">
         <f>SUM($G$12:G79)</f>
         <v>938960</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="J79">
+        <v>68</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="7"/>
+        <v>1265</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="8"/>
+        <v>184</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="9"/>
+        <v>184</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="10"/>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>7</v>
       </c>
@@ -12899,7 +14601,7 @@
         <v>9</v>
       </c>
       <c r="E80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>22</v>
       </c>
       <c r="F80">
@@ -12907,22 +14609,60 @@
         <v>440</v>
       </c>
       <c r="G80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>36190</v>
       </c>
       <c r="H80">
         <f>SUM($G$12:G80)</f>
         <v>975150</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="48" t="s">
+      <c r="J80">
+        <v>69</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="7"/>
+        <v>1284</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="8"/>
+        <v>187</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="9"/>
+        <v>187</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="10"/>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="C81" s="49"/>
-      <c r="D81" s="50"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C81" s="57"/>
+      <c r="D81" s="58"/>
+      <c r="J81">
+        <v>70</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="7"/>
+        <v>1302</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="8"/>
+        <v>190</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="9"/>
+        <v>190</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="10"/>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>8</v>
       </c>
@@ -12933,7 +14673,7 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>24</v>
       </c>
       <c r="F82">
@@ -12941,15 +14681,34 @@
         <v>464</v>
       </c>
       <c r="G82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>42240</v>
       </c>
       <c r="H82">
         <f>SUM($G$12:G82)</f>
         <v>1017390</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J82">
+        <v>71</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="7"/>
+        <v>1321</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="8"/>
+        <v>193</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="9"/>
+        <v>193</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="10"/>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>8</v>
       </c>
@@ -12960,7 +14719,7 @@
         <v>2</v>
       </c>
       <c r="E83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
       <c r="F83">
@@ -12968,15 +14727,34 @@
         <v>489</v>
       </c>
       <c r="G83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>43120</v>
       </c>
       <c r="H83">
         <f>SUM($G$12:G83)</f>
         <v>1060510</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J83">
+        <v>72</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="7"/>
+        <v>1340</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="8"/>
+        <v>195</v>
+      </c>
+      <c r="M83">
+        <f t="shared" si="9"/>
+        <v>195</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="10"/>
+        <v>293</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>8</v>
       </c>
@@ -12987,7 +14765,7 @@
         <v>3</v>
       </c>
       <c r="E84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
       <c r="F84">
@@ -12995,15 +14773,34 @@
         <v>514</v>
       </c>
       <c r="G84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>43120</v>
       </c>
       <c r="H84">
         <f>SUM($G$12:G84)</f>
         <v>1103630</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J84">
+        <v>73</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="7"/>
+        <v>1359</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="8"/>
+        <v>198</v>
+      </c>
+      <c r="M84">
+        <f t="shared" si="9"/>
+        <v>198</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="10"/>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>8</v>
       </c>
@@ -13014,7 +14811,7 @@
         <v>4</v>
       </c>
       <c r="E85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>26</v>
       </c>
       <c r="F85">
@@ -13022,15 +14819,34 @@
         <v>540</v>
       </c>
       <c r="G85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>44000</v>
       </c>
       <c r="H85">
         <f>SUM($G$12:G85)</f>
         <v>1147630</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J85">
+        <v>74</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="7"/>
+        <v>1378</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="8"/>
+        <v>201</v>
+      </c>
+      <c r="M85">
+        <f t="shared" si="9"/>
+        <v>201</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="10"/>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>8</v>
       </c>
@@ -13041,7 +14857,7 @@
         <v>5</v>
       </c>
       <c r="E86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>26</v>
       </c>
       <c r="F86">
@@ -13049,15 +14865,34 @@
         <v>566</v>
       </c>
       <c r="G86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>44000</v>
       </c>
       <c r="H86">
         <f>SUM($G$12:G86)</f>
         <v>1191630</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J86">
+        <v>75</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="7"/>
+        <v>1397</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="8"/>
+        <v>204</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="9"/>
+        <v>204</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="10"/>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>8</v>
       </c>
@@ -13068,7 +14903,7 @@
         <v>6</v>
       </c>
       <c r="E87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>27</v>
       </c>
       <c r="F87">
@@ -13076,15 +14911,34 @@
         <v>593</v>
       </c>
       <c r="G87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>44880</v>
       </c>
       <c r="H87">
         <f>SUM($G$12:G87)</f>
         <v>1236510</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J87">
+        <v>76</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="7"/>
+        <v>1416</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="8"/>
+        <v>206</v>
+      </c>
+      <c r="M87">
+        <f t="shared" si="9"/>
+        <v>206</v>
+      </c>
+      <c r="N87">
+        <f t="shared" si="10"/>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>8</v>
       </c>
@@ -13095,7 +14949,7 @@
         <v>7</v>
       </c>
       <c r="E88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>27</v>
       </c>
       <c r="F88">
@@ -13103,15 +14957,34 @@
         <v>620</v>
       </c>
       <c r="G88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>44880</v>
       </c>
       <c r="H88">
         <f>SUM($G$12:G88)</f>
         <v>1281390</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J88">
+        <v>77</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="7"/>
+        <v>1435</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="8"/>
+        <v>209</v>
+      </c>
+      <c r="M88">
+        <f t="shared" si="9"/>
+        <v>209</v>
+      </c>
+      <c r="N88">
+        <f t="shared" si="10"/>
+        <v>314</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>8</v>
       </c>
@@ -13122,7 +14995,7 @@
         <v>8</v>
       </c>
       <c r="E89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
       <c r="F89">
@@ -13130,15 +15003,34 @@
         <v>648</v>
       </c>
       <c r="G89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>45760</v>
       </c>
       <c r="H89">
         <f>SUM($G$12:G89)</f>
         <v>1327150</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="J89">
+        <v>78</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="7"/>
+        <v>1453</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="8"/>
+        <v>212</v>
+      </c>
+      <c r="M89">
+        <f t="shared" si="9"/>
+        <v>212</v>
+      </c>
+      <c r="N89">
+        <f t="shared" si="10"/>
+        <v>318</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>8</v>
       </c>
@@ -13149,7 +15041,7 @@
         <v>9</v>
       </c>
       <c r="E90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
       <c r="F90">
@@ -13157,22 +15049,60 @@
         <v>676</v>
       </c>
       <c r="G90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>45760</v>
       </c>
       <c r="H90">
         <f>SUM($G$12:G90)</f>
         <v>1372910</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="48" t="s">
+      <c r="J90">
+        <v>79</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="7"/>
+        <v>1472</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="8"/>
+        <v>215</v>
+      </c>
+      <c r="M90">
+        <f t="shared" si="9"/>
+        <v>215</v>
+      </c>
+      <c r="N90">
+        <f t="shared" si="10"/>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="C91" s="49"/>
-      <c r="D91" s="50"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C91" s="57"/>
+      <c r="D91" s="58"/>
+      <c r="J91">
+        <v>80</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="7"/>
+        <v>1491</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="8"/>
+        <v>217</v>
+      </c>
+      <c r="M91">
+        <f t="shared" si="9"/>
+        <v>217</v>
+      </c>
+      <c r="N91">
+        <f t="shared" si="10"/>
+        <v>326</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>9</v>
       </c>
@@ -13183,7 +15113,7 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>29</v>
       </c>
       <c r="F92">
@@ -13191,15 +15121,34 @@
         <v>705</v>
       </c>
       <c r="G92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>52470</v>
       </c>
       <c r="H92">
         <f>SUM($G$12:G92)</f>
         <v>1425380</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J92">
+        <v>81</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="7"/>
+        <v>1510</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="8"/>
+        <v>220</v>
+      </c>
+      <c r="M92">
+        <f t="shared" si="9"/>
+        <v>220</v>
+      </c>
+      <c r="N92">
+        <f t="shared" si="10"/>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>9</v>
       </c>
@@ -13210,7 +15159,7 @@
         <v>2</v>
       </c>
       <c r="E93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="F93">
@@ -13218,7 +15167,7 @@
         <v>735</v>
       </c>
       <c r="G93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>53460</v>
       </c>
       <c r="H93">
@@ -13226,7 +15175,7 @@
         <v>1478840</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>9</v>
       </c>
@@ -13237,7 +15186,7 @@
         <v>3</v>
       </c>
       <c r="E94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="F94">
@@ -13245,7 +15194,7 @@
         <v>765</v>
       </c>
       <c r="G94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>53460</v>
       </c>
       <c r="H94">
@@ -13253,7 +15202,7 @@
         <v>1532300</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>9</v>
       </c>
@@ -13264,7 +15213,7 @@
         <v>4</v>
       </c>
       <c r="E95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>31</v>
       </c>
       <c r="F95">
@@ -13272,7 +15221,7 @@
         <v>796</v>
       </c>
       <c r="G95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>54450</v>
       </c>
       <c r="H95">
@@ -13280,7 +15229,7 @@
         <v>1586750</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>9</v>
       </c>
@@ -13291,7 +15240,7 @@
         <v>5</v>
       </c>
       <c r="E96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>31</v>
       </c>
       <c r="F96">
@@ -13299,7 +15248,7 @@
         <v>827</v>
       </c>
       <c r="G96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>54450</v>
       </c>
       <c r="H96">
@@ -13318,7 +15267,7 @@
         <v>6</v>
       </c>
       <c r="E97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="F97">
@@ -13326,7 +15275,7 @@
         <v>859</v>
       </c>
       <c r="G97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>55440</v>
       </c>
       <c r="H97">
@@ -13345,7 +15294,7 @@
         <v>7</v>
       </c>
       <c r="E98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="F98">
@@ -13353,7 +15302,7 @@
         <v>891</v>
       </c>
       <c r="G98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>55440</v>
       </c>
       <c r="H98">
@@ -13372,7 +15321,7 @@
         <v>8</v>
       </c>
       <c r="E99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>33</v>
       </c>
       <c r="F99">
@@ -13380,7 +15329,7 @@
         <v>924</v>
       </c>
       <c r="G99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>56430</v>
       </c>
       <c r="H99">
@@ -13399,7 +15348,7 @@
         <v>9</v>
       </c>
       <c r="E100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>33</v>
       </c>
       <c r="F100">
@@ -13407,7 +15356,7 @@
         <v>957</v>
       </c>
       <c r="G100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>56430</v>
       </c>
       <c r="H100">
@@ -13426,17 +15375,17 @@
     <mergeCell ref="B61:D61"/>
     <mergeCell ref="B71:D71"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13445,17 +15394,19 @@
     <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11.875" customWidth="1"/>
     <col min="7" max="7" width="10.375" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -13469,28 +15420,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="I2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="37">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
         <v>67</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>20</v>
       </c>
-      <c r="L2" s="51">
+      <c r="N2" s="33">
         <v>0.7</v>
       </c>
-      <c r="N2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="P2" t="s">
+        <v>71</v>
+      </c>
+      <c r="S2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -13509,17 +15460,24 @@
       <c r="H3" t="s">
         <v>47</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>66</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>25</v>
       </c>
-      <c r="L3" s="51">
+      <c r="N3" s="33">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="P3" t="s">
+        <v>108</v>
+      </c>
+      <c r="R3">
+        <f>80/30</f>
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B4">
         <v>3</v>
       </c>
@@ -13530,19 +15488,19 @@
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" t="s">
         <v>70</v>
       </c>
-      <c r="J4" t="s">
-        <v>71</v>
-      </c>
-      <c r="L4" s="51">
+      <c r="L4">
+        <v>35</v>
+      </c>
+      <c r="N4" s="33">
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -13550,951 +15508,1266 @@
         <v>69</v>
       </c>
       <c r="D6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" t="s">
         <v>73</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>74</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>75</v>
       </c>
-      <c r="G6" t="s">
-        <v>76</v>
-      </c>
       <c r="H6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" t="s">
+        <v>117</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
         <v>80</v>
       </c>
-      <c r="I6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="N6" t="s">
+        <v>83</v>
+      </c>
+      <c r="P6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B7">
         <v>20</v>
       </c>
       <c r="C7">
-        <f>'[1]疲劳值，副本开启时间'!$F67</f>
+        <f>'[2]疲劳值，副本开启时间'!$F67</f>
         <v>3</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="37">
         <v>3</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
+      <c r="E7" s="39">
+        <v>1</v>
+      </c>
+      <c r="F7" s="37">
         <v>3</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="37">
         <v>3</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="39">
         <f>VLOOKUP($F$2,$B$2:$D$4,3,1)</f>
-        <v>16</v>
-      </c>
-      <c r="I7">
-        <f>ROUND((VLOOKUP($F$2,$B$2:$C$4,2,1)/12*F7)+H7*F7,0)</f>
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+      <c r="I7" s="39">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <f>(1+VLOOKUP($F$2,$N$7:$Q$9,4,0))*VLOOKUP($F$2,$N$12:$P$14,2,0)*$P$17*I7</f>
+        <v>23.520000000000003</v>
+      </c>
+      <c r="K7">
+        <f>ROUND((VLOOKUP($F$2,$B$2:$C$4,2,1)/12*F7)+H7*F7+J7,0)</f>
+        <v>102</v>
+      </c>
+      <c r="N7" s="34">
+        <v>1</v>
+      </c>
+      <c r="O7" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B8">
         <v>21</v>
       </c>
       <c r="C8">
-        <f>'[1]疲劳值，副本开启时间'!$F68</f>
+        <f>'[2]疲劳值，副本开启时间'!$F68</f>
         <v>3</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="37">
         <v>3</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
+      <c r="E8" s="39">
+        <v>1</v>
+      </c>
+      <c r="F8" s="37">
         <v>3</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="37">
         <v>3</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="39">
         <f t="shared" ref="H8:H37" si="0">VLOOKUP($F$2,$B$2:$D$4,3,1)</f>
-        <v>16</v>
-      </c>
-      <c r="I8">
-        <f t="shared" ref="I8:I37" si="1">ROUND((VLOOKUP($F$2,$B$2:$C$4,2,1)/12*F8)+H8*F8,0)</f>
-        <v>168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+      <c r="I8" s="39">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ref="J8:J37" si="1">(1+VLOOKUP($F$2,$N$7:$Q$9,4,0))*VLOOKUP($F$2,$N$12:$P$14,2,0)*$P$17*I8</f>
+        <v>25.872000000000007</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ref="K8:K37" si="2">ROUND((VLOOKUP($F$2,$B$2:$C$4,2,1)/12*F8)+H8*F8+J8,0)</f>
+        <v>104</v>
+      </c>
+      <c r="N8" s="34">
+        <v>2</v>
+      </c>
+      <c r="O8" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="P8" s="34">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="33">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B9">
         <v>22</v>
       </c>
       <c r="C9">
-        <f>'[1]疲劳值，副本开启时间'!$F69</f>
+        <f>'[2]疲劳值，副本开启时间'!$F69</f>
         <v>3</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="37">
         <v>6</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
+      <c r="E9" s="39">
+        <v>1</v>
+      </c>
+      <c r="F9" s="37">
         <v>3.2</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="37">
         <v>3</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="39">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="I9" s="39">
+        <v>1.2</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="1"/>
-        <v>179</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+        <v>28.224000000000004</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+      <c r="N9" s="34">
+        <v>3</v>
+      </c>
+      <c r="O9" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="P9" s="34">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="33">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B10">
         <v>23</v>
       </c>
       <c r="C10">
-        <f>'[1]疲劳值，副本开启时间'!$F70</f>
+        <f>'[2]疲劳值，副本开启时间'!$F70</f>
         <v>3</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="37">
         <v>6</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
+      <c r="E10" s="39">
+        <v>1</v>
+      </c>
+      <c r="F10" s="37">
         <v>3.2</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="37">
         <v>3</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="39">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="I10">
+        <v>8</v>
+      </c>
+      <c r="I10" s="39">
+        <v>1.3</v>
+      </c>
+      <c r="J10">
         <f t="shared" si="1"/>
-        <v>179</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+        <v>30.576000000000004</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B11">
         <v>24</v>
       </c>
       <c r="C11">
-        <f>'[1]疲劳值，副本开启时间'!$F71</f>
+        <f>'[2]疲劳值，副本开启时间'!$F71</f>
         <v>3</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="37">
         <v>6</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
+      <c r="E11" s="39">
+        <v>1</v>
+      </c>
+      <c r="F11" s="37">
         <v>3.2</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="37">
         <v>3</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="39">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="I11">
+        <v>8</v>
+      </c>
+      <c r="I11" s="39">
+        <v>1.4</v>
+      </c>
+      <c r="J11">
         <f t="shared" si="1"/>
-        <v>179</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+        <v>32.928000000000004</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>116</v>
+      </c>
+      <c r="N11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B12">
         <v>25</v>
       </c>
       <c r="C12">
-        <f>'[1]疲劳值，副本开启时间'!$F72</f>
+        <f>'[2]疲劳值，副本开启时间'!$F72</f>
         <v>4</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="37">
         <v>9</v>
       </c>
-      <c r="E12" s="52">
+      <c r="E12" s="40">
         <f>IF((VLOOKUP($F$2,$B$2:$C$4,2,1)/12)/D12&lt;1,(VLOOKUP($F$2,$B$2:$C$4,2,1)/12)/D12,1)</f>
         <v>1</v>
       </c>
-      <c r="F12" s="52">
+      <c r="F12" s="38">
         <v>3.7</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="37">
         <v>3</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="39">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="I12">
+        <v>8</v>
+      </c>
+      <c r="I12" s="39">
+        <v>1.5</v>
+      </c>
+      <c r="J12">
         <f t="shared" si="1"/>
-        <v>207</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+        <v>35.28</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>131</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12" s="33">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B13">
         <v>26</v>
       </c>
       <c r="C13">
-        <f>'[1]疲劳值，副本开启时间'!$F73</f>
+        <f>'[2]疲劳值，副本开启时间'!$F73</f>
         <v>4</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="37">
         <v>9</v>
       </c>
-      <c r="E13" s="52">
-        <f t="shared" ref="E13:E37" si="2">IF((VLOOKUP($F$2,$B$2:$C$4,2,1)/12)/D13&lt;1,(VLOOKUP($F$2,$B$2:$C$4,2,1)/12)/D13,1)</f>
-        <v>1</v>
-      </c>
-      <c r="F13" s="52">
+      <c r="E13" s="40">
+        <f t="shared" ref="E13:E37" si="3">IF((VLOOKUP($F$2,$B$2:$C$4,2,1)/12)/D13&lt;1,(VLOOKUP($F$2,$B$2:$C$4,2,1)/12)/D13,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="38">
         <v>3.7</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="37">
         <v>3</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="39">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="I13">
+        <v>8</v>
+      </c>
+      <c r="I13" s="39">
+        <v>1.6</v>
+      </c>
+      <c r="J13">
         <f t="shared" si="1"/>
-        <v>207</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+        <v>37.632000000000005</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>134</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13" s="33">
+        <v>1.6</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B14">
         <v>27</v>
       </c>
       <c r="C14">
-        <f>'[1]疲劳值，副本开启时间'!$F74</f>
+        <f>'[2]疲劳值，副本开启时间'!$F74</f>
         <v>4</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="37">
         <v>9</v>
       </c>
-      <c r="E14" s="52">
+      <c r="E14" s="40">
         <f>IF((VLOOKUP($F$2,$B$2:$C$4,2,1)/12)/D14&lt;1,(VLOOKUP($F$2,$B$2:$C$4,2,1)/12)/D14,1)</f>
         <v>1</v>
       </c>
-      <c r="F14" s="52">
+      <c r="F14" s="38">
         <v>3.7</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="37">
         <v>3</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="39">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="I14">
+        <v>8</v>
+      </c>
+      <c r="I14" s="39">
+        <v>1.7</v>
+      </c>
+      <c r="J14">
         <f t="shared" si="1"/>
-        <v>207</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+        <v>39.984000000000002</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
+      <c r="N14">
+        <v>3</v>
+      </c>
+      <c r="O14" s="33">
+        <v>2</v>
+      </c>
+      <c r="P14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B15">
         <v>28</v>
       </c>
       <c r="C15">
-        <f>'[1]疲劳值，副本开启时间'!$F75</f>
+        <f>'[2]疲劳值，副本开启时间'!$F75</f>
         <v>5</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="37">
         <v>9</v>
       </c>
-      <c r="E15" s="52">
+      <c r="E15" s="40">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F15" s="38">
+        <v>3.7</v>
+      </c>
+      <c r="G15" s="37">
+        <v>3</v>
+      </c>
+      <c r="H15" s="39">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I15" s="39">
+        <v>1.8</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>42.336000000000006</v>
+      </c>
+      <c r="K15">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F15" s="52">
-        <v>3.7</v>
-      </c>
-      <c r="G15">
-        <v>3</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="1"/>
-        <v>207</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B16">
         <v>29</v>
       </c>
       <c r="C16">
-        <f>'[1]疲劳值，副本开启时间'!$F76</f>
+        <f>'[2]疲劳值，副本开启时间'!$F76</f>
         <v>5</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="37">
         <v>9</v>
       </c>
-      <c r="E16" s="52">
+      <c r="E16" s="40">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F16" s="38">
+        <v>3.7</v>
+      </c>
+      <c r="G16" s="37">
+        <v>3</v>
+      </c>
+      <c r="H16" s="39">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I16" s="39">
+        <v>1.9</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>44.688000000000002</v>
+      </c>
+      <c r="K16">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F16" s="52">
-        <v>3.7</v>
-      </c>
-      <c r="G16">
-        <v>3</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="1"/>
-        <v>207</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+      <c r="N16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B17">
         <v>30</v>
       </c>
       <c r="C17">
-        <f>'[1]疲劳值，副本开启时间'!$F77</f>
+        <f>'[2]疲劳值，副本开启时间'!$F77</f>
         <v>6</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="37">
         <v>9</v>
       </c>
-      <c r="E17" s="52">
+      <c r="E17" s="40">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F17" s="38">
+        <v>3.7</v>
+      </c>
+      <c r="G17" s="37">
+        <v>3</v>
+      </c>
+      <c r="H17" s="39">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I17" s="39">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>47.040000000000006</v>
+      </c>
+      <c r="K17">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F17" s="52">
-        <v>3.7</v>
-      </c>
-      <c r="G17">
-        <v>3</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="1"/>
-        <v>207</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+        <v>143</v>
+      </c>
+      <c r="P17" s="36">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B18">
         <v>31</v>
       </c>
       <c r="C18">
-        <f>'[1]疲劳值，副本开启时间'!$F78</f>
+        <f>'[2]疲劳值，副本开启时间'!$F78</f>
         <v>7</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="37">
         <v>12</v>
       </c>
-      <c r="E18" s="52">
+      <c r="E18" s="40">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F18" s="38">
+        <v>4</v>
+      </c>
+      <c r="G18" s="37">
+        <v>3</v>
+      </c>
+      <c r="H18" s="39">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I18" s="39">
+        <v>2.1</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>49.39200000000001</v>
+      </c>
+      <c r="K18">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F18" s="52">
-        <v>4</v>
-      </c>
-      <c r="G18">
-        <v>3</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="1"/>
-        <v>224</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B19">
         <v>32</v>
       </c>
       <c r="C19">
-        <f>'[1]疲劳值，副本开启时间'!$F79</f>
+        <f>'[2]疲劳值，副本开启时间'!$F79</f>
         <v>8</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="37">
         <v>12</v>
       </c>
-      <c r="E19" s="52">
+      <c r="E19" s="40">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F19" s="38">
+        <v>4</v>
+      </c>
+      <c r="G19" s="37">
+        <v>3</v>
+      </c>
+      <c r="H19" s="39">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I19" s="39">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>51.744000000000014</v>
+      </c>
+      <c r="K19">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F19" s="52">
-        <v>4</v>
-      </c>
-      <c r="G19">
-        <v>3</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="1"/>
-        <v>224</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B20">
         <v>33</v>
       </c>
       <c r="C20">
-        <f>'[1]疲劳值，副本开启时间'!$F80</f>
+        <f>'[2]疲劳值，副本开启时间'!$F80</f>
         <v>9</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="37">
         <v>12</v>
       </c>
-      <c r="E20" s="52">
+      <c r="E20" s="40">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F20" s="38">
+        <v>4</v>
+      </c>
+      <c r="G20" s="37">
+        <v>3</v>
+      </c>
+      <c r="H20" s="39">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I20" s="39">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>54.096000000000004</v>
+      </c>
+      <c r="K20">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F20" s="52">
-        <v>4</v>
-      </c>
-      <c r="G20">
-        <v>3</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="1"/>
-        <v>224</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+        <v>158</v>
+      </c>
+      <c r="N20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B21">
         <v>34</v>
       </c>
       <c r="C21">
-        <f>'[1]疲劳值，副本开启时间'!$F81</f>
+        <f>'[2]疲劳值，副本开启时间'!$F81</f>
         <v>10</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="37">
         <v>12</v>
       </c>
-      <c r="E21" s="52">
+      <c r="E21" s="40">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F21" s="38">
+        <v>4</v>
+      </c>
+      <c r="G21" s="37">
+        <v>3</v>
+      </c>
+      <c r="H21" s="39">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I21" s="39">
+        <v>2.4</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>56.448000000000008</v>
+      </c>
+      <c r="K21">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F21" s="52">
-        <v>4</v>
-      </c>
-      <c r="G21">
-        <v>3</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="1"/>
-        <v>224</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B22">
         <v>35</v>
       </c>
       <c r="C22">
-        <f>'[1]疲劳值，副本开启时间'!$F82</f>
+        <f>'[2]疲劳值，副本开启时间'!$F82</f>
         <v>11</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="37">
         <v>12</v>
       </c>
-      <c r="E22" s="52">
+      <c r="E22" s="40">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F22" s="38">
+        <v>4</v>
+      </c>
+      <c r="G22" s="37">
+        <v>3</v>
+      </c>
+      <c r="H22" s="39">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I22" s="39">
+        <v>2.5</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>58.800000000000011</v>
+      </c>
+      <c r="K22">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F22" s="52">
-        <v>4</v>
-      </c>
-      <c r="G22">
-        <v>3</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="1"/>
-        <v>224</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B23">
         <v>36</v>
       </c>
       <c r="C23">
-        <f>'[1]疲劳值，副本开启时间'!$F83</f>
+        <f>'[2]疲劳值，副本开启时间'!$F83</f>
         <v>13</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="37">
         <v>12</v>
       </c>
-      <c r="E23" s="52">
+      <c r="E23" s="40">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F23" s="38">
+        <v>4</v>
+      </c>
+      <c r="G23" s="37">
+        <v>3</v>
+      </c>
+      <c r="H23" s="39">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I23" s="39">
+        <v>2.6</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>61.152000000000008</v>
+      </c>
+      <c r="K23">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F23" s="52">
-        <v>4</v>
-      </c>
-      <c r="G23">
-        <v>3</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="1"/>
-        <v>224</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B24">
         <v>37</v>
       </c>
       <c r="C24">
-        <f>'[1]疲劳值，副本开启时间'!$F84</f>
+        <f>'[2]疲劳值，副本开启时间'!$F84</f>
         <v>14</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="37">
         <v>12</v>
       </c>
-      <c r="E24" s="52">
+      <c r="E24" s="40">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F24" s="38">
+        <v>4</v>
+      </c>
+      <c r="G24" s="37">
+        <v>3</v>
+      </c>
+      <c r="H24" s="39">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I24" s="39">
+        <v>2.7</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>63.504000000000012</v>
+      </c>
+      <c r="K24">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F24" s="52">
-        <v>4</v>
-      </c>
-      <c r="G24">
-        <v>3</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="1"/>
-        <v>224</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B25">
         <v>38</v>
       </c>
       <c r="C25">
-        <f>'[1]疲劳值，副本开启时间'!$F85</f>
+        <f>'[2]疲劳值，副本开启时间'!$F85</f>
         <v>17</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="37">
         <v>18</v>
       </c>
-      <c r="E25" s="52">
+      <c r="E25" s="40">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F25" s="38">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G25" s="37">
+        <v>3</v>
+      </c>
+      <c r="H25" s="39">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I25" s="39">
+        <v>2.8</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>65.856000000000009</v>
+      </c>
+      <c r="K25">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F25" s="52">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="G25">
-        <v>3</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="1"/>
-        <v>258</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B26">
         <v>39</v>
       </c>
       <c r="C26">
-        <f>'[1]疲劳值，副本开启时间'!$F86</f>
+        <f>'[2]疲劳值，副本开启时间'!$F86</f>
         <v>19</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="37">
         <v>18</v>
       </c>
-      <c r="E26" s="52">
+      <c r="E26" s="40">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F26" s="38">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G26" s="37">
+        <v>3</v>
+      </c>
+      <c r="H26" s="39">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I26" s="39">
+        <v>2.9</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>68.208000000000013</v>
+      </c>
+      <c r="K26">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F26" s="52">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="G26">
-        <v>3</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="1"/>
-        <v>258</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B27">
         <v>40</v>
       </c>
       <c r="C27">
-        <f>'[1]疲劳值，副本开启时间'!$F87</f>
+        <f>'[2]疲劳值，副本开启时间'!$F87</f>
         <v>22</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="37">
         <v>18</v>
       </c>
-      <c r="E27" s="52">
+      <c r="E27" s="40">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F27" s="38">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G27" s="37">
+        <v>3</v>
+      </c>
+      <c r="H27" s="39">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I27" s="39">
+        <v>3</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>70.56</v>
+      </c>
+      <c r="K27">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F27" s="52">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="G27">
-        <v>3</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="1"/>
-        <v>258</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B28">
         <v>41</v>
       </c>
       <c r="C28">
-        <f>'[1]疲劳值，副本开启时间'!$F88</f>
+        <f>'[2]疲劳值，副本开启时间'!$F88</f>
         <v>25</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="37">
         <v>21</v>
       </c>
-      <c r="E28" s="52">
+      <c r="E28" s="40">
+        <f t="shared" si="3"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="F28" s="38">
+        <v>5.4</v>
+      </c>
+      <c r="G28" s="37">
+        <v>3</v>
+      </c>
+      <c r="H28" s="39">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I28" s="39">
+        <v>3.1</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>72.912000000000006</v>
+      </c>
+      <c r="K28">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F28" s="52">
-        <v>5.4</v>
-      </c>
-      <c r="G28">
-        <v>3</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="I28">
-        <f t="shared" si="1"/>
-        <v>302</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B29">
         <v>42</v>
       </c>
       <c r="C29">
-        <f>'[1]疲劳值，副本开启时间'!$F89</f>
+        <f>'[2]疲劳值，副本开启时间'!$F89</f>
         <v>28</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="37">
         <v>21</v>
       </c>
-      <c r="E29" s="52">
+      <c r="E29" s="40">
+        <f t="shared" si="3"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="F29" s="38">
+        <v>5.4</v>
+      </c>
+      <c r="G29" s="37">
+        <v>3</v>
+      </c>
+      <c r="H29" s="39">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I29" s="39">
+        <v>3.2</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>75.26400000000001</v>
+      </c>
+      <c r="K29">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F29" s="52">
-        <v>5.4</v>
-      </c>
-      <c r="G29">
-        <v>3</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="1"/>
-        <v>302</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B30">
         <v>43</v>
       </c>
       <c r="C30">
-        <f>'[1]疲劳值，副本开启时间'!$F90</f>
+        <f>'[2]疲劳值，副本开启时间'!$F90</f>
         <v>31</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="37">
         <v>21</v>
       </c>
-      <c r="E30" s="52">
+      <c r="E30" s="40">
+        <f t="shared" si="3"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="F30" s="38">
+        <v>5.4</v>
+      </c>
+      <c r="G30" s="37">
+        <v>3</v>
+      </c>
+      <c r="H30" s="39">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I30" s="39">
+        <v>3.3</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>77.616</v>
+      </c>
+      <c r="K30">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F30" s="52">
-        <v>5.4</v>
-      </c>
-      <c r="G30">
-        <v>3</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="I30">
-        <f t="shared" si="1"/>
-        <v>302</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B31">
         <v>44</v>
       </c>
       <c r="C31">
-        <f>'[1]疲劳值，副本开启时间'!$F91</f>
+        <f>'[2]疲劳值，副本开启时间'!$F91</f>
         <v>35</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="37">
         <v>24</v>
       </c>
-      <c r="E31" s="52">
+      <c r="E31" s="40">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+      <c r="F31" s="38">
+        <v>6.6</v>
+      </c>
+      <c r="G31" s="37">
+        <v>3</v>
+      </c>
+      <c r="H31" s="39">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I31" s="39">
+        <v>3.4</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>79.968000000000004</v>
+      </c>
+      <c r="K31">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F31" s="52">
-        <v>6.6</v>
-      </c>
-      <c r="G31">
-        <v>3</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="1"/>
-        <v>370</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B32">
         <v>45</v>
       </c>
       <c r="C32">
-        <f>'[1]疲劳值，副本开启时间'!$F92</f>
+        <f>'[2]疲劳值，副本开启时间'!$F92</f>
         <v>39</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="37">
         <v>24</v>
       </c>
-      <c r="E32" s="52">
+      <c r="E32" s="40">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+      <c r="F32" s="38">
+        <v>6.6</v>
+      </c>
+      <c r="G32" s="37">
+        <v>3</v>
+      </c>
+      <c r="H32" s="39">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I32" s="39">
+        <v>3.5</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="1"/>
+        <v>82.320000000000007</v>
+      </c>
+      <c r="K32">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F32" s="52">
-        <v>6.6</v>
-      </c>
-      <c r="G32">
-        <v>3</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="1"/>
-        <v>370</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B33">
         <v>46</v>
       </c>
       <c r="C33">
-        <f>'[1]疲劳值，副本开启时间'!$F93</f>
+        <f>'[2]疲劳值，副本开启时间'!$F93</f>
         <v>43</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="37">
         <v>24</v>
       </c>
-      <c r="E33" s="52">
+      <c r="E33" s="40">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+      <c r="F33" s="38">
+        <v>6.6</v>
+      </c>
+      <c r="G33" s="37">
+        <v>3</v>
+      </c>
+      <c r="H33" s="39">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I33" s="39">
+        <v>3.6</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="1"/>
+        <v>84.672000000000011</v>
+      </c>
+      <c r="K33">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F33" s="52">
-        <v>6.6</v>
-      </c>
-      <c r="G33">
-        <v>3</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="1"/>
-        <v>370</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B34">
         <v>47</v>
       </c>
       <c r="C34">
-        <f>'[1]疲劳值，副本开启时间'!$F94</f>
+        <f>'[2]疲劳值，副本开启时间'!$F94</f>
         <v>47</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="37">
         <v>24</v>
       </c>
-      <c r="E34" s="52">
+      <c r="E34" s="40">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+      <c r="F34" s="38">
+        <v>6.6</v>
+      </c>
+      <c r="G34" s="37">
+        <v>3</v>
+      </c>
+      <c r="H34" s="39">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I34" s="39">
+        <v>3.7</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="1"/>
+        <v>87.024000000000015</v>
+      </c>
+      <c r="K34">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F34" s="52">
-        <v>6.6</v>
-      </c>
-      <c r="G34">
-        <v>3</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="1"/>
-        <v>370</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B35">
         <v>48</v>
       </c>
       <c r="C35">
-        <f>'[1]疲劳值，副本开启时间'!$F95</f>
+        <f>'[2]疲劳值，副本开启时间'!$F95</f>
         <v>52</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="37">
         <v>24</v>
       </c>
-      <c r="E35" s="52">
+      <c r="E35" s="40">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+      <c r="F35" s="38">
+        <v>6.6</v>
+      </c>
+      <c r="G35" s="37">
+        <v>3</v>
+      </c>
+      <c r="H35" s="39">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I35" s="39">
+        <v>3.8</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="1"/>
+        <v>89.376000000000005</v>
+      </c>
+      <c r="K35">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F35" s="52">
-        <v>6.6</v>
-      </c>
-      <c r="G35">
-        <v>3</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="1"/>
-        <v>370</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B36">
         <v>49</v>
       </c>
       <c r="C36">
-        <f>'[1]疲劳值，副本开启时间'!$F96</f>
+        <f>'[2]疲劳值，副本开启时间'!$F96</f>
         <v>58</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="37">
         <v>24</v>
       </c>
-      <c r="E36" s="52">
+      <c r="E36" s="40">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+      <c r="F36" s="38">
+        <v>6.6</v>
+      </c>
+      <c r="G36" s="37">
+        <v>3</v>
+      </c>
+      <c r="H36" s="39">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I36" s="39">
+        <v>3.9</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="1"/>
+        <v>91.728000000000009</v>
+      </c>
+      <c r="K36">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F36" s="52">
-        <v>6.6</v>
-      </c>
-      <c r="G36">
-        <v>3</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="1"/>
-        <v>370</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B37">
         <v>50</v>
       </c>
       <c r="C37">
-        <f>'[1]疲劳值，副本开启时间'!$F97</f>
+        <f>'[2]疲劳值，副本开启时间'!$F97</f>
         <v>65</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="37">
         <v>24</v>
       </c>
-      <c r="E37" s="52">
+      <c r="E37" s="40">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+      <c r="F37" s="38">
+        <v>6.6</v>
+      </c>
+      <c r="G37" s="37">
+        <v>3</v>
+      </c>
+      <c r="H37" s="39">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I37" s="39">
+        <v>4</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="1"/>
+        <v>94.080000000000013</v>
+      </c>
+      <c r="K37">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F37" s="52">
-        <v>6.6</v>
-      </c>
-      <c r="G37">
-        <v>3</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="1"/>
-        <v>370</v>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D40" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -14502,47 +16775,617 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:T26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <cols>
+    <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="M2" t="s">
+        <v>112</v>
+      </c>
+      <c r="O2" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="M3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>110</v>
+      </c>
+      <c r="O4" t="s">
+        <v>106</v>
+      </c>
+      <c r="P4" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>120</v>
+      </c>
+      <c r="R4" t="s">
+        <v>121</v>
+      </c>
+      <c r="S4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="N5">
+        <v>10</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5" s="33">
+        <v>0.8</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <f t="shared" ref="R5:R8" si="0">O5/3</f>
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <f>$Q5*$R5+O5*(P5+1)/2</f>
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="N6">
+        <v>15</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="S6">
+        <f t="shared" ref="S6:S9" si="1">$Q6*$R6+O6*(P6+1)/2</f>
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="N7">
+        <v>20</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="P7" s="33">
+        <v>0.44</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="1"/>
+        <v>4.2133333333333329</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="N8">
+        <v>25</v>
+      </c>
+      <c r="O8">
+        <v>6</v>
+      </c>
+      <c r="P8" s="33">
+        <v>0.33</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="1"/>
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="N9">
+        <v>30</v>
+      </c>
+      <c r="O9">
+        <v>10</v>
+      </c>
+      <c r="P9" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="Q9">
+        <v>4</v>
+      </c>
+      <c r="R9">
+        <f>O9/3</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="1"/>
+        <v>19.333333333333336</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="R15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="13:20" x14ac:dyDescent="0.15">
+      <c r="N17" t="s">
+        <v>111</v>
+      </c>
+      <c r="O17" t="s">
+        <v>92</v>
+      </c>
+      <c r="P17" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>93</v>
+      </c>
+      <c r="R17" t="s">
+        <v>105</v>
+      </c>
+      <c r="S17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="13:20" x14ac:dyDescent="0.15">
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>10</v>
+      </c>
+      <c r="O18">
+        <v>2</v>
+      </c>
+      <c r="R18">
+        <v>300</v>
+      </c>
+      <c r="T18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="13:20" x14ac:dyDescent="0.15">
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>15</v>
+      </c>
+      <c r="O19">
+        <v>5</v>
+      </c>
+      <c r="R19">
+        <v>2000</v>
+      </c>
+      <c r="T19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="13:20" x14ac:dyDescent="0.15">
+      <c r="M20">
+        <v>3</v>
+      </c>
+      <c r="N20">
+        <v>20</v>
+      </c>
+      <c r="O20">
+        <v>10</v>
+      </c>
+      <c r="R20">
+        <v>4000</v>
+      </c>
+      <c r="T20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="13:20" x14ac:dyDescent="0.15">
+      <c r="M21">
+        <v>4</v>
+      </c>
+      <c r="N21">
+        <v>25</v>
+      </c>
+      <c r="O21">
+        <v>30</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>8000</v>
+      </c>
+      <c r="T21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="13:20" x14ac:dyDescent="0.15">
+      <c r="M22">
+        <v>5</v>
+      </c>
+      <c r="N22">
+        <v>30</v>
+      </c>
+      <c r="O22">
+        <v>80</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>3</v>
+      </c>
+      <c r="R22">
+        <v>20000</v>
+      </c>
+      <c r="T22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="13:20" x14ac:dyDescent="0.15">
+      <c r="M23">
+        <v>6</v>
+      </c>
+      <c r="N23">
+        <v>35</v>
+      </c>
+      <c r="O23">
+        <v>200</v>
+      </c>
+      <c r="P23">
+        <v>2</v>
+      </c>
+      <c r="Q23">
+        <v>3</v>
+      </c>
+      <c r="R23">
+        <v>30000</v>
+      </c>
+      <c r="T23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="13:20" x14ac:dyDescent="0.15">
+      <c r="M24">
+        <v>7</v>
+      </c>
+      <c r="N24">
+        <v>40</v>
+      </c>
+      <c r="O24">
+        <v>500</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>5</v>
+      </c>
+      <c r="R24">
+        <v>50000</v>
+      </c>
+      <c r="T24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="13:20" x14ac:dyDescent="0.15">
+      <c r="M25">
+        <v>8</v>
+      </c>
+      <c r="N25">
+        <v>45</v>
+      </c>
+      <c r="O25">
+        <v>700</v>
+      </c>
+      <c r="P25">
+        <v>2</v>
+      </c>
+      <c r="Q25">
+        <v>5</v>
+      </c>
+      <c r="R25">
+        <v>80000</v>
+      </c>
+      <c r="T25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="13:20" x14ac:dyDescent="0.15">
+      <c r="M26">
+        <v>9</v>
+      </c>
+      <c r="N26">
+        <v>50</v>
+      </c>
+      <c r="O26">
+        <v>2500</v>
+      </c>
+      <c r="P26">
+        <v>6</v>
+      </c>
+      <c r="Q26">
+        <v>5</v>
+      </c>
+      <c r="R26">
+        <v>100000</v>
+      </c>
+      <c r="T26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <cols>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B5">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B6">
+        <v>25</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B7">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B8">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B9">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B10">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="D14" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" t="s">
+        <v>143</v>
+      </c>
+      <c r="J14" t="s">
+        <v>156</v>
+      </c>
+      <c r="K14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <f>E15/D15*3</f>
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>153</v>
+      </c>
+      <c r="J16">
+        <f>E16/D16*3</f>
+        <v>0.44999999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D17">
+        <v>30</v>
+      </c>
+      <c r="E17">
+        <v>2.5</v>
+      </c>
+      <c r="G17" t="s">
+        <v>152</v>
+      </c>
+      <c r="J17">
+        <f>E17/D17*3</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/gd/数值规划/装备强化强化石消耗.xlsx
+++ b/gd/数值规划/装备强化强化石消耗.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="28410" yWindow="-15" windowWidth="28680" windowHeight="12615" activeTab="6"/>
+    <workbookView xWindow="28410" yWindow="-15" windowWidth="28680" windowHeight="12570" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="文档说明" sheetId="1" r:id="rId1"/>
@@ -14,18 +14,19 @@
     <sheet name="装备拆分分析表" sheetId="9" r:id="rId5"/>
     <sheet name="装备属性生成表" sheetId="10" r:id="rId6"/>
     <sheet name="装备强化消耗表" sheetId="11" r:id="rId7"/>
+    <sheet name="进阶消耗" sheetId="12" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="281">
   <si>
     <t>高级</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -899,7 +900,150 @@
     <t>1_2_100,3_10007_8</t>
   </si>
   <si>
-    <t>强化等级</t>
+    <t>进阶产出</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>进阶物品1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>进阶物品2</t>
+  </si>
+  <si>
+    <t>进阶等级</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>红</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本产出</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品2可以5进1向上合成</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS点</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>11~20</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>21~30</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>31~40</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>41~50</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>51~60</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>61~70</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>71~80</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>81~90</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>91~100</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础系数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>大冒险</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>单件装备需求</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位时间产量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1人需求数量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5人需求数量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1小时</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>递增系数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始基数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>40档次</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60档次开始掉落</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅掉落图纸合成碎片</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20级档次开始掉落</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>序列</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -912,7 +1056,7 @@
     <numFmt numFmtId="177" formatCode="0_ "/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -980,6 +1124,14 @@
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1216,7 +1368,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -1363,6 +1515,12 @@
     <xf numFmtId="176" fontId="1" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="2" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1408,7 +1566,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1474,146 +1632,6 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="文档说明"/>
-      <sheetName val="职业调整模型"/>
-      <sheetName val="属性拆分生成"/>
-      <sheetName val="战斗验证"/>
-      <sheetName val="属性能力生成表"/>
-      <sheetName val="宠物升阶生成表"/>
-      <sheetName val="装备拆分生成表"/>
-      <sheetName val="装备拆分分析表"/>
-      <sheetName val="镶嵌宝石"/>
-      <sheetName val="装备属性生成表"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="3">
-          <cell r="D3">
-            <v>1</v>
-          </cell>
-          <cell r="G3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>1.1399999999999999</v>
-          </cell>
-          <cell r="G4">
-            <v>1.18554</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>1.28</v>
-          </cell>
-          <cell r="G5">
-            <v>1.4290800000000001</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6">
-            <v>1.42</v>
-          </cell>
-          <cell r="G6">
-            <v>1.7544724</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7">
-            <v>1.56</v>
-          </cell>
-          <cell r="G7">
-            <v>2.1279632000000004</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8">
-            <v>1.7</v>
-          </cell>
-          <cell r="G8">
-            <v>2.5574540000000003</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="D9">
-            <v>1.84</v>
-          </cell>
-          <cell r="G9">
-            <v>3.1808531440000007</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="D10">
-            <v>1.98</v>
-          </cell>
-          <cell r="G10">
-            <v>3.8433286680000003</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="D11">
-            <v>2.12</v>
-          </cell>
-          <cell r="G11">
-            <v>4.5898041920000008</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="D12">
-            <v>2.2599999999999998</v>
-          </cell>
-          <cell r="G12">
-            <v>5.546279715999999</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="D13">
-            <v>2.4</v>
-          </cell>
-          <cell r="G13">
-            <v>6.8165454496000004</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="I20">
-            <v>1178</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="I21">
-            <v>172</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="I22">
-            <v>172</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="I23">
-            <v>259</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
       <sheetName val="副本时间模板"/>
       <sheetName val="升级时间曲线"/>
       <sheetName val="疲劳值，副本开启时间"/>
@@ -1624,7 +1642,23 @@
       <sheetName val="玩家历程（未完成）"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="78">
+          <cell r="E78">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="E80">
+            <v>41.666666666666657</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="E81">
+            <v>125</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="67">
@@ -1788,6 +1822,146 @@
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="文档说明"/>
+      <sheetName val="职业调整模型"/>
+      <sheetName val="属性拆分生成"/>
+      <sheetName val="战斗验证"/>
+      <sheetName val="属性能力生成表"/>
+      <sheetName val="宠物升阶生成表"/>
+      <sheetName val="装备拆分生成表"/>
+      <sheetName val="装备拆分分析表"/>
+      <sheetName val="镶嵌宝石"/>
+      <sheetName val="装备属性生成表"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="3">
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+          <cell r="G3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>1.1399999999999999</v>
+          </cell>
+          <cell r="G4">
+            <v>1.18554</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1.28</v>
+          </cell>
+          <cell r="G5">
+            <v>1.4290800000000001</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>1.42</v>
+          </cell>
+          <cell r="G6">
+            <v>1.7544724</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>1.56</v>
+          </cell>
+          <cell r="G7">
+            <v>2.1279632000000004</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8">
+            <v>1.7</v>
+          </cell>
+          <cell r="G8">
+            <v>2.5574540000000003</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="D9">
+            <v>1.84</v>
+          </cell>
+          <cell r="G9">
+            <v>3.1808531440000007</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="D10">
+            <v>1.98</v>
+          </cell>
+          <cell r="G10">
+            <v>3.8433286680000003</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="D11">
+            <v>2.12</v>
+          </cell>
+          <cell r="G11">
+            <v>4.5898041920000008</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="D12">
+            <v>2.2599999999999998</v>
+          </cell>
+          <cell r="G12">
+            <v>5.546279715999999</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="D13">
+            <v>2.4</v>
+          </cell>
+          <cell r="G13">
+            <v>6.8165454496000004</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="I20">
+            <v>1178</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="I21">
+            <v>172</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="I22">
+            <v>172</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="I23">
+            <v>259</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2282,9 +2456,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
       <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
@@ -2293,9 +2467,9 @@
       <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
       <c r="E2" s="19">
         <v>0.03</v>
       </c>
@@ -2313,18 +2487,18 @@
       </c>
     </row>
     <row r="3" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
@@ -2334,9 +2508,9 @@
       </c>
     </row>
     <row r="5" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
@@ -2522,7 +2696,7 @@
       </c>
     </row>
     <row r="8" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="64" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="15">
@@ -2751,7 +2925,7 @@
       </c>
     </row>
     <row r="9" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A9" s="63"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="13">
         <v>2</v>
       </c>
@@ -2988,7 +3162,7 @@
       </c>
     </row>
     <row r="10" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A10" s="63"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="13">
         <v>3</v>
       </c>
@@ -3225,7 +3399,7 @@
       </c>
     </row>
     <row r="11" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A11" s="63"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="13">
         <v>4</v>
       </c>
@@ -3462,7 +3636,7 @@
       </c>
     </row>
     <row r="12" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A12" s="63"/>
+      <c r="A12" s="65"/>
       <c r="B12" s="13">
         <v>5</v>
       </c>
@@ -3699,7 +3873,7 @@
       </c>
     </row>
     <row r="13" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A13" s="63"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="13">
         <v>6</v>
       </c>
@@ -3936,7 +4110,7 @@
       </c>
     </row>
     <row r="14" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A14" s="63"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="13">
         <v>7</v>
       </c>
@@ -4173,7 +4347,7 @@
       </c>
     </row>
     <row r="15" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A15" s="63"/>
+      <c r="A15" s="65"/>
       <c r="B15" s="13">
         <v>8</v>
       </c>
@@ -4410,7 +4584,7 @@
       </c>
     </row>
     <row r="16" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A16" s="63"/>
+      <c r="A16" s="65"/>
       <c r="B16" s="13">
         <v>9</v>
       </c>
@@ -4647,7 +4821,7 @@
       </c>
     </row>
     <row r="17" spans="1:70" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="64"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="11">
         <v>10</v>
       </c>
@@ -4858,7 +5032,7 @@
       </c>
     </row>
     <row r="18" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="61" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="9">
@@ -5096,7 +5270,7 @@
       </c>
     </row>
     <row r="19" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A19" s="60"/>
+      <c r="A19" s="62"/>
       <c r="B19" s="3">
         <v>12</v>
       </c>
@@ -5332,7 +5506,7 @@
       </c>
     </row>
     <row r="20" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A20" s="60"/>
+      <c r="A20" s="62"/>
       <c r="B20" s="3">
         <v>13</v>
       </c>
@@ -5568,7 +5742,7 @@
       </c>
     </row>
     <row r="21" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A21" s="60"/>
+      <c r="A21" s="62"/>
       <c r="B21" s="3">
         <v>14</v>
       </c>
@@ -5804,7 +5978,7 @@
       </c>
     </row>
     <row r="22" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A22" s="60"/>
+      <c r="A22" s="62"/>
       <c r="B22" s="3">
         <v>15</v>
       </c>
@@ -6043,7 +6217,7 @@
       </c>
     </row>
     <row r="23" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A23" s="60"/>
+      <c r="A23" s="62"/>
       <c r="B23" s="3">
         <v>16</v>
       </c>
@@ -6280,7 +6454,7 @@
       </c>
     </row>
     <row r="24" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A24" s="60"/>
+      <c r="A24" s="62"/>
       <c r="B24" s="3">
         <v>17</v>
       </c>
@@ -6517,7 +6691,7 @@
       </c>
     </row>
     <row r="25" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A25" s="60"/>
+      <c r="A25" s="62"/>
       <c r="B25" s="3">
         <v>18</v>
       </c>
@@ -6754,7 +6928,7 @@
       </c>
     </row>
     <row r="26" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A26" s="60"/>
+      <c r="A26" s="62"/>
       <c r="B26" s="3">
         <v>19</v>
       </c>
@@ -6991,7 +7165,7 @@
       </c>
     </row>
     <row r="27" spans="1:70" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="61"/>
+      <c r="A27" s="63"/>
       <c r="B27" s="6">
         <v>20</v>
       </c>
@@ -7203,7 +7377,7 @@
       </c>
     </row>
     <row r="28" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A28" s="65" t="s">
+      <c r="A28" s="67" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="9">
@@ -7444,7 +7618,7 @@
       </c>
     </row>
     <row r="29" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A29" s="66"/>
+      <c r="A29" s="68"/>
       <c r="B29" s="3">
         <v>22</v>
       </c>
@@ -7683,7 +7857,7 @@
       </c>
     </row>
     <row r="30" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A30" s="66"/>
+      <c r="A30" s="68"/>
       <c r="B30" s="3">
         <v>23</v>
       </c>
@@ -7922,7 +8096,7 @@
       </c>
     </row>
     <row r="31" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A31" s="66"/>
+      <c r="A31" s="68"/>
       <c r="B31" s="3">
         <v>24</v>
       </c>
@@ -8161,7 +8335,7 @@
       </c>
     </row>
     <row r="32" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A32" s="66"/>
+      <c r="A32" s="68"/>
       <c r="B32" s="3">
         <v>25</v>
       </c>
@@ -8398,7 +8572,7 @@
       </c>
     </row>
     <row r="33" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A33" s="66"/>
+      <c r="A33" s="68"/>
       <c r="B33" s="3">
         <v>26</v>
       </c>
@@ -8635,7 +8809,7 @@
       </c>
     </row>
     <row r="34" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A34" s="66"/>
+      <c r="A34" s="68"/>
       <c r="B34" s="3">
         <v>27</v>
       </c>
@@ -8872,7 +9046,7 @@
       </c>
     </row>
     <row r="35" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A35" s="66"/>
+      <c r="A35" s="68"/>
       <c r="B35" s="3">
         <v>28</v>
       </c>
@@ -9109,7 +9283,7 @@
       </c>
     </row>
     <row r="36" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A36" s="66"/>
+      <c r="A36" s="68"/>
       <c r="B36" s="3">
         <v>29</v>
       </c>
@@ -9346,7 +9520,7 @@
       </c>
     </row>
     <row r="37" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A37" s="66"/>
+      <c r="A37" s="68"/>
       <c r="B37" s="3">
         <v>30</v>
       </c>
@@ -9575,7 +9749,7 @@
       </c>
     </row>
     <row r="38" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A38" s="66"/>
+      <c r="A38" s="68"/>
       <c r="B38" s="3">
         <v>31</v>
       </c>
@@ -9804,7 +9978,7 @@
       </c>
     </row>
     <row r="39" spans="1:70" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="67"/>
+      <c r="A39" s="69"/>
       <c r="B39" s="6">
         <v>32</v>
       </c>
@@ -10033,7 +10207,7 @@
       </c>
     </row>
     <row r="40" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A40" s="68" t="s">
+      <c r="A40" s="70" t="s">
         <v>1</v>
       </c>
       <c r="B40" s="9">
@@ -10272,7 +10446,7 @@
       </c>
     </row>
     <row r="41" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A41" s="69"/>
+      <c r="A41" s="71"/>
       <c r="B41" s="3">
         <v>34</v>
       </c>
@@ -10509,7 +10683,7 @@
       </c>
     </row>
     <row r="42" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A42" s="69"/>
+      <c r="A42" s="71"/>
       <c r="B42" s="3">
         <v>35</v>
       </c>
@@ -10748,7 +10922,7 @@
       </c>
     </row>
     <row r="43" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A43" s="69"/>
+      <c r="A43" s="71"/>
       <c r="B43" s="3">
         <v>36</v>
       </c>
@@ -10987,7 +11161,7 @@
       </c>
     </row>
     <row r="44" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A44" s="69"/>
+      <c r="A44" s="71"/>
       <c r="B44" s="3">
         <v>37</v>
       </c>
@@ -11226,7 +11400,7 @@
       </c>
     </row>
     <row r="45" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A45" s="69"/>
+      <c r="A45" s="71"/>
       <c r="B45" s="3">
         <v>38</v>
       </c>
@@ -11463,7 +11637,7 @@
       </c>
     </row>
     <row r="46" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A46" s="69"/>
+      <c r="A46" s="71"/>
       <c r="B46" s="3">
         <v>39</v>
       </c>
@@ -11702,7 +11876,7 @@
       </c>
     </row>
     <row r="47" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A47" s="69"/>
+      <c r="A47" s="71"/>
       <c r="B47" s="3">
         <v>40</v>
       </c>
@@ -11746,7 +11920,7 @@
       <c r="P47" s="2"/>
     </row>
     <row r="48" spans="1:70" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="70"/>
+      <c r="A48" s="72"/>
       <c r="B48" s="6">
         <v>41</v>
       </c>
@@ -11790,7 +11964,7 @@
       <c r="P48" s="2"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A49" s="56" t="s">
+      <c r="A49" s="58" t="s">
         <v>34</v>
       </c>
       <c r="B49" s="4">
@@ -11838,7 +12012,7 @@
       <c r="P49" s="2"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A50" s="57"/>
+      <c r="A50" s="59"/>
       <c r="B50" s="3">
         <v>43</v>
       </c>
@@ -11882,7 +12056,7 @@
       <c r="P50" s="2"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A51" s="57"/>
+      <c r="A51" s="59"/>
       <c r="B51" s="3">
         <v>44</v>
       </c>
@@ -11926,7 +12100,7 @@
       <c r="P51" s="2"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A52" s="57"/>
+      <c r="A52" s="59"/>
       <c r="B52" s="3">
         <v>45</v>
       </c>
@@ -11970,7 +12144,7 @@
       <c r="P52" s="2"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A53" s="57"/>
+      <c r="A53" s="59"/>
       <c r="B53" s="3">
         <v>46</v>
       </c>
@@ -12014,7 +12188,7 @@
       <c r="P53" s="2"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A54" s="57"/>
+      <c r="A54" s="59"/>
       <c r="B54" s="3">
         <v>47</v>
       </c>
@@ -12056,7 +12230,7 @@
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A55" s="57"/>
+      <c r="A55" s="59"/>
       <c r="B55" s="3">
         <v>48</v>
       </c>
@@ -12098,7 +12272,7 @@
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A56" s="57"/>
+      <c r="A56" s="59"/>
       <c r="B56" s="3">
         <v>49</v>
       </c>
@@ -12140,7 +12314,7 @@
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A57" s="57"/>
+      <c r="A57" s="59"/>
       <c r="B57" s="3">
         <v>50</v>
       </c>
@@ -12410,7 +12584,7 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <f>'[2]疲劳值，副本开启时间'!$F67</f>
+        <f>'[1]疲劳值，副本开启时间'!$F67</f>
         <v>3</v>
       </c>
       <c r="D7" s="36">
@@ -12458,7 +12632,7 @@
         <v>21</v>
       </c>
       <c r="C8">
-        <f>'[2]疲劳值，副本开启时间'!$F68</f>
+        <f>'[1]疲劳值，副本开启时间'!$F68</f>
         <v>3</v>
       </c>
       <c r="D8" s="36">
@@ -12506,7 +12680,7 @@
         <v>22</v>
       </c>
       <c r="C9">
-        <f>'[2]疲劳值，副本开启时间'!$F69</f>
+        <f>'[1]疲劳值，副本开启时间'!$F69</f>
         <v>3</v>
       </c>
       <c r="D9" s="36">
@@ -12554,7 +12728,7 @@
         <v>23</v>
       </c>
       <c r="C10">
-        <f>'[2]疲劳值，副本开启时间'!$F70</f>
+        <f>'[1]疲劳值，副本开启时间'!$F70</f>
         <v>3</v>
       </c>
       <c r="D10" s="36">
@@ -12593,7 +12767,7 @@
         <v>24</v>
       </c>
       <c r="C11">
-        <f>'[2]疲劳值，副本开启时间'!$F71</f>
+        <f>'[1]疲劳值，副本开启时间'!$F71</f>
         <v>3</v>
       </c>
       <c r="D11" s="36">
@@ -12632,7 +12806,7 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <f>'[2]疲劳值，副本开启时间'!$F72</f>
+        <f>'[1]疲劳值，副本开启时间'!$F72</f>
         <v>4</v>
       </c>
       <c r="D12" s="36">
@@ -12678,7 +12852,7 @@
         <v>26</v>
       </c>
       <c r="C13">
-        <f>'[2]疲劳值，副本开启时间'!$F73</f>
+        <f>'[1]疲劳值，副本开启时间'!$F73</f>
         <v>4</v>
       </c>
       <c r="D13" s="36">
@@ -12724,7 +12898,7 @@
         <v>27</v>
       </c>
       <c r="C14">
-        <f>'[2]疲劳值，副本开启时间'!$F74</f>
+        <f>'[1]疲劳值，副本开启时间'!$F74</f>
         <v>4</v>
       </c>
       <c r="D14" s="36">
@@ -12770,7 +12944,7 @@
         <v>28</v>
       </c>
       <c r="C15">
-        <f>'[2]疲劳值，副本开启时间'!$F75</f>
+        <f>'[1]疲劳值，副本开启时间'!$F75</f>
         <v>5</v>
       </c>
       <c r="D15" s="36">
@@ -12807,7 +12981,7 @@
         <v>29</v>
       </c>
       <c r="C16">
-        <f>'[2]疲劳值，副本开启时间'!$F76</f>
+        <f>'[1]疲劳值，副本开启时间'!$F76</f>
         <v>5</v>
       </c>
       <c r="D16" s="36">
@@ -12847,7 +13021,7 @@
         <v>30</v>
       </c>
       <c r="C17">
-        <f>'[2]疲劳值，副本开启时间'!$F77</f>
+        <f>'[1]疲劳值，副本开启时间'!$F77</f>
         <v>6</v>
       </c>
       <c r="D17" s="36">
@@ -12887,7 +13061,7 @@
         <v>31</v>
       </c>
       <c r="C18">
-        <f>'[2]疲劳值，副本开启时间'!$F78</f>
+        <f>'[1]疲劳值，副本开启时间'!$F78</f>
         <v>7</v>
       </c>
       <c r="D18" s="36">
@@ -12924,7 +13098,7 @@
         <v>32</v>
       </c>
       <c r="C19">
-        <f>'[2]疲劳值，副本开启时间'!$F79</f>
+        <f>'[1]疲劳值，副本开启时间'!$F79</f>
         <v>8</v>
       </c>
       <c r="D19" s="36">
@@ -12961,7 +13135,7 @@
         <v>33</v>
       </c>
       <c r="C20">
-        <f>'[2]疲劳值，副本开启时间'!$F80</f>
+        <f>'[1]疲劳值，副本开启时间'!$F80</f>
         <v>9</v>
       </c>
       <c r="D20" s="36">
@@ -13013,7 +13187,7 @@
         <v>34</v>
       </c>
       <c r="C21">
-        <f>'[2]疲劳值，副本开启时间'!$F81</f>
+        <f>'[1]疲劳值，副本开启时间'!$F81</f>
         <v>10</v>
       </c>
       <c r="D21" s="36">
@@ -13066,7 +13240,7 @@
         <v>35</v>
       </c>
       <c r="C22">
-        <f>'[2]疲劳值，副本开启时间'!$F82</f>
+        <f>'[1]疲劳值，副本开启时间'!$F82</f>
         <v>11</v>
       </c>
       <c r="D22" s="36">
@@ -13119,7 +13293,7 @@
         <v>36</v>
       </c>
       <c r="C23">
-        <f>'[2]疲劳值，副本开启时间'!$F83</f>
+        <f>'[1]疲劳值，副本开启时间'!$F83</f>
         <v>13</v>
       </c>
       <c r="D23" s="36">
@@ -13172,7 +13346,7 @@
         <v>37</v>
       </c>
       <c r="C24">
-        <f>'[2]疲劳值，副本开启时间'!$F84</f>
+        <f>'[1]疲劳值，副本开启时间'!$F84</f>
         <v>14</v>
       </c>
       <c r="D24" s="36">
@@ -13225,7 +13399,7 @@
         <v>38</v>
       </c>
       <c r="C25">
-        <f>'[2]疲劳值，副本开启时间'!$F85</f>
+        <f>'[1]疲劳值，副本开启时间'!$F85</f>
         <v>17</v>
       </c>
       <c r="D25" s="36">
@@ -13278,7 +13452,7 @@
         <v>39</v>
       </c>
       <c r="C26">
-        <f>'[2]疲劳值，副本开启时间'!$F86</f>
+        <f>'[1]疲劳值，副本开启时间'!$F86</f>
         <v>19</v>
       </c>
       <c r="D26" s="36">
@@ -13315,7 +13489,7 @@
         <v>40</v>
       </c>
       <c r="C27">
-        <f>'[2]疲劳值，副本开启时间'!$F87</f>
+        <f>'[1]疲劳值，副本开启时间'!$F87</f>
         <v>22</v>
       </c>
       <c r="D27" s="36">
@@ -13352,7 +13526,7 @@
         <v>41</v>
       </c>
       <c r="C28">
-        <f>'[2]疲劳值，副本开启时间'!$F88</f>
+        <f>'[1]疲劳值，副本开启时间'!$F88</f>
         <v>25</v>
       </c>
       <c r="D28" s="36">
@@ -13389,7 +13563,7 @@
         <v>42</v>
       </c>
       <c r="C29">
-        <f>'[2]疲劳值，副本开启时间'!$F89</f>
+        <f>'[1]疲劳值，副本开启时间'!$F89</f>
         <v>28</v>
       </c>
       <c r="D29" s="36">
@@ -13426,7 +13600,7 @@
         <v>43</v>
       </c>
       <c r="C30">
-        <f>'[2]疲劳值，副本开启时间'!$F90</f>
+        <f>'[1]疲劳值，副本开启时间'!$F90</f>
         <v>31</v>
       </c>
       <c r="D30" s="36">
@@ -13463,7 +13637,7 @@
         <v>44</v>
       </c>
       <c r="C31">
-        <f>'[2]疲劳值，副本开启时间'!$F91</f>
+        <f>'[1]疲劳值，副本开启时间'!$F91</f>
         <v>35</v>
       </c>
       <c r="D31" s="36">
@@ -13500,7 +13674,7 @@
         <v>45</v>
       </c>
       <c r="C32">
-        <f>'[2]疲劳值，副本开启时间'!$F92</f>
+        <f>'[1]疲劳值，副本开启时间'!$F92</f>
         <v>39</v>
       </c>
       <c r="D32" s="36">
@@ -13537,7 +13711,7 @@
         <v>46</v>
       </c>
       <c r="C33">
-        <f>'[2]疲劳值，副本开启时间'!$F93</f>
+        <f>'[1]疲劳值，副本开启时间'!$F93</f>
         <v>43</v>
       </c>
       <c r="D33" s="36">
@@ -13574,7 +13748,7 @@
         <v>47</v>
       </c>
       <c r="C34">
-        <f>'[2]疲劳值，副本开启时间'!$F94</f>
+        <f>'[1]疲劳值，副本开启时间'!$F94</f>
         <v>47</v>
       </c>
       <c r="D34" s="36">
@@ -13611,7 +13785,7 @@
         <v>48</v>
       </c>
       <c r="C35">
-        <f>'[2]疲劳值，副本开启时间'!$F95</f>
+        <f>'[1]疲劳值，副本开启时间'!$F95</f>
         <v>52</v>
       </c>
       <c r="D35" s="36">
@@ -13648,7 +13822,7 @@
         <v>49</v>
       </c>
       <c r="C36">
-        <f>'[2]疲劳值，副本开启时间'!$F96</f>
+        <f>'[1]疲劳值，副本开启时间'!$F96</f>
         <v>58</v>
       </c>
       <c r="D36" s="36">
@@ -13685,7 +13859,7 @@
         <v>50</v>
       </c>
       <c r="C37">
-        <f>'[2]疲劳值，副本开启时间'!$F97</f>
+        <f>'[1]疲劳值，副本开启时间'!$F97</f>
         <v>65</v>
       </c>
       <c r="D37" s="36">
@@ -13734,7 +13908,7 @@
   <dimension ref="A2:U82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+      <selection activeCell="B12" sqref="B12:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13786,11 +13960,11 @@
         <v>120</v>
       </c>
       <c r="C3" s="49">
-        <f>[1]属性拆分生成!D3</f>
+        <f>[2]属性拆分生成!D3</f>
         <v>1</v>
       </c>
       <c r="D3" s="49">
-        <f>[1]属性拆分生成!G3</f>
+        <f>[2]属性拆分生成!G3</f>
         <v>1</v>
       </c>
       <c r="E3" s="50">
@@ -13810,11 +13984,11 @@
         <v>119</v>
       </c>
       <c r="C4" s="49">
-        <f>[1]属性拆分生成!$D$4</f>
+        <f>[2]属性拆分生成!$D$4</f>
         <v>1.1399999999999999</v>
       </c>
       <c r="D4" s="49">
-        <f>[1]属性拆分生成!G4</f>
+        <f>[2]属性拆分生成!G4</f>
         <v>1.18554</v>
       </c>
       <c r="E4" s="50">
@@ -13838,11 +14012,11 @@
         <v>118</v>
       </c>
       <c r="C5" s="49">
-        <f>[1]属性拆分生成!$D$4</f>
+        <f>[2]属性拆分生成!$D$4</f>
         <v>1.1399999999999999</v>
       </c>
       <c r="D5" s="49">
-        <f>[1]属性拆分生成!G4</f>
+        <f>[2]属性拆分生成!G4</f>
         <v>1.18554</v>
       </c>
       <c r="E5" s="50">
@@ -13870,11 +14044,11 @@
         <v>117</v>
       </c>
       <c r="C6" s="49">
-        <f>[1]属性拆分生成!$D$5</f>
+        <f>[2]属性拆分生成!$D$5</f>
         <v>1.28</v>
       </c>
       <c r="D6" s="49">
-        <f>[1]属性拆分生成!G5</f>
+        <f>[2]属性拆分生成!G5</f>
         <v>1.4290800000000001</v>
       </c>
       <c r="E6" s="50">
@@ -13902,11 +14076,11 @@
         <v>116</v>
       </c>
       <c r="C7" s="49">
-        <f>[1]属性拆分生成!$D$5</f>
+        <f>[2]属性拆分生成!$D$5</f>
         <v>1.28</v>
       </c>
       <c r="D7" s="49">
-        <f>[1]属性拆分生成!G5</f>
+        <f>[2]属性拆分生成!G5</f>
         <v>1.4290800000000001</v>
       </c>
       <c r="E7" s="50">
@@ -13934,11 +14108,11 @@
         <v>115</v>
       </c>
       <c r="C8" s="49">
-        <f>[1]属性拆分生成!D6</f>
+        <f>[2]属性拆分生成!D6</f>
         <v>1.42</v>
       </c>
       <c r="D8" s="49">
-        <f>[1]属性拆分生成!G6</f>
+        <f>[2]属性拆分生成!G6</f>
         <v>1.7544724</v>
       </c>
       <c r="E8" s="50">
@@ -13966,11 +14140,11 @@
         <v>114</v>
       </c>
       <c r="C9" s="49">
-        <f>[1]属性拆分生成!D7</f>
+        <f>[2]属性拆分生成!D7</f>
         <v>1.56</v>
       </c>
       <c r="D9" s="49">
-        <f>[1]属性拆分生成!G7</f>
+        <f>[2]属性拆分生成!G7</f>
         <v>2.1279632000000004</v>
       </c>
       <c r="E9" s="50">
@@ -13998,11 +14172,11 @@
         <v>113</v>
       </c>
       <c r="C10" s="49">
-        <f>[1]属性拆分生成!D8</f>
+        <f>[2]属性拆分生成!D8</f>
         <v>1.7</v>
       </c>
       <c r="D10" s="49">
-        <f>[1]属性拆分生成!G8</f>
+        <f>[2]属性拆分生成!G8</f>
         <v>2.5574540000000003</v>
       </c>
       <c r="E10" s="50">
@@ -14030,11 +14204,11 @@
         <v>112</v>
       </c>
       <c r="C11" s="49">
-        <f>[1]属性拆分生成!$D$9</f>
+        <f>[2]属性拆分生成!$D$9</f>
         <v>1.84</v>
       </c>
       <c r="D11" s="49">
-        <f>[1]属性拆分生成!$G$9</f>
+        <f>[2]属性拆分生成!$G$9</f>
         <v>3.1808531440000007</v>
       </c>
       <c r="E11" s="50">
@@ -14062,11 +14236,11 @@
         <v>111</v>
       </c>
       <c r="C12" s="49">
-        <f>[1]属性拆分生成!$D$9</f>
+        <f>[2]属性拆分生成!$D$9</f>
         <v>1.84</v>
       </c>
       <c r="D12" s="49">
-        <f>[1]属性拆分生成!$G$9</f>
+        <f>[2]属性拆分生成!$G$9</f>
         <v>3.1808531440000007</v>
       </c>
       <c r="E12" s="50">
@@ -14094,11 +14268,11 @@
         <v>110</v>
       </c>
       <c r="C13" s="49">
-        <f>[1]属性拆分生成!D10</f>
+        <f>[2]属性拆分生成!D10</f>
         <v>1.98</v>
       </c>
       <c r="D13" s="49">
-        <f>[1]属性拆分生成!G10</f>
+        <f>[2]属性拆分生成!G10</f>
         <v>3.8433286680000003</v>
       </c>
       <c r="E13" s="50">
@@ -14126,11 +14300,11 @@
         <v>109</v>
       </c>
       <c r="C14" s="49">
-        <f>[1]属性拆分生成!D11</f>
+        <f>[2]属性拆分生成!D11</f>
         <v>2.12</v>
       </c>
       <c r="D14" s="49">
-        <f>[1]属性拆分生成!G11</f>
+        <f>[2]属性拆分生成!G11</f>
         <v>4.5898041920000008</v>
       </c>
       <c r="E14" s="50">
@@ -14158,11 +14332,11 @@
         <v>108</v>
       </c>
       <c r="C15" s="49">
-        <f>[1]属性拆分生成!D12</f>
+        <f>[2]属性拆分生成!D12</f>
         <v>2.2599999999999998</v>
       </c>
       <c r="D15" s="49">
-        <f>[1]属性拆分生成!G12</f>
+        <f>[2]属性拆分生成!G12</f>
         <v>5.546279715999999</v>
       </c>
       <c r="E15" s="50">
@@ -14187,11 +14361,11 @@
         <v>100</v>
       </c>
       <c r="C16" s="49">
-        <f>[1]属性拆分生成!D13</f>
+        <f>[2]属性拆分生成!D13</f>
         <v>2.4</v>
       </c>
       <c r="D16" s="49">
-        <f>[1]属性拆分生成!G13</f>
+        <f>[2]属性拆分生成!G13</f>
         <v>6.8165454496000004</v>
       </c>
       <c r="E16" s="50"/>
@@ -14208,20 +14382,20 @@
       <c r="B20" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="C20" s="44">
-        <f>[1]属性拆分生成!I20</f>
+      <c r="C20" s="57">
+        <f>[2]属性拆分生成!I20</f>
         <v>1178</v>
       </c>
-      <c r="D20" s="44">
-        <f>[1]属性拆分生成!I21</f>
+      <c r="D20" s="57">
+        <f>[2]属性拆分生成!I21</f>
         <v>172</v>
       </c>
-      <c r="E20" s="44">
-        <f>[1]属性拆分生成!I22</f>
+      <c r="E20" s="57">
+        <f>[2]属性拆分生成!I22</f>
         <v>172</v>
       </c>
-      <c r="F20" s="44">
-        <f>[1]属性拆分生成!I23</f>
+      <c r="F20" s="57">
+        <f>[2]属性拆分生成!I23</f>
         <v>259</v>
       </c>
     </row>
@@ -14229,19 +14403,19 @@
       <c r="B21" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="C21" s="44">
+      <c r="C21" s="57">
         <f>C20*$E$3</f>
         <v>589</v>
       </c>
-      <c r="D21" s="44">
+      <c r="D21" s="57">
         <f>D20*$E$3</f>
         <v>86</v>
       </c>
-      <c r="E21" s="44">
+      <c r="E21" s="57">
         <f>E20*$E$3</f>
         <v>86</v>
       </c>
-      <c r="F21" s="44">
+      <c r="F21" s="57">
         <f>F20*$E$3</f>
         <v>129.5</v>
       </c>
@@ -15519,7 +15693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AI84"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J34" workbookViewId="0">
       <selection activeCell="J225" sqref="J225"/>
     </sheetView>
   </sheetViews>
@@ -21056,8 +21230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F245"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J225" sqref="J225"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -23262,7 +23436,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="44">
-        <f t="shared" ref="A99:A130" si="2">A69+100</f>
+        <f t="shared" ref="A99:A124" si="2">A69+100</f>
         <v>405</v>
       </c>
       <c r="B99" s="51">
@@ -25992,7 +26166,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A219" s="44">
-        <f t="shared" ref="A219:A250" si="5">A189+100</f>
+        <f t="shared" ref="A219:A244" si="5">A189+100</f>
         <v>10405</v>
       </c>
       <c r="B219" s="51">
@@ -26603,3092 +26777,3924 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O149"/>
+  <dimension ref="A1:O151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="F151" sqref="F151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="7" max="7" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="56" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="56" t="s">
         <v>221</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="56" t="s">
         <v>219</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="56" t="s">
         <v>219</v>
       </c>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71" t="s">
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56" t="s">
         <v>222</v>
       </c>
-      <c r="H1" s="71" t="s">
+      <c r="H1" s="56" t="s">
         <v>222</v>
       </c>
-      <c r="I1" s="71" t="s">
+      <c r="I1" s="56" t="s">
         <v>219</v>
       </c>
-      <c r="J1" s="71" t="s">
+      <c r="J1" s="56" t="s">
         <v>222</v>
       </c>
-      <c r="K1" s="71"/>
+      <c r="K1" s="56"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="56" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="56" t="s">
         <v>223</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="56" t="s">
         <v>224</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="56" t="s">
         <v>225</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71" t="s">
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56" t="s">
         <v>226</v>
       </c>
-      <c r="H2" s="71" t="s">
+      <c r="H2" s="56" t="s">
         <v>227</v>
       </c>
-      <c r="I2" s="71" t="s">
+      <c r="I2" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="J2" s="71" t="s">
+      <c r="J2" s="56" t="s">
         <v>229</v>
       </c>
-      <c r="K2" s="71"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="56" t="s">
         <v>212</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="56" t="s">
         <v>230</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="56" t="s">
         <v>231</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71" t="s">
-        <v>244</v>
-      </c>
-      <c r="G3" s="71" t="s">
+      <c r="E3" s="56"/>
+      <c r="F3" s="56" t="s">
+        <v>280</v>
+      </c>
+      <c r="G3" s="56" t="s">
         <v>233</v>
       </c>
-      <c r="H3" s="71" t="s">
+      <c r="H3" s="56" t="s">
         <v>233</v>
       </c>
-      <c r="I3" s="71" t="s">
+      <c r="I3" s="56" t="s">
         <v>234</v>
       </c>
-      <c r="J3" s="71" t="s">
+      <c r="J3" s="56" t="s">
         <v>235</v>
       </c>
-      <c r="K3" s="71"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="71">
+      <c r="A4" s="56">
         <v>70001</v>
       </c>
-      <c r="B4" s="71">
-        <v>1</v>
-      </c>
-      <c r="C4" s="71">
+      <c r="B4" s="56">
+        <v>1</v>
+      </c>
+      <c r="C4" s="56">
         <v>301</v>
       </c>
-      <c r="D4" s="71">
+      <c r="D4" s="56">
         <v>10301</v>
       </c>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71">
-        <v>1</v>
-      </c>
-      <c r="G4" t="str">
+      <c r="E4" s="56"/>
+      <c r="F4" s="56">
+        <v>0</v>
+      </c>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" s="56">
+        <v>70001</v>
+      </c>
+      <c r="B5" s="56">
+        <v>2</v>
+      </c>
+      <c r="C5" s="56">
+        <v>311</v>
+      </c>
+      <c r="D5" s="56">
+        <v>10311</v>
+      </c>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56">
+        <v>1</v>
+      </c>
+      <c r="G5" t="str">
         <f>CONCATENATE("3_11001_",强化消耗石头!D8,",","1_2_",强化消耗石头!M8)</f>
         <v>3_11001_1,1_2_100</v>
       </c>
-      <c r="H4" s="71" t="s">
+      <c r="H5" s="56" t="s">
         <v>237</v>
       </c>
-      <c r="I4" s="71">
-        <v>0</v>
-      </c>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="71">
+      <c r="I5" s="56">
+        <v>0</v>
+      </c>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" s="56">
         <v>70001</v>
       </c>
-      <c r="B5" s="71">
+      <c r="B6" s="56">
+        <v>3</v>
+      </c>
+      <c r="C6" s="56">
+        <v>321</v>
+      </c>
+      <c r="D6" s="56">
+        <v>10321</v>
+      </c>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56">
         <v>2</v>
       </c>
-      <c r="C5" s="71">
-        <v>311</v>
-      </c>
-      <c r="D5" s="71">
-        <v>10311</v>
-      </c>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71">
-        <v>2</v>
-      </c>
-      <c r="G5" t="str">
+      <c r="G6" t="str">
         <f>CONCATENATE("3_11001_",强化消耗石头!D9,",","1_2_",强化消耗石头!M9)</f>
         <v>3_11001_2,1_2_150</v>
       </c>
-      <c r="H5" s="71" t="s">
+      <c r="H6" s="56" t="s">
         <v>238</v>
       </c>
-      <c r="I5" s="71">
-        <v>0</v>
-      </c>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="71">
+      <c r="I6" s="56">
+        <v>0</v>
+      </c>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="56">
         <v>70001</v>
       </c>
-      <c r="B6" s="71">
+      <c r="B7" s="56">
+        <v>4</v>
+      </c>
+      <c r="C7" s="56">
+        <v>331</v>
+      </c>
+      <c r="D7" s="56">
+        <v>10331</v>
+      </c>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56">
         <v>3</v>
       </c>
-      <c r="C6" s="71">
-        <v>321</v>
-      </c>
-      <c r="D6" s="71">
-        <v>10321</v>
-      </c>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71">
-        <v>3</v>
-      </c>
-      <c r="G6" t="str">
+      <c r="G7" t="str">
         <f>CONCATENATE("3_11001_",强化消耗石头!D10,",","1_2_",强化消耗石头!M10)</f>
         <v>3_11001_2,1_2_200</v>
       </c>
-      <c r="H6" s="71" t="s">
+      <c r="H7" s="56" t="s">
         <v>239</v>
       </c>
-      <c r="I6" s="71">
-        <v>0</v>
-      </c>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="71">
+      <c r="I7" s="56">
+        <v>0</v>
+      </c>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" s="56">
         <v>70001</v>
       </c>
-      <c r="B7" s="71">
+      <c r="B8" s="56">
+        <v>5</v>
+      </c>
+      <c r="C8" s="56">
+        <v>341</v>
+      </c>
+      <c r="D8" s="56">
+        <v>10341</v>
+      </c>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56">
         <v>4</v>
       </c>
-      <c r="C7" s="71">
-        <v>331</v>
-      </c>
-      <c r="D7" s="71">
-        <v>10331</v>
-      </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71">
-        <v>4</v>
-      </c>
-      <c r="G7" t="str">
+      <c r="G8" t="str">
         <f>CONCATENATE("3_11001_",强化消耗石头!D11,",","1_2_",强化消耗石头!M11)</f>
         <v>3_11001_2,1_2_250</v>
       </c>
-      <c r="H7" s="71" t="s">
+      <c r="H8" s="56" t="s">
         <v>240</v>
       </c>
-      <c r="I7" s="71">
-        <v>0</v>
-      </c>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="71">
+      <c r="I8" s="56">
+        <v>0</v>
+      </c>
+      <c r="J8" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="K8" s="56"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" s="56">
         <v>70001</v>
       </c>
-      <c r="B8" s="71">
+      <c r="B9" s="56">
+        <v>6</v>
+      </c>
+      <c r="C9" s="56">
+        <v>1</v>
+      </c>
+      <c r="D9" s="56">
+        <v>7</v>
+      </c>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56">
         <v>5</v>
       </c>
-      <c r="C8" s="71">
-        <v>341</v>
-      </c>
-      <c r="D8" s="71">
-        <v>10341</v>
-      </c>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71">
-        <v>5</v>
-      </c>
-      <c r="G8" t="str">
+      <c r="G9" t="str">
         <f>CONCATENATE("3_11001_",强化消耗石头!D12,",","1_2_",强化消耗石头!M12)</f>
         <v>3_11001_3,1_2_300</v>
       </c>
-      <c r="H8" s="71" t="s">
+      <c r="H9" s="56" t="s">
         <v>241</v>
       </c>
-      <c r="I8" s="71">
-        <v>0</v>
-      </c>
-      <c r="J8" s="71" t="s">
+      <c r="I9" s="56">
+        <v>0</v>
+      </c>
+      <c r="J9" s="56" t="s">
         <v>242</v>
       </c>
-      <c r="K8" s="71"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="71">
-        <v>70001</v>
-      </c>
-      <c r="B9" s="71">
+      <c r="K9" s="56"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" s="56">
+        <v>70002</v>
+      </c>
+      <c r="B10" s="56">
+        <v>1</v>
+      </c>
+      <c r="C10" s="56">
+        <v>302</v>
+      </c>
+      <c r="D10" s="56">
+        <v>10302</v>
+      </c>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56">
         <v>6</v>
       </c>
-      <c r="C9" s="71">
-        <v>1</v>
-      </c>
-      <c r="D9" s="71">
-        <v>7</v>
-      </c>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71">
-        <v>6</v>
-      </c>
-      <c r="G9" t="str">
+      <c r="G10" t="str">
         <f>CONCATENATE("3_11001_",强化消耗石头!D13,",","1_2_",强化消耗石头!M13)</f>
         <v>3_11001_4,1_2_350</v>
       </c>
-      <c r="H9" s="71" t="s">
+      <c r="H10" s="56" t="s">
         <v>243</v>
       </c>
-      <c r="I9" s="71">
-        <v>0</v>
-      </c>
-      <c r="J9" s="71" t="s">
-        <v>242</v>
-      </c>
-      <c r="K9" s="71"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="71">
+      <c r="I10" s="56">
+        <v>0</v>
+      </c>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" s="56">
         <v>70002</v>
       </c>
-      <c r="B10" s="71">
-        <v>1</v>
-      </c>
-      <c r="C10" s="71">
-        <v>302</v>
-      </c>
-      <c r="D10" s="71">
-        <v>10302</v>
-      </c>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71">
+      <c r="B11" s="56">
+        <v>2</v>
+      </c>
+      <c r="C11" s="56">
+        <v>312</v>
+      </c>
+      <c r="D11" s="56">
+        <v>10312</v>
+      </c>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56">
         <v>7</v>
       </c>
-      <c r="G10" t="str">
+      <c r="G11" t="str">
         <f>CONCATENATE("3_11001_",强化消耗石头!D14,",","1_2_",强化消耗石头!M14)</f>
         <v>3_11001_4,1_2_400</v>
       </c>
-      <c r="H10" s="71" t="s">
+      <c r="H11" s="56" t="s">
         <v>237</v>
       </c>
-      <c r="I10" s="71">
-        <v>0</v>
-      </c>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="71">
+      <c r="I11" s="56">
+        <v>0</v>
+      </c>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" s="56">
         <v>70002</v>
       </c>
-      <c r="B11" s="71">
-        <v>2</v>
-      </c>
-      <c r="C11" s="71">
-        <v>312</v>
-      </c>
-      <c r="D11" s="71">
-        <v>10312</v>
-      </c>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71">
+      <c r="B12" s="56">
+        <v>3</v>
+      </c>
+      <c r="C12" s="56">
+        <v>322</v>
+      </c>
+      <c r="D12" s="56">
+        <v>10322</v>
+      </c>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56">
         <v>8</v>
       </c>
-      <c r="G11" t="str">
+      <c r="G12" t="str">
         <f>CONCATENATE("3_11001_",强化消耗石头!D15,",","1_2_",强化消耗石头!M15)</f>
         <v>3_11001_5,1_2_450</v>
       </c>
-      <c r="H11" s="71" t="s">
+      <c r="H12" s="56" t="s">
         <v>238</v>
       </c>
-      <c r="I11" s="71">
-        <v>0</v>
-      </c>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="71">
+      <c r="I12" s="56">
+        <v>0</v>
+      </c>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" s="56">
         <v>70002</v>
       </c>
-      <c r="B12" s="71">
-        <v>3</v>
-      </c>
-      <c r="C12" s="71">
-        <v>322</v>
-      </c>
-      <c r="D12" s="71">
-        <v>10322</v>
-      </c>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71">
+      <c r="B13" s="56">
+        <v>4</v>
+      </c>
+      <c r="C13" s="56">
+        <v>332</v>
+      </c>
+      <c r="D13" s="56">
+        <v>10332</v>
+      </c>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56">
         <v>9</v>
       </c>
-      <c r="G12" t="str">
+      <c r="G13" t="str">
         <f>CONCATENATE("3_11001_",强化消耗石头!D16,",","1_2_",强化消耗石头!M16)</f>
         <v>3_11001_6,1_2_500</v>
       </c>
-      <c r="H12" s="71" t="s">
+      <c r="H13" s="56" t="s">
         <v>239</v>
       </c>
-      <c r="I12" s="71">
-        <v>0</v>
-      </c>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="71">
+      <c r="I13" s="56">
+        <v>0</v>
+      </c>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" s="56">
         <v>70002</v>
       </c>
-      <c r="B13" s="71">
-        <v>4</v>
-      </c>
-      <c r="C13" s="71">
-        <v>332</v>
-      </c>
-      <c r="D13" s="71">
-        <v>10332</v>
-      </c>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71">
+      <c r="B14" s="56">
+        <v>5</v>
+      </c>
+      <c r="C14" s="56">
+        <v>342</v>
+      </c>
+      <c r="D14" s="56">
+        <v>10342</v>
+      </c>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56">
         <v>10</v>
       </c>
-      <c r="G13" t="str">
+      <c r="G14" s="56" t="str">
+        <f>CONCATENATE("3_11101_",进阶消耗!D3,",","1_2_",强化消耗石头!N30,",","3_11110_",进阶消耗!F4)</f>
+        <v>3_11101_40,1_2_22100,3_11110_1</v>
+      </c>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" s="56">
+        <v>70002</v>
+      </c>
+      <c r="B15" s="56">
+        <v>6</v>
+      </c>
+      <c r="C15" s="56">
+        <v>1</v>
+      </c>
+      <c r="D15" s="56">
+        <v>7</v>
+      </c>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56">
+        <v>11</v>
+      </c>
+      <c r="G15" t="str">
         <f>CONCATENATE("3_11002_",强化消耗石头!D18/强化消耗石头!$J$2,",","1_2_",强化消耗石头!M18)</f>
         <v>3_11002_1,1_2_1000</v>
       </c>
-      <c r="H13" s="71" t="s">
+      <c r="H15" s="56" t="s">
         <v>240</v>
       </c>
-      <c r="I13" s="71">
-        <v>0</v>
-      </c>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="71">
-        <v>70002</v>
-      </c>
-      <c r="B14" s="71">
-        <v>5</v>
-      </c>
-      <c r="C14" s="71">
-        <v>342</v>
-      </c>
-      <c r="D14" s="71">
-        <v>10342</v>
-      </c>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71">
-        <v>11</v>
-      </c>
-      <c r="G14" t="str">
+      <c r="I15" s="56">
+        <v>0</v>
+      </c>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A16" s="56">
+        <v>70003</v>
+      </c>
+      <c r="B16" s="56">
+        <v>1</v>
+      </c>
+      <c r="C16" s="56">
+        <v>303</v>
+      </c>
+      <c r="D16" s="56">
+        <v>10303</v>
+      </c>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56">
+        <v>12</v>
+      </c>
+      <c r="G16" t="str">
         <f>CONCATENATE("3_11002_",强化消耗石头!D19/强化消耗石头!$J$2,",","1_2_",强化消耗石头!M19)</f>
         <v>3_11002_2,1_2_1100</v>
       </c>
-      <c r="H14" s="71" t="s">
+      <c r="H16" s="56" t="s">
         <v>241</v>
       </c>
-      <c r="I14" s="71">
-        <v>0</v>
-      </c>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="71">
-        <v>70002</v>
-      </c>
-      <c r="B15" s="71">
-        <v>6</v>
-      </c>
-      <c r="C15" s="71">
-        <v>1</v>
-      </c>
-      <c r="D15" s="71">
-        <v>7</v>
-      </c>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71">
-        <v>12</v>
-      </c>
-      <c r="G15" t="str">
+      <c r="I16" s="56">
+        <v>0</v>
+      </c>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="O16" s="56" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A17" s="56">
+        <v>70003</v>
+      </c>
+      <c r="B17" s="56">
+        <v>2</v>
+      </c>
+      <c r="C17" s="56">
+        <v>313</v>
+      </c>
+      <c r="D17" s="56">
+        <v>10313</v>
+      </c>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56">
+        <v>13</v>
+      </c>
+      <c r="G17" t="str">
         <f>CONCATENATE("3_11002_",强化消耗石头!D20/强化消耗石头!$J$2,",","1_2_",强化消耗石头!M20)</f>
         <v>3_11002_2,1_2_1200</v>
       </c>
-      <c r="H15" s="71" t="s">
+      <c r="H17" s="56" t="s">
         <v>243</v>
       </c>
-      <c r="I15" s="71">
-        <v>0</v>
-      </c>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" s="71">
+      <c r="I17" s="56">
+        <v>0</v>
+      </c>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A18" s="56">
         <v>70003</v>
       </c>
-      <c r="B16" s="71">
-        <v>1</v>
-      </c>
-      <c r="C16" s="71">
-        <v>303</v>
-      </c>
-      <c r="D16" s="71">
-        <v>10303</v>
-      </c>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71">
-        <v>13</v>
-      </c>
-      <c r="G16" t="str">
+      <c r="B18" s="56">
+        <v>3</v>
+      </c>
+      <c r="C18" s="56">
+        <v>323</v>
+      </c>
+      <c r="D18" s="56">
+        <v>10323</v>
+      </c>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56">
+        <v>14</v>
+      </c>
+      <c r="G18" t="str">
         <f>CONCATENATE("3_11002_",强化消耗石头!D21/强化消耗石头!$J$2,",","1_2_",强化消耗石头!M21)</f>
         <v>3_11002_3,1_2_1300</v>
       </c>
-      <c r="H16" s="71" t="s">
+      <c r="H18" s="56" t="s">
         <v>237</v>
       </c>
-      <c r="I16" s="71">
-        <v>0</v>
-      </c>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
-      <c r="O16" s="71" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="71">
+      <c r="I18" s="56">
+        <v>0</v>
+      </c>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A19" s="56">
         <v>70003</v>
       </c>
-      <c r="B17" s="71">
-        <v>2</v>
-      </c>
-      <c r="C17" s="71">
-        <v>313</v>
-      </c>
-      <c r="D17" s="71">
-        <v>10313</v>
-      </c>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71">
-        <v>14</v>
-      </c>
-      <c r="G17" t="str">
+      <c r="B19" s="56">
+        <v>4</v>
+      </c>
+      <c r="C19" s="56">
+        <v>333</v>
+      </c>
+      <c r="D19" s="56">
+        <v>10333</v>
+      </c>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56">
+        <v>15</v>
+      </c>
+      <c r="G19" t="str">
         <f>CONCATENATE("3_11002_",强化消耗石头!D22/强化消耗石头!$J$2,",","1_2_",强化消耗石头!M22)</f>
         <v>3_11002_3,1_2_1400</v>
       </c>
-      <c r="H17" s="71" t="s">
+      <c r="H19" s="56" t="s">
         <v>238</v>
       </c>
-      <c r="I17" s="71">
-        <v>0</v>
-      </c>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A18" s="71">
+      <c r="I19" s="56">
+        <v>0</v>
+      </c>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A20" s="56">
         <v>70003</v>
       </c>
-      <c r="B18" s="71">
-        <v>3</v>
-      </c>
-      <c r="C18" s="71">
-        <v>323</v>
-      </c>
-      <c r="D18" s="71">
-        <v>10323</v>
-      </c>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71">
-        <v>15</v>
-      </c>
-      <c r="G18" t="str">
+      <c r="B20" s="56">
+        <v>5</v>
+      </c>
+      <c r="C20" s="56">
+        <v>343</v>
+      </c>
+      <c r="D20" s="56">
+        <v>10343</v>
+      </c>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56">
+        <v>16</v>
+      </c>
+      <c r="G20" t="str">
         <f>CONCATENATE("3_11002_",强化消耗石头!D23/强化消耗石头!$J$2,",","1_2_",强化消耗石头!M23)</f>
         <v>3_11002_3,1_2_1500</v>
       </c>
-      <c r="H18" s="71" t="s">
+      <c r="H20" s="56" t="s">
         <v>239</v>
       </c>
-      <c r="I18" s="71">
-        <v>0</v>
-      </c>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A19" s="71">
+      <c r="I20" s="56">
+        <v>0</v>
+      </c>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A21" s="56">
         <v>70003</v>
       </c>
-      <c r="B19" s="71">
-        <v>4</v>
-      </c>
-      <c r="C19" s="71">
-        <v>333</v>
-      </c>
-      <c r="D19" s="71">
-        <v>10333</v>
-      </c>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71">
-        <v>16</v>
-      </c>
-      <c r="G19" t="str">
+      <c r="B21" s="56">
+        <v>6</v>
+      </c>
+      <c r="C21" s="56">
+        <v>1</v>
+      </c>
+      <c r="D21" s="56">
+        <v>7</v>
+      </c>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56">
+        <v>17</v>
+      </c>
+      <c r="G21" t="str">
         <f>CONCATENATE("3_11002_",强化消耗石头!D24/强化消耗石头!$J$2,",","1_2_",强化消耗石头!M24)</f>
         <v>3_11002_4,1_2_1600</v>
       </c>
-      <c r="H19" s="71" t="s">
+      <c r="H21" s="56" t="s">
         <v>240</v>
       </c>
-      <c r="I19" s="71">
-        <v>0</v>
-      </c>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A20" s="71">
-        <v>70003</v>
-      </c>
-      <c r="B20" s="71">
-        <v>5</v>
-      </c>
-      <c r="C20" s="71">
-        <v>343</v>
-      </c>
-      <c r="D20" s="71">
-        <v>10343</v>
-      </c>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71">
-        <v>17</v>
-      </c>
-      <c r="G20" t="str">
+      <c r="I21" s="56">
+        <v>0</v>
+      </c>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A22" s="56">
+        <v>70004</v>
+      </c>
+      <c r="B22" s="56">
+        <v>1</v>
+      </c>
+      <c r="C22" s="56">
+        <v>304</v>
+      </c>
+      <c r="D22" s="56">
+        <v>10304</v>
+      </c>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56">
+        <v>18</v>
+      </c>
+      <c r="G22" t="str">
         <f>CONCATENATE("3_11002_",强化消耗石头!D25/强化消耗石头!$J$2,",","1_2_",强化消耗石头!M25)</f>
         <v>3_11002_4,1_2_1700</v>
       </c>
-      <c r="H20" s="71" t="s">
+      <c r="H22" s="56" t="s">
         <v>241</v>
       </c>
-      <c r="I20" s="71">
-        <v>0</v>
-      </c>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A21" s="71">
-        <v>70003</v>
-      </c>
-      <c r="B21" s="71">
-        <v>6</v>
-      </c>
-      <c r="C21" s="71">
-        <v>1</v>
-      </c>
-      <c r="D21" s="71">
-        <v>7</v>
-      </c>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71">
-        <v>18</v>
-      </c>
-      <c r="G21" t="str">
+      <c r="I22" s="56">
+        <v>0</v>
+      </c>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A23" s="56">
+        <v>70004</v>
+      </c>
+      <c r="B23" s="56">
+        <v>2</v>
+      </c>
+      <c r="C23" s="56">
+        <v>314</v>
+      </c>
+      <c r="D23" s="56">
+        <v>10314</v>
+      </c>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56">
+        <v>19</v>
+      </c>
+      <c r="G23" t="str">
         <f>CONCATENATE("3_11002_",强化消耗石头!D26/强化消耗石头!$J$2,",","1_2_",强化消耗石头!M26)</f>
         <v>3_11002_5,1_2_1800</v>
       </c>
-      <c r="H21" s="71" t="s">
+      <c r="H23" s="56" t="s">
         <v>243</v>
       </c>
-      <c r="I21" s="71">
-        <v>0</v>
-      </c>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A22" s="71">
+      <c r="I23" s="56">
+        <v>0</v>
+      </c>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A24" s="56">
         <v>70004</v>
       </c>
-      <c r="B22" s="71">
-        <v>1</v>
-      </c>
-      <c r="C22" s="71">
-        <v>304</v>
-      </c>
-      <c r="D22" s="71">
-        <v>10304</v>
-      </c>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71">
+      <c r="B24" s="56">
+        <v>3</v>
+      </c>
+      <c r="C24" s="56">
+        <v>324</v>
+      </c>
+      <c r="D24" s="56">
+        <v>10324</v>
+      </c>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56">
         <v>20</v>
       </c>
-      <c r="G22" t="str">
+      <c r="G24" s="56" t="str">
+        <f>CONCATENATE("3_11101_",进阶消耗!D4,",","1_2_",强化消耗石头!N40,",","3_11111_",进阶消耗!F5)</f>
+        <v>3_11101_80,1_2_39000,3_11111_1</v>
+      </c>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A25" s="56">
+        <v>70004</v>
+      </c>
+      <c r="B25" s="56">
+        <v>4</v>
+      </c>
+      <c r="C25" s="56">
+        <v>334</v>
+      </c>
+      <c r="D25" s="56">
+        <v>10334</v>
+      </c>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56">
+        <v>21</v>
+      </c>
+      <c r="G25" t="str">
         <f>CONCATENATE("3_11002_",强化消耗石头!D28/强化消耗石头!$J$2,",","1_2_",强化消耗石头!M28)</f>
         <v>3_11002_4,1_2_3000</v>
       </c>
-      <c r="H22" s="71" t="s">
+      <c r="H25" s="56" t="s">
         <v>238</v>
       </c>
-      <c r="I22" s="71">
-        <v>0</v>
-      </c>
-      <c r="J22" s="71"/>
-      <c r="K22" s="71"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A23" s="71">
+      <c r="I25" s="56">
+        <v>0</v>
+      </c>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A26" s="56">
         <v>70004</v>
       </c>
-      <c r="B23" s="71">
-        <v>2</v>
-      </c>
-      <c r="C23" s="71">
-        <v>314</v>
-      </c>
-      <c r="D23" s="71">
-        <v>10314</v>
-      </c>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71">
-        <v>21</v>
-      </c>
-      <c r="G23" t="str">
+      <c r="B26" s="56">
+        <v>5</v>
+      </c>
+      <c r="C26" s="56">
+        <v>344</v>
+      </c>
+      <c r="D26" s="56">
+        <v>10344</v>
+      </c>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56">
+        <v>22</v>
+      </c>
+      <c r="G26" t="str">
         <f>CONCATENATE("3_11002_",强化消耗石头!D29/强化消耗石头!$J$2,",","1_2_",强化消耗石头!M29)</f>
         <v>3_11002_5,1_2_3200</v>
       </c>
-      <c r="H23" s="71" t="s">
+      <c r="H26" s="56" t="s">
         <v>239</v>
       </c>
-      <c r="I23" s="71">
-        <v>0</v>
-      </c>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A24" s="71">
+      <c r="I26" s="56">
+        <v>0</v>
+      </c>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A27" s="56">
         <v>70004</v>
       </c>
-      <c r="B24" s="71">
-        <v>3</v>
-      </c>
-      <c r="C24" s="71">
-        <v>324</v>
-      </c>
-      <c r="D24" s="71">
-        <v>10324</v>
-      </c>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71">
-        <v>22</v>
-      </c>
-      <c r="G24" t="str">
+      <c r="B27" s="56">
+        <v>6</v>
+      </c>
+      <c r="C27" s="56">
+        <v>1</v>
+      </c>
+      <c r="D27" s="56">
+        <v>7</v>
+      </c>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56">
+        <v>23</v>
+      </c>
+      <c r="G27" t="str">
         <f>CONCATENATE("3_11002_",强化消耗石头!D30/强化消耗石头!$J$2,",","1_2_",强化消耗石头!M30)</f>
         <v>3_11002_5,1_2_3400</v>
       </c>
-      <c r="H24" s="71" t="s">
+      <c r="H27" s="56" t="s">
         <v>240</v>
       </c>
-      <c r="I24" s="71">
-        <v>0</v>
-      </c>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A25" s="71">
-        <v>70004</v>
-      </c>
-      <c r="B25" s="71">
-        <v>4</v>
-      </c>
-      <c r="C25" s="71">
-        <v>334</v>
-      </c>
-      <c r="D25" s="71">
-        <v>10334</v>
-      </c>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71">
-        <v>23</v>
-      </c>
-      <c r="G25" t="str">
+      <c r="I27" s="56">
+        <v>0</v>
+      </c>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A28" s="56">
+        <v>70005</v>
+      </c>
+      <c r="B28" s="56">
+        <v>1</v>
+      </c>
+      <c r="C28" s="56">
+        <v>305</v>
+      </c>
+      <c r="D28" s="56">
+        <v>10305</v>
+      </c>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56">
+        <v>24</v>
+      </c>
+      <c r="G28" t="str">
         <f>CONCATENATE("3_11002_",强化消耗石头!D31/强化消耗石头!$J$2,",","1_2_",强化消耗石头!M31)</f>
         <v>3_11002_6,1_2_3600</v>
       </c>
-      <c r="H25" s="71" t="s">
+      <c r="H28" s="56" t="s">
         <v>241</v>
       </c>
-      <c r="I25" s="71">
-        <v>0</v>
-      </c>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A26" s="71">
-        <v>70004</v>
-      </c>
-      <c r="B26" s="71">
-        <v>5</v>
-      </c>
-      <c r="C26" s="71">
-        <v>344</v>
-      </c>
-      <c r="D26" s="71">
-        <v>10344</v>
-      </c>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71">
-        <v>24</v>
-      </c>
-      <c r="G26" t="str">
+      <c r="I28" s="56">
+        <v>0</v>
+      </c>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A29" s="56">
+        <v>70005</v>
+      </c>
+      <c r="B29" s="56">
+        <v>2</v>
+      </c>
+      <c r="C29" s="56">
+        <v>315</v>
+      </c>
+      <c r="D29" s="56">
+        <v>10315</v>
+      </c>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56">
+        <v>25</v>
+      </c>
+      <c r="G29" t="str">
         <f>CONCATENATE("3_11002_",强化消耗石头!D32/强化消耗石头!$J$2,",","1_2_",强化消耗石头!M32)</f>
         <v>3_11002_6,1_2_3800</v>
       </c>
-      <c r="H26" s="71" t="s">
+      <c r="H29" s="56" t="s">
         <v>243</v>
       </c>
-      <c r="I26" s="71">
-        <v>0</v>
-      </c>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A27" s="71">
-        <v>70004</v>
-      </c>
-      <c r="B27" s="71">
-        <v>6</v>
-      </c>
-      <c r="C27" s="71">
-        <v>1</v>
-      </c>
-      <c r="D27" s="71">
-        <v>7</v>
-      </c>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71">
-        <v>25</v>
-      </c>
-      <c r="G27" t="str">
+      <c r="I29" s="56">
+        <v>0</v>
+      </c>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A30" s="56">
+        <v>70005</v>
+      </c>
+      <c r="B30" s="56">
+        <v>3</v>
+      </c>
+      <c r="C30" s="56">
+        <v>325</v>
+      </c>
+      <c r="D30" s="56">
+        <v>10325</v>
+      </c>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56">
+        <v>26</v>
+      </c>
+      <c r="G30" t="str">
         <f>CONCATENATE("3_11002_",强化消耗石头!D33/强化消耗石头!$J$2,",","1_2_",强化消耗石头!M33)</f>
         <v>3_11002_7,1_2_4000</v>
       </c>
-      <c r="H27" s="71" t="s">
+      <c r="H30" s="56" t="s">
         <v>237</v>
       </c>
-      <c r="I27" s="71">
-        <v>0</v>
-      </c>
-      <c r="J27" s="71"/>
-      <c r="K27" s="71"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A28" s="71">
+      <c r="I30" s="56">
+        <v>0</v>
+      </c>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A31" s="56">
         <v>70005</v>
       </c>
-      <c r="B28" s="71">
-        <v>1</v>
-      </c>
-      <c r="C28" s="71">
-        <v>305</v>
-      </c>
-      <c r="D28" s="71">
-        <v>10305</v>
-      </c>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71">
-        <v>26</v>
-      </c>
-      <c r="G28" t="str">
+      <c r="B31" s="56">
+        <v>4</v>
+      </c>
+      <c r="C31" s="56">
+        <v>335</v>
+      </c>
+      <c r="D31" s="56">
+        <v>10335</v>
+      </c>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56">
+        <v>27</v>
+      </c>
+      <c r="G31" t="str">
         <f>CONCATENATE("3_11003_",强化消耗石头!D34/强化消耗石头!$J$2^2,",","1_2_",强化消耗石头!M34)</f>
         <v>3_11003_2,1_2_4200</v>
       </c>
-      <c r="H28" s="71" t="s">
+      <c r="H31" s="56" t="s">
         <v>238</v>
       </c>
-      <c r="I28" s="71">
-        <v>0</v>
-      </c>
-      <c r="J28" s="71"/>
-      <c r="K28" s="71"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A29" s="71">
+      <c r="I31" s="56">
+        <v>0</v>
+      </c>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A32" s="56">
         <v>70005</v>
       </c>
-      <c r="B29" s="71">
-        <v>2</v>
-      </c>
-      <c r="C29" s="71">
-        <v>315</v>
-      </c>
-      <c r="D29" s="71">
-        <v>10315</v>
-      </c>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71">
-        <v>27</v>
-      </c>
-      <c r="G29" t="str">
+      <c r="B32" s="56">
+        <v>5</v>
+      </c>
+      <c r="C32" s="56">
+        <v>345</v>
+      </c>
+      <c r="D32" s="56">
+        <v>10345</v>
+      </c>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56">
+        <v>28</v>
+      </c>
+      <c r="G32" t="str">
         <f>CONCATENATE("3_11003_",强化消耗石头!D35/强化消耗石头!$J$2^2,",","1_2_",强化消耗石头!M35)</f>
         <v>3_11003_3,1_2_4400</v>
       </c>
-      <c r="H29" s="71" t="s">
+      <c r="H32" s="56" t="s">
         <v>239</v>
       </c>
-      <c r="I29" s="71">
-        <v>0</v>
-      </c>
-      <c r="J29" s="71"/>
-      <c r="K29" s="71"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A30" s="71">
+      <c r="I32" s="56">
+        <v>0</v>
+      </c>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A33" s="56">
         <v>70005</v>
       </c>
-      <c r="B30" s="71">
-        <v>3</v>
-      </c>
-      <c r="C30" s="71">
-        <v>325</v>
-      </c>
-      <c r="D30" s="71">
-        <v>10325</v>
-      </c>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71">
-        <v>28</v>
-      </c>
-      <c r="G30" t="str">
+      <c r="B33" s="56">
+        <v>6</v>
+      </c>
+      <c r="C33" s="56">
+        <v>1</v>
+      </c>
+      <c r="D33" s="56">
+        <v>7</v>
+      </c>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56">
+        <v>29</v>
+      </c>
+      <c r="G33" t="str">
         <f>CONCATENATE("3_11003_",强化消耗石头!D36/强化消耗石头!$J$2^2,",","1_2_",强化消耗石头!M36)</f>
         <v>3_11003_3,1_2_4600</v>
       </c>
-      <c r="H30" s="71" t="s">
+      <c r="H33" s="56" t="s">
         <v>240</v>
       </c>
-      <c r="I30" s="71">
-        <v>0</v>
-      </c>
-      <c r="J30" s="71"/>
-      <c r="K30" s="71"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A31" s="71">
-        <v>70005</v>
-      </c>
-      <c r="B31" s="71">
-        <v>4</v>
-      </c>
-      <c r="C31" s="71">
-        <v>335</v>
-      </c>
-      <c r="D31" s="71">
-        <v>10335</v>
-      </c>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71">
-        <v>32</v>
-      </c>
-      <c r="G31" t="str">
+      <c r="I33" s="56">
+        <v>0</v>
+      </c>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A34" s="56">
+        <v>70006</v>
+      </c>
+      <c r="B34" s="56">
+        <v>1</v>
+      </c>
+      <c r="C34" s="56">
+        <v>306</v>
+      </c>
+      <c r="D34" s="56">
+        <v>10306</v>
+      </c>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56">
+        <v>30</v>
+      </c>
+      <c r="G34" s="56" t="str">
+        <f>CONCATENATE("3_11101_",进阶消耗!D5,",","1_2_",强化消耗石头!N45,",","3_11112_",进阶消耗!F5)</f>
+        <v>3_11101_120,1_2_123750,3_11112_1</v>
+      </c>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A35" s="56">
+        <v>70006</v>
+      </c>
+      <c r="B35" s="56">
+        <v>2</v>
+      </c>
+      <c r="C35" s="56">
+        <v>316</v>
+      </c>
+      <c r="D35" s="56">
+        <v>10316</v>
+      </c>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56">
+        <v>31</v>
+      </c>
+      <c r="G35" t="str">
         <f>CONCATENATE("3_11003_",强化消耗石头!D40/强化消耗石头!$J$2^2,",","1_2_",强化消耗石头!M40)</f>
         <v>3_11003_4,1_2_6000</v>
       </c>
-      <c r="H31" s="71" t="s">
+      <c r="H35" s="56" t="s">
         <v>238</v>
       </c>
-      <c r="I31" s="71">
-        <v>0</v>
-      </c>
-      <c r="J31" s="71"/>
-      <c r="K31" s="71"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A32" s="71">
-        <v>70005</v>
-      </c>
-      <c r="B32" s="71">
-        <v>5</v>
-      </c>
-      <c r="C32" s="71">
-        <v>345</v>
-      </c>
-      <c r="D32" s="71">
-        <v>10345</v>
-      </c>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71">
-        <v>34</v>
-      </c>
-      <c r="G32" t="str">
+      <c r="I35" s="56">
+        <v>0</v>
+      </c>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A36" s="56">
+        <v>70006</v>
+      </c>
+      <c r="B36" s="56">
+        <v>3</v>
+      </c>
+      <c r="C36" s="56">
+        <v>326</v>
+      </c>
+      <c r="D36" s="56">
+        <v>10326</v>
+      </c>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56">
+        <v>32</v>
+      </c>
+      <c r="G36" t="str">
         <f>CONCATENATE("3_11003_",强化消耗石头!D41/强化消耗石头!$J$2^2,",","1_2_",强化消耗石头!M41)</f>
         <v>3_11003_4,1_2_6300</v>
       </c>
-      <c r="H32" s="71" t="s">
+      <c r="H36" s="56" t="s">
         <v>239</v>
       </c>
-      <c r="I32" s="71">
-        <v>0</v>
-      </c>
-      <c r="J32" s="71"/>
-      <c r="K32" s="71"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A33" s="71">
-        <v>70005</v>
-      </c>
-      <c r="B33" s="71">
-        <v>6</v>
-      </c>
-      <c r="C33" s="71">
-        <v>1</v>
-      </c>
-      <c r="D33" s="71">
-        <v>7</v>
-      </c>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71">
-        <v>35</v>
-      </c>
-      <c r="G33" t="str">
+      <c r="I36" s="56">
+        <v>0</v>
+      </c>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A37" s="56">
+        <v>70006</v>
+      </c>
+      <c r="B37" s="56">
+        <v>4</v>
+      </c>
+      <c r="C37" s="56">
+        <v>336</v>
+      </c>
+      <c r="D37" s="56">
+        <v>10336</v>
+      </c>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56">
+        <v>33</v>
+      </c>
+      <c r="G37" t="str">
         <f>CONCATENATE("3_11003_",强化消耗石头!D42/强化消耗石头!$J$2^2,",","1_2_",强化消耗石头!M42)</f>
         <v>3_11003_6,1_2_6600</v>
       </c>
-      <c r="H33" s="71" t="s">
+      <c r="H37" s="56" t="s">
         <v>240</v>
       </c>
-      <c r="I33" s="71">
-        <v>0</v>
-      </c>
-      <c r="J33" s="71"/>
-      <c r="K33" s="71"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" s="71">
+      <c r="I37" s="56">
+        <v>0</v>
+      </c>
+      <c r="J37" s="56"/>
+      <c r="K37" s="56"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A38" s="56">
         <v>70006</v>
       </c>
-      <c r="B34" s="71">
-        <v>1</v>
-      </c>
-      <c r="C34" s="71">
-        <v>306</v>
-      </c>
-      <c r="D34" s="71">
-        <v>10306</v>
-      </c>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71">
-        <v>36</v>
-      </c>
-      <c r="G34" t="str">
+      <c r="B38" s="56">
+        <v>5</v>
+      </c>
+      <c r="C38" s="56">
+        <v>346</v>
+      </c>
+      <c r="D38" s="56">
+        <v>10346</v>
+      </c>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56">
+        <v>34</v>
+      </c>
+      <c r="G38" t="str">
         <f>CONCATENATE("3_11003_",强化消耗石头!D43/强化消耗石头!$J$2^2,",","1_2_",强化消耗石头!M43)</f>
         <v>3_11003_6,1_2_6900</v>
       </c>
-      <c r="H34" s="71" t="s">
+      <c r="H38" s="56" t="s">
         <v>241</v>
       </c>
-      <c r="I34" s="71">
-        <v>0</v>
-      </c>
-      <c r="J34" s="71"/>
-      <c r="K34" s="71"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35" s="71">
+      <c r="I38" s="56">
+        <v>0</v>
+      </c>
+      <c r="J38" s="56"/>
+      <c r="K38" s="56"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A39" s="56">
         <v>70006</v>
       </c>
-      <c r="B35" s="71">
-        <v>2</v>
-      </c>
-      <c r="C35" s="71">
-        <v>316</v>
-      </c>
-      <c r="D35" s="71">
-        <v>10316</v>
-      </c>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71">
-        <v>37</v>
-      </c>
-      <c r="G35" t="str">
+      <c r="B39" s="56">
+        <v>6</v>
+      </c>
+      <c r="C39" s="56">
+        <v>1</v>
+      </c>
+      <c r="D39" s="56">
+        <v>7</v>
+      </c>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56">
+        <v>35</v>
+      </c>
+      <c r="G39" t="str">
         <f>CONCATENATE("3_11003_",强化消耗石头!D44/强化消耗石头!$J$2^2,",","1_2_",强化消耗石头!M44)</f>
         <v>3_11003_7,1_2_7200</v>
       </c>
-      <c r="H35" s="71" t="s">
+      <c r="H39" s="56" t="s">
         <v>243</v>
       </c>
-      <c r="I35" s="71">
-        <v>0</v>
-      </c>
-      <c r="J35" s="71"/>
-      <c r="K35" s="71"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A36" s="71">
-        <v>70006</v>
-      </c>
-      <c r="B36" s="71">
-        <v>3</v>
-      </c>
-      <c r="C36" s="71">
-        <v>326</v>
-      </c>
-      <c r="D36" s="71">
-        <v>10326</v>
-      </c>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71">
-        <v>38</v>
-      </c>
-      <c r="G36" t="str">
+      <c r="I39" s="56">
+        <v>0</v>
+      </c>
+      <c r="J39" s="56"/>
+      <c r="K39" s="56"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A40" s="56">
+        <v>70007</v>
+      </c>
+      <c r="B40" s="56">
+        <v>1</v>
+      </c>
+      <c r="C40" s="56">
+        <v>101</v>
+      </c>
+      <c r="D40" s="56">
+        <f>C40+10000</f>
+        <v>10101</v>
+      </c>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56">
+        <v>36</v>
+      </c>
+      <c r="G40" t="str">
         <f>CONCATENATE("3_11003_",强化消耗石头!D45/强化消耗石头!$J$2^2,",","1_2_",强化消耗石头!M45)</f>
         <v>3_11003_7,1_2_7500</v>
       </c>
-      <c r="H36" s="71" t="s">
+      <c r="H40" s="56" t="s">
         <v>237</v>
       </c>
-      <c r="I36" s="71">
-        <v>0</v>
-      </c>
-      <c r="J36" s="71"/>
-      <c r="K36" s="71"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A37" s="71">
-        <v>70006</v>
-      </c>
-      <c r="B37" s="71">
-        <v>4</v>
-      </c>
-      <c r="C37" s="71">
-        <v>336</v>
-      </c>
-      <c r="D37" s="71">
-        <v>10336</v>
-      </c>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71">
-        <v>39</v>
-      </c>
-      <c r="G37" t="str">
+      <c r="I40" s="56">
+        <v>0</v>
+      </c>
+      <c r="J40" s="56"/>
+      <c r="K40" s="56"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A41" s="56">
+        <v>70007</v>
+      </c>
+      <c r="B41" s="56">
+        <v>2</v>
+      </c>
+      <c r="C41" s="56">
+        <v>111</v>
+      </c>
+      <c r="D41" s="56">
+        <f t="shared" ref="D40:D45" si="0">C41+10000</f>
+        <v>10111</v>
+      </c>
+      <c r="E41" s="56"/>
+      <c r="F41" s="56">
+        <v>37</v>
+      </c>
+      <c r="G41" t="str">
         <f>CONCATENATE("3_11003_",强化消耗石头!D46/强化消耗石头!$J$2^2,",","1_2_",强化消耗石头!M46)</f>
         <v>3_11003_8,1_2_7800</v>
       </c>
-      <c r="H37" s="71" t="s">
+      <c r="H41" s="56" t="s">
         <v>238</v>
       </c>
-      <c r="I37" s="71">
-        <v>0</v>
-      </c>
-      <c r="J37" s="71"/>
-      <c r="K37" s="71"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A38" s="71">
-        <v>70006</v>
-      </c>
-      <c r="B38" s="71">
-        <v>5</v>
-      </c>
-      <c r="C38" s="71">
-        <v>346</v>
-      </c>
-      <c r="D38" s="71">
-        <v>10346</v>
-      </c>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71">
-        <v>40</v>
-      </c>
-      <c r="G38" t="str">
+      <c r="I41" s="56">
+        <v>0</v>
+      </c>
+      <c r="J41" s="56"/>
+      <c r="K41" s="56"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A42" s="56">
+        <v>70007</v>
+      </c>
+      <c r="B42" s="56">
+        <v>3</v>
+      </c>
+      <c r="C42" s="56">
+        <v>121</v>
+      </c>
+      <c r="D42" s="56">
+        <f t="shared" si="0"/>
+        <v>10121</v>
+      </c>
+      <c r="E42" s="56"/>
+      <c r="F42" s="56">
+        <v>38</v>
+      </c>
+      <c r="G42" t="str">
         <f>CONCATENATE("3_11003_",强化消耗石头!D47/强化消耗石头!$J$2^2,",","1_2_",强化消耗石头!M47)</f>
         <v>3_11003_9,1_2_8100</v>
       </c>
-      <c r="H38" s="71" t="s">
+      <c r="H42" s="56" t="s">
         <v>239</v>
       </c>
-      <c r="I38" s="71">
-        <v>0</v>
-      </c>
-      <c r="J38" s="71"/>
-      <c r="K38" s="71"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A39" s="71">
-        <v>70006</v>
-      </c>
-      <c r="B39" s="71">
-        <v>6</v>
-      </c>
-      <c r="C39" s="71">
-        <v>1</v>
-      </c>
-      <c r="D39" s="71">
-        <v>7</v>
-      </c>
-      <c r="E39" s="71"/>
-      <c r="F39" s="71">
-        <v>41</v>
-      </c>
-      <c r="G39" t="str">
+      <c r="I42" s="56">
+        <v>0</v>
+      </c>
+      <c r="J42" s="56"/>
+      <c r="K42" s="56"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A43" s="56">
+        <v>70007</v>
+      </c>
+      <c r="B43" s="56">
+        <v>4</v>
+      </c>
+      <c r="C43" s="56">
+        <v>131</v>
+      </c>
+      <c r="D43" s="56">
+        <f t="shared" si="0"/>
+        <v>10131</v>
+      </c>
+      <c r="E43" s="56"/>
+      <c r="F43" s="56">
+        <v>39</v>
+      </c>
+      <c r="G43" t="str">
         <f>CONCATENATE("3_11003_",强化消耗石头!D48/强化消耗石头!$J$2^2,",","1_2_",强化消耗石头!M48)</f>
         <v>3_11003_9,1_2_8400</v>
       </c>
-      <c r="H39" s="71" t="s">
+      <c r="H43" s="56" t="s">
         <v>240</v>
       </c>
-      <c r="I39" s="71">
-        <v>0</v>
-      </c>
-      <c r="J39" s="71"/>
-      <c r="K39" s="71"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A40" s="71">
+      <c r="I43" s="56">
+        <v>0</v>
+      </c>
+      <c r="J43" s="56"/>
+      <c r="K43" s="56"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A44" s="56">
         <v>70007</v>
       </c>
-      <c r="B40" s="71">
-        <v>1</v>
-      </c>
-      <c r="C40" s="71">
-        <v>101</v>
-      </c>
-      <c r="D40" s="71">
-        <v>10101</v>
-      </c>
-      <c r="E40" s="71"/>
-      <c r="F40" s="71">
-        <v>42</v>
-      </c>
-      <c r="G40" t="str">
+      <c r="B44" s="56">
+        <v>5</v>
+      </c>
+      <c r="C44" s="56">
+        <v>141</v>
+      </c>
+      <c r="D44" s="56">
+        <f t="shared" si="0"/>
+        <v>10141</v>
+      </c>
+      <c r="E44" s="56"/>
+      <c r="F44" s="56">
+        <v>40</v>
+      </c>
+      <c r="G44" s="56" t="str">
+        <f>CONCATENATE("3_11101_",进阶消耗!D6,",","1_2_",强化消耗石头!N50,",","3_11113_",进阶消耗!F6)</f>
+        <v>3_11101_200,1_2_152000,3_11113_1</v>
+      </c>
+      <c r="H44" s="56"/>
+      <c r="I44" s="56"/>
+      <c r="J44" s="56"/>
+      <c r="K44" s="56"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A45" s="56">
+        <v>70007</v>
+      </c>
+      <c r="B45" s="56">
+        <v>6</v>
+      </c>
+      <c r="C45" s="56">
+        <v>1</v>
+      </c>
+      <c r="D45" s="56">
+        <v>7</v>
+      </c>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56">
+        <v>41</v>
+      </c>
+      <c r="G45" t="str">
         <f>CONCATENATE("3_11003_",强化消耗石头!D49/强化消耗石头!$J$2^2,",","1_2_",强化消耗石头!M49)</f>
         <v>3_11003_4,1_2_15000</v>
       </c>
-      <c r="H40" s="71" t="s">
+      <c r="H45" s="56" t="s">
         <v>241</v>
       </c>
-      <c r="I40" s="71">
-        <v>0</v>
-      </c>
-      <c r="J40" s="71"/>
-      <c r="K40" s="71"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A41" s="71">
-        <v>70007</v>
-      </c>
-      <c r="B41" s="71">
-        <v>2</v>
-      </c>
-      <c r="C41" s="71">
-        <v>1</v>
-      </c>
-      <c r="D41" s="71">
-        <v>3</v>
-      </c>
-      <c r="E41" s="71"/>
-      <c r="F41" s="71">
-        <v>43</v>
-      </c>
-      <c r="G41" t="str">
+      <c r="I45" s="56">
+        <v>0</v>
+      </c>
+      <c r="J45" s="56"/>
+      <c r="K45" s="56"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A46" s="56">
+        <v>70008</v>
+      </c>
+      <c r="B46" s="56">
+        <v>1</v>
+      </c>
+      <c r="C46" s="56">
+        <v>102</v>
+      </c>
+      <c r="D46" s="56">
+        <f>C46+10000</f>
+        <v>10102</v>
+      </c>
+      <c r="E46" s="56"/>
+      <c r="F46" s="56">
+        <v>42</v>
+      </c>
+      <c r="G46" t="str">
         <f>CONCATENATE("3_11003_",强化消耗石头!D50/强化消耗石头!$J$2^2,",","1_2_",强化消耗石头!M50)</f>
         <v>3_11003_5,1_2_16000</v>
       </c>
-      <c r="H41" s="71" t="s">
+      <c r="H46" s="56" t="s">
         <v>243</v>
       </c>
-      <c r="I41" s="71">
-        <v>0</v>
-      </c>
-      <c r="J41" s="71"/>
-      <c r="K41" s="71"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A42" s="71">
-        <v>70007</v>
-      </c>
-      <c r="B42" s="71">
-        <v>3</v>
-      </c>
-      <c r="C42" s="71">
-        <v>1</v>
-      </c>
-      <c r="D42" s="71">
-        <v>4</v>
-      </c>
-      <c r="E42" s="71"/>
-      <c r="F42" s="71">
-        <v>44</v>
-      </c>
-      <c r="G42" t="str">
+      <c r="I46" s="56">
+        <v>0</v>
+      </c>
+      <c r="J46" s="56"/>
+      <c r="K46" s="56"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A47" s="56">
+        <v>70008</v>
+      </c>
+      <c r="B47" s="56">
+        <v>2</v>
+      </c>
+      <c r="C47" s="56">
+        <v>112</v>
+      </c>
+      <c r="D47" s="56">
+        <f>C47+10000</f>
+        <v>10112</v>
+      </c>
+      <c r="E47" s="56"/>
+      <c r="F47" s="56">
+        <v>43</v>
+      </c>
+      <c r="G47" t="str">
         <f>CONCATENATE("3_11003_",强化消耗石头!D51/强化消耗石头!$J$2^2,",","1_2_",强化消耗石头!M51)</f>
         <v>3_11003_6,1_2_17000</v>
       </c>
-      <c r="H42" s="71" t="s">
+      <c r="H47" s="56" t="s">
         <v>237</v>
       </c>
-      <c r="I42" s="71">
-        <v>0</v>
-      </c>
-      <c r="J42" s="71"/>
-      <c r="K42" s="71"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A43" s="71">
-        <v>70007</v>
-      </c>
-      <c r="B43" s="71">
-        <v>4</v>
-      </c>
-      <c r="C43" s="71">
-        <v>1</v>
-      </c>
-      <c r="D43" s="71">
-        <v>5</v>
-      </c>
-      <c r="E43" s="71"/>
-      <c r="F43" s="71">
-        <v>45</v>
-      </c>
-      <c r="G43" t="str">
+      <c r="I47" s="56">
+        <v>0</v>
+      </c>
+      <c r="J47" s="56"/>
+      <c r="K47" s="56"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A48" s="56">
+        <v>70008</v>
+      </c>
+      <c r="B48" s="56">
+        <v>3</v>
+      </c>
+      <c r="C48" s="56">
+        <v>122</v>
+      </c>
+      <c r="D48" s="56">
+        <f t="shared" ref="D48:D50" si="1">C48+10000</f>
+        <v>10122</v>
+      </c>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56">
+        <v>44</v>
+      </c>
+      <c r="G48" t="str">
         <f>CONCATENATE("3_11003_",强化消耗石头!D52/强化消耗石头!$J$2^2,",","1_2_",强化消耗石头!M52)</f>
         <v>3_11003_7,1_2_18000</v>
       </c>
-      <c r="H43" s="71" t="s">
+      <c r="H48" s="56" t="s">
         <v>238</v>
       </c>
-      <c r="I43" s="71">
-        <v>0</v>
-      </c>
-      <c r="J43" s="71"/>
-      <c r="K43" s="71"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A44" s="71">
-        <v>70007</v>
-      </c>
-      <c r="B44" s="71">
-        <v>5</v>
-      </c>
-      <c r="C44" s="71">
-        <v>1</v>
-      </c>
-      <c r="D44" s="71">
-        <v>6</v>
-      </c>
-      <c r="E44" s="71"/>
-      <c r="F44" s="71">
-        <v>46</v>
-      </c>
-      <c r="G44" t="str">
+      <c r="I48" s="56">
+        <v>0</v>
+      </c>
+      <c r="J48" s="56"/>
+      <c r="K48" s="56"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A49" s="56">
+        <v>70008</v>
+      </c>
+      <c r="B49" s="56">
+        <v>4</v>
+      </c>
+      <c r="C49" s="56">
+        <v>132</v>
+      </c>
+      <c r="D49" s="56">
+        <f t="shared" si="1"/>
+        <v>10132</v>
+      </c>
+      <c r="E49" s="56"/>
+      <c r="F49" s="56">
+        <v>45</v>
+      </c>
+      <c r="G49" t="str">
         <f>CONCATENATE("3_11003_",强化消耗石头!D53/强化消耗石头!$J$2^2,",","1_2_",强化消耗石头!M53)</f>
         <v>3_11003_8,1_2_19000</v>
       </c>
-      <c r="H44" s="71" t="s">
+      <c r="H49" s="56" t="s">
         <v>239</v>
       </c>
-      <c r="I44" s="71">
-        <v>0</v>
-      </c>
-      <c r="J44" s="71"/>
-      <c r="K44" s="71"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A45" s="71">
-        <v>70007</v>
-      </c>
-      <c r="B45" s="71">
-        <v>6</v>
-      </c>
-      <c r="C45" s="71">
-        <v>1</v>
-      </c>
-      <c r="D45" s="71">
-        <v>7</v>
-      </c>
-      <c r="E45" s="71"/>
-      <c r="F45" s="71">
-        <v>47</v>
-      </c>
-      <c r="G45" t="str">
+      <c r="I49" s="56">
+        <v>0</v>
+      </c>
+      <c r="J49" s="56"/>
+      <c r="K49" s="56"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A50" s="56">
+        <v>70008</v>
+      </c>
+      <c r="B50" s="56">
+        <v>5</v>
+      </c>
+      <c r="C50" s="56">
+        <v>142</v>
+      </c>
+      <c r="D50" s="56">
+        <f t="shared" si="1"/>
+        <v>10142</v>
+      </c>
+      <c r="E50" s="56"/>
+      <c r="F50" s="56">
+        <v>46</v>
+      </c>
+      <c r="G50" t="str">
         <f>CONCATENATE("3_11003_",强化消耗石头!D54/强化消耗石头!$J$2^2,",","1_2_",强化消耗石头!M54)</f>
         <v>3_11003_9,1_2_20000</v>
       </c>
-      <c r="H45" s="71" t="s">
+      <c r="H50" s="56" t="s">
         <v>240</v>
       </c>
-      <c r="I45" s="71">
-        <v>0</v>
-      </c>
-      <c r="J45" s="71"/>
-      <c r="K45" s="71"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A46" s="71">
+      <c r="I50" s="56">
+        <v>0</v>
+      </c>
+      <c r="J50" s="56"/>
+      <c r="K50" s="56"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A51" s="56">
         <v>70008</v>
       </c>
-      <c r="B46" s="71">
-        <v>1</v>
-      </c>
-      <c r="C46" s="71">
-        <v>1</v>
-      </c>
-      <c r="D46" s="71">
-        <v>2</v>
-      </c>
-      <c r="E46" s="71"/>
-      <c r="F46" s="71">
-        <v>48</v>
-      </c>
-      <c r="G46" t="str">
+      <c r="B51" s="56">
+        <v>6</v>
+      </c>
+      <c r="C51" s="56">
+        <v>1</v>
+      </c>
+      <c r="D51" s="56">
+        <v>7</v>
+      </c>
+      <c r="E51" s="56"/>
+      <c r="F51" s="56">
+        <v>47</v>
+      </c>
+      <c r="G51" t="str">
         <f>CONCATENATE("3_11003_",强化消耗石头!D55/强化消耗石头!$J$2^2,",","1_2_",强化消耗石头!M55)</f>
         <v>3_11003_10,1_2_21000</v>
       </c>
-      <c r="H46" s="71" t="s">
+      <c r="H51" s="56" t="s">
         <v>241</v>
       </c>
-      <c r="I46" s="71">
-        <v>0</v>
-      </c>
-      <c r="J46" s="71"/>
-      <c r="K46" s="71"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A47" s="71">
-        <v>70008</v>
-      </c>
-      <c r="B47" s="71">
-        <v>2</v>
-      </c>
-      <c r="C47" s="71">
-        <v>1</v>
-      </c>
-      <c r="D47" s="71">
-        <v>3</v>
-      </c>
-      <c r="E47" s="71"/>
-      <c r="F47" s="71">
-        <v>49</v>
-      </c>
-      <c r="G47" t="str">
+      <c r="I51" s="56">
+        <v>0</v>
+      </c>
+      <c r="J51" s="56"/>
+      <c r="K51" s="56"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A52" s="56">
+        <v>70009</v>
+      </c>
+      <c r="B52" s="56">
+        <v>1</v>
+      </c>
+      <c r="C52" s="56">
+        <v>103</v>
+      </c>
+      <c r="D52" s="56">
+        <f>C52+10000</f>
+        <v>10103</v>
+      </c>
+      <c r="E52" s="56"/>
+      <c r="F52" s="56">
+        <v>48</v>
+      </c>
+      <c r="G52" t="str">
         <f>CONCATENATE("3_11003_",强化消耗石头!D56/强化消耗石头!$J$2^2,",","1_2_",强化消耗石头!M56)</f>
         <v>3_11003_11,1_2_22000</v>
       </c>
-      <c r="H47" s="71" t="s">
+      <c r="H52" s="56" t="s">
         <v>243</v>
       </c>
-      <c r="I47" s="71">
-        <v>0</v>
-      </c>
-      <c r="J47" s="71"/>
-      <c r="K47" s="71"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A48" s="71">
-        <v>70008</v>
-      </c>
-      <c r="B48" s="71">
-        <v>3</v>
-      </c>
-      <c r="C48" s="71">
-        <v>1</v>
-      </c>
-      <c r="D48" s="71">
-        <v>4</v>
-      </c>
-      <c r="E48" s="71"/>
-      <c r="F48" s="71">
-        <v>50</v>
-      </c>
-      <c r="G48" t="str">
+      <c r="I52" s="56">
+        <v>0</v>
+      </c>
+      <c r="J52" s="56"/>
+      <c r="K52" s="56"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A53" s="56">
+        <v>70009</v>
+      </c>
+      <c r="B53" s="56">
+        <v>2</v>
+      </c>
+      <c r="C53" s="56">
+        <v>113</v>
+      </c>
+      <c r="D53" s="56">
+        <f>C53+10000</f>
+        <v>10113</v>
+      </c>
+      <c r="E53" s="56"/>
+      <c r="F53" s="56">
+        <v>49</v>
+      </c>
+      <c r="G53" t="str">
         <f>CONCATENATE("3_11003_",强化消耗石头!D57/强化消耗石头!$J$2^2,",","1_2_",强化消耗石头!M57)</f>
         <v>3_11003_12,1_2_23000</v>
       </c>
-      <c r="H48" s="71" t="s">
+      <c r="H53" s="56" t="s">
         <v>237</v>
       </c>
-      <c r="I48" s="71">
-        <v>0</v>
-      </c>
-      <c r="J48" s="71"/>
-      <c r="K48" s="71"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A49" s="71">
-        <v>70008</v>
-      </c>
-      <c r="B49" s="71">
+      <c r="I53" s="56">
+        <v>0</v>
+      </c>
+      <c r="J53" s="56"/>
+      <c r="K53" s="56"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A54" s="56">
+        <v>70009</v>
+      </c>
+      <c r="B54" s="56">
+        <v>3</v>
+      </c>
+      <c r="C54" s="56">
+        <v>123</v>
+      </c>
+      <c r="D54" s="56">
+        <f t="shared" ref="D54:D56" si="2">C54+10000</f>
+        <v>10123</v>
+      </c>
+      <c r="E54" s="56"/>
+      <c r="F54" s="56">
+        <v>50</v>
+      </c>
+      <c r="G54" s="56" t="str">
+        <f>CONCATENATE("3_11101_",进阶消耗!D7,",","1_2_",强化消耗石头!N55,",","3_11114_",进阶消耗!F7)</f>
+        <v>3_11101_500,1_2_357000,3_11114_1</v>
+      </c>
+      <c r="H54" s="56" t="s">
+        <v>241</v>
+      </c>
+      <c r="I54" s="56">
+        <v>0</v>
+      </c>
+      <c r="J54" s="56"/>
+      <c r="K54" s="56"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A55" s="56">
+        <v>70009</v>
+      </c>
+      <c r="B55" s="56">
         <v>4</v>
       </c>
-      <c r="C49" s="71">
-        <v>1</v>
-      </c>
-      <c r="D49" s="71">
+      <c r="C55" s="56">
+        <v>133</v>
+      </c>
+      <c r="D55" s="56">
+        <f t="shared" si="2"/>
+        <v>10133</v>
+      </c>
+      <c r="E55" s="56"/>
+      <c r="F55" s="56"/>
+      <c r="H55" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="I55" s="56">
+        <v>0</v>
+      </c>
+      <c r="J55" s="56"/>
+      <c r="K55" s="56"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A56" s="56">
+        <v>70009</v>
+      </c>
+      <c r="B56" s="56">
         <v>5</v>
       </c>
-      <c r="E49" s="71"/>
-      <c r="F49" s="71"/>
-      <c r="H49" s="71" t="s">
+      <c r="C56" s="56">
+        <v>143</v>
+      </c>
+      <c r="D56" s="56">
+        <f t="shared" si="2"/>
+        <v>10143</v>
+      </c>
+      <c r="E56" s="56"/>
+      <c r="F56" s="56"/>
+      <c r="H56" s="56"/>
+      <c r="I56" s="56"/>
+      <c r="J56" s="56"/>
+      <c r="K56" s="56"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A57" s="56">
+        <v>70009</v>
+      </c>
+      <c r="B57" s="56">
+        <v>6</v>
+      </c>
+      <c r="C57" s="56">
+        <v>1</v>
+      </c>
+      <c r="D57" s="56">
+        <v>7</v>
+      </c>
+      <c r="E57" s="56"/>
+      <c r="H57" s="56"/>
+      <c r="I57" s="56"/>
+      <c r="J57" s="56"/>
+      <c r="K57" s="56"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A58" s="56">
+        <v>70010</v>
+      </c>
+      <c r="B58" s="56">
+        <v>1</v>
+      </c>
+      <c r="C58" s="56">
+        <v>104</v>
+      </c>
+      <c r="D58" s="56">
+        <f>C58+10000</f>
+        <v>10104</v>
+      </c>
+      <c r="E58" s="56"/>
+      <c r="J58" s="56"/>
+      <c r="K58" s="56"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A59" s="56">
+        <v>70010</v>
+      </c>
+      <c r="B59" s="56">
+        <v>2</v>
+      </c>
+      <c r="C59" s="56">
+        <v>114</v>
+      </c>
+      <c r="D59" s="56">
+        <f>C59+10000</f>
+        <v>10114</v>
+      </c>
+      <c r="E59" s="56"/>
+      <c r="J59" s="56"/>
+      <c r="K59" s="56"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A60" s="56">
+        <v>70010</v>
+      </c>
+      <c r="B60" s="56">
+        <v>3</v>
+      </c>
+      <c r="C60" s="56">
+        <v>124</v>
+      </c>
+      <c r="D60" s="56">
+        <f t="shared" ref="D60:D62" si="3">C60+10000</f>
+        <v>10124</v>
+      </c>
+      <c r="E60" s="56"/>
+      <c r="K60" s="56"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A61" s="56">
+        <v>70010</v>
+      </c>
+      <c r="B61" s="56">
+        <v>4</v>
+      </c>
+      <c r="C61" s="56">
+        <v>134</v>
+      </c>
+      <c r="D61" s="56">
+        <f t="shared" si="3"/>
+        <v>10134</v>
+      </c>
+      <c r="E61" s="56"/>
+      <c r="K61" s="56"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A62" s="56">
+        <v>70010</v>
+      </c>
+      <c r="B62" s="56">
+        <v>5</v>
+      </c>
+      <c r="C62" s="56">
+        <v>144</v>
+      </c>
+      <c r="D62" s="56">
+        <f t="shared" si="3"/>
+        <v>10144</v>
+      </c>
+      <c r="E62" s="56"/>
+      <c r="K62" s="56"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A63" s="56">
+        <v>70010</v>
+      </c>
+      <c r="B63" s="56">
+        <v>6</v>
+      </c>
+      <c r="C63" s="56">
+        <v>1</v>
+      </c>
+      <c r="D63" s="56">
+        <v>7</v>
+      </c>
+      <c r="E63" s="56"/>
+      <c r="K63" s="56"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A64" s="56">
+        <v>70011</v>
+      </c>
+      <c r="B64" s="56">
+        <v>1</v>
+      </c>
+      <c r="C64" s="56">
+        <v>105</v>
+      </c>
+      <c r="D64" s="56">
+        <f>C64+10000</f>
+        <v>10105</v>
+      </c>
+      <c r="E64" s="56"/>
+      <c r="K64" s="56"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A65" s="56">
+        <v>70011</v>
+      </c>
+      <c r="B65" s="56">
+        <v>2</v>
+      </c>
+      <c r="C65" s="56">
+        <v>115</v>
+      </c>
+      <c r="D65" s="56">
+        <f>C65+10000</f>
+        <v>10115</v>
+      </c>
+      <c r="E65" s="56"/>
+      <c r="K65" s="56"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A66" s="56">
+        <v>70011</v>
+      </c>
+      <c r="B66" s="56">
+        <v>3</v>
+      </c>
+      <c r="C66" s="56">
+        <v>125</v>
+      </c>
+      <c r="D66" s="56">
+        <f t="shared" ref="D66:D68" si="4">C66+10000</f>
+        <v>10125</v>
+      </c>
+      <c r="E66" s="56"/>
+      <c r="K66" s="56"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A67" s="56">
+        <v>70011</v>
+      </c>
+      <c r="B67" s="56">
+        <v>4</v>
+      </c>
+      <c r="C67" s="56">
+        <v>135</v>
+      </c>
+      <c r="D67" s="56">
+        <f t="shared" si="4"/>
+        <v>10135</v>
+      </c>
+      <c r="E67" s="56"/>
+      <c r="K67" s="56"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A68" s="56">
+        <v>70011</v>
+      </c>
+      <c r="B68" s="56">
+        <v>5</v>
+      </c>
+      <c r="C68" s="56">
+        <v>145</v>
+      </c>
+      <c r="D68" s="56">
+        <f t="shared" si="4"/>
+        <v>10145</v>
+      </c>
+      <c r="E68" s="56"/>
+      <c r="K68" s="56"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A69" s="56">
+        <v>70011</v>
+      </c>
+      <c r="B69" s="56">
+        <v>6</v>
+      </c>
+      <c r="C69" s="56">
+        <v>1</v>
+      </c>
+      <c r="D69" s="56">
+        <v>7</v>
+      </c>
+      <c r="E69" s="56"/>
+      <c r="K69" s="56"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A70" s="56">
+        <v>70012</v>
+      </c>
+      <c r="B70" s="56">
+        <v>1</v>
+      </c>
+      <c r="C70" s="56">
+        <v>106</v>
+      </c>
+      <c r="D70" s="56">
+        <f>C70+10000</f>
+        <v>10106</v>
+      </c>
+      <c r="E70" s="56"/>
+      <c r="K70" s="56"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A71" s="56">
+        <v>70012</v>
+      </c>
+      <c r="B71" s="56">
+        <v>2</v>
+      </c>
+      <c r="C71" s="56">
+        <v>116</v>
+      </c>
+      <c r="D71" s="56">
+        <f>C71+10000</f>
+        <v>10116</v>
+      </c>
+      <c r="E71" s="56"/>
+      <c r="K71" s="56"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A72" s="56">
+        <v>70012</v>
+      </c>
+      <c r="B72" s="56">
+        <v>3</v>
+      </c>
+      <c r="C72" s="56">
+        <v>126</v>
+      </c>
+      <c r="D72" s="56">
+        <f t="shared" ref="D72:D74" si="5">C72+10000</f>
+        <v>10126</v>
+      </c>
+      <c r="E72" s="56"/>
+      <c r="K72" s="56"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A73" s="56">
+        <v>70012</v>
+      </c>
+      <c r="B73" s="56">
+        <v>4</v>
+      </c>
+      <c r="C73" s="56">
+        <v>136</v>
+      </c>
+      <c r="D73" s="56">
+        <f t="shared" si="5"/>
+        <v>10136</v>
+      </c>
+      <c r="E73" s="56"/>
+      <c r="K73" s="56"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A74" s="56">
+        <v>70012</v>
+      </c>
+      <c r="B74" s="56">
+        <v>5</v>
+      </c>
+      <c r="C74" s="56">
+        <v>146</v>
+      </c>
+      <c r="D74" s="56">
+        <f t="shared" si="5"/>
+        <v>10146</v>
+      </c>
+      <c r="E74" s="56"/>
+      <c r="K74" s="56"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A75" s="56">
+        <v>70012</v>
+      </c>
+      <c r="B75" s="56">
+        <v>6</v>
+      </c>
+      <c r="C75" s="56">
+        <v>1</v>
+      </c>
+      <c r="D75" s="56">
+        <v>7</v>
+      </c>
+      <c r="E75" s="56"/>
+      <c r="K75" s="56"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A76" s="56">
+        <v>70013</v>
+      </c>
+      <c r="B76" s="56">
+        <v>1</v>
+      </c>
+      <c r="C76" s="56">
+        <v>201</v>
+      </c>
+      <c r="D76" s="56">
+        <f>C76+10000</f>
+        <v>10201</v>
+      </c>
+      <c r="E76" s="56"/>
+      <c r="K76" s="56"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A77" s="56">
+        <v>70013</v>
+      </c>
+      <c r="B77" s="56">
+        <v>2</v>
+      </c>
+      <c r="C77" s="56">
+        <v>211</v>
+      </c>
+      <c r="D77" s="56">
+        <f>C77+10000</f>
+        <v>10211</v>
+      </c>
+      <c r="E77" s="56"/>
+      <c r="K77" s="56"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A78" s="56">
+        <v>70013</v>
+      </c>
+      <c r="B78" s="56">
+        <v>3</v>
+      </c>
+      <c r="C78" s="56">
+        <v>221</v>
+      </c>
+      <c r="D78" s="56">
+        <f t="shared" ref="D78:D80" si="6">C78+10000</f>
+        <v>10221</v>
+      </c>
+      <c r="E78" s="56"/>
+      <c r="K78" s="56"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A79" s="56">
+        <v>70013</v>
+      </c>
+      <c r="B79" s="56">
+        <v>4</v>
+      </c>
+      <c r="C79" s="56">
+        <v>231</v>
+      </c>
+      <c r="D79" s="56">
+        <f t="shared" si="6"/>
+        <v>10231</v>
+      </c>
+      <c r="E79" s="56"/>
+      <c r="K79" s="56"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A80" s="56">
+        <v>70013</v>
+      </c>
+      <c r="B80" s="56">
+        <v>5</v>
+      </c>
+      <c r="C80" s="56">
         <v>241</v>
       </c>
-      <c r="I49" s="71">
-        <v>0</v>
-      </c>
-      <c r="J49" s="71"/>
-      <c r="K49" s="71"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A50" s="71">
-        <v>70008</v>
-      </c>
-      <c r="B50" s="71">
+      <c r="D80" s="56">
+        <f t="shared" si="6"/>
+        <v>10241</v>
+      </c>
+      <c r="E80" s="56"/>
+      <c r="K80" s="56"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A81" s="56">
+        <v>70013</v>
+      </c>
+      <c r="B81" s="56">
+        <v>6</v>
+      </c>
+      <c r="C81" s="56">
+        <v>1</v>
+      </c>
+      <c r="D81" s="56">
+        <v>7</v>
+      </c>
+      <c r="E81" s="56"/>
+      <c r="K81" s="56"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A82" s="56">
+        <v>70014</v>
+      </c>
+      <c r="B82" s="56">
+        <v>1</v>
+      </c>
+      <c r="C82" s="56">
+        <v>202</v>
+      </c>
+      <c r="D82" s="56">
+        <f>C82+10000</f>
+        <v>10202</v>
+      </c>
+      <c r="E82" s="56"/>
+      <c r="K82" s="56"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A83" s="56">
+        <v>70014</v>
+      </c>
+      <c r="B83" s="56">
+        <v>2</v>
+      </c>
+      <c r="C83" s="56">
+        <v>212</v>
+      </c>
+      <c r="D83" s="56">
+        <f t="shared" ref="D83:D86" si="7">C83+10000</f>
+        <v>10212</v>
+      </c>
+      <c r="E83" s="56"/>
+      <c r="K83" s="56"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A84" s="56">
+        <v>70014</v>
+      </c>
+      <c r="B84" s="56">
+        <v>3</v>
+      </c>
+      <c r="C84" s="56">
+        <v>222</v>
+      </c>
+      <c r="D84" s="56">
+        <f t="shared" si="7"/>
+        <v>10222</v>
+      </c>
+      <c r="E84" s="56"/>
+      <c r="K84" s="56"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A85" s="56">
+        <v>70014</v>
+      </c>
+      <c r="B85" s="56">
+        <v>4</v>
+      </c>
+      <c r="C85" s="56">
+        <v>232</v>
+      </c>
+      <c r="D85" s="56">
+        <f t="shared" si="7"/>
+        <v>10232</v>
+      </c>
+      <c r="E85" s="56"/>
+      <c r="K85" s="56"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A86" s="56">
+        <v>70014</v>
+      </c>
+      <c r="B86" s="56">
         <v>5</v>
       </c>
-      <c r="C50" s="71">
-        <v>1</v>
-      </c>
-      <c r="D50" s="71">
+      <c r="C86" s="56">
+        <v>242</v>
+      </c>
+      <c r="D86" s="56">
+        <f t="shared" si="7"/>
+        <v>10242</v>
+      </c>
+      <c r="E86" s="56"/>
+      <c r="K86" s="56"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A87" s="56">
+        <v>70014</v>
+      </c>
+      <c r="B87" s="56">
         <v>6</v>
       </c>
-      <c r="E50" s="71"/>
-      <c r="F50" s="71"/>
-      <c r="H50" s="71" t="s">
+      <c r="C87" s="56">
+        <v>1</v>
+      </c>
+      <c r="D87" s="56">
+        <v>7</v>
+      </c>
+      <c r="E87" s="56"/>
+      <c r="K87" s="56"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A88" s="56">
+        <v>70015</v>
+      </c>
+      <c r="B88" s="56">
+        <v>1</v>
+      </c>
+      <c r="C88" s="56">
+        <v>203</v>
+      </c>
+      <c r="D88" s="56">
+        <f>C88+10000</f>
+        <v>10203</v>
+      </c>
+      <c r="E88" s="56"/>
+      <c r="K88" s="56"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A89" s="56">
+        <v>70015</v>
+      </c>
+      <c r="B89" s="56">
+        <v>2</v>
+      </c>
+      <c r="C89" s="56">
+        <v>213</v>
+      </c>
+      <c r="D89" s="56">
+        <f t="shared" ref="D89:D92" si="8">C89+10000</f>
+        <v>10213</v>
+      </c>
+      <c r="E89" s="56"/>
+      <c r="K89" s="56"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A90" s="56">
+        <v>70015</v>
+      </c>
+      <c r="B90" s="56">
+        <v>3</v>
+      </c>
+      <c r="C90" s="56">
+        <v>223</v>
+      </c>
+      <c r="D90" s="56">
+        <f t="shared" si="8"/>
+        <v>10223</v>
+      </c>
+      <c r="E90" s="56"/>
+      <c r="K90" s="56"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A91" s="56">
+        <v>70015</v>
+      </c>
+      <c r="B91" s="56">
+        <v>4</v>
+      </c>
+      <c r="C91" s="56">
+        <v>233</v>
+      </c>
+      <c r="D91" s="56">
+        <f t="shared" si="8"/>
+        <v>10233</v>
+      </c>
+      <c r="E91" s="56"/>
+      <c r="K91" s="56"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A92" s="56">
+        <v>70015</v>
+      </c>
+      <c r="B92" s="56">
+        <v>5</v>
+      </c>
+      <c r="C92" s="56">
         <v>243</v>
       </c>
-      <c r="I50" s="71">
-        <v>0</v>
-      </c>
-      <c r="J50" s="71"/>
-      <c r="K50" s="71"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A51" s="71">
-        <v>70008</v>
-      </c>
-      <c r="B51" s="71">
+      <c r="D92" s="56">
+        <f t="shared" si="8"/>
+        <v>10243</v>
+      </c>
+      <c r="E92" s="56"/>
+      <c r="K92" s="56"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A93" s="56">
+        <v>70015</v>
+      </c>
+      <c r="B93" s="56">
         <v>6</v>
       </c>
-      <c r="C51" s="71">
-        <v>1</v>
-      </c>
-      <c r="D51" s="71">
+      <c r="C93" s="56">
+        <v>1</v>
+      </c>
+      <c r="D93" s="56">
         <v>7</v>
       </c>
-      <c r="E51" s="71"/>
-      <c r="F51" s="71"/>
-      <c r="H51" s="71"/>
-      <c r="I51" s="71"/>
-      <c r="J51" s="71"/>
-      <c r="K51" s="71"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A52" s="71">
-        <v>70009</v>
-      </c>
-      <c r="B52" s="71">
-        <v>1</v>
-      </c>
-      <c r="C52" s="71">
-        <v>1</v>
-      </c>
-      <c r="D52" s="71">
+      <c r="E93" s="56"/>
+      <c r="K93" s="56"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A94" s="56">
+        <v>70016</v>
+      </c>
+      <c r="B94" s="56">
+        <v>1</v>
+      </c>
+      <c r="C94" s="56">
+        <v>204</v>
+      </c>
+      <c r="D94" s="56">
+        <f>C94+10000</f>
+        <v>10204</v>
+      </c>
+      <c r="E94" s="56"/>
+      <c r="K94" s="56"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A95" s="56">
+        <v>70016</v>
+      </c>
+      <c r="B95" s="56">
         <v>2</v>
       </c>
-      <c r="E52" s="71"/>
-      <c r="H52" s="71"/>
-      <c r="I52" s="71"/>
-      <c r="J52" s="71"/>
-      <c r="K52" s="71"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A53" s="71">
-        <v>70009</v>
-      </c>
-      <c r="B53" s="71">
+      <c r="C95" s="56">
+        <v>214</v>
+      </c>
+      <c r="D95" s="56">
+        <f t="shared" ref="D95:D98" si="9">C95+10000</f>
+        <v>10214</v>
+      </c>
+      <c r="E95" s="56"/>
+      <c r="K95" s="56"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A96" s="56">
+        <v>70016</v>
+      </c>
+      <c r="B96" s="56">
+        <v>3</v>
+      </c>
+      <c r="C96" s="56">
+        <v>224</v>
+      </c>
+      <c r="D96" s="56">
+        <f t="shared" si="9"/>
+        <v>10224</v>
+      </c>
+      <c r="E96" s="56"/>
+      <c r="K96" s="56"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A97" s="56">
+        <v>70016</v>
+      </c>
+      <c r="B97" s="56">
+        <v>4</v>
+      </c>
+      <c r="C97" s="56">
+        <v>234</v>
+      </c>
+      <c r="D97" s="56">
+        <f t="shared" si="9"/>
+        <v>10234</v>
+      </c>
+      <c r="E97" s="56"/>
+      <c r="K97" s="56"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A98" s="56">
+        <v>70016</v>
+      </c>
+      <c r="B98" s="56">
+        <v>5</v>
+      </c>
+      <c r="C98" s="56">
+        <v>244</v>
+      </c>
+      <c r="D98" s="56">
+        <f t="shared" si="9"/>
+        <v>10244</v>
+      </c>
+      <c r="E98" s="56"/>
+      <c r="K98" s="56"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A99" s="56">
+        <v>70016</v>
+      </c>
+      <c r="B99" s="56">
+        <v>6</v>
+      </c>
+      <c r="C99" s="56">
+        <v>1</v>
+      </c>
+      <c r="D99" s="56">
+        <v>7</v>
+      </c>
+      <c r="E99" s="56"/>
+      <c r="K99" s="56"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A100" s="56">
+        <v>70017</v>
+      </c>
+      <c r="B100" s="56">
+        <v>1</v>
+      </c>
+      <c r="C100" s="56">
+        <v>205</v>
+      </c>
+      <c r="D100" s="56">
+        <f>C100+10000</f>
+        <v>10205</v>
+      </c>
+      <c r="E100" s="56"/>
+      <c r="K100" s="56"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A101" s="56">
+        <v>70017</v>
+      </c>
+      <c r="B101" s="56">
         <v>2</v>
       </c>
-      <c r="C53" s="71">
-        <v>1</v>
-      </c>
-      <c r="D53" s="71">
+      <c r="C101" s="56">
+        <v>215</v>
+      </c>
+      <c r="D101" s="56">
+        <f t="shared" ref="D101:D104" si="10">C101+10000</f>
+        <v>10215</v>
+      </c>
+      <c r="E101" s="56"/>
+      <c r="K101" s="56"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A102" s="56">
+        <v>70017</v>
+      </c>
+      <c r="B102" s="56">
         <v>3</v>
       </c>
-      <c r="E53" s="71"/>
-      <c r="J53" s="71"/>
-      <c r="K53" s="71"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A54" s="71">
-        <v>70009</v>
-      </c>
-      <c r="B54" s="71">
+      <c r="C102" s="56">
+        <v>225</v>
+      </c>
+      <c r="D102" s="56">
+        <f t="shared" si="10"/>
+        <v>10225</v>
+      </c>
+      <c r="E102" s="56"/>
+      <c r="K102" s="56"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A103" s="56">
+        <v>70017</v>
+      </c>
+      <c r="B103" s="56">
+        <v>4</v>
+      </c>
+      <c r="C103" s="56">
+        <v>235</v>
+      </c>
+      <c r="D103" s="56">
+        <f t="shared" si="10"/>
+        <v>10235</v>
+      </c>
+      <c r="E103" s="56"/>
+      <c r="K103" s="56"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A104" s="56">
+        <v>70017</v>
+      </c>
+      <c r="B104" s="56">
+        <v>5</v>
+      </c>
+      <c r="C104" s="56">
+        <v>245</v>
+      </c>
+      <c r="D104" s="56">
+        <f t="shared" si="10"/>
+        <v>10245</v>
+      </c>
+      <c r="E104" s="56"/>
+      <c r="K104" s="56"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A105" s="56">
+        <v>70017</v>
+      </c>
+      <c r="B105" s="56">
+        <v>6</v>
+      </c>
+      <c r="C105" s="56">
+        <v>1</v>
+      </c>
+      <c r="D105" s="56">
+        <v>7</v>
+      </c>
+      <c r="E105" s="56"/>
+      <c r="K105" s="56"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A106" s="56">
+        <v>70018</v>
+      </c>
+      <c r="B106" s="56">
+        <v>1</v>
+      </c>
+      <c r="C106" s="56">
+        <v>206</v>
+      </c>
+      <c r="D106" s="56">
+        <f>C106+10000</f>
+        <v>10206</v>
+      </c>
+      <c r="E106" s="56"/>
+      <c r="K106" s="56"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A107" s="56">
+        <v>70018</v>
+      </c>
+      <c r="B107" s="56">
+        <v>2</v>
+      </c>
+      <c r="C107" s="56">
+        <v>216</v>
+      </c>
+      <c r="D107" s="56">
+        <f t="shared" ref="D107:D110" si="11">C107+10000</f>
+        <v>10216</v>
+      </c>
+      <c r="E107" s="56"/>
+      <c r="K107" s="56"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A108" s="56">
+        <v>70018</v>
+      </c>
+      <c r="B108" s="56">
         <v>3</v>
       </c>
-      <c r="C54" s="71">
-        <v>1</v>
-      </c>
-      <c r="D54" s="71">
+      <c r="C108" s="56">
+        <v>226</v>
+      </c>
+      <c r="D108" s="56">
+        <f t="shared" si="11"/>
+        <v>10226</v>
+      </c>
+      <c r="E108" s="56"/>
+      <c r="K108" s="56"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A109" s="56">
+        <v>70018</v>
+      </c>
+      <c r="B109" s="56">
         <v>4</v>
       </c>
-      <c r="E54" s="71"/>
-      <c r="J54" s="71"/>
-      <c r="K54" s="71"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A55" s="71">
-        <v>70009</v>
-      </c>
-      <c r="B55" s="71">
+      <c r="C109" s="56">
+        <v>236</v>
+      </c>
+      <c r="D109" s="56">
+        <f t="shared" si="11"/>
+        <v>10236</v>
+      </c>
+      <c r="E109" s="56"/>
+      <c r="K109" s="56"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A110" s="56">
+        <v>70018</v>
+      </c>
+      <c r="B110" s="56">
+        <v>5</v>
+      </c>
+      <c r="C110" s="56">
+        <v>246</v>
+      </c>
+      <c r="D110" s="56">
+        <f t="shared" si="11"/>
+        <v>10246</v>
+      </c>
+      <c r="E110" s="56"/>
+      <c r="K110" s="56"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A111" s="56">
+        <v>70018</v>
+      </c>
+      <c r="B111" s="56">
+        <v>6</v>
+      </c>
+      <c r="C111" s="56">
+        <v>1</v>
+      </c>
+      <c r="D111" s="56">
+        <v>7</v>
+      </c>
+      <c r="E111" s="56"/>
+      <c r="K111" s="56"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A112" s="56">
+        <v>70019</v>
+      </c>
+      <c r="B112" s="56">
+        <v>1</v>
+      </c>
+      <c r="C112" s="56">
+        <v>401</v>
+      </c>
+      <c r="D112" s="56">
+        <f>C112+10000</f>
+        <v>10401</v>
+      </c>
+      <c r="E112" s="56"/>
+      <c r="K112" s="56"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A113" s="56">
+        <v>70019</v>
+      </c>
+      <c r="B113" s="56">
+        <v>2</v>
+      </c>
+      <c r="C113" s="56">
+        <v>411</v>
+      </c>
+      <c r="D113" s="56">
+        <f t="shared" ref="D113:D116" si="12">C113+10000</f>
+        <v>10411</v>
+      </c>
+      <c r="E113" s="56"/>
+      <c r="K113" s="56"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A114" s="56">
+        <v>70019</v>
+      </c>
+      <c r="B114" s="56">
+        <v>3</v>
+      </c>
+      <c r="C114" s="56">
+        <v>421</v>
+      </c>
+      <c r="D114" s="56">
+        <f t="shared" si="12"/>
+        <v>10421</v>
+      </c>
+      <c r="E114" s="56"/>
+      <c r="K114" s="56"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A115" s="56">
+        <v>70019</v>
+      </c>
+      <c r="B115" s="56">
         <v>4</v>
       </c>
-      <c r="C55" s="71">
-        <v>1</v>
-      </c>
-      <c r="D55" s="71">
+      <c r="C115" s="56">
+        <v>431</v>
+      </c>
+      <c r="D115" s="56">
+        <f t="shared" si="12"/>
+        <v>10431</v>
+      </c>
+      <c r="E115" s="56"/>
+      <c r="K115" s="56"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A116" s="56">
+        <v>70019</v>
+      </c>
+      <c r="B116" s="56">
         <v>5</v>
       </c>
-      <c r="E55" s="71"/>
-      <c r="J55" s="71"/>
-      <c r="K55" s="71"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A56" s="71">
-        <v>70009</v>
-      </c>
-      <c r="B56" s="71">
+      <c r="C116" s="56">
+        <v>441</v>
+      </c>
+      <c r="D116" s="56">
+        <f t="shared" si="12"/>
+        <v>10441</v>
+      </c>
+      <c r="E116" s="56"/>
+      <c r="K116" s="56"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A117" s="56">
+        <v>70019</v>
+      </c>
+      <c r="B117" s="56">
+        <v>6</v>
+      </c>
+      <c r="C117" s="56">
+        <v>1</v>
+      </c>
+      <c r="D117" s="56">
+        <v>7</v>
+      </c>
+      <c r="E117" s="56"/>
+      <c r="K117" s="56"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A118" s="56">
+        <v>70020</v>
+      </c>
+      <c r="B118" s="56">
+        <v>1</v>
+      </c>
+      <c r="C118" s="56">
+        <v>402</v>
+      </c>
+      <c r="D118" s="56">
+        <f>C118+10000</f>
+        <v>10402</v>
+      </c>
+      <c r="E118" s="56"/>
+      <c r="K118" s="56"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A119" s="56">
+        <v>70020</v>
+      </c>
+      <c r="B119" s="56">
+        <v>2</v>
+      </c>
+      <c r="C119" s="56">
+        <v>412</v>
+      </c>
+      <c r="D119" s="56">
+        <f t="shared" ref="D119:D122" si="13">C119+10000</f>
+        <v>10412</v>
+      </c>
+      <c r="E119" s="56"/>
+      <c r="K119" s="56"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A120" s="56">
+        <v>70020</v>
+      </c>
+      <c r="B120" s="56">
+        <v>3</v>
+      </c>
+      <c r="C120" s="56">
+        <v>422</v>
+      </c>
+      <c r="D120" s="56">
+        <f t="shared" si="13"/>
+        <v>10422</v>
+      </c>
+      <c r="E120" s="56"/>
+      <c r="K120" s="56"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A121" s="56">
+        <v>70020</v>
+      </c>
+      <c r="B121" s="56">
+        <v>4</v>
+      </c>
+      <c r="C121" s="56">
+        <v>432</v>
+      </c>
+      <c r="D121" s="56">
+        <f t="shared" si="13"/>
+        <v>10432</v>
+      </c>
+      <c r="E121" s="56"/>
+      <c r="K121" s="56"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A122" s="56">
+        <v>70020</v>
+      </c>
+      <c r="B122" s="56">
         <v>5</v>
       </c>
-      <c r="C56" s="71">
-        <v>1</v>
-      </c>
-      <c r="D56" s="71">
+      <c r="C122" s="56">
+        <v>442</v>
+      </c>
+      <c r="D122" s="56">
+        <f t="shared" si="13"/>
+        <v>10442</v>
+      </c>
+      <c r="E122" s="56"/>
+      <c r="K122" s="56"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A123" s="56">
+        <v>70020</v>
+      </c>
+      <c r="B123" s="56">
         <v>6</v>
       </c>
-      <c r="E56" s="71"/>
-      <c r="K56" s="71"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A57" s="71">
-        <v>70009</v>
-      </c>
-      <c r="B57" s="71">
+      <c r="C123" s="56">
+        <v>1</v>
+      </c>
+      <c r="D123" s="56">
+        <v>7</v>
+      </c>
+      <c r="E123" s="56"/>
+      <c r="K123" s="56"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A124" s="56">
+        <v>70021</v>
+      </c>
+      <c r="B124" s="56">
+        <v>1</v>
+      </c>
+      <c r="C124" s="56">
+        <v>403</v>
+      </c>
+      <c r="D124" s="56">
+        <f>C124+10000</f>
+        <v>10403</v>
+      </c>
+      <c r="E124" s="56"/>
+      <c r="K124" s="56"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A125" s="56">
+        <v>70021</v>
+      </c>
+      <c r="B125" s="56">
+        <v>2</v>
+      </c>
+      <c r="C125" s="56">
+        <v>413</v>
+      </c>
+      <c r="D125" s="56">
+        <f t="shared" ref="D125:D128" si="14">C125+10000</f>
+        <v>10413</v>
+      </c>
+      <c r="E125" s="56"/>
+      <c r="K125" s="56"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A126" s="56">
+        <v>70021</v>
+      </c>
+      <c r="B126" s="56">
+        <v>3</v>
+      </c>
+      <c r="C126" s="56">
+        <v>423</v>
+      </c>
+      <c r="D126" s="56">
+        <f t="shared" si="14"/>
+        <v>10423</v>
+      </c>
+      <c r="E126" s="56"/>
+      <c r="K126" s="56"/>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A127" s="56">
+        <v>70021</v>
+      </c>
+      <c r="B127" s="56">
+        <v>4</v>
+      </c>
+      <c r="C127" s="56">
+        <v>433</v>
+      </c>
+      <c r="D127" s="56">
+        <f t="shared" si="14"/>
+        <v>10433</v>
+      </c>
+      <c r="E127" s="56"/>
+      <c r="K127" s="56"/>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A128" s="56">
+        <v>70021</v>
+      </c>
+      <c r="B128" s="56">
+        <v>5</v>
+      </c>
+      <c r="C128" s="56">
+        <v>443</v>
+      </c>
+      <c r="D128" s="56">
+        <f t="shared" si="14"/>
+        <v>10443</v>
+      </c>
+      <c r="E128" s="56"/>
+      <c r="K128" s="56"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A129" s="56">
+        <v>70021</v>
+      </c>
+      <c r="B129" s="56">
         <v>6</v>
       </c>
-      <c r="C57" s="71">
-        <v>1</v>
-      </c>
-      <c r="D57" s="71">
+      <c r="C129" s="56">
+        <v>1</v>
+      </c>
+      <c r="D129" s="56">
         <v>7</v>
       </c>
-      <c r="E57" s="71"/>
-      <c r="K57" s="71"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A58" s="71">
-        <v>70010</v>
-      </c>
-      <c r="B58" s="71">
-        <v>1</v>
-      </c>
-      <c r="C58" s="71">
-        <v>1</v>
-      </c>
-      <c r="D58" s="71">
+      <c r="E129" s="56"/>
+      <c r="K129" s="56"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A130" s="56">
+        <v>70022</v>
+      </c>
+      <c r="B130" s="56">
+        <v>1</v>
+      </c>
+      <c r="C130" s="56">
+        <v>404</v>
+      </c>
+      <c r="D130" s="56">
+        <f>C130+10000</f>
+        <v>10404</v>
+      </c>
+      <c r="E130" s="56"/>
+      <c r="K130" s="56"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A131" s="56">
+        <v>70022</v>
+      </c>
+      <c r="B131" s="56">
         <v>2</v>
       </c>
-      <c r="E58" s="71"/>
-      <c r="K58" s="71"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A59" s="71">
-        <v>70010</v>
-      </c>
-      <c r="B59" s="71">
+      <c r="C131" s="56">
+        <v>414</v>
+      </c>
+      <c r="D131" s="56">
+        <f t="shared" ref="D131:D134" si="15">C131+10000</f>
+        <v>10414</v>
+      </c>
+      <c r="E131" s="56"/>
+      <c r="K131" s="56"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A132" s="56">
+        <v>70022</v>
+      </c>
+      <c r="B132" s="56">
+        <v>3</v>
+      </c>
+      <c r="C132" s="56">
+        <v>424</v>
+      </c>
+      <c r="D132" s="56">
+        <f t="shared" si="15"/>
+        <v>10424</v>
+      </c>
+      <c r="E132" s="56"/>
+      <c r="K132" s="56"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A133" s="56">
+        <v>70022</v>
+      </c>
+      <c r="B133" s="56">
+        <v>4</v>
+      </c>
+      <c r="C133" s="56">
+        <v>434</v>
+      </c>
+      <c r="D133" s="56">
+        <f t="shared" si="15"/>
+        <v>10434</v>
+      </c>
+      <c r="E133" s="56"/>
+      <c r="K133" s="56"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A134" s="56">
+        <v>70022</v>
+      </c>
+      <c r="B134" s="56">
+        <v>5</v>
+      </c>
+      <c r="C134" s="56">
+        <v>444</v>
+      </c>
+      <c r="D134" s="56">
+        <f t="shared" si="15"/>
+        <v>10444</v>
+      </c>
+      <c r="E134" s="56"/>
+      <c r="K134" s="56"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A135" s="56">
+        <v>70022</v>
+      </c>
+      <c r="B135" s="56">
+        <v>6</v>
+      </c>
+      <c r="C135" s="56">
+        <v>1</v>
+      </c>
+      <c r="D135" s="56">
+        <v>7</v>
+      </c>
+      <c r="E135" s="56"/>
+      <c r="K135" s="56"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A136" s="56">
+        <v>70023</v>
+      </c>
+      <c r="B136" s="56">
+        <v>1</v>
+      </c>
+      <c r="C136" s="56">
+        <v>405</v>
+      </c>
+      <c r="D136" s="56">
+        <f>C136+10000</f>
+        <v>10405</v>
+      </c>
+      <c r="E136" s="56"/>
+      <c r="K136" s="56"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A137" s="56">
+        <v>70023</v>
+      </c>
+      <c r="B137" s="56">
         <v>2</v>
       </c>
-      <c r="C59" s="71">
-        <v>1</v>
-      </c>
-      <c r="D59" s="71">
+      <c r="C137" s="56">
+        <v>415</v>
+      </c>
+      <c r="D137" s="56">
+        <f t="shared" ref="D137:D140" si="16">C137+10000</f>
+        <v>10415</v>
+      </c>
+      <c r="E137" s="56"/>
+      <c r="K137" s="56"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A138" s="56">
+        <v>70023</v>
+      </c>
+      <c r="B138" s="56">
         <v>3</v>
       </c>
-      <c r="E59" s="71"/>
-      <c r="K59" s="71"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A60" s="71">
-        <v>70010</v>
-      </c>
-      <c r="B60" s="71">
+      <c r="C138" s="56">
+        <v>425</v>
+      </c>
+      <c r="D138" s="56">
+        <f t="shared" si="16"/>
+        <v>10425</v>
+      </c>
+      <c r="E138" s="56"/>
+      <c r="K138" s="56"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A139" s="56">
+        <v>70023</v>
+      </c>
+      <c r="B139" s="56">
+        <v>4</v>
+      </c>
+      <c r="C139" s="56">
+        <v>435</v>
+      </c>
+      <c r="D139" s="56">
+        <f t="shared" si="16"/>
+        <v>10435</v>
+      </c>
+      <c r="E139" s="56"/>
+      <c r="K139" s="56"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A140" s="56">
+        <v>70023</v>
+      </c>
+      <c r="B140" s="56">
+        <v>5</v>
+      </c>
+      <c r="C140" s="56">
+        <v>445</v>
+      </c>
+      <c r="D140" s="56">
+        <f t="shared" si="16"/>
+        <v>10445</v>
+      </c>
+      <c r="E140" s="56"/>
+      <c r="K140" s="56"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A141" s="56">
+        <v>70023</v>
+      </c>
+      <c r="B141" s="56">
+        <v>6</v>
+      </c>
+      <c r="C141" s="56">
+        <v>1</v>
+      </c>
+      <c r="D141" s="56">
+        <v>7</v>
+      </c>
+      <c r="E141" s="56"/>
+      <c r="K141" s="56"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A142" s="56">
+        <v>70024</v>
+      </c>
+      <c r="B142" s="56">
+        <v>1</v>
+      </c>
+      <c r="C142" s="56">
+        <v>406</v>
+      </c>
+      <c r="D142" s="56">
+        <f>C142+10000</f>
+        <v>10406</v>
+      </c>
+      <c r="E142" s="56"/>
+      <c r="K142" s="56"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A143" s="56">
+        <v>70024</v>
+      </c>
+      <c r="B143" s="56">
+        <v>2</v>
+      </c>
+      <c r="C143" s="56">
+        <v>416</v>
+      </c>
+      <c r="D143" s="56">
+        <f t="shared" ref="D143:D146" si="17">C143+10000</f>
+        <v>10416</v>
+      </c>
+      <c r="E143" s="56"/>
+      <c r="K143" s="56"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A144" s="56">
+        <v>70024</v>
+      </c>
+      <c r="B144" s="56">
         <v>3</v>
       </c>
-      <c r="C60" s="71">
-        <v>1</v>
-      </c>
-      <c r="D60" s="71">
+      <c r="C144" s="56">
+        <v>426</v>
+      </c>
+      <c r="D144" s="56">
+        <f t="shared" si="17"/>
+        <v>10426</v>
+      </c>
+      <c r="E144" s="56"/>
+      <c r="K144" s="56"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A145" s="56">
+        <v>70024</v>
+      </c>
+      <c r="B145" s="56">
         <v>4</v>
       </c>
-      <c r="E60" s="71"/>
-      <c r="K60" s="71"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A61" s="71">
-        <v>70010</v>
-      </c>
-      <c r="B61" s="71">
-        <v>4</v>
-      </c>
-      <c r="C61" s="71">
-        <v>1</v>
-      </c>
-      <c r="D61" s="71">
+      <c r="C145" s="56">
+        <v>436</v>
+      </c>
+      <c r="D145" s="56">
+        <f t="shared" si="17"/>
+        <v>10436</v>
+      </c>
+      <c r="E145" s="56"/>
+      <c r="K145" s="56"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A146" s="56">
+        <v>70024</v>
+      </c>
+      <c r="B146" s="56">
         <v>5</v>
       </c>
-      <c r="E61" s="71"/>
-      <c r="K61" s="71"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A62" s="71">
-        <v>70010</v>
-      </c>
-      <c r="B62" s="71">
-        <v>5</v>
-      </c>
-      <c r="C62" s="71">
-        <v>1</v>
-      </c>
-      <c r="D62" s="71">
+      <c r="C146" s="56">
+        <v>446</v>
+      </c>
+      <c r="D146" s="56">
+        <f t="shared" si="17"/>
+        <v>10446</v>
+      </c>
+      <c r="E146" s="56"/>
+      <c r="K146" s="56"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A147" s="56">
+        <v>70024</v>
+      </c>
+      <c r="B147" s="56">
         <v>6</v>
       </c>
-      <c r="E62" s="71"/>
-      <c r="K62" s="71"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A63" s="71">
-        <v>70010</v>
-      </c>
-      <c r="B63" s="71">
-        <v>6</v>
-      </c>
-      <c r="C63" s="71">
-        <v>1</v>
-      </c>
-      <c r="D63" s="71">
+      <c r="C147" s="56">
+        <v>1</v>
+      </c>
+      <c r="D147" s="56">
         <v>7</v>
       </c>
-      <c r="E63" s="71"/>
-      <c r="K63" s="71"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A64" s="71">
-        <v>70011</v>
-      </c>
-      <c r="B64" s="71">
-        <v>1</v>
-      </c>
-      <c r="C64" s="71">
-        <v>1</v>
-      </c>
-      <c r="D64" s="71">
-        <v>2</v>
-      </c>
-      <c r="E64" s="71"/>
-      <c r="K64" s="71"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A65" s="71">
-        <v>70011</v>
-      </c>
-      <c r="B65" s="71">
-        <v>2</v>
-      </c>
-      <c r="C65" s="71">
-        <v>1</v>
-      </c>
-      <c r="D65" s="71">
-        <v>3</v>
-      </c>
-      <c r="E65" s="71"/>
-      <c r="K65" s="71"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A66" s="71">
-        <v>70011</v>
-      </c>
-      <c r="B66" s="71">
-        <v>3</v>
-      </c>
-      <c r="C66" s="71">
-        <v>1</v>
-      </c>
-      <c r="D66" s="71">
-        <v>4</v>
-      </c>
-      <c r="E66" s="71"/>
-      <c r="K66" s="71"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A67" s="71">
-        <v>70011</v>
-      </c>
-      <c r="B67" s="71">
-        <v>4</v>
-      </c>
-      <c r="C67" s="71">
-        <v>1</v>
-      </c>
-      <c r="D67" s="71">
-        <v>5</v>
-      </c>
-      <c r="E67" s="71"/>
-      <c r="K67" s="71"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A68" s="71">
-        <v>70011</v>
-      </c>
-      <c r="B68" s="71">
-        <v>5</v>
-      </c>
-      <c r="C68" s="71">
-        <v>1</v>
-      </c>
-      <c r="D68" s="71">
-        <v>6</v>
-      </c>
-      <c r="E68" s="71"/>
-      <c r="K68" s="71"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A69" s="71">
-        <v>70011</v>
-      </c>
-      <c r="B69" s="71">
-        <v>6</v>
-      </c>
-      <c r="C69" s="71">
-        <v>1</v>
-      </c>
-      <c r="D69" s="71">
-        <v>7</v>
-      </c>
-      <c r="E69" s="71"/>
-      <c r="K69" s="71"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A70" s="71">
-        <v>70012</v>
-      </c>
-      <c r="B70" s="71">
-        <v>1</v>
-      </c>
-      <c r="C70" s="71">
-        <v>1</v>
-      </c>
-      <c r="D70" s="71">
-        <v>2</v>
-      </c>
-      <c r="E70" s="71"/>
-      <c r="K70" s="71"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A71" s="71">
-        <v>70012</v>
-      </c>
-      <c r="B71" s="71">
-        <v>2</v>
-      </c>
-      <c r="C71" s="71">
-        <v>1</v>
-      </c>
-      <c r="D71" s="71">
-        <v>3</v>
-      </c>
-      <c r="E71" s="71"/>
-      <c r="K71" s="71"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A72" s="71">
-        <v>70012</v>
-      </c>
-      <c r="B72" s="71">
-        <v>3</v>
-      </c>
-      <c r="C72" s="71">
-        <v>1</v>
-      </c>
-      <c r="D72" s="71">
-        <v>4</v>
-      </c>
-      <c r="E72" s="71"/>
-      <c r="K72" s="71"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A73" s="71">
-        <v>70012</v>
-      </c>
-      <c r="B73" s="71">
-        <v>4</v>
-      </c>
-      <c r="C73" s="71">
-        <v>1</v>
-      </c>
-      <c r="D73" s="71">
-        <v>5</v>
-      </c>
-      <c r="E73" s="71"/>
-      <c r="K73" s="71"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A74" s="71">
-        <v>70012</v>
-      </c>
-      <c r="B74" s="71">
-        <v>5</v>
-      </c>
-      <c r="C74" s="71">
-        <v>1</v>
-      </c>
-      <c r="D74" s="71">
-        <v>6</v>
-      </c>
-      <c r="E74" s="71"/>
-      <c r="K74" s="71"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A75" s="71">
-        <v>70012</v>
-      </c>
-      <c r="B75" s="71">
-        <v>6</v>
-      </c>
-      <c r="C75" s="71">
-        <v>1</v>
-      </c>
-      <c r="D75" s="71">
-        <v>7</v>
-      </c>
-      <c r="E75" s="71"/>
-      <c r="K75" s="71"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A76" s="71">
-        <v>70013</v>
-      </c>
-      <c r="B76" s="71">
-        <v>1</v>
-      </c>
-      <c r="C76" s="71">
-        <v>1</v>
-      </c>
-      <c r="D76" s="71">
-        <v>2</v>
-      </c>
-      <c r="E76" s="71"/>
-      <c r="K76" s="71"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A77" s="71">
-        <v>70013</v>
-      </c>
-      <c r="B77" s="71">
-        <v>2</v>
-      </c>
-      <c r="C77" s="71">
-        <v>1</v>
-      </c>
-      <c r="D77" s="71">
-        <v>3</v>
-      </c>
-      <c r="E77" s="71"/>
-      <c r="K77" s="71"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A78" s="71">
-        <v>70013</v>
-      </c>
-      <c r="B78" s="71">
-        <v>3</v>
-      </c>
-      <c r="C78" s="71">
-        <v>1</v>
-      </c>
-      <c r="D78" s="71">
-        <v>4</v>
-      </c>
-      <c r="E78" s="71"/>
-      <c r="K78" s="71"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A79" s="71">
-        <v>70013</v>
-      </c>
-      <c r="B79" s="71">
-        <v>4</v>
-      </c>
-      <c r="C79" s="71">
-        <v>1</v>
-      </c>
-      <c r="D79" s="71">
-        <v>5</v>
-      </c>
-      <c r="E79" s="71"/>
-      <c r="K79" s="71"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A80" s="71">
-        <v>70013</v>
-      </c>
-      <c r="B80" s="71">
-        <v>5</v>
-      </c>
-      <c r="C80" s="71">
-        <v>1</v>
-      </c>
-      <c r="D80" s="71">
-        <v>6</v>
-      </c>
-      <c r="E80" s="71"/>
-      <c r="K80" s="71"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A81" s="71">
-        <v>70013</v>
-      </c>
-      <c r="B81" s="71">
-        <v>6</v>
-      </c>
-      <c r="C81" s="71">
-        <v>1</v>
-      </c>
-      <c r="D81" s="71">
-        <v>7</v>
-      </c>
-      <c r="E81" s="71"/>
-      <c r="K81" s="71"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A82" s="71">
-        <v>70014</v>
-      </c>
-      <c r="B82" s="71">
-        <v>1</v>
-      </c>
-      <c r="C82" s="71">
-        <v>1</v>
-      </c>
-      <c r="D82" s="71">
-        <v>2</v>
-      </c>
-      <c r="E82" s="71"/>
-      <c r="K82" s="71"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A83" s="71">
-        <v>70014</v>
-      </c>
-      <c r="B83" s="71">
-        <v>2</v>
-      </c>
-      <c r="C83" s="71">
-        <v>1</v>
-      </c>
-      <c r="D83" s="71">
-        <v>3</v>
-      </c>
-      <c r="E83" s="71"/>
-      <c r="K83" s="71"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A84" s="71">
-        <v>70014</v>
-      </c>
-      <c r="B84" s="71">
-        <v>3</v>
-      </c>
-      <c r="C84" s="71">
-        <v>1</v>
-      </c>
-      <c r="D84" s="71">
-        <v>4</v>
-      </c>
-      <c r="E84" s="71"/>
-      <c r="K84" s="71"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A85" s="71">
-        <v>70014</v>
-      </c>
-      <c r="B85" s="71">
-        <v>4</v>
-      </c>
-      <c r="C85" s="71">
-        <v>1</v>
-      </c>
-      <c r="D85" s="71">
-        <v>5</v>
-      </c>
-      <c r="E85" s="71"/>
-      <c r="K85" s="71"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A86" s="71">
-        <v>70014</v>
-      </c>
-      <c r="B86" s="71">
-        <v>5</v>
-      </c>
-      <c r="C86" s="71">
-        <v>1</v>
-      </c>
-      <c r="D86" s="71">
-        <v>6</v>
-      </c>
-      <c r="E86" s="71"/>
-      <c r="K86" s="71"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A87" s="71">
-        <v>70014</v>
-      </c>
-      <c r="B87" s="71">
-        <v>6</v>
-      </c>
-      <c r="C87" s="71">
-        <v>1</v>
-      </c>
-      <c r="D87" s="71">
-        <v>7</v>
-      </c>
-      <c r="E87" s="71"/>
-      <c r="K87" s="71"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A88" s="71">
-        <v>70015</v>
-      </c>
-      <c r="B88" s="71">
-        <v>1</v>
-      </c>
-      <c r="C88" s="71">
-        <v>1</v>
-      </c>
-      <c r="D88" s="71">
-        <v>2</v>
-      </c>
-      <c r="E88" s="71"/>
-      <c r="K88" s="71"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A89" s="71">
-        <v>70015</v>
-      </c>
-      <c r="B89" s="71">
-        <v>2</v>
-      </c>
-      <c r="C89" s="71">
-        <v>1</v>
-      </c>
-      <c r="D89" s="71">
-        <v>3</v>
-      </c>
-      <c r="E89" s="71"/>
-      <c r="K89" s="71"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A90" s="71">
-        <v>70015</v>
-      </c>
-      <c r="B90" s="71">
-        <v>3</v>
-      </c>
-      <c r="C90" s="71">
-        <v>1</v>
-      </c>
-      <c r="D90" s="71">
-        <v>4</v>
-      </c>
-      <c r="E90" s="71"/>
-      <c r="K90" s="71"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A91" s="71">
-        <v>70015</v>
-      </c>
-      <c r="B91" s="71">
-        <v>4</v>
-      </c>
-      <c r="C91" s="71">
-        <v>1</v>
-      </c>
-      <c r="D91" s="71">
-        <v>5</v>
-      </c>
-      <c r="E91" s="71"/>
-      <c r="K91" s="71"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A92" s="71">
-        <v>70015</v>
-      </c>
-      <c r="B92" s="71">
-        <v>5</v>
-      </c>
-      <c r="C92" s="71">
-        <v>1</v>
-      </c>
-      <c r="D92" s="71">
-        <v>6</v>
-      </c>
-      <c r="E92" s="71"/>
-      <c r="K92" s="71"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A93" s="71">
-        <v>70015</v>
-      </c>
-      <c r="B93" s="71">
-        <v>6</v>
-      </c>
-      <c r="C93" s="71">
-        <v>1</v>
-      </c>
-      <c r="D93" s="71">
-        <v>7</v>
-      </c>
-      <c r="E93" s="71"/>
-      <c r="K93" s="71"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A94" s="71">
-        <v>70016</v>
-      </c>
-      <c r="B94" s="71">
-        <v>1</v>
-      </c>
-      <c r="C94" s="71">
-        <v>1</v>
-      </c>
-      <c r="D94" s="71">
-        <v>2</v>
-      </c>
-      <c r="E94" s="71"/>
-      <c r="K94" s="71"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A95" s="71">
-        <v>70016</v>
-      </c>
-      <c r="B95" s="71">
-        <v>2</v>
-      </c>
-      <c r="C95" s="71">
-        <v>1</v>
-      </c>
-      <c r="D95" s="71">
-        <v>3</v>
-      </c>
-      <c r="E95" s="71"/>
-      <c r="K95" s="71"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A96" s="71">
-        <v>70016</v>
-      </c>
-      <c r="B96" s="71">
-        <v>3</v>
-      </c>
-      <c r="C96" s="71">
-        <v>1</v>
-      </c>
-      <c r="D96" s="71">
-        <v>4</v>
-      </c>
-      <c r="E96" s="71"/>
-      <c r="K96" s="71"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A97" s="71">
-        <v>70016</v>
-      </c>
-      <c r="B97" s="71">
-        <v>4</v>
-      </c>
-      <c r="C97" s="71">
-        <v>1</v>
-      </c>
-      <c r="D97" s="71">
-        <v>5</v>
-      </c>
-      <c r="E97" s="71"/>
-      <c r="K97" s="71"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A98" s="71">
-        <v>70016</v>
-      </c>
-      <c r="B98" s="71">
-        <v>5</v>
-      </c>
-      <c r="C98" s="71">
-        <v>1</v>
-      </c>
-      <c r="D98" s="71">
-        <v>6</v>
-      </c>
-      <c r="E98" s="71"/>
-      <c r="K98" s="71"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A99" s="71">
-        <v>70016</v>
-      </c>
-      <c r="B99" s="71">
-        <v>6</v>
-      </c>
-      <c r="C99" s="71">
-        <v>1</v>
-      </c>
-      <c r="D99" s="71">
-        <v>7</v>
-      </c>
-      <c r="E99" s="71"/>
-      <c r="K99" s="71"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A100" s="71">
-        <v>70017</v>
-      </c>
-      <c r="B100" s="71">
-        <v>1</v>
-      </c>
-      <c r="C100" s="71">
-        <v>1</v>
-      </c>
-      <c r="D100" s="71">
-        <v>2</v>
-      </c>
-      <c r="E100" s="71"/>
-      <c r="K100" s="71"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A101" s="71">
-        <v>70017</v>
-      </c>
-      <c r="B101" s="71">
-        <v>2</v>
-      </c>
-      <c r="C101" s="71">
-        <v>1</v>
-      </c>
-      <c r="D101" s="71">
-        <v>3</v>
-      </c>
-      <c r="E101" s="71"/>
-      <c r="K101" s="71"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A102" s="71">
-        <v>70017</v>
-      </c>
-      <c r="B102" s="71">
-        <v>3</v>
-      </c>
-      <c r="C102" s="71">
-        <v>1</v>
-      </c>
-      <c r="D102" s="71">
-        <v>4</v>
-      </c>
-      <c r="E102" s="71"/>
-      <c r="K102" s="71"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A103" s="71">
-        <v>70017</v>
-      </c>
-      <c r="B103" s="71">
-        <v>4</v>
-      </c>
-      <c r="C103" s="71">
-        <v>1</v>
-      </c>
-      <c r="D103" s="71">
-        <v>5</v>
-      </c>
-      <c r="E103" s="71"/>
-      <c r="K103" s="71"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A104" s="71">
-        <v>70017</v>
-      </c>
-      <c r="B104" s="71">
-        <v>5</v>
-      </c>
-      <c r="C104" s="71">
-        <v>1</v>
-      </c>
-      <c r="D104" s="71">
-        <v>6</v>
-      </c>
-      <c r="E104" s="71"/>
-      <c r="K104" s="71"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A105" s="71">
-        <v>70017</v>
-      </c>
-      <c r="B105" s="71">
-        <v>6</v>
-      </c>
-      <c r="C105" s="71">
-        <v>1</v>
-      </c>
-      <c r="D105" s="71">
-        <v>7</v>
-      </c>
-      <c r="E105" s="71"/>
-      <c r="K105" s="71"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A106" s="71">
-        <v>70018</v>
-      </c>
-      <c r="B106" s="71">
-        <v>1</v>
-      </c>
-      <c r="C106" s="71">
-        <v>1</v>
-      </c>
-      <c r="D106" s="71">
-        <v>2</v>
-      </c>
-      <c r="E106" s="71"/>
-      <c r="K106" s="71"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A107" s="71">
-        <v>70018</v>
-      </c>
-      <c r="B107" s="71">
-        <v>2</v>
-      </c>
-      <c r="C107" s="71">
-        <v>1</v>
-      </c>
-      <c r="D107" s="71">
-        <v>3</v>
-      </c>
-      <c r="E107" s="71"/>
-      <c r="K107" s="71"/>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A108" s="71">
-        <v>70018</v>
-      </c>
-      <c r="B108" s="71">
-        <v>3</v>
-      </c>
-      <c r="C108" s="71">
-        <v>1</v>
-      </c>
-      <c r="D108" s="71">
-        <v>4</v>
-      </c>
-      <c r="E108" s="71"/>
-      <c r="K108" s="71"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A109" s="71">
-        <v>70018</v>
-      </c>
-      <c r="B109" s="71">
-        <v>4</v>
-      </c>
-      <c r="C109" s="71">
-        <v>1</v>
-      </c>
-      <c r="D109" s="71">
-        <v>5</v>
-      </c>
-      <c r="E109" s="71"/>
-      <c r="K109" s="71"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A110" s="71">
-        <v>70018</v>
-      </c>
-      <c r="B110" s="71">
-        <v>5</v>
-      </c>
-      <c r="C110" s="71">
-        <v>1</v>
-      </c>
-      <c r="D110" s="71">
-        <v>6</v>
-      </c>
-      <c r="E110" s="71"/>
-      <c r="K110" s="71"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A111" s="71">
-        <v>70018</v>
-      </c>
-      <c r="B111" s="71">
-        <v>6</v>
-      </c>
-      <c r="C111" s="71">
-        <v>1</v>
-      </c>
-      <c r="D111" s="71">
-        <v>7</v>
-      </c>
-      <c r="E111" s="71"/>
-      <c r="K111" s="71"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A112" s="71">
-        <v>70019</v>
-      </c>
-      <c r="B112" s="71">
-        <v>1</v>
-      </c>
-      <c r="C112" s="71">
-        <v>1</v>
-      </c>
-      <c r="D112" s="71">
-        <v>2</v>
-      </c>
-      <c r="E112" s="71"/>
-      <c r="K112" s="71"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A113" s="71">
-        <v>70019</v>
-      </c>
-      <c r="B113" s="71">
-        <v>2</v>
-      </c>
-      <c r="C113" s="71">
-        <v>1</v>
-      </c>
-      <c r="D113" s="71">
-        <v>3</v>
-      </c>
-      <c r="E113" s="71"/>
-      <c r="K113" s="71"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A114" s="71">
-        <v>70019</v>
-      </c>
-      <c r="B114" s="71">
-        <v>3</v>
-      </c>
-      <c r="C114" s="71">
-        <v>1</v>
-      </c>
-      <c r="D114" s="71">
-        <v>4</v>
-      </c>
-      <c r="E114" s="71"/>
-      <c r="K114" s="71"/>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A115" s="71">
-        <v>70019</v>
-      </c>
-      <c r="B115" s="71">
-        <v>4</v>
-      </c>
-      <c r="C115" s="71">
-        <v>1</v>
-      </c>
-      <c r="D115" s="71">
-        <v>5</v>
-      </c>
-      <c r="E115" s="71"/>
-      <c r="K115" s="71"/>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A116" s="71">
-        <v>70019</v>
-      </c>
-      <c r="B116" s="71">
-        <v>5</v>
-      </c>
-      <c r="C116" s="71">
-        <v>1</v>
-      </c>
-      <c r="D116" s="71">
-        <v>6</v>
-      </c>
-      <c r="E116" s="71"/>
-      <c r="K116" s="71"/>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A117" s="71">
-        <v>70019</v>
-      </c>
-      <c r="B117" s="71">
-        <v>6</v>
-      </c>
-      <c r="C117" s="71">
-        <v>1</v>
-      </c>
-      <c r="D117" s="71">
-        <v>7</v>
-      </c>
-      <c r="E117" s="71"/>
-      <c r="K117" s="71"/>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A118" s="71">
-        <v>70020</v>
-      </c>
-      <c r="B118" s="71">
-        <v>1</v>
-      </c>
-      <c r="C118" s="71">
-        <v>1</v>
-      </c>
-      <c r="D118" s="71">
-        <v>2</v>
-      </c>
-      <c r="E118" s="71"/>
-      <c r="K118" s="71"/>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A119" s="71">
-        <v>70020</v>
-      </c>
-      <c r="B119" s="71">
-        <v>2</v>
-      </c>
-      <c r="C119" s="71">
-        <v>1</v>
-      </c>
-      <c r="D119" s="71">
-        <v>3</v>
-      </c>
-      <c r="E119" s="71"/>
-      <c r="K119" s="71"/>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A120" s="71">
-        <v>70020</v>
-      </c>
-      <c r="B120" s="71">
-        <v>3</v>
-      </c>
-      <c r="C120" s="71">
-        <v>1</v>
-      </c>
-      <c r="D120" s="71">
-        <v>4</v>
-      </c>
-      <c r="E120" s="71"/>
-      <c r="K120" s="71"/>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A121" s="71">
-        <v>70020</v>
-      </c>
-      <c r="B121" s="71">
-        <v>4</v>
-      </c>
-      <c r="C121" s="71">
-        <v>1</v>
-      </c>
-      <c r="D121" s="71">
-        <v>5</v>
-      </c>
-      <c r="E121" s="71"/>
-      <c r="K121" s="71"/>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A122" s="71">
-        <v>70020</v>
-      </c>
-      <c r="B122" s="71">
-        <v>5</v>
-      </c>
-      <c r="C122" s="71">
-        <v>1</v>
-      </c>
-      <c r="D122" s="71">
-        <v>6</v>
-      </c>
-      <c r="E122" s="71"/>
-      <c r="K122" s="71"/>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A123" s="71">
-        <v>70020</v>
-      </c>
-      <c r="B123" s="71">
-        <v>6</v>
-      </c>
-      <c r="C123" s="71">
-        <v>1</v>
-      </c>
-      <c r="D123" s="71">
-        <v>7</v>
-      </c>
-      <c r="E123" s="71"/>
-      <c r="K123" s="71"/>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A124" s="71">
-        <v>70021</v>
-      </c>
-      <c r="B124" s="71">
-        <v>1</v>
-      </c>
-      <c r="C124" s="71">
-        <v>1</v>
-      </c>
-      <c r="D124" s="71">
-        <v>2</v>
-      </c>
-      <c r="E124" s="71"/>
-      <c r="K124" s="71"/>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A125" s="71">
-        <v>70021</v>
-      </c>
-      <c r="B125" s="71">
-        <v>2</v>
-      </c>
-      <c r="C125" s="71">
-        <v>1</v>
-      </c>
-      <c r="D125" s="71">
-        <v>3</v>
-      </c>
-      <c r="E125" s="71"/>
-      <c r="K125" s="71"/>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A126" s="71">
-        <v>70021</v>
-      </c>
-      <c r="B126" s="71">
-        <v>3</v>
-      </c>
-      <c r="C126" s="71">
-        <v>1</v>
-      </c>
-      <c r="D126" s="71">
-        <v>4</v>
-      </c>
-      <c r="E126" s="71"/>
-      <c r="K126" s="71"/>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A127" s="71">
-        <v>70021</v>
-      </c>
-      <c r="B127" s="71">
-        <v>4</v>
-      </c>
-      <c r="C127" s="71">
-        <v>1</v>
-      </c>
-      <c r="D127" s="71">
-        <v>5</v>
-      </c>
-      <c r="E127" s="71"/>
-      <c r="K127" s="71"/>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A128" s="71">
-        <v>70021</v>
-      </c>
-      <c r="B128" s="71">
-        <v>5</v>
-      </c>
-      <c r="C128" s="71">
-        <v>1</v>
-      </c>
-      <c r="D128" s="71">
-        <v>6</v>
-      </c>
-      <c r="E128" s="71"/>
-      <c r="K128" s="71"/>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A129" s="71">
-        <v>70021</v>
-      </c>
-      <c r="B129" s="71">
-        <v>6</v>
-      </c>
-      <c r="C129" s="71">
-        <v>1</v>
-      </c>
-      <c r="D129" s="71">
-        <v>7</v>
-      </c>
-      <c r="E129" s="71"/>
-      <c r="K129" s="71"/>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A130" s="71">
-        <v>70022</v>
-      </c>
-      <c r="B130" s="71">
-        <v>1</v>
-      </c>
-      <c r="C130" s="71">
-        <v>1</v>
-      </c>
-      <c r="D130" s="71">
-        <v>2</v>
-      </c>
-      <c r="E130" s="71"/>
-      <c r="K130" s="71"/>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A131" s="71">
-        <v>70022</v>
-      </c>
-      <c r="B131" s="71">
-        <v>2</v>
-      </c>
-      <c r="C131" s="71">
-        <v>1</v>
-      </c>
-      <c r="D131" s="71">
-        <v>3</v>
-      </c>
-      <c r="E131" s="71"/>
-      <c r="K131" s="71"/>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A132" s="71">
-        <v>70022</v>
-      </c>
-      <c r="B132" s="71">
-        <v>3</v>
-      </c>
-      <c r="C132" s="71">
-        <v>1</v>
-      </c>
-      <c r="D132" s="71">
-        <v>4</v>
-      </c>
-      <c r="E132" s="71"/>
-      <c r="K132" s="71"/>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A133" s="71">
-        <v>70022</v>
-      </c>
-      <c r="B133" s="71">
-        <v>4</v>
-      </c>
-      <c r="C133" s="71">
-        <v>1</v>
-      </c>
-      <c r="D133" s="71">
-        <v>5</v>
-      </c>
-      <c r="E133" s="71"/>
-      <c r="K133" s="71"/>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A134" s="71">
-        <v>70022</v>
-      </c>
-      <c r="B134" s="71">
-        <v>5</v>
-      </c>
-      <c r="C134" s="71">
-        <v>1</v>
-      </c>
-      <c r="D134" s="71">
-        <v>6</v>
-      </c>
-      <c r="E134" s="71"/>
-      <c r="K134" s="71"/>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A135" s="71">
-        <v>70022</v>
-      </c>
-      <c r="B135" s="71">
-        <v>6</v>
-      </c>
-      <c r="C135" s="71">
-        <v>1</v>
-      </c>
-      <c r="D135" s="71">
-        <v>7</v>
-      </c>
-      <c r="E135" s="71"/>
-      <c r="K135" s="71"/>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A136" s="71">
-        <v>70023</v>
-      </c>
-      <c r="B136" s="71">
-        <v>1</v>
-      </c>
-      <c r="C136" s="71">
-        <v>1</v>
-      </c>
-      <c r="D136" s="71">
-        <v>2</v>
-      </c>
-      <c r="E136" s="71"/>
-      <c r="K136" s="71"/>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A137" s="71">
-        <v>70023</v>
-      </c>
-      <c r="B137" s="71">
-        <v>2</v>
-      </c>
-      <c r="C137" s="71">
-        <v>1</v>
-      </c>
-      <c r="D137" s="71">
-        <v>3</v>
-      </c>
-      <c r="E137" s="71"/>
-      <c r="K137" s="71"/>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A138" s="71">
-        <v>70023</v>
-      </c>
-      <c r="B138" s="71">
-        <v>3</v>
-      </c>
-      <c r="C138" s="71">
-        <v>1</v>
-      </c>
-      <c r="D138" s="71">
-        <v>4</v>
-      </c>
-      <c r="E138" s="71"/>
-      <c r="K138" s="71"/>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A139" s="71">
-        <v>70023</v>
-      </c>
-      <c r="B139" s="71">
-        <v>4</v>
-      </c>
-      <c r="C139" s="71">
-        <v>1</v>
-      </c>
-      <c r="D139" s="71">
-        <v>5</v>
-      </c>
-      <c r="E139" s="71"/>
-      <c r="K139" s="71"/>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A140" s="71">
-        <v>70023</v>
-      </c>
-      <c r="B140" s="71">
-        <v>5</v>
-      </c>
-      <c r="C140" s="71">
-        <v>1</v>
-      </c>
-      <c r="D140" s="71">
-        <v>6</v>
-      </c>
-      <c r="E140" s="71"/>
-      <c r="K140" s="71"/>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A141" s="71">
-        <v>70023</v>
-      </c>
-      <c r="B141" s="71">
-        <v>6</v>
-      </c>
-      <c r="C141" s="71">
-        <v>1</v>
-      </c>
-      <c r="D141" s="71">
-        <v>7</v>
-      </c>
-      <c r="E141" s="71"/>
-      <c r="K141" s="71"/>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A142" s="71">
-        <v>70024</v>
-      </c>
-      <c r="B142" s="71">
-        <v>1</v>
-      </c>
-      <c r="C142" s="71">
-        <v>1</v>
-      </c>
-      <c r="D142" s="71">
-        <v>2</v>
-      </c>
-      <c r="E142" s="71"/>
-      <c r="K142" s="71"/>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A143" s="71">
-        <v>70024</v>
-      </c>
-      <c r="B143" s="71">
-        <v>2</v>
-      </c>
-      <c r="C143" s="71">
-        <v>1</v>
-      </c>
-      <c r="D143" s="71">
-        <v>3</v>
-      </c>
-      <c r="E143" s="71"/>
-      <c r="K143" s="71"/>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A144" s="71">
-        <v>70024</v>
-      </c>
-      <c r="B144" s="71">
-        <v>3</v>
-      </c>
-      <c r="C144" s="71">
-        <v>1</v>
-      </c>
-      <c r="D144" s="71">
-        <v>4</v>
-      </c>
-      <c r="E144" s="71"/>
-      <c r="K144" s="71"/>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A145" s="71">
-        <v>70024</v>
-      </c>
-      <c r="B145" s="71">
-        <v>4</v>
-      </c>
-      <c r="C145" s="71">
-        <v>1</v>
-      </c>
-      <c r="D145" s="71">
-        <v>5</v>
-      </c>
-      <c r="E145" s="71"/>
-      <c r="K145" s="71"/>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A146" s="71">
-        <v>70024</v>
-      </c>
-      <c r="B146" s="71">
-        <v>5</v>
-      </c>
-      <c r="C146" s="71">
-        <v>1</v>
-      </c>
-      <c r="D146" s="71">
-        <v>6</v>
-      </c>
-      <c r="E146" s="71"/>
-      <c r="K146" s="71"/>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A147" s="71">
-        <v>70024</v>
-      </c>
-      <c r="B147" s="71">
-        <v>6</v>
-      </c>
-      <c r="C147" s="71">
-        <v>1</v>
-      </c>
-      <c r="D147" s="71">
-        <v>7</v>
-      </c>
-      <c r="E147" s="71"/>
-      <c r="K147" s="71"/>
+      <c r="E147" s="56"/>
+      <c r="K147" s="56"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A148" s="71"/>
-      <c r="B148" s="71"/>
-      <c r="C148" s="71"/>
-      <c r="D148" s="71"/>
-      <c r="E148" s="71"/>
-      <c r="K148" s="71"/>
+      <c r="A148" s="56"/>
+      <c r="B148" s="56"/>
+      <c r="C148" s="56"/>
+      <c r="D148" s="56"/>
+      <c r="E148" s="56"/>
+      <c r="K148" s="56"/>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A149" s="71"/>
-      <c r="B149" s="71"/>
-      <c r="C149" s="71"/>
-      <c r="D149" s="71"/>
-      <c r="E149" s="71"/>
-      <c r="K149" s="71"/>
+      <c r="A149" s="56"/>
+      <c r="B149" s="56"/>
+      <c r="C149" s="56"/>
+      <c r="D149" s="56"/>
+      <c r="E149" s="56"/>
+      <c r="K149" s="56"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K150" s="56"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K151" s="56"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D3" s="36">
+        <v>40</v>
+      </c>
+      <c r="E3">
+        <f>D3</f>
+        <v>40</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>275</v>
+      </c>
+      <c r="O3" s="36">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="P3" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q3" s="36">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D4" s="36">
+        <v>80</v>
+      </c>
+      <c r="E4">
+        <f>E3+D4</f>
+        <v>120</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>279</v>
+      </c>
+      <c r="I4">
+        <f>30/(2*[1]副本时间模板!$E$78*3)</f>
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <f>O3*(1+$Q$3)</f>
+        <v>1.2994999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D5" s="36">
+        <v>120</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E7" si="0">E4+D5</f>
+        <v>240</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>276</v>
+      </c>
+      <c r="I5">
+        <f>30/(2*([1]副本时间模板!$E$80+[1]副本时间模板!$E$81)*3)</f>
+        <v>0.03</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ref="O5:O13" si="1">O4*(1+$Q$3)</f>
+        <v>1.4684349999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D6" s="36">
+        <v>200</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>440</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>277</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>1.6593315499999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D7" s="36">
+        <v>500</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>940</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>278</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>1.8750446514999992</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>2.1188004561949989</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>254</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>2.3942445155003487</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>2.7054963025153937</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>267</v>
+      </c>
+      <c r="C11" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="D11" s="36"/>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>3.0572108218423946</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>253</v>
+      </c>
+      <c r="F12" t="s">
+        <v>256</v>
+      </c>
+      <c r="I12" t="s">
+        <v>268</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>3.4546482286819056</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B13" s="33">
+        <v>0.05</v>
+      </c>
+      <c r="F13" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="J13" s="33">
+        <v>0.35</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>3.9037524984105527</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="L14" t="s">
+        <v>270</v>
+      </c>
+      <c r="N14" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A15" s="73" t="s">
+        <v>257</v>
+      </c>
+      <c r="M15" t="s">
+        <v>269</v>
+      </c>
+      <c r="N15" t="s">
+        <v>271</v>
+      </c>
+      <c r="O15" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A16" s="73" t="s">
+        <v>258</v>
+      </c>
+      <c r="B16">
+        <f>$B$13*$C$11*C16</f>
+        <v>4.6000000000000006E-2</v>
+      </c>
+      <c r="C16">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F16">
+        <f>$F$13*$C$11*G16</f>
+        <v>0.55199999999999994</v>
+      </c>
+      <c r="G16">
+        <f>C16*1.2</f>
+        <v>1.38</v>
+      </c>
+      <c r="J16">
+        <f>$J$13*$C$11*K16</f>
+        <v>0.31919999999999993</v>
+      </c>
+      <c r="K16">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="L16">
+        <f>J16+F16+B16</f>
+        <v>0.9171999999999999</v>
+      </c>
+      <c r="M16">
+        <f>E3</f>
+        <v>40</v>
+      </c>
+      <c r="N16">
+        <f>M16*6</f>
+        <v>240</v>
+      </c>
+      <c r="O16">
+        <f>N16*5</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A17" s="73" t="s">
+        <v>259</v>
+      </c>
+      <c r="B17">
+        <f>$B$13*$C$11*C17</f>
+        <v>5.1980000000000005E-2</v>
+      </c>
+      <c r="C17">
+        <v>1.2994999999999999</v>
+      </c>
+      <c r="F17">
+        <f>$F$13*$C$11*G17</f>
+        <v>0.62375999999999998</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ref="G17:G24" si="2">C17*1.2</f>
+        <v>1.5593999999999999</v>
+      </c>
+      <c r="J17">
+        <f>$J$13*$C$11*K17</f>
+        <v>0.35750399999999993</v>
+      </c>
+      <c r="K17">
+        <v>1.2767999999999999</v>
+      </c>
+      <c r="L17">
+        <f t="shared" ref="L17:L24" si="3">J17+F17+B17</f>
+        <v>1.0332439999999998</v>
+      </c>
+      <c r="M17">
+        <f>E4</f>
+        <v>120</v>
+      </c>
+      <c r="N17">
+        <f t="shared" ref="N17:N24" si="4">M17*6</f>
+        <v>720</v>
+      </c>
+      <c r="O17">
+        <f t="shared" ref="O17:O24" si="5">N17*5</f>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A18" s="73" t="s">
+        <v>260</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ref="B18:B24" si="6">$B$13*$C$11*C18</f>
+        <v>5.8737400000000002E-2</v>
+      </c>
+      <c r="C18">
+        <v>1.4684349999999997</v>
+      </c>
+      <c r="F18">
+        <f>$F$13*$C$11*G18</f>
+        <v>0.70484879999999983</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>1.7621219999999995</v>
+      </c>
+      <c r="J18">
+        <f>$J$13*$C$11*K18</f>
+        <v>0.40040447999999995</v>
+      </c>
+      <c r="K18">
+        <v>1.430016</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="3"/>
+        <v>1.1639906799999999</v>
+      </c>
+      <c r="M18">
+        <f>E4</f>
+        <v>120</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="4"/>
+        <v>720</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="5"/>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A19" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="6"/>
+        <v>6.6373261999999988E-2</v>
+      </c>
+      <c r="C19">
+        <v>1.6593315499999994</v>
+      </c>
+      <c r="F19">
+        <f>$F$13*$C$11*G19</f>
+        <v>0.79647914399999975</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>1.9911978599999993</v>
+      </c>
+      <c r="J19">
+        <f>$J$13*$C$11*K19</f>
+        <v>0.44845301759999995</v>
+      </c>
+      <c r="K19">
+        <v>1.60161792</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="3"/>
+        <v>1.3113054235999997</v>
+      </c>
+      <c r="M19">
+        <f>E5</f>
+        <v>240</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="4"/>
+        <v>1440</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="5"/>
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A20" s="73" t="s">
+        <v>262</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="6"/>
+        <v>7.5001786059999978E-2</v>
+      </c>
+      <c r="C20">
+        <v>1.8750446514999992</v>
+      </c>
+      <c r="F20">
+        <f>$F$13*$C$11*G20</f>
+        <v>0.90002143271999968</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>2.2500535817999991</v>
+      </c>
+      <c r="J20">
+        <f>$J$13*$C$11*K20</f>
+        <v>0.50226737971199997</v>
+      </c>
+      <c r="K20">
+        <v>1.7938120704000002</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="3"/>
+        <v>1.4772905984919997</v>
+      </c>
+      <c r="M20">
+        <f>E5</f>
+        <v>240</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="4"/>
+        <v>1440</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="5"/>
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A21" s="73" t="s">
+        <v>263</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="6"/>
+        <v>8.4752018247799973E-2</v>
+      </c>
+      <c r="C21">
+        <v>2.1188004561949989</v>
+      </c>
+      <c r="F21">
+        <f>$F$13*$C$11*G21</f>
+        <v>1.0170242189735994</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>2.5425605474339985</v>
+      </c>
+      <c r="J21">
+        <f>$J$13*$C$11*K21</f>
+        <v>0.56253946527744003</v>
+      </c>
+      <c r="K21">
+        <v>2.0090695188480003</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="3"/>
+        <v>1.6643157024988393</v>
+      </c>
+      <c r="M21">
+        <f>E6</f>
+        <v>440</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="4"/>
+        <v>2640</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="5"/>
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A22" s="73" t="s">
+        <v>264</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="6"/>
+        <v>9.576978062001397E-2</v>
+      </c>
+      <c r="C22">
+        <v>2.3942445155003487</v>
+      </c>
+      <c r="F22">
+        <f>$F$13*$C$11*G22</f>
+        <v>1.1492373674401672</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>2.8730934186004182</v>
+      </c>
+      <c r="J22">
+        <f>$J$13*$C$11*K22</f>
+        <v>0.63004420111073289</v>
+      </c>
+      <c r="K22">
+        <v>2.2501578611097606</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="3"/>
+        <v>1.8750513491709142</v>
+      </c>
+      <c r="M22">
+        <f>E6</f>
+        <v>440</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="4"/>
+        <v>2640</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="5"/>
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A23" s="73" t="s">
+        <v>265</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="6"/>
+        <v>0.10821985210061577</v>
+      </c>
+      <c r="C23">
+        <v>2.7054963025153937</v>
+      </c>
+      <c r="F23">
+        <f>$F$13*$C$11*G23</f>
+        <v>1.2986382252073891</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>3.2465955630184724</v>
+      </c>
+      <c r="J23">
+        <f>$J$13*$C$11*K23</f>
+        <v>0.70564950524402092</v>
+      </c>
+      <c r="K23">
+        <v>2.520176804442932</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="3"/>
+        <v>2.1125075825520261</v>
+      </c>
+      <c r="M23">
+        <f>E6</f>
+        <v>440</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="4"/>
+        <v>2640</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="5"/>
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A24" s="73" t="s">
+        <v>266</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="6"/>
+        <v>0.12228843287369581</v>
+      </c>
+      <c r="C24">
+        <v>3.0572108218423946</v>
+      </c>
+      <c r="F24">
+        <f>$F$13*$C$11*G24</f>
+        <v>1.4674611944843494</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>3.6686529862108732</v>
+      </c>
+      <c r="J24">
+        <f>$J$13*$C$11*K24</f>
+        <v>0.7903274458733035</v>
+      </c>
+      <c r="K24">
+        <v>2.8225980209760841</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="3"/>
+        <v>2.3800770732313485</v>
+      </c>
+      <c r="M24">
+        <f>E7</f>
+        <v>940</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="4"/>
+        <v>5640</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="5"/>
+        <v>28200</v>
+      </c>
+      <c r="P24">
+        <f>O24/L24</f>
+        <v>11848.355802072339</v>
+      </c>
+      <c r="Q24">
+        <f>P24/24</f>
+        <v>493.68149175301414</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A25" s="73"/>
+    </row>
+    <row r="26" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A26" s="73"/>
+    </row>
+    <row r="28" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A28" s="73"/>
+    </row>
+    <row r="29" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A29" s="73"/>
+    </row>
+    <row r="30" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A30" s="73"/>
+    </row>
+    <row r="31" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A31" s="73"/>
+    </row>
+    <row r="32" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A32" s="73"/>
+    </row>
+    <row r="33" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A33" s="73"/>
+    </row>
+    <row r="34" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A34" s="73"/>
+    </row>
+    <row r="35" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A35" s="73"/>
+    </row>
+    <row r="36" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A36" s="73"/>
+    </row>
+    <row r="37" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A37" s="73"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>
--- a/gd/数值规划/装备强化强化石消耗.xlsx
+++ b/gd/数值规划/装备强化强化石消耗.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="28410" yWindow="-15" windowWidth="28680" windowHeight="12570" activeTab="3"/>
+    <workbookView xWindow="28410" yWindow="-15" windowWidth="28680" windowHeight="12570" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="文档说明" sheetId="1" r:id="rId1"/>
@@ -15,52 +15,53 @@
     <sheet name="装备属性生成表" sheetId="10" r:id="rId6"/>
     <sheet name="装备强化消耗表" sheetId="11" r:id="rId7"/>
     <sheet name="进阶消耗" sheetId="12" r:id="rId8"/>
+    <sheet name="宠物自身养成规划" sheetId="13" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="289">
   <si>
     <t>高级</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>紫</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>2中级</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>1中级</t>
   </si>
   <si>
     <t>1中级</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>蓝</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>中级</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>绿</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>白</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>等级9</t>
@@ -88,46 +89,138 @@
   </si>
   <si>
     <t>等级1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出期望</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>分解产出</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>品质</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化需要总数(换算为最低强化石)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化消耗数</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化次数期望</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功率</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前需要的强化数量</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化等级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>阈值取最大</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>换算为最低</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>几合一</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成数量</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次失败额外增加百分比</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>产出期望</t>
+    <t>可修改位置</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>备注</t>
+    <t>文档可修改位置通过黄色荧光标示</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>分解产出</t>
+    <t>隐藏部分强化具体模拟情况</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>品质</t>
+    <t>,若涂黄了表头标示一列都可以修改</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>强化需要总数(换算为最低强化石)</t>
+    <t>操作</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>强化消耗数</t>
+    <t>规则说明</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>强化次数期望</t>
+    <t>强化石共分为,初级,中级,高级</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>成功率</t>
+    <t>目前实现向上合成数量统一</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>当前需要的强化数量</t>
+    <t>装备进阶后才能继续向上合成</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>强化等级</t>
+    <t>每个进阶阶段强化等级为9级</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能开放</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间梯度</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>大冒险</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难副本</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -135,244 +228,152 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>阈值取最大</t>
+    <t>时间梯度(天)</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>换算为最低</t>
+    <t>主线任务</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>几合一</t>
+    <t>签到送80(月)</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>合成数量</t>
+    <t>精英副本开放数</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>每次失败额外增加百分比</t>
+    <t>体力限制系数</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>橙</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>可修改位置</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档可修改位置通过黄色荧光标示</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>隐藏部分强化具体模拟情况</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>,若涂黄了表头标示一列都可以修改</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>规则说明</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>强化石共分为,初级,中级,高级</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前实现向上合成数量统一</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备进阶后才能继续向上合成</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>每个进阶阶段强化等级为9级</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>产出</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能开放</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间梯度</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>大冒险</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>困难副本</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间梯度(天)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>主线任务</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>签到送80(月)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>精英副本开放数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>体力限制系数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>均值效率系数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>周期可进行次数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>可投入体力</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>非R</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>大</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>重置系数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>总产出率</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>大冒险小怪产出</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>冒险效率系数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>冒险时间系数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>8小时</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>12小时</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>24小时</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>消费</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>效率隐性提升</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>每日周期投放</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>冒险效率基数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>大冒险系数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>金钱消耗系数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>单个金钱消耗期望</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>充值玩家档次</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>大冒险任务系数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>1星</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>2星</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>3星</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>4星</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>5星</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>需求宠物数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>效率比</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>任务效率</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>默认成功率</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>9级</t>
@@ -400,131 +401,131 @@
   </si>
   <si>
     <t>1级</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>强化总数</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>装备强化</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>橙</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>紫</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>蓝</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>绿</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>1阶段白</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>装备初始系数</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>初始自身属性</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>强化属性设计验证</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>橙9</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>橙5</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>橙3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>橙0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>紫9</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>紫5</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>紫0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>蓝9</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>蓝0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>绿9</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>绿0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>白9</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>白0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>镶嵌数量</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>镶嵌比重</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>装备进阶强化总值</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>装备进阶</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>装备自身</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>宠物培养</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>人物自身</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>装备状态</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>基橙6</t>
@@ -543,7 +544,7 @@
   </si>
   <si>
     <t>基橙1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>基紫6</t>
@@ -562,7 +563,7 @@
   </si>
   <si>
     <t>基紫1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>基蓝6</t>
@@ -581,7 +582,7 @@
   </si>
   <si>
     <t>基蓝1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>基绿6</t>
@@ -600,7 +601,7 @@
   </si>
   <si>
     <t>基绿1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>基础6</t>
@@ -619,11 +620,11 @@
   </si>
   <si>
     <t>基础1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>基础白</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>橙6</t>
@@ -633,60 +634,60 @@
   </si>
   <si>
     <t>6号部位</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>橙4</t>
   </si>
   <si>
     <t>5号部位</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>橙3</t>
   </si>
   <si>
     <t>4号部位</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>橙2</t>
   </si>
   <si>
     <t>3号部位</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>橙1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>2号部位</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>1号部位</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>防御</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>智力</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>力量</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>体力</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>辅助</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>紫6</t>
@@ -705,14 +706,14 @@
   </si>
   <si>
     <t>紫1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>蓝6</t>
   </si>
   <si>
     <t>坦克</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>蓝5</t>
@@ -728,7 +729,7 @@
   </si>
   <si>
     <t>蓝1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>绿6</t>
@@ -738,7 +739,7 @@
   </si>
   <si>
     <t>魔攻</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>绿4</t>
@@ -751,7 +752,7 @@
   </si>
   <si>
     <t>绿1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>白6</t>
@@ -764,21 +765,21 @@
   </si>
   <si>
     <t>物攻</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>白3</t>
   </si>
   <si>
     <t>装备部位</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>白2</t>
   </si>
   <si>
     <t>白1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>防御</t>
@@ -794,11 +795,11 @@
   </si>
   <si>
     <t>法功</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>模型取标准模型</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>速度</t>
@@ -901,150 +902,182 @@
   </si>
   <si>
     <t>进阶产出</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>进阶物品1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>进阶物品2</t>
   </si>
   <si>
     <t>进阶等级</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>绿</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>蓝</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>紫</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>橙</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>红</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>副本产出</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>道具1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>物品2可以5进1向上合成</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>BOSS点</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>1~10</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>11~20</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>21~30</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>31~40</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>41~50</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>51~60</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>61~70</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>71~80</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>81~90</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>91~100</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础系数</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>11~20</t>
+    <t>大冒险</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>21~30</t>
+    <t>单件装备需求</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>31~40</t>
+    <t>单位时间产量</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>41~50</t>
+    <t>1人需求数量</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>51~60</t>
+    <t>5人需求数量</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>61~70</t>
+    <t>1小时</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>71~80</t>
+    <t>递增系数</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>81~90</t>
+    <t>初始基数</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>91~100</t>
+    <t>40档次</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>基础系数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>大冒险</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>单件装备需求</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位时间产量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1人需求数量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>5人需求数量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1小时</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>递增系数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始基数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>40档次</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>60档次开始掉落</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>仅掉落图纸合成碎片</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>20级档次开始掉落</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>序列</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>头部</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>手镯</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>腰带</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>100级</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效提升</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1056,12 +1089,20 @@
     <numFmt numFmtId="177" formatCode="0_ "/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1362,219 +1403,222 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="2" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="2" applyFill="1">
+    <xf numFmtId="176" fontId="3" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="10" fontId="3" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="178" fontId="3" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="176" fontId="3" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="2" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="2" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1666,19 +1710,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1">
-        <row r="26">
-          <cell r="Q26">
-            <v>7.3231592024144021</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
-        <row r="49">
-          <cell r="E49">
-            <v>1</v>
-          </cell>
-        </row>
         <row r="67">
           <cell r="F67">
             <v>3</v>
@@ -1852,13 +1885,13 @@
       <sheetName val="文档说明"/>
       <sheetName val="职业调整模型"/>
       <sheetName val="属性拆分生成"/>
-      <sheetName val="战斗验证"/>
       <sheetName val="装备拆分生成表"/>
       <sheetName val="属性能力生成表"/>
       <sheetName val="装备属性生成表"/>
       <sheetName val="宠物升阶生成表"/>
       <sheetName val="装备拆分分析表"/>
       <sheetName val="镶嵌宝石"/>
+      <sheetName val="属性平衡"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -1876,22 +1909,22 @@
         </row>
         <row r="20">
           <cell r="I20">
-            <v>3060</v>
+            <v>2452</v>
           </cell>
         </row>
         <row r="21">
           <cell r="I21">
-            <v>442</v>
+            <v>348</v>
           </cell>
         </row>
         <row r="22">
           <cell r="I22">
-            <v>442</v>
+            <v>348</v>
           </cell>
         </row>
         <row r="23">
           <cell r="I23">
-            <v>716</v>
+            <v>817</v>
           </cell>
         </row>
       </sheetData>
@@ -1918,16 +1951,11 @@
       <sheetName val="AI"/>
       <sheetName val="战斗力划分"/>
       <sheetName val="技能基础价值"/>
+      <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="84">
-          <cell r="C84">
-            <v>2.1360105300217036</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="4">
           <cell r="E4">
@@ -2005,16 +2033,11 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4">
-        <row r="2">
-          <cell r="B2">
-            <v>16</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2381,7 +2404,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2391,7 +2414,7 @@
   <dimension ref="A1:BT60"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2408,9 +2431,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
       <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
@@ -2419,9 +2442,9 @@
       <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
       <c r="E2" s="18">
         <v>0.03</v>
       </c>
@@ -2439,18 +2462,18 @@
       </c>
     </row>
     <row r="3" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
     </row>
     <row r="4" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -2460,9 +2483,9 @@
       </c>
     </row>
     <row r="5" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
@@ -2648,7 +2671,7 @@
       </c>
     </row>
     <row r="8" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="69" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="14">
@@ -2877,7 +2900,7 @@
       </c>
     </row>
     <row r="9" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A9" s="62"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="12">
         <v>2</v>
       </c>
@@ -3114,7 +3137,7 @@
       </c>
     </row>
     <row r="10" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A10" s="62"/>
+      <c r="A10" s="70"/>
       <c r="B10" s="12">
         <v>3</v>
       </c>
@@ -3351,7 +3374,7 @@
       </c>
     </row>
     <row r="11" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A11" s="62"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="12">
         <v>4</v>
       </c>
@@ -3588,7 +3611,7 @@
       </c>
     </row>
     <row r="12" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A12" s="62"/>
+      <c r="A12" s="70"/>
       <c r="B12" s="12">
         <v>5</v>
       </c>
@@ -3825,7 +3848,7 @@
       </c>
     </row>
     <row r="13" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A13" s="62"/>
+      <c r="A13" s="70"/>
       <c r="B13" s="12">
         <v>6</v>
       </c>
@@ -4062,7 +4085,7 @@
       </c>
     </row>
     <row r="14" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A14" s="62"/>
+      <c r="A14" s="70"/>
       <c r="B14" s="12">
         <v>7</v>
       </c>
@@ -4299,7 +4322,7 @@
       </c>
     </row>
     <row r="15" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A15" s="62"/>
+      <c r="A15" s="70"/>
       <c r="B15" s="12">
         <v>8</v>
       </c>
@@ -4536,7 +4559,7 @@
       </c>
     </row>
     <row r="16" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A16" s="62"/>
+      <c r="A16" s="70"/>
       <c r="B16" s="12">
         <v>9</v>
       </c>
@@ -4776,7 +4799,7 @@
       </c>
     </row>
     <row r="17" spans="1:72" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="63"/>
+      <c r="A17" s="71"/>
       <c r="B17" s="10">
         <v>10</v>
       </c>
@@ -4987,7 +5010,7 @@
       </c>
     </row>
     <row r="18" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="66" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="8">
@@ -5225,7 +5248,7 @@
       </c>
     </row>
     <row r="19" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A19" s="59"/>
+      <c r="A19" s="67"/>
       <c r="B19" s="3">
         <v>12</v>
       </c>
@@ -5461,7 +5484,7 @@
       </c>
     </row>
     <row r="20" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A20" s="59"/>
+      <c r="A20" s="67"/>
       <c r="B20" s="3">
         <v>13</v>
       </c>
@@ -5697,7 +5720,7 @@
       </c>
     </row>
     <row r="21" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A21" s="59"/>
+      <c r="A21" s="67"/>
       <c r="B21" s="3">
         <v>14</v>
       </c>
@@ -5933,7 +5956,7 @@
       </c>
     </row>
     <row r="22" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A22" s="59"/>
+      <c r="A22" s="67"/>
       <c r="B22" s="3">
         <v>15</v>
       </c>
@@ -6172,7 +6195,7 @@
       </c>
     </row>
     <row r="23" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A23" s="59"/>
+      <c r="A23" s="67"/>
       <c r="B23" s="3">
         <v>16</v>
       </c>
@@ -6409,7 +6432,7 @@
       </c>
     </row>
     <row r="24" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A24" s="59"/>
+      <c r="A24" s="67"/>
       <c r="B24" s="3">
         <v>17</v>
       </c>
@@ -6646,7 +6669,7 @@
       </c>
     </row>
     <row r="25" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A25" s="59"/>
+      <c r="A25" s="67"/>
       <c r="B25" s="3">
         <v>18</v>
       </c>
@@ -6883,7 +6906,7 @@
       </c>
     </row>
     <row r="26" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A26" s="59"/>
+      <c r="A26" s="67"/>
       <c r="B26" s="3">
         <v>19</v>
       </c>
@@ -7123,7 +7146,7 @@
       </c>
     </row>
     <row r="27" spans="1:72" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="60"/>
+      <c r="A27" s="68"/>
       <c r="B27" s="5">
         <v>20</v>
       </c>
@@ -7335,7 +7358,7 @@
       </c>
     </row>
     <row r="28" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A28" s="64" t="s">
+      <c r="A28" s="72" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="8">
@@ -7576,7 +7599,7 @@
       </c>
     </row>
     <row r="29" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A29" s="65"/>
+      <c r="A29" s="73"/>
       <c r="B29" s="3">
         <v>22</v>
       </c>
@@ -7815,7 +7838,7 @@
       </c>
     </row>
     <row r="30" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A30" s="65"/>
+      <c r="A30" s="73"/>
       <c r="B30" s="3">
         <v>23</v>
       </c>
@@ -8054,7 +8077,7 @@
       </c>
     </row>
     <row r="31" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A31" s="65"/>
+      <c r="A31" s="73"/>
       <c r="B31" s="3">
         <v>24</v>
       </c>
@@ -8293,7 +8316,7 @@
       </c>
     </row>
     <row r="32" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A32" s="65"/>
+      <c r="A32" s="73"/>
       <c r="B32" s="3">
         <v>25</v>
       </c>
@@ -8530,7 +8553,7 @@
       </c>
     </row>
     <row r="33" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A33" s="65"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="3">
         <v>26</v>
       </c>
@@ -8767,7 +8790,7 @@
       </c>
     </row>
     <row r="34" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A34" s="65"/>
+      <c r="A34" s="73"/>
       <c r="B34" s="3">
         <v>27</v>
       </c>
@@ -9004,7 +9027,7 @@
       </c>
     </row>
     <row r="35" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A35" s="65"/>
+      <c r="A35" s="73"/>
       <c r="B35" s="3">
         <v>28</v>
       </c>
@@ -9241,7 +9264,7 @@
       </c>
     </row>
     <row r="36" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A36" s="65"/>
+      <c r="A36" s="73"/>
       <c r="B36" s="3">
         <v>29</v>
       </c>
@@ -9481,7 +9504,7 @@
       </c>
     </row>
     <row r="37" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A37" s="65"/>
+      <c r="A37" s="73"/>
       <c r="B37" s="3">
         <v>30</v>
       </c>
@@ -9710,7 +9733,7 @@
       </c>
     </row>
     <row r="38" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A38" s="65"/>
+      <c r="A38" s="73"/>
       <c r="B38" s="3">
         <v>31</v>
       </c>
@@ -9939,37 +9962,37 @@
       </c>
     </row>
     <row r="39" spans="1:72" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="65"/>
-      <c r="B39" s="70">
+      <c r="A39" s="73"/>
+      <c r="B39" s="59">
         <v>32</v>
       </c>
-      <c r="C39" s="70"/>
-      <c r="D39" s="71">
+      <c r="C39" s="59"/>
+      <c r="D39" s="60">
         <f>4*$J$2*$J$2</f>
         <v>100</v>
       </c>
-      <c r="E39" s="69"/>
-      <c r="F39" s="70">
+      <c r="E39" s="58"/>
+      <c r="F39" s="59">
         <f>(MATCH(1,$AV$8:$AV$46,0)+1)/2</f>
         <v>8</v>
       </c>
-      <c r="G39" s="70">
+      <c r="G39" s="59">
         <f t="shared" si="49"/>
         <v>800</v>
       </c>
-      <c r="H39" s="70">
+      <c r="H39" s="59">
         <f>H38</f>
         <v>2707.5</v>
       </c>
-      <c r="I39" s="70">
+      <c r="I39" s="59">
         <v>3</v>
       </c>
-      <c r="J39" s="70">
+      <c r="J39" s="59">
         <f t="shared" si="51"/>
         <v>15</v>
       </c>
-      <c r="K39" s="70"/>
-      <c r="L39" s="72"/>
+      <c r="K39" s="59"/>
+      <c r="L39" s="61"/>
       <c r="M39" s="2"/>
       <c r="Q39" s="1">
         <v>31</v>
@@ -10168,7 +10191,7 @@
       </c>
     </row>
     <row r="40" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A40" s="66" t="s">
+      <c r="A40" s="74" t="s">
         <v>1</v>
       </c>
       <c r="B40" s="8">
@@ -10407,7 +10430,7 @@
       </c>
     </row>
     <row r="41" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A41" s="67"/>
+      <c r="A41" s="75"/>
       <c r="B41" s="3">
         <v>34</v>
       </c>
@@ -10428,7 +10451,7 @@
         <v>300</v>
       </c>
       <c r="H41" s="3">
-        <f t="shared" ref="H41:H57" si="53">H40+G41</f>
+        <f t="shared" ref="H41:H56" si="53">H40+G41</f>
         <v>3207.5</v>
       </c>
       <c r="I41" s="3">
@@ -10644,7 +10667,7 @@
       </c>
     </row>
     <row r="42" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A42" s="67"/>
+      <c r="A42" s="75"/>
       <c r="B42" s="3">
         <v>35</v>
       </c>
@@ -10883,7 +10906,7 @@
       </c>
     </row>
     <row r="43" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A43" s="67"/>
+      <c r="A43" s="75"/>
       <c r="B43" s="3">
         <v>36</v>
       </c>
@@ -11122,7 +11145,7 @@
       </c>
     </row>
     <row r="44" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A44" s="67"/>
+      <c r="A44" s="75"/>
       <c r="B44" s="3">
         <v>37</v>
       </c>
@@ -11361,7 +11384,7 @@
       </c>
     </row>
     <row r="45" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A45" s="67"/>
+      <c r="A45" s="75"/>
       <c r="B45" s="3">
         <v>38</v>
       </c>
@@ -11598,7 +11621,7 @@
       </c>
     </row>
     <row r="46" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A46" s="67"/>
+      <c r="A46" s="75"/>
       <c r="B46" s="3">
         <v>39</v>
       </c>
@@ -11837,7 +11860,7 @@
       </c>
     </row>
     <row r="47" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A47" s="67"/>
+      <c r="A47" s="75"/>
       <c r="B47" s="3">
         <v>40</v>
       </c>
@@ -11881,39 +11904,39 @@
       <c r="P47" s="2"/>
     </row>
     <row r="48" spans="1:72" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="67"/>
-      <c r="B48" s="70">
+      <c r="A48" s="75"/>
+      <c r="B48" s="59">
         <v>41</v>
       </c>
-      <c r="C48" s="70"/>
-      <c r="D48" s="71">
+      <c r="C48" s="59"/>
+      <c r="D48" s="60">
         <f>9*$J$2*$J$2</f>
         <v>225</v>
       </c>
-      <c r="E48" s="69">
+      <c r="E48" s="58">
         <v>55</v>
       </c>
-      <c r="F48" s="70">
+      <c r="F48" s="59">
         <f>(MATCH(1,BG$8:BG$46,0)+1)/2</f>
         <v>9</v>
       </c>
-      <c r="G48" s="70">
+      <c r="G48" s="59">
         <f t="shared" si="49"/>
         <v>2025</v>
       </c>
-      <c r="H48" s="70">
+      <c r="H48" s="59">
         <f t="shared" si="53"/>
         <v>11732.5</v>
       </c>
-      <c r="I48" s="70">
+      <c r="I48" s="59">
         <v>4</v>
       </c>
-      <c r="J48" s="70">
+      <c r="J48" s="59">
         <f t="shared" si="52"/>
         <v>25</v>
       </c>
-      <c r="K48" s="70"/>
-      <c r="L48" s="72"/>
+      <c r="K48" s="59"/>
+      <c r="L48" s="61"/>
       <c r="M48" s="2">
         <v>8400</v>
       </c>
@@ -11928,7 +11951,7 @@
       </c>
     </row>
     <row r="49" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A49" s="73" t="s">
+      <c r="A49" s="62" t="s">
         <v>34</v>
       </c>
       <c r="B49" s="8">
@@ -11972,11 +11995,11 @@
         <f t="shared" si="1"/>
         <v>52500</v>
       </c>
-      <c r="O49" s="68"/>
+      <c r="O49" s="57"/>
       <c r="P49" s="2"/>
     </row>
     <row r="50" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A50" s="74"/>
+      <c r="A50" s="63"/>
       <c r="B50" s="3">
         <v>43</v>
       </c>
@@ -12020,7 +12043,7 @@
       <c r="P50" s="2"/>
     </row>
     <row r="51" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A51" s="74"/>
+      <c r="A51" s="63"/>
       <c r="B51" s="3">
         <v>44</v>
       </c>
@@ -12064,7 +12087,7 @@
       <c r="P51" s="2"/>
     </row>
     <row r="52" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A52" s="74"/>
+      <c r="A52" s="63"/>
       <c r="B52" s="3">
         <v>45</v>
       </c>
@@ -12108,7 +12131,7 @@
       <c r="P52" s="2"/>
     </row>
     <row r="53" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A53" s="74"/>
+      <c r="A53" s="63"/>
       <c r="B53" s="3">
         <v>46</v>
       </c>
@@ -12152,7 +12175,7 @@
       <c r="P53" s="2"/>
     </row>
     <row r="54" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A54" s="74"/>
+      <c r="A54" s="63"/>
       <c r="B54" s="3">
         <v>47</v>
       </c>
@@ -12194,7 +12217,7 @@
       </c>
     </row>
     <row r="55" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A55" s="74"/>
+      <c r="A55" s="63"/>
       <c r="B55" s="3">
         <v>48</v>
       </c>
@@ -12236,7 +12259,7 @@
       </c>
     </row>
     <row r="56" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A56" s="74"/>
+      <c r="A56" s="63"/>
       <c r="B56" s="3">
         <v>49</v>
       </c>
@@ -12278,7 +12301,7 @@
       </c>
     </row>
     <row r="57" spans="1:72" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="75"/>
+      <c r="A57" s="64"/>
       <c r="B57" s="5">
         <v>50</v>
       </c>
@@ -12376,7 +12399,7 @@
     <mergeCell ref="A28:A39"/>
     <mergeCell ref="A40:A48"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -13864,7 +13887,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -13874,7 +13897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -14340,19 +14363,19 @@
       </c>
       <c r="C20" s="54">
         <f>[2]属性拆分生成!I20</f>
-        <v>3060</v>
+        <v>2452</v>
       </c>
       <c r="D20" s="54">
         <f>[2]属性拆分生成!I21</f>
-        <v>442</v>
+        <v>348</v>
       </c>
       <c r="E20" s="54">
         <f>[2]属性拆分生成!I22</f>
-        <v>442</v>
+        <v>348</v>
       </c>
       <c r="F20" s="54">
         <f>[2]属性拆分生成!I23</f>
-        <v>716</v>
+        <v>817</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
@@ -14361,19 +14384,19 @@
       </c>
       <c r="C21" s="54">
         <f>C20*$E$3</f>
-        <v>1530</v>
+        <v>1226</v>
       </c>
       <c r="D21" s="54">
         <f>D20*$E$3</f>
-        <v>221</v>
+        <v>174</v>
       </c>
       <c r="E21" s="54">
         <f>E20*$E$3</f>
-        <v>221</v>
+        <v>174</v>
       </c>
       <c r="F21" s="54">
         <f>F20*$E$3</f>
-        <v>358</v>
+        <v>408.5</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
@@ -14382,19 +14405,19 @@
       </c>
       <c r="C24" s="41">
         <f>ROUND(C25,0)</f>
-        <v>685</v>
+        <v>549</v>
       </c>
       <c r="D24" s="41">
         <f>ROUND(D25,0)</f>
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="E24" s="41">
         <f>ROUND(E25,0)</f>
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="F24" s="41">
         <f>ROUND(F25,0)</f>
-        <v>160</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
@@ -14406,19 +14429,19 @@
       </c>
       <c r="C25" s="41">
         <f>C20*$F$5</f>
-        <v>685.13399999999967</v>
+        <v>549.00279999999975</v>
       </c>
       <c r="D25" s="41">
         <f>D20*$F$5</f>
-        <v>98.963799999999949</v>
+        <v>77.917199999999951</v>
       </c>
       <c r="E25" s="41">
         <f>E20*$F$5</f>
-        <v>98.963799999999949</v>
+        <v>77.917199999999951</v>
       </c>
       <c r="F25" s="41">
         <f>F20*$F$5</f>
-        <v>160.31239999999991</v>
+        <v>182.92629999999991</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
@@ -14427,19 +14450,19 @@
       </c>
       <c r="C26" s="43">
         <f>C24/9</f>
-        <v>76.111111111111114</v>
+        <v>61</v>
       </c>
       <c r="D26" s="43">
         <f>D24/9</f>
-        <v>11</v>
+        <v>8.6666666666666661</v>
       </c>
       <c r="E26" s="43">
         <f>E24/9</f>
-        <v>11</v>
+        <v>8.6666666666666661</v>
       </c>
       <c r="F26" s="43">
         <f>F24/9</f>
-        <v>17.777777777777779</v>
+        <v>20.333333333333332</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
@@ -14448,19 +14471,19 @@
       </c>
       <c r="C27" s="42">
         <f t="shared" ref="C27:F34" si="1">C$26+C26</f>
-        <v>152.22222222222223</v>
+        <v>122</v>
       </c>
       <c r="D27" s="42">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>17.333333333333332</v>
       </c>
       <c r="E27" s="42">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>17.333333333333332</v>
       </c>
       <c r="F27" s="42">
         <f t="shared" si="1"/>
-        <v>35.555555555555557</v>
+        <v>40.666666666666664</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
@@ -14469,19 +14492,19 @@
       </c>
       <c r="C28" s="42">
         <f t="shared" si="1"/>
-        <v>228.33333333333334</v>
+        <v>183</v>
       </c>
       <c r="D28" s="42">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E28" s="42">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F28" s="42">
         <f t="shared" si="1"/>
-        <v>53.333333333333336</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
@@ -14490,19 +14513,19 @@
       </c>
       <c r="C29" s="42">
         <f t="shared" si="1"/>
-        <v>304.44444444444446</v>
+        <v>244</v>
       </c>
       <c r="D29" s="42">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>34.666666666666664</v>
       </c>
       <c r="E29" s="42">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>34.666666666666664</v>
       </c>
       <c r="F29" s="42">
         <f t="shared" si="1"/>
-        <v>71.111111111111114</v>
+        <v>81.333333333333329</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
@@ -14511,19 +14534,19 @@
       </c>
       <c r="C30" s="42">
         <f t="shared" si="1"/>
-        <v>380.55555555555554</v>
+        <v>305</v>
       </c>
       <c r="D30" s="42">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>43.333333333333329</v>
       </c>
       <c r="E30" s="42">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>43.333333333333329</v>
       </c>
       <c r="F30" s="42">
         <f t="shared" si="1"/>
-        <v>88.888888888888886</v>
+        <v>101.66666666666666</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
@@ -14532,19 +14555,19 @@
       </c>
       <c r="C31" s="42">
         <f t="shared" si="1"/>
-        <v>456.66666666666663</v>
+        <v>366</v>
       </c>
       <c r="D31" s="42">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>51.999999999999993</v>
       </c>
       <c r="E31" s="42">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>51.999999999999993</v>
       </c>
       <c r="F31" s="42">
         <f t="shared" si="1"/>
-        <v>106.66666666666666</v>
+        <v>121.99999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
@@ -14553,19 +14576,19 @@
       </c>
       <c r="C32" s="42">
         <f t="shared" si="1"/>
-        <v>532.77777777777771</v>
+        <v>427</v>
       </c>
       <c r="D32" s="42">
         <f t="shared" si="1"/>
-        <v>77</v>
+        <v>60.666666666666657</v>
       </c>
       <c r="E32" s="42">
         <f t="shared" si="1"/>
-        <v>77</v>
+        <v>60.666666666666657</v>
       </c>
       <c r="F32" s="42">
         <f t="shared" si="1"/>
-        <v>124.44444444444443</v>
+        <v>142.33333333333331</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.15">
@@ -14574,19 +14597,19 @@
       </c>
       <c r="C33" s="42">
         <f t="shared" si="1"/>
-        <v>608.8888888888888</v>
+        <v>488</v>
       </c>
       <c r="D33" s="42">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>69.333333333333329</v>
       </c>
       <c r="E33" s="42">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>69.333333333333329</v>
       </c>
       <c r="F33" s="42">
         <f t="shared" si="1"/>
-        <v>142.2222222222222</v>
+        <v>162.66666666666666</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.15">
@@ -14595,19 +14618,19 @@
       </c>
       <c r="C34" s="42">
         <f t="shared" si="1"/>
-        <v>684.99999999999989</v>
+        <v>549</v>
       </c>
       <c r="D34" s="42">
         <f t="shared" si="1"/>
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="E34" s="42">
         <f t="shared" si="1"/>
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="F34" s="42">
         <f t="shared" si="1"/>
-        <v>159.99999999999997</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -14642,19 +14665,19 @@
       </c>
       <c r="C36" s="41">
         <f>ROUND(C37,0)</f>
-        <v>1000</v>
+        <v>801</v>
       </c>
       <c r="D36" s="41">
         <f>ROUND(D37,0)</f>
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="E36" s="41">
         <f>ROUND(E37,0)</f>
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="F36" s="41">
         <f>ROUND(F37,0)</f>
-        <v>234</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.15">
@@ -14663,19 +14686,19 @@
       </c>
       <c r="C37" s="41">
         <f>($F$6-$F$5)*C20</f>
-        <v>1000.1835216000003</v>
+        <v>801.45424672000024</v>
       </c>
       <c r="D37" s="41">
         <f>($F$6-$F$5)*D20</f>
-        <v>144.47095312000005</v>
+        <v>113.74636128000003</v>
       </c>
       <c r="E37" s="41">
         <f>($F$6-$F$5)*E20</f>
-        <v>144.47095312000005</v>
+        <v>113.74636128000003</v>
       </c>
       <c r="F37" s="41">
         <f>($F$6-$F$5)*F20</f>
-        <v>234.02986976000008</v>
+        <v>267.04246312000009</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.15">
@@ -14684,19 +14707,19 @@
       </c>
       <c r="C38" s="43">
         <f>C36/9</f>
-        <v>111.11111111111111</v>
+        <v>89</v>
       </c>
       <c r="D38" s="43">
         <f>D36/9</f>
-        <v>16</v>
+        <v>12.666666666666666</v>
       </c>
       <c r="E38" s="43">
         <f>E36/9</f>
-        <v>16</v>
+        <v>12.666666666666666</v>
       </c>
       <c r="F38" s="43">
         <f>F36/9</f>
-        <v>26</v>
+        <v>29.666666666666668</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.15">
@@ -14705,19 +14728,19 @@
       </c>
       <c r="C39" s="42">
         <f t="shared" ref="C39:F46" si="2">C$38+C38</f>
-        <v>222.22222222222223</v>
+        <v>178</v>
       </c>
       <c r="D39" s="42">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>25.333333333333332</v>
       </c>
       <c r="E39" s="42">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>25.333333333333332</v>
       </c>
       <c r="F39" s="42">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>59.333333333333336</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.15">
@@ -14726,19 +14749,19 @@
       </c>
       <c r="C40" s="42">
         <f t="shared" si="2"/>
-        <v>333.33333333333337</v>
+        <v>267</v>
       </c>
       <c r="D40" s="42">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E40" s="42">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F40" s="42">
         <f t="shared" si="2"/>
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.15">
@@ -14747,19 +14770,19 @@
       </c>
       <c r="C41" s="42">
         <f t="shared" si="2"/>
-        <v>444.44444444444446</v>
+        <v>356</v>
       </c>
       <c r="D41" s="42">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v>50.666666666666664</v>
       </c>
       <c r="E41" s="42">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v>50.666666666666664</v>
       </c>
       <c r="F41" s="42">
         <f t="shared" si="2"/>
-        <v>104</v>
+        <v>118.66666666666667</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.15">
@@ -14768,19 +14791,19 @@
       </c>
       <c r="C42" s="42">
         <f t="shared" si="2"/>
-        <v>555.55555555555554</v>
+        <v>445</v>
       </c>
       <c r="D42" s="42">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>63.333333333333329</v>
       </c>
       <c r="E42" s="42">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>63.333333333333329</v>
       </c>
       <c r="F42" s="42">
         <f t="shared" si="2"/>
-        <v>130</v>
+        <v>148.33333333333334</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.15">
@@ -14789,19 +14812,19 @@
       </c>
       <c r="C43" s="42">
         <f t="shared" si="2"/>
-        <v>666.66666666666663</v>
+        <v>534</v>
       </c>
       <c r="D43" s="42">
         <f t="shared" si="2"/>
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="E43" s="42">
         <f t="shared" si="2"/>
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="F43" s="42">
         <f t="shared" si="2"/>
-        <v>156</v>
+        <v>178</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.15">
@@ -14810,19 +14833,19 @@
       </c>
       <c r="C44" s="42">
         <f t="shared" si="2"/>
-        <v>777.77777777777771</v>
+        <v>623</v>
       </c>
       <c r="D44" s="42">
         <f t="shared" si="2"/>
-        <v>112</v>
+        <v>88.666666666666671</v>
       </c>
       <c r="E44" s="42">
         <f t="shared" si="2"/>
-        <v>112</v>
+        <v>88.666666666666671</v>
       </c>
       <c r="F44" s="42">
         <f t="shared" si="2"/>
-        <v>182</v>
+        <v>207.66666666666666</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.15">
@@ -14831,19 +14854,19 @@
       </c>
       <c r="C45" s="42">
         <f t="shared" si="2"/>
-        <v>888.8888888888888</v>
+        <v>712</v>
       </c>
       <c r="D45" s="42">
         <f t="shared" si="2"/>
-        <v>128</v>
+        <v>101.33333333333334</v>
       </c>
       <c r="E45" s="42">
         <f t="shared" si="2"/>
-        <v>128</v>
+        <v>101.33333333333334</v>
       </c>
       <c r="F45" s="42">
         <f t="shared" si="2"/>
-        <v>208</v>
+        <v>237.33333333333331</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.15">
@@ -14852,19 +14875,19 @@
       </c>
       <c r="C46" s="42">
         <f t="shared" si="2"/>
-        <v>999.99999999999989</v>
+        <v>801</v>
       </c>
       <c r="D46" s="42">
         <f t="shared" si="2"/>
-        <v>144</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="E46" s="42">
         <f t="shared" si="2"/>
-        <v>144</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="F46" s="42">
         <f t="shared" si="2"/>
-        <v>234</v>
+        <v>267</v>
       </c>
     </row>
     <row r="47" spans="1:21" ht="6" customHeight="1" x14ac:dyDescent="0.15">
@@ -14899,19 +14922,19 @@
       </c>
       <c r="C48" s="41">
         <f>ROUND(C49,0)</f>
-        <v>1506</v>
+        <v>1207</v>
       </c>
       <c r="D48" s="41">
         <f>ROUND(D49,0)</f>
-        <v>218</v>
+        <v>171</v>
       </c>
       <c r="E48" s="41">
         <f>ROUND(E49,0)</f>
-        <v>218</v>
+        <v>171</v>
       </c>
       <c r="F48" s="41">
         <f>ROUND(F49,0)</f>
-        <v>352</v>
+        <v>402</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.15">
@@ -14920,19 +14943,19 @@
       </c>
       <c r="C49" s="41">
         <f>($F$8-$F$6)*C20</f>
-        <v>1506.0213944028001</v>
+        <v>1206.7857709397599</v>
       </c>
       <c r="D49" s="41">
         <f>($F$8-$F$6)*D20</f>
-        <v>217.53642363596001</v>
+        <v>171.27302132424001</v>
       </c>
       <c r="E49" s="41">
         <f>($F$8-$F$6)*E20</f>
-        <v>217.53642363596001</v>
+        <v>171.27302132424001</v>
       </c>
       <c r="F49" s="41">
         <f>($F$8-$F$6)*F20</f>
-        <v>352.38931973607998</v>
+        <v>402.09786902845997</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.15">
@@ -14941,19 +14964,19 @@
       </c>
       <c r="C50" s="43">
         <f>C48/9</f>
-        <v>167.33333333333334</v>
+        <v>134.11111111111111</v>
       </c>
       <c r="D50" s="43">
         <f>D48/9</f>
-        <v>24.222222222222221</v>
+        <v>19</v>
       </c>
       <c r="E50" s="43">
         <f>E48/9</f>
-        <v>24.222222222222221</v>
+        <v>19</v>
       </c>
       <c r="F50" s="43">
         <f>F48/9</f>
-        <v>39.111111111111114</v>
+        <v>44.666666666666664</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.15">
@@ -14962,19 +14985,19 @@
       </c>
       <c r="C51" s="42">
         <f t="shared" ref="C51:F58" si="3">C$50+C50</f>
-        <v>334.66666666666669</v>
+        <v>268.22222222222223</v>
       </c>
       <c r="D51" s="42">
         <f t="shared" si="3"/>
-        <v>48.444444444444443</v>
+        <v>38</v>
       </c>
       <c r="E51" s="42">
         <f t="shared" si="3"/>
-        <v>48.444444444444443</v>
+        <v>38</v>
       </c>
       <c r="F51" s="42">
         <f t="shared" si="3"/>
-        <v>78.222222222222229</v>
+        <v>89.333333333333329</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.15">
@@ -14983,19 +15006,19 @@
       </c>
       <c r="C52" s="42">
         <f t="shared" si="3"/>
-        <v>502</v>
+        <v>402.33333333333337</v>
       </c>
       <c r="D52" s="42">
         <f t="shared" si="3"/>
-        <v>72.666666666666657</v>
+        <v>57</v>
       </c>
       <c r="E52" s="42">
         <f t="shared" si="3"/>
-        <v>72.666666666666657</v>
+        <v>57</v>
       </c>
       <c r="F52" s="42">
         <f t="shared" si="3"/>
-        <v>117.33333333333334</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.15">
@@ -15004,19 +15027,19 @@
       </c>
       <c r="C53" s="42">
         <f t="shared" si="3"/>
-        <v>669.33333333333337</v>
+        <v>536.44444444444446</v>
       </c>
       <c r="D53" s="42">
         <f t="shared" si="3"/>
-        <v>96.888888888888886</v>
+        <v>76</v>
       </c>
       <c r="E53" s="42">
         <f t="shared" si="3"/>
-        <v>96.888888888888886</v>
+        <v>76</v>
       </c>
       <c r="F53" s="42">
         <f t="shared" si="3"/>
-        <v>156.44444444444446</v>
+        <v>178.66666666666666</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.15">
@@ -15025,19 +15048,19 @@
       </c>
       <c r="C54" s="42">
         <f t="shared" si="3"/>
-        <v>836.66666666666674</v>
+        <v>670.55555555555554</v>
       </c>
       <c r="D54" s="42">
         <f t="shared" si="3"/>
-        <v>121.11111111111111</v>
+        <v>95</v>
       </c>
       <c r="E54" s="42">
         <f t="shared" si="3"/>
-        <v>121.11111111111111</v>
+        <v>95</v>
       </c>
       <c r="F54" s="42">
         <f t="shared" si="3"/>
-        <v>195.55555555555557</v>
+        <v>223.33333333333331</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.15">
@@ -15046,19 +15069,19 @@
       </c>
       <c r="C55" s="42">
         <f t="shared" si="3"/>
-        <v>1004.0000000000001</v>
+        <v>804.66666666666663</v>
       </c>
       <c r="D55" s="42">
         <f t="shared" si="3"/>
-        <v>145.33333333333334</v>
+        <v>114</v>
       </c>
       <c r="E55" s="42">
         <f t="shared" si="3"/>
-        <v>145.33333333333334</v>
+        <v>114</v>
       </c>
       <c r="F55" s="42">
         <f t="shared" si="3"/>
-        <v>234.66666666666669</v>
+        <v>268</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.15">
@@ -15067,19 +15090,19 @@
       </c>
       <c r="C56" s="42">
         <f t="shared" si="3"/>
-        <v>1171.3333333333335</v>
+        <v>938.77777777777771</v>
       </c>
       <c r="D56" s="42">
         <f t="shared" si="3"/>
-        <v>169.55555555555557</v>
+        <v>133</v>
       </c>
       <c r="E56" s="42">
         <f t="shared" si="3"/>
-        <v>169.55555555555557</v>
+        <v>133</v>
       </c>
       <c r="F56" s="42">
         <f t="shared" si="3"/>
-        <v>273.77777777777783</v>
+        <v>312.66666666666669</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.15">
@@ -15088,19 +15111,19 @@
       </c>
       <c r="C57" s="42">
         <f t="shared" si="3"/>
-        <v>1338.6666666666667</v>
+        <v>1072.8888888888889</v>
       </c>
       <c r="D57" s="42">
         <f t="shared" si="3"/>
-        <v>193.7777777777778</v>
+        <v>152</v>
       </c>
       <c r="E57" s="42">
         <f t="shared" si="3"/>
-        <v>193.7777777777778</v>
+        <v>152</v>
       </c>
       <c r="F57" s="42">
         <f t="shared" si="3"/>
-        <v>312.88888888888891</v>
+        <v>357.33333333333337</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.15">
@@ -15109,19 +15132,19 @@
       </c>
       <c r="C58" s="42">
         <f t="shared" si="3"/>
-        <v>1506</v>
+        <v>1207</v>
       </c>
       <c r="D58" s="42">
         <f t="shared" si="3"/>
-        <v>218.00000000000003</v>
+        <v>171</v>
       </c>
       <c r="E58" s="42">
         <f t="shared" si="3"/>
-        <v>218.00000000000003</v>
+        <v>171</v>
       </c>
       <c r="F58" s="42">
         <f t="shared" si="3"/>
-        <v>352</v>
+        <v>402.00000000000006</v>
       </c>
     </row>
     <row r="59" spans="1:21" ht="6" customHeight="1" x14ac:dyDescent="0.15">
@@ -15156,19 +15179,19 @@
       </c>
       <c r="C60" s="41">
         <f>ROUND(C61,0)</f>
-        <v>3264</v>
+        <v>2616</v>
       </c>
       <c r="D60" s="41">
         <f>ROUND(D61,0)</f>
-        <v>472</v>
+        <v>371</v>
       </c>
       <c r="E60" s="41">
         <f>ROUND(E61,0)</f>
-        <v>472</v>
+        <v>371</v>
       </c>
       <c r="F60" s="41">
         <f>ROUND(F61,0)</f>
-        <v>764</v>
+        <v>872</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.15">
@@ -15177,19 +15200,19 @@
       </c>
       <c r="C61" s="41">
         <f>($F$11-$F$8)*C20</f>
-        <v>3264.4363215530066</v>
+        <v>2615.8162942640429</v>
       </c>
       <c r="D61" s="41">
         <f>($F$11-$F$8)*D20</f>
-        <v>471.5296908909898</v>
+        <v>371.24962088249879</v>
       </c>
       <c r="E61" s="41">
         <f>($F$11-$F$8)*E20</f>
-        <v>471.5296908909898</v>
+        <v>371.24962088249879</v>
       </c>
       <c r="F61" s="41">
         <f>($F$11-$F$8)*F20</f>
-        <v>763.83542687318709</v>
+        <v>871.58316166954455</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.15">
@@ -15198,19 +15221,19 @@
       </c>
       <c r="C62" s="43">
         <f>C60/9</f>
-        <v>362.66666666666669</v>
+        <v>290.66666666666669</v>
       </c>
       <c r="D62" s="43">
         <f>D60/9</f>
-        <v>52.444444444444443</v>
+        <v>41.222222222222221</v>
       </c>
       <c r="E62" s="43">
         <f>E60/9</f>
-        <v>52.444444444444443</v>
+        <v>41.222222222222221</v>
       </c>
       <c r="F62" s="43">
         <f>F60/9</f>
-        <v>84.888888888888886</v>
+        <v>96.888888888888886</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.15">
@@ -15219,19 +15242,19 @@
       </c>
       <c r="C63" s="42">
         <f t="shared" ref="C63:F70" si="4">C$62+C62</f>
-        <v>725.33333333333337</v>
+        <v>581.33333333333337</v>
       </c>
       <c r="D63" s="42">
         <f t="shared" si="4"/>
-        <v>104.88888888888889</v>
+        <v>82.444444444444443</v>
       </c>
       <c r="E63" s="42">
         <f t="shared" si="4"/>
-        <v>104.88888888888889</v>
+        <v>82.444444444444443</v>
       </c>
       <c r="F63" s="42">
         <f t="shared" si="4"/>
-        <v>169.77777777777777</v>
+        <v>193.77777777777777</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.15">
@@ -15240,19 +15263,19 @@
       </c>
       <c r="C64" s="42">
         <f t="shared" si="4"/>
-        <v>1088</v>
+        <v>872</v>
       </c>
       <c r="D64" s="42">
         <f t="shared" si="4"/>
-        <v>157.33333333333331</v>
+        <v>123.66666666666666</v>
       </c>
       <c r="E64" s="42">
         <f t="shared" si="4"/>
-        <v>157.33333333333331</v>
+        <v>123.66666666666666</v>
       </c>
       <c r="F64" s="42">
         <f t="shared" si="4"/>
-        <v>254.66666666666666</v>
+        <v>290.66666666666663</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.15">
@@ -15261,19 +15284,19 @@
       </c>
       <c r="C65" s="42">
         <f t="shared" si="4"/>
-        <v>1450.6666666666667</v>
+        <v>1162.6666666666667</v>
       </c>
       <c r="D65" s="42">
         <f t="shared" si="4"/>
-        <v>209.77777777777777</v>
+        <v>164.88888888888889</v>
       </c>
       <c r="E65" s="42">
         <f t="shared" si="4"/>
-        <v>209.77777777777777</v>
+        <v>164.88888888888889</v>
       </c>
       <c r="F65" s="42">
         <f t="shared" si="4"/>
-        <v>339.55555555555554</v>
+        <v>387.55555555555554</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.15">
@@ -15282,19 +15305,19 @@
       </c>
       <c r="C66" s="42">
         <f t="shared" si="4"/>
-        <v>1813.3333333333335</v>
+        <v>1453.3333333333335</v>
       </c>
       <c r="D66" s="42">
         <f t="shared" si="4"/>
-        <v>262.22222222222223</v>
+        <v>206.11111111111111</v>
       </c>
       <c r="E66" s="42">
         <f t="shared" si="4"/>
-        <v>262.22222222222223</v>
+        <v>206.11111111111111</v>
       </c>
       <c r="F66" s="42">
         <f t="shared" si="4"/>
-        <v>424.44444444444446</v>
+        <v>484.44444444444446</v>
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.15">
@@ -15303,19 +15326,19 @@
       </c>
       <c r="C67" s="42">
         <f t="shared" si="4"/>
-        <v>2176</v>
+        <v>1744.0000000000002</v>
       </c>
       <c r="D67" s="42">
         <f t="shared" si="4"/>
-        <v>314.66666666666669</v>
+        <v>247.33333333333334</v>
       </c>
       <c r="E67" s="42">
         <f t="shared" si="4"/>
-        <v>314.66666666666669</v>
+        <v>247.33333333333334</v>
       </c>
       <c r="F67" s="42">
         <f t="shared" si="4"/>
-        <v>509.33333333333337</v>
+        <v>581.33333333333337</v>
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.15">
@@ -15324,19 +15347,19 @@
       </c>
       <c r="C68" s="42">
         <f t="shared" si="4"/>
-        <v>2538.6666666666665</v>
+        <v>2034.666666666667</v>
       </c>
       <c r="D68" s="42">
         <f t="shared" si="4"/>
-        <v>367.11111111111114</v>
+        <v>288.55555555555554</v>
       </c>
       <c r="E68" s="42">
         <f t="shared" si="4"/>
-        <v>367.11111111111114</v>
+        <v>288.55555555555554</v>
       </c>
       <c r="F68" s="42">
         <f t="shared" si="4"/>
-        <v>594.22222222222229</v>
+        <v>678.22222222222229</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.15">
@@ -15345,19 +15368,19 @@
       </c>
       <c r="C69" s="42">
         <f t="shared" si="4"/>
-        <v>2901.333333333333</v>
+        <v>2325.3333333333335</v>
       </c>
       <c r="D69" s="42">
         <f t="shared" si="4"/>
-        <v>419.5555555555556</v>
+        <v>329.77777777777777</v>
       </c>
       <c r="E69" s="42">
         <f t="shared" si="4"/>
-        <v>419.5555555555556</v>
+        <v>329.77777777777777</v>
       </c>
       <c r="F69" s="42">
         <f t="shared" si="4"/>
-        <v>679.1111111111112</v>
+        <v>775.1111111111112</v>
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.15">
@@ -15366,19 +15389,19 @@
       </c>
       <c r="C70" s="42">
         <f t="shared" si="4"/>
-        <v>3263.9999999999995</v>
+        <v>2616</v>
       </c>
       <c r="D70" s="42">
         <f t="shared" si="4"/>
-        <v>472.00000000000006</v>
+        <v>371</v>
       </c>
       <c r="E70" s="42">
         <f t="shared" si="4"/>
-        <v>472.00000000000006</v>
+        <v>371</v>
       </c>
       <c r="F70" s="42">
         <f t="shared" si="4"/>
-        <v>764.00000000000011</v>
+        <v>872.00000000000011</v>
       </c>
     </row>
     <row r="71" spans="1:21" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -15413,19 +15436,19 @@
       </c>
       <c r="C72" s="41">
         <f>ROUND(C73,0)</f>
-        <v>4902</v>
+        <v>3928</v>
       </c>
       <c r="D72" s="41">
         <f>ROUND(D73,0)</f>
-        <v>708</v>
+        <v>557</v>
       </c>
       <c r="E72" s="41">
         <f>ROUND(E73,0)</f>
-        <v>708</v>
+        <v>557</v>
       </c>
       <c r="F72" s="41">
         <f>ROUND(F73,0)</f>
-        <v>1147</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.15">
@@ -15434,19 +15457,19 @@
       </c>
       <c r="C73" s="41">
         <f>($F$15-$F$12)*C20</f>
-        <v>4901.5095328988837</v>
+        <v>3927.6148283228958</v>
       </c>
       <c r="D73" s="41">
         <f>($F$15-$F$12)*D20</f>
-        <v>707.99582141872759</v>
+        <v>557.4265743296769</v>
       </c>
       <c r="E73" s="41">
         <f>($F$15-$F$12)*E20</f>
-        <v>707.99582141872759</v>
+        <v>557.4265743296769</v>
       </c>
       <c r="F73" s="41">
         <f>($F$15-$F$12)*F20</f>
-        <v>1146.8891586783009</v>
+        <v>1308.6710092739829</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.15">
@@ -15455,19 +15478,19 @@
       </c>
       <c r="C74" s="43">
         <f>C72/9</f>
-        <v>544.66666666666663</v>
+        <v>436.44444444444446</v>
       </c>
       <c r="D74" s="43">
         <f>D72/9</f>
-        <v>78.666666666666671</v>
+        <v>61.888888888888886</v>
       </c>
       <c r="E74" s="43">
         <f>E72/9</f>
-        <v>78.666666666666671</v>
+        <v>61.888888888888886</v>
       </c>
       <c r="F74" s="43">
         <f>F72/9</f>
-        <v>127.44444444444444</v>
+        <v>145.44444444444446</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.15">
@@ -15476,19 +15499,19 @@
       </c>
       <c r="C75" s="42">
         <f t="shared" ref="C75:F82" si="5">C$74+C74</f>
-        <v>1089.3333333333333</v>
+        <v>872.88888888888891</v>
       </c>
       <c r="D75" s="42">
         <f t="shared" si="5"/>
-        <v>157.33333333333334</v>
+        <v>123.77777777777777</v>
       </c>
       <c r="E75" s="42">
         <f t="shared" si="5"/>
-        <v>157.33333333333334</v>
+        <v>123.77777777777777</v>
       </c>
       <c r="F75" s="42">
         <f t="shared" si="5"/>
-        <v>254.88888888888889</v>
+        <v>290.88888888888891</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.15">
@@ -15497,19 +15520,19 @@
       </c>
       <c r="C76" s="42">
         <f t="shared" si="5"/>
-        <v>1634</v>
+        <v>1309.3333333333335</v>
       </c>
       <c r="D76" s="42">
         <f t="shared" si="5"/>
-        <v>236</v>
+        <v>185.66666666666666</v>
       </c>
       <c r="E76" s="42">
         <f t="shared" si="5"/>
-        <v>236</v>
+        <v>185.66666666666666</v>
       </c>
       <c r="F76" s="42">
         <f t="shared" si="5"/>
-        <v>382.33333333333331</v>
+        <v>436.33333333333337</v>
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.15">
@@ -15518,19 +15541,19 @@
       </c>
       <c r="C77" s="42">
         <f t="shared" si="5"/>
-        <v>2178.6666666666665</v>
+        <v>1745.7777777777778</v>
       </c>
       <c r="D77" s="42">
         <f t="shared" si="5"/>
-        <v>314.66666666666669</v>
+        <v>247.55555555555554</v>
       </c>
       <c r="E77" s="42">
         <f t="shared" si="5"/>
-        <v>314.66666666666669</v>
+        <v>247.55555555555554</v>
       </c>
       <c r="F77" s="42">
         <f t="shared" si="5"/>
-        <v>509.77777777777777</v>
+        <v>581.77777777777783</v>
       </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.15">
@@ -15539,19 +15562,19 @@
       </c>
       <c r="C78" s="42">
         <f t="shared" si="5"/>
-        <v>2723.333333333333</v>
+        <v>2182.2222222222222</v>
       </c>
       <c r="D78" s="42">
         <f t="shared" si="5"/>
-        <v>393.33333333333337</v>
+        <v>309.44444444444446</v>
       </c>
       <c r="E78" s="42">
         <f t="shared" si="5"/>
-        <v>393.33333333333337</v>
+        <v>309.44444444444446</v>
       </c>
       <c r="F78" s="42">
         <f t="shared" si="5"/>
-        <v>637.22222222222217</v>
+        <v>727.22222222222229</v>
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.15">
@@ -15560,19 +15583,19 @@
       </c>
       <c r="C79" s="42">
         <f t="shared" si="5"/>
-        <v>3267.9999999999995</v>
+        <v>2618.6666666666665</v>
       </c>
       <c r="D79" s="42">
         <f t="shared" si="5"/>
-        <v>472.00000000000006</v>
+        <v>371.33333333333337</v>
       </c>
       <c r="E79" s="42">
         <f t="shared" si="5"/>
-        <v>472.00000000000006</v>
+        <v>371.33333333333337</v>
       </c>
       <c r="F79" s="42">
         <f t="shared" si="5"/>
-        <v>764.66666666666663</v>
+        <v>872.66666666666674</v>
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.15">
@@ -15581,19 +15604,19 @@
       </c>
       <c r="C80" s="42">
         <f t="shared" si="5"/>
-        <v>3812.6666666666661</v>
+        <v>3055.1111111111109</v>
       </c>
       <c r="D80" s="42">
         <f t="shared" si="5"/>
-        <v>550.66666666666674</v>
+        <v>433.22222222222229</v>
       </c>
       <c r="E80" s="42">
         <f t="shared" si="5"/>
-        <v>550.66666666666674</v>
+        <v>433.22222222222229</v>
       </c>
       <c r="F80" s="42">
         <f t="shared" si="5"/>
-        <v>892.11111111111109</v>
+        <v>1018.1111111111112</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.15">
@@ -15602,19 +15625,19 @@
       </c>
       <c r="C81" s="42">
         <f t="shared" si="5"/>
-        <v>4357.333333333333</v>
+        <v>3491.5555555555552</v>
       </c>
       <c r="D81" s="42">
         <f t="shared" si="5"/>
-        <v>629.33333333333337</v>
+        <v>495.1111111111112</v>
       </c>
       <c r="E81" s="42">
         <f t="shared" si="5"/>
-        <v>629.33333333333337</v>
+        <v>495.1111111111112</v>
       </c>
       <c r="F81" s="42">
         <f t="shared" si="5"/>
-        <v>1019.5555555555555</v>
+        <v>1163.5555555555557</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.15">
@@ -15623,23 +15646,23 @@
       </c>
       <c r="C82" s="42">
         <f t="shared" si="5"/>
-        <v>4902</v>
+        <v>3927.9999999999995</v>
       </c>
       <c r="D82" s="42">
         <f t="shared" si="5"/>
-        <v>708</v>
+        <v>557.00000000000011</v>
       </c>
       <c r="E82" s="42">
         <f t="shared" si="5"/>
-        <v>708</v>
+        <v>557.00000000000011</v>
       </c>
       <c r="F82" s="42">
         <f t="shared" si="5"/>
-        <v>1147</v>
+        <v>1309</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -15647,10 +15670,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AI84"/>
+  <dimension ref="A1:AI84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N76" sqref="N76"/>
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15663,12 +15686,12 @@
     <col min="36" max="16384" width="9" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B1" s="41" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.15">
       <c r="I2" s="41" t="s">
         <v>200</v>
       </c>
@@ -15730,7 +15753,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="3" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.15">
       <c r="J3" s="41" t="s">
         <v>204</v>
       </c>
@@ -15740,11 +15763,11 @@
       </c>
       <c r="L3" s="51">
         <f>E7*装备拆分生成表!D$26</f>
-        <v>8.8000000000000007</v>
+        <v>6.9333333333333336</v>
       </c>
       <c r="M3" s="51">
         <f>F7*装备拆分生成表!E$26</f>
-        <v>4.4000000000000004</v>
+        <v>3.4666666666666668</v>
       </c>
       <c r="N3" s="51">
         <f>G7*装备拆分生成表!F$26</f>
@@ -15760,11 +15783,11 @@
       </c>
       <c r="S3" s="52">
         <f>E16*装备拆分生成表!D$26</f>
-        <v>4.4000000000000004</v>
+        <v>3.4666666666666668</v>
       </c>
       <c r="T3" s="52">
         <f>F16*装备拆分生成表!E$26</f>
-        <v>8.8000000000000007</v>
+        <v>6.9333333333333336</v>
       </c>
       <c r="U3" s="52">
         <f>G16*装备拆分生成表!F$26</f>
@@ -15779,11 +15802,11 @@
       </c>
       <c r="Z3" s="51">
         <f>E25*装备拆分生成表!D$26</f>
-        <v>6.0500000000000007</v>
+        <v>4.7666666666666666</v>
       </c>
       <c r="AA3" s="51">
         <f>F25*装备拆分生成表!E$26</f>
-        <v>6.0500000000000007</v>
+        <v>4.7666666666666666</v>
       </c>
       <c r="AB3" s="51">
         <f>G25*装备拆分生成表!F$26</f>
@@ -15798,24 +15821,24 @@
       </c>
       <c r="AG3" s="52">
         <f>E34*装备拆分生成表!D$26</f>
-        <v>6.6</v>
+        <v>5.1999999999999993</v>
       </c>
       <c r="AH3" s="52">
         <f>F34*装备拆分生成表!E$26</f>
-        <v>6.6</v>
+        <v>5.1999999999999993</v>
       </c>
       <c r="AI3" s="52">
         <f>G34*装备拆分生成表!F$26</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.15">
       <c r="J4" s="41" t="s">
         <v>203</v>
       </c>
       <c r="K4" s="51">
         <f>D8*装备拆分生成表!C$26</f>
-        <v>38.055555555555557</v>
+        <v>30.5</v>
       </c>
       <c r="L4" s="51">
         <f>E8*装备拆分生成表!D$26</f>
@@ -15835,7 +15858,7 @@
       </c>
       <c r="R4" s="52">
         <f>D17*装备拆分生成表!C$26</f>
-        <v>38.055555555555557</v>
+        <v>30.5</v>
       </c>
       <c r="S4" s="52">
         <f>E17*装备拆分生成表!D$26</f>
@@ -15854,7 +15877,7 @@
       </c>
       <c r="Y4" s="51">
         <f>D26*装备拆分生成表!C$26</f>
-        <v>60.888888888888893</v>
+        <v>48.800000000000004</v>
       </c>
       <c r="Z4" s="51">
         <f>E26*装备拆分生成表!D$26</f>
@@ -15873,7 +15896,7 @@
       </c>
       <c r="AF4" s="52">
         <f>D35*装备拆分生成表!C$26</f>
-        <v>38.055555555555557</v>
+        <v>30.5</v>
       </c>
       <c r="AG4" s="52">
         <f>E35*装备拆分生成表!D$26</f>
@@ -15888,7 +15911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.15">
       <c r="C5" s="41" t="s">
         <v>202</v>
       </c>
@@ -15929,7 +15952,7 @@
       </c>
       <c r="N5" s="51">
         <f>G9*装备拆分生成表!F$26</f>
-        <v>7.1111111111111116</v>
+        <v>8.1333333333333329</v>
       </c>
       <c r="O5" s="48"/>
       <c r="Q5" s="41" t="s">
@@ -15949,7 +15972,7 @@
       </c>
       <c r="U5" s="52">
         <f>G18*装备拆分生成表!F$26</f>
-        <v>7.1111111111111116</v>
+        <v>8.1333333333333329</v>
       </c>
       <c r="X5" s="41" t="s">
         <v>201</v>
@@ -15968,7 +15991,7 @@
       </c>
       <c r="AB5" s="51">
         <f>G27*装备拆分生成表!F$26</f>
-        <v>10.666666666666666</v>
+        <v>12.2</v>
       </c>
       <c r="AE5" s="41" t="s">
         <v>201</v>
@@ -15987,10 +16010,10 @@
       </c>
       <c r="AI5" s="52">
         <f>G36*装备拆分生成表!F$26</f>
-        <v>8.8888888888888893</v>
-      </c>
-    </row>
-    <row r="6" spans="2:35" x14ac:dyDescent="0.15">
+        <v>10.166666666666666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B6" s="41" t="s">
         <v>200</v>
       </c>
@@ -16015,7 +16038,7 @@
       </c>
       <c r="L6" s="51">
         <f>E10*装备拆分生成表!D$26</f>
-        <v>1.1000000000000001</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="M6" s="51">
         <f>F10*装备拆分生成表!E$26</f>
@@ -16023,7 +16046,7 @@
       </c>
       <c r="N6" s="51">
         <f>G10*装备拆分生成表!F$26</f>
-        <v>5.333333333333333</v>
+        <v>6.1</v>
       </c>
       <c r="O6" s="48"/>
       <c r="Q6" s="41" t="s">
@@ -16039,11 +16062,11 @@
       </c>
       <c r="T6" s="52">
         <f>F19*装备拆分生成表!E$26</f>
-        <v>1.1000000000000001</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="U6" s="52">
         <f>G19*装备拆分生成表!F$26</f>
-        <v>5.333333333333333</v>
+        <v>6.1</v>
       </c>
       <c r="X6" s="41" t="s">
         <v>199</v>
@@ -16062,7 +16085,7 @@
       </c>
       <c r="AB6" s="51">
         <f>G28*装备拆分生成表!F$26</f>
-        <v>8</v>
+        <v>9.15</v>
       </c>
       <c r="AE6" s="41" t="s">
         <v>199</v>
@@ -16081,11 +16104,14 @@
       </c>
       <c r="AI6" s="52">
         <f>G37*装备拆分生成表!F$26</f>
-        <v>5.333333333333333</v>
-      </c>
-    </row>
-    <row r="7" spans="2:35" x14ac:dyDescent="0.15">
-      <c r="C7" s="41" t="s">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A7" s="76" t="s">
+        <v>281</v>
+      </c>
+      <c r="C7" s="76" t="s">
         <v>171</v>
       </c>
       <c r="E7" s="41">
@@ -16099,7 +16125,7 @@
       </c>
       <c r="K7" s="51">
         <f>D11*装备拆分生成表!C$26</f>
-        <v>30.444444444444446</v>
+        <v>24.400000000000002</v>
       </c>
       <c r="L7" s="51">
         <f>E11*装备拆分生成表!D$26</f>
@@ -16107,7 +16133,7 @@
       </c>
       <c r="M7" s="51">
         <f>F11*装备拆分生成表!E$26</f>
-        <v>2.2000000000000002</v>
+        <v>1.7333333333333334</v>
       </c>
       <c r="N7" s="51">
         <f>G11*装备拆分生成表!F$26</f>
@@ -16119,11 +16145,11 @@
       </c>
       <c r="R7" s="52">
         <f>D20*装备拆分生成表!C$26</f>
-        <v>30.444444444444446</v>
+        <v>24.400000000000002</v>
       </c>
       <c r="S7" s="52">
         <f>E20*装备拆分生成表!D$26</f>
-        <v>2.2000000000000002</v>
+        <v>1.7333333333333334</v>
       </c>
       <c r="T7" s="52">
         <f>F20*装备拆分生成表!E$26</f>
@@ -16138,7 +16164,7 @@
       </c>
       <c r="Y7" s="51">
         <f>D29*装备拆分生成表!C$26</f>
-        <v>38.055555555555557</v>
+        <v>30.5</v>
       </c>
       <c r="Z7" s="51">
         <f>E29*装备拆分生成表!D$26</f>
@@ -16157,7 +16183,7 @@
       </c>
       <c r="AF7" s="52">
         <f>D38*装备拆分生成表!C$26</f>
-        <v>22.833333333333332</v>
+        <v>18.3</v>
       </c>
       <c r="AG7" s="52">
         <f>E38*装备拆分生成表!D$26</f>
@@ -16165,14 +16191,17 @@
       </c>
       <c r="AH7" s="52">
         <f>F38*装备拆分生成表!E$26</f>
-        <v>2.2000000000000002</v>
+        <v>1.7333333333333334</v>
       </c>
       <c r="AI7" s="52">
         <f>G38*装备拆分生成表!F$26</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A8" s="76" t="s">
+        <v>282</v>
+      </c>
       <c r="C8" s="41" t="s">
         <v>170</v>
       </c>
@@ -16184,11 +16213,11 @@
       </c>
       <c r="K8" s="51">
         <f>D12*装备拆分生成表!C$26</f>
-        <v>7.6111111111111116</v>
+        <v>6.1000000000000005</v>
       </c>
       <c r="L8" s="51">
         <f>E12*装备拆分生成表!D$26</f>
-        <v>4.4000000000000004</v>
+        <v>3.4666666666666668</v>
       </c>
       <c r="M8" s="51">
         <f>F12*装备拆分生成表!E$26</f>
@@ -16204,7 +16233,7 @@
       </c>
       <c r="R8" s="52">
         <f>D21*装备拆分生成表!C$26</f>
-        <v>7.6111111111111116</v>
+        <v>6.1000000000000005</v>
       </c>
       <c r="S8" s="52">
         <f>E21*装备拆分生成表!D$26</f>
@@ -16212,7 +16241,7 @@
       </c>
       <c r="T8" s="52">
         <f>F21*装备拆分生成表!E$26</f>
-        <v>4.4000000000000004</v>
+        <v>3.4666666666666668</v>
       </c>
       <c r="U8" s="52">
         <f>G21*装备拆分生成表!F$26</f>
@@ -16223,7 +16252,7 @@
       </c>
       <c r="Y8" s="51">
         <f>D30*装备拆分生成表!C$26</f>
-        <v>15.222222222222223</v>
+        <v>12.200000000000001</v>
       </c>
       <c r="Z8" s="51">
         <f>E30*装备拆分生成表!D$26</f>
@@ -16235,14 +16264,14 @@
       </c>
       <c r="AB8" s="51">
         <f>G30*装备拆分生成表!F$26</f>
-        <v>1.7777777777777779</v>
+        <v>2.0333333333333332</v>
       </c>
       <c r="AE8" s="41" t="s">
         <v>197</v>
       </c>
       <c r="AF8" s="51">
         <f>D39*装备拆分生成表!C$26</f>
-        <v>15.222222222222223</v>
+        <v>12.200000000000001</v>
       </c>
       <c r="AG8" s="51">
         <f>E39*装备拆分生成表!D$26</f>
@@ -16254,10 +16283,13 @@
       </c>
       <c r="AI8" s="51">
         <f>G39*装备拆分生成表!F$26</f>
-        <v>5.333333333333333</v>
-      </c>
-    </row>
-    <row r="9" spans="2:35" x14ac:dyDescent="0.15">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A9" s="76" t="s">
+        <v>283</v>
+      </c>
       <c r="C9" s="41" t="s">
         <v>168</v>
       </c>
@@ -16282,7 +16314,10 @@
       <c r="AH9" s="51"/>
       <c r="AI9" s="51"/>
     </row>
-    <row r="10" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A10" s="76" t="s">
+        <v>284</v>
+      </c>
       <c r="C10" s="41" t="s">
         <v>166</v>
       </c>
@@ -16310,7 +16345,10 @@
       <c r="AH10" s="51"/>
       <c r="AI10" s="51"/>
     </row>
-    <row r="11" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A11" s="76" t="s">
+        <v>285</v>
+      </c>
       <c r="C11" s="41" t="s">
         <v>164</v>
       </c>
@@ -16329,11 +16367,11 @@
       </c>
       <c r="L11" s="51">
         <f>E7*装备拆分生成表!D$38</f>
-        <v>12.8</v>
+        <v>10.133333333333333</v>
       </c>
       <c r="M11" s="51">
         <f>F7*装备拆分生成表!E$38</f>
-        <v>6.4</v>
+        <v>5.0666666666666664</v>
       </c>
       <c r="N11" s="51">
         <f>G7*装备拆分生成表!F$38</f>
@@ -16349,11 +16387,11 @@
       </c>
       <c r="S11" s="52">
         <f>E16*装备拆分生成表!D$38</f>
-        <v>6.4</v>
+        <v>5.0666666666666664</v>
       </c>
       <c r="T11" s="52">
         <f>F16*装备拆分生成表!E$38</f>
-        <v>12.8</v>
+        <v>10.133333333333333</v>
       </c>
       <c r="U11" s="52">
         <f>G16*装备拆分生成表!F$38</f>
@@ -16368,11 +16406,11 @@
       </c>
       <c r="Z11" s="51">
         <f>E25*装备拆分生成表!D$38</f>
-        <v>8.8000000000000007</v>
+        <v>6.9666666666666668</v>
       </c>
       <c r="AA11" s="51">
         <f>F25*装备拆分生成表!E$38</f>
-        <v>8.8000000000000007</v>
+        <v>6.9666666666666668</v>
       </c>
       <c r="AB11" s="51">
         <f>G25*装备拆分生成表!F$38</f>
@@ -16387,18 +16425,18 @@
       </c>
       <c r="AG11" s="51">
         <f>E34*装备拆分生成表!D$38</f>
-        <v>9.6</v>
+        <v>7.6</v>
       </c>
       <c r="AH11" s="51">
         <f>F34*装备拆分生成表!E$38</f>
-        <v>9.6</v>
+        <v>7.6</v>
       </c>
       <c r="AI11" s="51">
         <f>G34*装备拆分生成表!F$38</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.15">
       <c r="C12" s="41" t="s">
         <v>162</v>
       </c>
@@ -16413,7 +16451,7 @@
       </c>
       <c r="K12" s="51">
         <f>D8*装备拆分生成表!C$38</f>
-        <v>55.555555555555557</v>
+        <v>44.5</v>
       </c>
       <c r="L12" s="51">
         <f>E8*装备拆分生成表!D$38</f>
@@ -16433,7 +16471,7 @@
       </c>
       <c r="R12" s="52">
         <f>D17*装备拆分生成表!C$38</f>
-        <v>55.555555555555557</v>
+        <v>44.5</v>
       </c>
       <c r="S12" s="52">
         <f>E17*装备拆分生成表!D$38</f>
@@ -16452,7 +16490,7 @@
       </c>
       <c r="Y12" s="51">
         <f>D26*装备拆分生成表!C$38</f>
-        <v>88.8888888888889</v>
+        <v>71.2</v>
       </c>
       <c r="Z12" s="51">
         <f>E26*装备拆分生成表!D$38</f>
@@ -16471,7 +16509,7 @@
       </c>
       <c r="AF12" s="51">
         <f>D35*装备拆分生成表!C$38</f>
-        <v>55.555555555555557</v>
+        <v>44.5</v>
       </c>
       <c r="AG12" s="51">
         <f>E35*装备拆分生成表!D$38</f>
@@ -16486,7 +16524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.15">
       <c r="J13" s="41" t="s">
         <v>194</v>
       </c>
@@ -16504,7 +16542,7 @@
       </c>
       <c r="N13" s="51">
         <f>G9*装备拆分生成表!F$38</f>
-        <v>10.4</v>
+        <v>11.866666666666667</v>
       </c>
       <c r="O13" s="48"/>
       <c r="Q13" s="41" t="s">
@@ -16524,7 +16562,7 @@
       </c>
       <c r="U13" s="52">
         <f>G18*装备拆分生成表!F$38</f>
-        <v>10.4</v>
+        <v>11.866666666666667</v>
       </c>
       <c r="X13" s="41" t="s">
         <v>194</v>
@@ -16543,7 +16581,7 @@
       </c>
       <c r="AB13" s="51">
         <f>G27*装备拆分生成表!F$38</f>
-        <v>15.6</v>
+        <v>17.8</v>
       </c>
       <c r="AE13" s="41" t="s">
         <v>194</v>
@@ -16562,10 +16600,10 @@
       </c>
       <c r="AI13" s="51">
         <f>G36*装备拆分生成表!F$38</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="2:35" x14ac:dyDescent="0.15">
+        <v>14.833333333333334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.15">
       <c r="D14" s="41">
         <f>SUM(D16:D21)</f>
         <v>1</v>
@@ -16595,7 +16633,7 @@
       </c>
       <c r="L14" s="51">
         <f>E10*装备拆分生成表!D$38</f>
-        <v>1.6</v>
+        <v>1.2666666666666666</v>
       </c>
       <c r="M14" s="51">
         <f>F10*装备拆分生成表!E$38</f>
@@ -16603,7 +16641,7 @@
       </c>
       <c r="N14" s="51">
         <f>G10*装备拆分生成表!F$38</f>
-        <v>7.8</v>
+        <v>8.9</v>
       </c>
       <c r="O14" s="48"/>
       <c r="Q14" s="41" t="s">
@@ -16619,11 +16657,11 @@
       </c>
       <c r="T14" s="51">
         <f>F19*装备拆分生成表!E$38</f>
-        <v>1.6</v>
+        <v>1.2666666666666666</v>
       </c>
       <c r="U14" s="51">
         <f>G19*装备拆分生成表!F$38</f>
-        <v>7.8</v>
+        <v>8.9</v>
       </c>
       <c r="X14" s="41" t="s">
         <v>193</v>
@@ -16642,7 +16680,7 @@
       </c>
       <c r="AB14" s="51">
         <f>G28*装备拆分生成表!F$38</f>
-        <v>11.700000000000001</v>
+        <v>13.350000000000001</v>
       </c>
       <c r="AE14" s="41" t="s">
         <v>193</v>
@@ -16661,10 +16699,10 @@
       </c>
       <c r="AI14" s="51">
         <f>G37*装备拆分生成表!F$38</f>
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="15" spans="2:35" x14ac:dyDescent="0.15">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B15" s="41" t="s">
         <v>192</v>
       </c>
@@ -16685,7 +16723,7 @@
       </c>
       <c r="K15" s="51">
         <f>D11*装备拆分生成表!C$38</f>
-        <v>44.44444444444445</v>
+        <v>35.6</v>
       </c>
       <c r="L15" s="51">
         <f>E11*装备拆分生成表!D$38</f>
@@ -16693,7 +16731,7 @@
       </c>
       <c r="M15" s="51">
         <f>F11*装备拆分生成表!E$38</f>
-        <v>3.2</v>
+        <v>2.5333333333333332</v>
       </c>
       <c r="N15" s="51">
         <f>G11*装备拆分生成表!F$38</f>
@@ -16705,11 +16743,11 @@
       </c>
       <c r="R15" s="51">
         <f>D20*装备拆分生成表!C$38</f>
-        <v>44.44444444444445</v>
+        <v>35.6</v>
       </c>
       <c r="S15" s="51">
         <f>E20*装备拆分生成表!D$38</f>
-        <v>3.2</v>
+        <v>2.5333333333333332</v>
       </c>
       <c r="T15" s="51">
         <f>F20*装备拆分生成表!E$38</f>
@@ -16724,7 +16762,7 @@
       </c>
       <c r="Y15" s="51">
         <f>D29*装备拆分生成表!C$38</f>
-        <v>55.555555555555557</v>
+        <v>44.5</v>
       </c>
       <c r="Z15" s="51">
         <f>E29*装备拆分生成表!D$38</f>
@@ -16743,7 +16781,7 @@
       </c>
       <c r="AF15" s="51">
         <f>D38*装备拆分生成表!C$38</f>
-        <v>33.333333333333336</v>
+        <v>26.7</v>
       </c>
       <c r="AG15" s="51">
         <f>E38*装备拆分生成表!D$38</f>
@@ -16751,14 +16789,14 @@
       </c>
       <c r="AH15" s="51">
         <f>F38*装备拆分生成表!E$38</f>
-        <v>3.2</v>
+        <v>2.5333333333333332</v>
       </c>
       <c r="AI15" s="51">
         <f>G38*装备拆分生成表!F$38</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.15">
       <c r="C16" s="41" t="s">
         <v>171</v>
       </c>
@@ -16773,11 +16811,11 @@
       </c>
       <c r="K16" s="51">
         <f>D12*装备拆分生成表!C$38</f>
-        <v>11.111111111111112</v>
+        <v>8.9</v>
       </c>
       <c r="L16" s="51">
         <f>E12*装备拆分生成表!D$38</f>
-        <v>6.4</v>
+        <v>5.0666666666666664</v>
       </c>
       <c r="M16" s="51">
         <f>F12*装备拆分生成表!E$38</f>
@@ -16793,7 +16831,7 @@
       </c>
       <c r="R16" s="51">
         <f>D21*装备拆分生成表!C$38</f>
-        <v>11.111111111111112</v>
+        <v>8.9</v>
       </c>
       <c r="S16" s="51">
         <f>E21*装备拆分生成表!D$38</f>
@@ -16801,7 +16839,7 @@
       </c>
       <c r="T16" s="51">
         <f>F21*装备拆分生成表!E$38</f>
-        <v>6.4</v>
+        <v>5.0666666666666664</v>
       </c>
       <c r="U16" s="51">
         <f>G21*装备拆分生成表!F$38</f>
@@ -16812,7 +16850,7 @@
       </c>
       <c r="Y16" s="51">
         <f>D30*装备拆分生成表!C$38</f>
-        <v>22.222222222222225</v>
+        <v>17.8</v>
       </c>
       <c r="Z16" s="51">
         <f>E30*装备拆分生成表!D$38</f>
@@ -16824,14 +16862,14 @@
       </c>
       <c r="AB16" s="51">
         <f>G30*装备拆分生成表!F$38</f>
-        <v>2.6</v>
+        <v>2.9666666666666668</v>
       </c>
       <c r="AE16" s="41" t="s">
         <v>190</v>
       </c>
       <c r="AF16" s="51">
         <f>D39*装备拆分生成表!C$38</f>
-        <v>22.222222222222225</v>
+        <v>17.8</v>
       </c>
       <c r="AG16" s="51">
         <f>E39*装备拆分生成表!D$38</f>
@@ -16843,7 +16881,7 @@
       </c>
       <c r="AI16" s="51">
         <f>G39*装备拆分生成表!F$38</f>
-        <v>7.8</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="17" spans="2:35" x14ac:dyDescent="0.15">
@@ -16915,11 +16953,11 @@
       </c>
       <c r="L19" s="51">
         <f>E7*装备拆分生成表!D$50</f>
-        <v>19.37777777777778</v>
+        <v>15.200000000000001</v>
       </c>
       <c r="M19" s="51">
         <f>F7*装备拆分生成表!E$50</f>
-        <v>9.68888888888889</v>
+        <v>7.6000000000000005</v>
       </c>
       <c r="N19" s="51">
         <f>G7*装备拆分生成表!F$50</f>
@@ -16935,11 +16973,11 @@
       </c>
       <c r="S19" s="51">
         <f>E16*装备拆分生成表!D$50</f>
-        <v>9.68888888888889</v>
+        <v>7.6000000000000005</v>
       </c>
       <c r="T19" s="51">
         <f>F16*装备拆分生成表!E$50</f>
-        <v>19.37777777777778</v>
+        <v>15.200000000000001</v>
       </c>
       <c r="U19" s="51">
         <f>G16*装备拆分生成表!F$50</f>
@@ -16954,11 +16992,11 @@
       </c>
       <c r="Z19" s="51">
         <f>E25*装备拆分生成表!D$50</f>
-        <v>13.322222222222223</v>
+        <v>10.450000000000001</v>
       </c>
       <c r="AA19" s="51">
         <f>F25*装备拆分生成表!E$50</f>
-        <v>13.322222222222223</v>
+        <v>10.450000000000001</v>
       </c>
       <c r="AB19" s="51">
         <f>G25*装备拆分生成表!F$50</f>
@@ -16973,11 +17011,11 @@
       </c>
       <c r="AG19" s="51">
         <f>E34*装备拆分生成表!D$50</f>
-        <v>14.533333333333331</v>
+        <v>11.4</v>
       </c>
       <c r="AH19" s="51">
         <f>F34*装备拆分生成表!E$50</f>
-        <v>14.533333333333331</v>
+        <v>11.4</v>
       </c>
       <c r="AI19" s="51">
         <f>G34*装备拆分生成表!F$50</f>
@@ -16999,7 +17037,7 @@
       </c>
       <c r="K20" s="51">
         <f>D8*装备拆分生成表!C$50</f>
-        <v>83.666666666666671</v>
+        <v>67.055555555555557</v>
       </c>
       <c r="L20" s="51">
         <f>E8*装备拆分生成表!D$50</f>
@@ -17019,7 +17057,7 @@
       </c>
       <c r="R20" s="51">
         <f>D17*装备拆分生成表!C$50</f>
-        <v>83.666666666666671</v>
+        <v>67.055555555555557</v>
       </c>
       <c r="S20" s="51">
         <f>E17*装备拆分生成表!D$50</f>
@@ -17038,7 +17076,7 @@
       </c>
       <c r="Y20" s="51">
         <f>D26*装备拆分生成表!C$50</f>
-        <v>133.86666666666667</v>
+        <v>107.28888888888889</v>
       </c>
       <c r="Z20" s="51">
         <f>E26*装备拆分生成表!D$50</f>
@@ -17057,7 +17095,7 @@
       </c>
       <c r="AF20" s="51">
         <f>D35*装备拆分生成表!C$50</f>
-        <v>83.666666666666671</v>
+        <v>67.055555555555557</v>
       </c>
       <c r="AG20" s="51">
         <f>E35*装备拆分生成表!D$50</f>
@@ -17099,7 +17137,7 @@
       </c>
       <c r="N21" s="51">
         <f>G9*装备拆分生成表!F$50</f>
-        <v>15.644444444444446</v>
+        <v>17.866666666666667</v>
       </c>
       <c r="O21" s="48"/>
       <c r="Q21" s="41" t="s">
@@ -17119,7 +17157,7 @@
       </c>
       <c r="U21" s="51">
         <f>G18*装备拆分生成表!F$50</f>
-        <v>15.644444444444446</v>
+        <v>17.866666666666667</v>
       </c>
       <c r="X21" s="41" t="s">
         <v>187</v>
@@ -17138,7 +17176,7 @@
       </c>
       <c r="AB21" s="51">
         <f>G27*装备拆分生成表!F$50</f>
-        <v>23.466666666666669</v>
+        <v>26.799999999999997</v>
       </c>
       <c r="AE21" s="41" t="s">
         <v>187</v>
@@ -17157,7 +17195,7 @@
       </c>
       <c r="AI21" s="51">
         <f>G36*装备拆分生成表!F$50</f>
-        <v>19.555555555555557</v>
+        <v>22.333333333333332</v>
       </c>
     </row>
     <row r="22" spans="2:35" x14ac:dyDescent="0.15">
@@ -17170,7 +17208,7 @@
       </c>
       <c r="L22" s="51">
         <f>E10*装备拆分生成表!D$50</f>
-        <v>2.4222222222222225</v>
+        <v>1.9000000000000001</v>
       </c>
       <c r="M22" s="51">
         <f>F10*装备拆分生成表!E$50</f>
@@ -17178,7 +17216,7 @@
       </c>
       <c r="N22" s="51">
         <f>G10*装备拆分生成表!F$50</f>
-        <v>11.733333333333334</v>
+        <v>13.399999999999999</v>
       </c>
       <c r="O22" s="48"/>
       <c r="Q22" s="41" t="s">
@@ -17194,11 +17232,11 @@
       </c>
       <c r="T22" s="51">
         <f>F19*装备拆分生成表!E$50</f>
-        <v>2.4222222222222225</v>
+        <v>1.9000000000000001</v>
       </c>
       <c r="U22" s="51">
         <f>G19*装备拆分生成表!F$50</f>
-        <v>11.733333333333334</v>
+        <v>13.399999999999999</v>
       </c>
       <c r="X22" s="41" t="s">
         <v>186</v>
@@ -17217,7 +17255,7 @@
       </c>
       <c r="AB22" s="51">
         <f>G28*装备拆分生成表!F$50</f>
-        <v>17.600000000000001</v>
+        <v>20.099999999999998</v>
       </c>
       <c r="AE22" s="41" t="s">
         <v>186</v>
@@ -17236,7 +17274,7 @@
       </c>
       <c r="AI22" s="51">
         <f>G37*装备拆分生成表!F$50</f>
-        <v>11.733333333333334</v>
+        <v>13.399999999999999</v>
       </c>
     </row>
     <row r="23" spans="2:35" x14ac:dyDescent="0.15">
@@ -17265,7 +17303,7 @@
       </c>
       <c r="K23" s="51">
         <f>D11*装备拆分生成表!C$50</f>
-        <v>66.933333333333337</v>
+        <v>53.644444444444446</v>
       </c>
       <c r="L23" s="51">
         <f>E11*装备拆分生成表!D$50</f>
@@ -17273,7 +17311,7 @@
       </c>
       <c r="M23" s="51">
         <f>F11*装备拆分生成表!E$50</f>
-        <v>4.844444444444445</v>
+        <v>3.8000000000000003</v>
       </c>
       <c r="N23" s="51">
         <f>G11*装备拆分生成表!F$50</f>
@@ -17285,11 +17323,11 @@
       </c>
       <c r="R23" s="51">
         <f>D20*装备拆分生成表!C$50</f>
-        <v>66.933333333333337</v>
+        <v>53.644444444444446</v>
       </c>
       <c r="S23" s="51">
         <f>E20*装备拆分生成表!D$50</f>
-        <v>4.844444444444445</v>
+        <v>3.8000000000000003</v>
       </c>
       <c r="T23" s="51">
         <f>F20*装备拆分生成表!E$50</f>
@@ -17304,7 +17342,7 @@
       </c>
       <c r="Y23" s="51">
         <f>D29*装备拆分生成表!C$50</f>
-        <v>83.666666666666671</v>
+        <v>67.055555555555557</v>
       </c>
       <c r="Z23" s="51">
         <f>E29*装备拆分生成表!D$50</f>
@@ -17323,7 +17361,7 @@
       </c>
       <c r="AF23" s="51">
         <f>D38*装备拆分生成表!C$50</f>
-        <v>50.2</v>
+        <v>40.233333333333334</v>
       </c>
       <c r="AG23" s="51">
         <f>E38*装备拆分生成表!D$50</f>
@@ -17331,7 +17369,7 @@
       </c>
       <c r="AH23" s="51">
         <f>F38*装备拆分生成表!E$50</f>
-        <v>4.844444444444445</v>
+        <v>3.8000000000000003</v>
       </c>
       <c r="AI23" s="51">
         <f>G38*装备拆分生成表!F$50</f>
@@ -17359,11 +17397,11 @@
       </c>
       <c r="K24" s="51">
         <f>D12*装备拆分生成表!C$50</f>
-        <v>16.733333333333334</v>
+        <v>13.411111111111111</v>
       </c>
       <c r="L24" s="51">
         <f>E12*装备拆分生成表!D$50</f>
-        <v>9.68888888888889</v>
+        <v>7.6000000000000005</v>
       </c>
       <c r="M24" s="51">
         <f>F12*装备拆分生成表!E$50</f>
@@ -17379,7 +17417,7 @@
       </c>
       <c r="R24" s="51">
         <f>D21*装备拆分生成表!C$50</f>
-        <v>16.733333333333334</v>
+        <v>13.411111111111111</v>
       </c>
       <c r="S24" s="51">
         <f>E21*装备拆分生成表!D$50</f>
@@ -17387,7 +17425,7 @@
       </c>
       <c r="T24" s="51">
         <f>F21*装备拆分生成表!E$50</f>
-        <v>9.68888888888889</v>
+        <v>7.6000000000000005</v>
       </c>
       <c r="U24" s="51">
         <f>G21*装备拆分生成表!F$50</f>
@@ -17398,7 +17436,7 @@
       </c>
       <c r="Y24" s="51">
         <f>D30*装备拆分生成表!C$50</f>
-        <v>33.466666666666669</v>
+        <v>26.822222222222223</v>
       </c>
       <c r="Z24" s="51">
         <f>E30*装备拆分生成表!D$50</f>
@@ -17410,14 +17448,14 @@
       </c>
       <c r="AB24" s="51">
         <f>G30*装备拆分生成表!F$50</f>
-        <v>3.9111111111111114</v>
+        <v>4.4666666666666668</v>
       </c>
       <c r="AE24" s="41" t="s">
         <v>183</v>
       </c>
       <c r="AF24" s="51">
         <f>D39*装备拆分生成表!C$50</f>
-        <v>33.466666666666669</v>
+        <v>26.822222222222223</v>
       </c>
       <c r="AG24" s="51">
         <f>E39*装备拆分生成表!D$50</f>
@@ -17429,7 +17467,7 @@
       </c>
       <c r="AI24" s="51">
         <f>G39*装备拆分生成表!F$50</f>
-        <v>11.733333333333334</v>
+        <v>13.399999999999999</v>
       </c>
     </row>
     <row r="25" spans="2:35" x14ac:dyDescent="0.15">
@@ -17501,11 +17539,11 @@
       </c>
       <c r="L27" s="51">
         <f>E7*装备拆分生成表!D$62</f>
-        <v>41.955555555555556</v>
+        <v>32.977777777777781</v>
       </c>
       <c r="M27" s="51">
         <f>F7*装备拆分生成表!E$62</f>
-        <v>20.977777777777778</v>
+        <v>16.488888888888891</v>
       </c>
       <c r="N27" s="51">
         <f>G7*装备拆分生成表!F$62</f>
@@ -17521,11 +17559,11 @@
       </c>
       <c r="S27" s="51">
         <f>E16*装备拆分生成表!D$62</f>
-        <v>20.977777777777778</v>
+        <v>16.488888888888891</v>
       </c>
       <c r="T27" s="51">
         <f>F16*装备拆分生成表!E$62</f>
-        <v>41.955555555555556</v>
+        <v>32.977777777777781</v>
       </c>
       <c r="U27" s="51">
         <f>G16*装备拆分生成表!F$62</f>
@@ -17540,11 +17578,11 @@
       </c>
       <c r="Z27" s="51">
         <f>E25*装备拆分生成表!D$62</f>
-        <v>28.844444444444445</v>
+        <v>22.672222222222224</v>
       </c>
       <c r="AA27" s="51">
         <f>F25*装备拆分生成表!E$62</f>
-        <v>28.844444444444445</v>
+        <v>22.672222222222224</v>
       </c>
       <c r="AB27" s="51">
         <f>G25*装备拆分生成表!F$62</f>
@@ -17559,11 +17597,11 @@
       </c>
       <c r="AG27" s="51">
         <f>E34*装备拆分生成表!D$62</f>
-        <v>31.466666666666665</v>
+        <v>24.733333333333331</v>
       </c>
       <c r="AH27" s="51">
         <f>F34*装备拆分生成表!E$62</f>
-        <v>31.466666666666665</v>
+        <v>24.733333333333331</v>
       </c>
       <c r="AI27" s="51">
         <f>G34*装备拆分生成表!F$62</f>
@@ -17582,7 +17620,7 @@
       </c>
       <c r="K28" s="51">
         <f>D8*装备拆分生成表!C$62</f>
-        <v>181.33333333333334</v>
+        <v>145.33333333333334</v>
       </c>
       <c r="L28" s="51">
         <f>E8*装备拆分生成表!D$62</f>
@@ -17602,7 +17640,7 @@
       </c>
       <c r="R28" s="51">
         <f>D17*装备拆分生成表!C$62</f>
-        <v>181.33333333333334</v>
+        <v>145.33333333333334</v>
       </c>
       <c r="S28" s="51">
         <f>E17*装备拆分生成表!D$62</f>
@@ -17621,7 +17659,7 @@
       </c>
       <c r="Y28" s="51">
         <f>D26*装备拆分生成表!C$62</f>
-        <v>290.13333333333338</v>
+        <v>232.53333333333336</v>
       </c>
       <c r="Z28" s="51">
         <f>E26*装备拆分生成表!D$62</f>
@@ -17640,7 +17678,7 @@
       </c>
       <c r="AF28" s="51">
         <f>D35*装备拆分生成表!C$62</f>
-        <v>181.33333333333334</v>
+        <v>145.33333333333334</v>
       </c>
       <c r="AG28" s="51">
         <f>E35*装备拆分生成表!D$62</f>
@@ -17679,7 +17717,7 @@
       </c>
       <c r="N29" s="51">
         <f>G9*装备拆分生成表!F$62</f>
-        <v>33.955555555555556</v>
+        <v>38.75555555555556</v>
       </c>
       <c r="O29" s="48"/>
       <c r="Q29" s="41" t="s">
@@ -17699,7 +17737,7 @@
       </c>
       <c r="U29" s="51">
         <f>G18*装备拆分生成表!F$62</f>
-        <v>33.955555555555556</v>
+        <v>38.75555555555556</v>
       </c>
       <c r="X29" s="41" t="s">
         <v>180</v>
@@ -17718,7 +17756,7 @@
       </c>
       <c r="AB29" s="51">
         <f>G27*装备拆分生成表!F$62</f>
-        <v>50.93333333333333</v>
+        <v>58.133333333333326</v>
       </c>
       <c r="AE29" s="41" t="s">
         <v>180</v>
@@ -17737,7 +17775,7 @@
       </c>
       <c r="AI29" s="51">
         <f>G36*装备拆分生成表!F$62</f>
-        <v>42.444444444444443</v>
+        <v>48.444444444444443</v>
       </c>
     </row>
     <row r="30" spans="2:35" x14ac:dyDescent="0.15">
@@ -17759,7 +17797,7 @@
       </c>
       <c r="L30" s="51">
         <f>E10*装备拆分生成表!D$62</f>
-        <v>5.2444444444444445</v>
+        <v>4.1222222222222227</v>
       </c>
       <c r="M30" s="51">
         <f>F10*装备拆分生成表!E$62</f>
@@ -17767,7 +17805,7 @@
       </c>
       <c r="N30" s="51">
         <f>G10*装备拆分生成表!F$62</f>
-        <v>25.466666666666665</v>
+        <v>29.066666666666663</v>
       </c>
       <c r="O30" s="48"/>
       <c r="Q30" s="41" t="s">
@@ -17783,11 +17821,11 @@
       </c>
       <c r="T30" s="51">
         <f>F19*装备拆分生成表!E$62</f>
-        <v>5.2444444444444445</v>
+        <v>4.1222222222222227</v>
       </c>
       <c r="U30" s="51">
         <f>G19*装备拆分生成表!F$62</f>
-        <v>25.466666666666665</v>
+        <v>29.066666666666663</v>
       </c>
       <c r="X30" s="41" t="s">
         <v>179</v>
@@ -17806,7 +17844,7 @@
       </c>
       <c r="AB30" s="51">
         <f>G28*装备拆分生成表!F$62</f>
-        <v>38.200000000000003</v>
+        <v>43.6</v>
       </c>
       <c r="AE30" s="41" t="s">
         <v>179</v>
@@ -17825,7 +17863,7 @@
       </c>
       <c r="AI30" s="51">
         <f>G37*装备拆分生成表!F$62</f>
-        <v>25.466666666666665</v>
+        <v>29.066666666666663</v>
       </c>
     </row>
     <row r="31" spans="2:35" x14ac:dyDescent="0.15">
@@ -17834,7 +17872,7 @@
       </c>
       <c r="K31" s="51">
         <f>D11*装备拆分生成表!C$62</f>
-        <v>145.06666666666669</v>
+        <v>116.26666666666668</v>
       </c>
       <c r="L31" s="51">
         <f>E11*装备拆分生成表!D$62</f>
@@ -17842,7 +17880,7 @@
       </c>
       <c r="M31" s="51">
         <f>F11*装备拆分生成表!E$62</f>
-        <v>10.488888888888889</v>
+        <v>8.2444444444444454</v>
       </c>
       <c r="N31" s="51">
         <f>G11*装备拆分生成表!F$62</f>
@@ -17854,11 +17892,11 @@
       </c>
       <c r="R31" s="51">
         <f>D20*装备拆分生成表!C$62</f>
-        <v>145.06666666666669</v>
+        <v>116.26666666666668</v>
       </c>
       <c r="S31" s="51">
         <f>E20*装备拆分生成表!D$62</f>
-        <v>10.488888888888889</v>
+        <v>8.2444444444444454</v>
       </c>
       <c r="T31" s="51">
         <f>F20*装备拆分生成表!E$62</f>
@@ -17873,7 +17911,7 @@
       </c>
       <c r="Y31" s="51">
         <f>D29*装备拆分生成表!C$62</f>
-        <v>181.33333333333334</v>
+        <v>145.33333333333334</v>
       </c>
       <c r="Z31" s="51">
         <f>E29*装备拆分生成表!D$62</f>
@@ -17892,7 +17930,7 @@
       </c>
       <c r="AF31" s="51">
         <f>D38*装备拆分生成表!C$62</f>
-        <v>108.8</v>
+        <v>87.2</v>
       </c>
       <c r="AG31" s="51">
         <f>E38*装备拆分生成表!D$62</f>
@@ -17900,7 +17938,7 @@
       </c>
       <c r="AH31" s="51">
         <f>F38*装备拆分生成表!E$62</f>
-        <v>10.488888888888889</v>
+        <v>8.2444444444444454</v>
       </c>
       <c r="AI31" s="51">
         <f>G38*装备拆分生成表!F$62</f>
@@ -17933,11 +17971,11 @@
       </c>
       <c r="K32" s="51">
         <f>D12*装备拆分生成表!C$62</f>
-        <v>36.266666666666673</v>
+        <v>29.06666666666667</v>
       </c>
       <c r="L32" s="51">
         <f>E12*装备拆分生成表!D$62</f>
-        <v>20.977777777777778</v>
+        <v>16.488888888888891</v>
       </c>
       <c r="M32" s="51">
         <f>F12*装备拆分生成表!E$62</f>
@@ -17953,7 +17991,7 @@
       </c>
       <c r="R32" s="51">
         <f>D21*装备拆分生成表!C$62</f>
-        <v>36.266666666666673</v>
+        <v>29.06666666666667</v>
       </c>
       <c r="S32" s="51">
         <f>E21*装备拆分生成表!D$62</f>
@@ -17961,7 +17999,7 @@
       </c>
       <c r="T32" s="51">
         <f>F21*装备拆分生成表!E$62</f>
-        <v>20.977777777777778</v>
+        <v>16.488888888888891</v>
       </c>
       <c r="U32" s="51">
         <f>G21*装备拆分生成表!F$62</f>
@@ -17972,7 +18010,7 @@
       </c>
       <c r="Y32" s="51">
         <f>D30*装备拆分生成表!C$62</f>
-        <v>72.533333333333346</v>
+        <v>58.13333333333334</v>
       </c>
       <c r="Z32" s="51">
         <f>E30*装备拆分生成表!D$62</f>
@@ -17984,14 +18022,14 @@
       </c>
       <c r="AB32" s="51">
         <f>G30*装备拆分生成表!F$62</f>
-        <v>8.4888888888888889</v>
+        <v>9.68888888888889</v>
       </c>
       <c r="AE32" s="41" t="s">
         <v>177</v>
       </c>
       <c r="AF32" s="51">
         <f>D39*装备拆分生成表!C$62</f>
-        <v>72.533333333333346</v>
+        <v>58.13333333333334</v>
       </c>
       <c r="AG32" s="51">
         <f>E39*装备拆分生成表!D$62</f>
@@ -18003,7 +18041,7 @@
       </c>
       <c r="AI32" s="51">
         <f>G39*装备拆分生成表!F$62</f>
-        <v>25.466666666666665</v>
+        <v>29.066666666666663</v>
       </c>
     </row>
     <row r="33" spans="2:35" x14ac:dyDescent="0.15">
@@ -18084,11 +18122,11 @@
       </c>
       <c r="L35" s="51">
         <f>E7*装备拆分生成表!D$74</f>
-        <v>62.933333333333337</v>
+        <v>49.511111111111113</v>
       </c>
       <c r="M35" s="51">
         <f>F7*装备拆分生成表!E$74</f>
-        <v>31.466666666666669</v>
+        <v>24.755555555555556</v>
       </c>
       <c r="N35" s="51">
         <f>G7*装备拆分生成表!F$74</f>
@@ -18104,11 +18142,11 @@
       </c>
       <c r="S35" s="51">
         <f>E16*装备拆分生成表!D$74</f>
-        <v>31.466666666666669</v>
+        <v>24.755555555555556</v>
       </c>
       <c r="T35" s="51">
         <f>F16*装备拆分生成表!E$74</f>
-        <v>62.933333333333337</v>
+        <v>49.511111111111113</v>
       </c>
       <c r="U35" s="51">
         <f>G16*装备拆分生成表!F$74</f>
@@ -18123,11 +18161,11 @@
       </c>
       <c r="Z35" s="51">
         <f>E25*装备拆分生成表!D$74</f>
-        <v>43.266666666666673</v>
+        <v>34.038888888888891</v>
       </c>
       <c r="AA35" s="51">
         <f>F25*装备拆分生成表!E$74</f>
-        <v>43.266666666666673</v>
+        <v>34.038888888888891</v>
       </c>
       <c r="AB35" s="51">
         <f>G25*装备拆分生成表!F$74</f>
@@ -18143,11 +18181,11 @@
       </c>
       <c r="AG35" s="51">
         <f>E34*装备拆分生成表!D$74</f>
-        <v>47.2</v>
+        <v>37.133333333333333</v>
       </c>
       <c r="AH35" s="51">
         <f>F34*装备拆分生成表!E$74</f>
-        <v>47.2</v>
+        <v>37.133333333333333</v>
       </c>
       <c r="AI35" s="51">
         <f>G34*装备拆分生成表!F$74</f>
@@ -18166,7 +18204,7 @@
       </c>
       <c r="K36" s="51">
         <f>D8*装备拆分生成表!C$74</f>
-        <v>272.33333333333331</v>
+        <v>218.22222222222223</v>
       </c>
       <c r="L36" s="51">
         <f>E8*装备拆分生成表!D$74</f>
@@ -18186,7 +18224,7 @@
       </c>
       <c r="R36" s="51">
         <f>D17*装备拆分生成表!C$74</f>
-        <v>272.33333333333331</v>
+        <v>218.22222222222223</v>
       </c>
       <c r="S36" s="51">
         <f>E17*装备拆分生成表!D$74</f>
@@ -18205,7 +18243,7 @@
       </c>
       <c r="Y36" s="51">
         <f>D26*装备拆分生成表!C$74</f>
-        <v>435.73333333333335</v>
+        <v>349.15555555555557</v>
       </c>
       <c r="Z36" s="51">
         <f>E26*装备拆分生成表!D$74</f>
@@ -18225,7 +18263,7 @@
       </c>
       <c r="AF36" s="51">
         <f>D35*装备拆分生成表!C$74</f>
-        <v>272.33333333333331</v>
+        <v>218.22222222222223</v>
       </c>
       <c r="AG36" s="51">
         <f>E35*装备拆分生成表!D$74</f>
@@ -18264,7 +18302,7 @@
       </c>
       <c r="N37" s="51">
         <f>G9*装备拆分生成表!F$74</f>
-        <v>50.977777777777781</v>
+        <v>58.177777777777784</v>
       </c>
       <c r="O37" s="48"/>
       <c r="Q37" s="41" t="s">
@@ -18284,7 +18322,7 @@
       </c>
       <c r="U37" s="51">
         <f>G18*装备拆分生成表!F$74</f>
-        <v>50.977777777777781</v>
+        <v>58.177777777777784</v>
       </c>
       <c r="X37" s="41" t="s">
         <v>165</v>
@@ -18303,7 +18341,7 @@
       </c>
       <c r="AB37" s="51">
         <f>G27*装备拆分生成表!F$74</f>
-        <v>76.466666666666669</v>
+        <v>87.266666666666666</v>
       </c>
       <c r="AC37" s="42"/>
       <c r="AE37" s="41" t="s">
@@ -18323,7 +18361,7 @@
       </c>
       <c r="AI37" s="51">
         <f>G36*装备拆分生成表!F$74</f>
-        <v>63.722222222222221</v>
+        <v>72.722222222222229</v>
       </c>
     </row>
     <row r="38" spans="2:35" x14ac:dyDescent="0.15">
@@ -18345,7 +18383,7 @@
       </c>
       <c r="L38" s="51">
         <f>E10*装备拆分生成表!D$74</f>
-        <v>7.8666666666666671</v>
+        <v>6.1888888888888891</v>
       </c>
       <c r="M38" s="51">
         <f>F10*装备拆分生成表!E$74</f>
@@ -18353,7 +18391,7 @@
       </c>
       <c r="N38" s="51">
         <f>G10*装备拆分生成表!F$74</f>
-        <v>38.233333333333334</v>
+        <v>43.633333333333333</v>
       </c>
       <c r="O38" s="48"/>
       <c r="Q38" s="41" t="s">
@@ -18369,11 +18407,11 @@
       </c>
       <c r="T38" s="51">
         <f>F19*装备拆分生成表!E$74</f>
-        <v>7.8666666666666671</v>
+        <v>6.1888888888888891</v>
       </c>
       <c r="U38" s="51">
         <f>G19*装备拆分生成表!F$74</f>
-        <v>38.233333333333334</v>
+        <v>43.633333333333333</v>
       </c>
       <c r="X38" s="41" t="s">
         <v>163</v>
@@ -18392,7 +18430,7 @@
       </c>
       <c r="AB38" s="51">
         <f>G28*装备拆分生成表!F$74</f>
-        <v>57.35</v>
+        <v>65.45</v>
       </c>
       <c r="AC38" s="42"/>
       <c r="AE38" s="41" t="s">
@@ -18412,7 +18450,7 @@
       </c>
       <c r="AI38" s="51">
         <f>G37*装备拆分生成表!F$74</f>
-        <v>38.233333333333334</v>
+        <v>43.633333333333333</v>
       </c>
     </row>
     <row r="39" spans="2:35" x14ac:dyDescent="0.15">
@@ -18430,7 +18468,7 @@
       </c>
       <c r="K39" s="51">
         <f>D11*装备拆分生成表!C$74</f>
-        <v>217.86666666666667</v>
+        <v>174.57777777777778</v>
       </c>
       <c r="L39" s="51">
         <f>E11*装备拆分生成表!D$74</f>
@@ -18438,7 +18476,7 @@
       </c>
       <c r="M39" s="51">
         <f>F11*装备拆分生成表!E$74</f>
-        <v>15.733333333333334</v>
+        <v>12.377777777777778</v>
       </c>
       <c r="N39" s="51">
         <f>G11*装备拆分生成表!F$74</f>
@@ -18450,11 +18488,11 @@
       </c>
       <c r="R39" s="51">
         <f>D20*装备拆分生成表!C$74</f>
-        <v>217.86666666666667</v>
+        <v>174.57777777777778</v>
       </c>
       <c r="S39" s="51">
         <f>E20*装备拆分生成表!D$74</f>
-        <v>15.733333333333334</v>
+        <v>12.377777777777778</v>
       </c>
       <c r="T39" s="51">
         <f>F20*装备拆分生成表!E$74</f>
@@ -18469,7 +18507,7 @@
       </c>
       <c r="Y39" s="51">
         <f>D29*装备拆分生成表!C$74</f>
-        <v>272.33333333333331</v>
+        <v>218.22222222222223</v>
       </c>
       <c r="Z39" s="51">
         <f>E29*装备拆分生成表!D$74</f>
@@ -18489,7 +18527,7 @@
       </c>
       <c r="AF39" s="51">
         <f>D38*装备拆分生成表!C$74</f>
-        <v>163.39999999999998</v>
+        <v>130.93333333333334</v>
       </c>
       <c r="AG39" s="51">
         <f>E38*装备拆分生成表!D$74</f>
@@ -18497,7 +18535,7 @@
       </c>
       <c r="AH39" s="51">
         <f>F38*装备拆分生成表!E$74</f>
-        <v>15.733333333333334</v>
+        <v>12.377777777777778</v>
       </c>
       <c r="AI39" s="51">
         <f>G38*装备拆分生成表!F$74</f>
@@ -18510,11 +18548,11 @@
       </c>
       <c r="K40" s="51">
         <f>D12*装备拆分生成表!C$74</f>
-        <v>54.466666666666669</v>
+        <v>43.644444444444446</v>
       </c>
       <c r="L40" s="51">
         <f>E12*装备拆分生成表!D$74</f>
-        <v>31.466666666666669</v>
+        <v>24.755555555555556</v>
       </c>
       <c r="M40" s="51">
         <f>F12*装备拆分生成表!E$74</f>
@@ -18530,7 +18568,7 @@
       </c>
       <c r="R40" s="51">
         <f>D21*装备拆分生成表!C$74</f>
-        <v>54.466666666666669</v>
+        <v>43.644444444444446</v>
       </c>
       <c r="S40" s="51">
         <f>E21*装备拆分生成表!D$74</f>
@@ -18538,7 +18576,7 @@
       </c>
       <c r="T40" s="51">
         <f>F21*装备拆分生成表!E$74</f>
-        <v>31.466666666666669</v>
+        <v>24.755555555555556</v>
       </c>
       <c r="U40" s="51">
         <f>G21*装备拆分生成表!F$74</f>
@@ -18549,7 +18587,7 @@
       </c>
       <c r="Y40" s="51">
         <f>D30*装备拆分生成表!C$74</f>
-        <v>108.93333333333334</v>
+        <v>87.288888888888891</v>
       </c>
       <c r="Z40" s="51">
         <f>E30*装备拆分生成表!D$74</f>
@@ -18561,7 +18599,7 @@
       </c>
       <c r="AB40" s="51">
         <f>G30*装备拆分生成表!F$74</f>
-        <v>12.744444444444445</v>
+        <v>14.544444444444446</v>
       </c>
       <c r="AC40" s="42"/>
       <c r="AE40" s="41" t="s">
@@ -18569,7 +18607,7 @@
       </c>
       <c r="AF40" s="51">
         <f>D39*装备拆分生成表!C$74</f>
-        <v>108.93333333333334</v>
+        <v>87.288888888888891</v>
       </c>
       <c r="AG40" s="51">
         <f>E39*装备拆分生成表!D$74</f>
@@ -18581,7 +18619,7 @@
       </c>
       <c r="AI40" s="51">
         <f>G39*装备拆分生成表!F$74</f>
-        <v>38.233333333333334</v>
+        <v>43.633333333333333</v>
       </c>
     </row>
     <row r="41" spans="2:35" x14ac:dyDescent="0.15">
@@ -18616,11 +18654,11 @@
       </c>
       <c r="L42" s="51">
         <f>装备拆分生成表!D$21*E7</f>
-        <v>176.8</v>
+        <v>139.20000000000002</v>
       </c>
       <c r="M42" s="51">
         <f>装备拆分生成表!E$21*F7</f>
-        <v>88.4</v>
+        <v>69.600000000000009</v>
       </c>
       <c r="N42" s="51">
         <f>装备拆分生成表!F$21*G7</f>
@@ -18636,11 +18674,11 @@
       </c>
       <c r="S42" s="51">
         <f>装备拆分生成表!D$21*E16</f>
-        <v>88.4</v>
+        <v>69.600000000000009</v>
       </c>
       <c r="T42" s="51">
         <f>装备拆分生成表!E$21*F16</f>
-        <v>176.8</v>
+        <v>139.20000000000002</v>
       </c>
       <c r="U42" s="51">
         <f>装备拆分生成表!F$21*G16</f>
@@ -18655,11 +18693,11 @@
       </c>
       <c r="Z42" s="51">
         <f>装备拆分生成表!D$21*E25</f>
-        <v>121.55000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="AA42" s="51">
         <f>装备拆分生成表!E$21*F25</f>
-        <v>121.55000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="AB42" s="51">
         <f>装备拆分生成表!F$21*G25</f>
@@ -18674,11 +18712,11 @@
       </c>
       <c r="AG42" s="51">
         <f>装备拆分生成表!D$21*E34</f>
-        <v>132.6</v>
+        <v>104.39999999999999</v>
       </c>
       <c r="AH42" s="51">
         <f>装备拆分生成表!E$21*F34</f>
-        <v>132.6</v>
+        <v>104.39999999999999</v>
       </c>
       <c r="AI42" s="51">
         <f>装备拆分生成表!F$21*G34</f>
@@ -18691,7 +18729,7 @@
       </c>
       <c r="K43" s="51">
         <f>装备拆分生成表!C$21*D8</f>
-        <v>765</v>
+        <v>613</v>
       </c>
       <c r="L43" s="51">
         <f>装备拆分生成表!D$21*E8</f>
@@ -18711,7 +18749,7 @@
       </c>
       <c r="R43" s="51">
         <f>装备拆分生成表!C$21*D17</f>
-        <v>765</v>
+        <v>613</v>
       </c>
       <c r="S43" s="51">
         <f>装备拆分生成表!D$21*E17</f>
@@ -18730,7 +18768,7 @@
       </c>
       <c r="Y43" s="51">
         <f>装备拆分生成表!C$21*D26</f>
-        <v>1224</v>
+        <v>980.80000000000007</v>
       </c>
       <c r="Z43" s="51">
         <f>装备拆分生成表!D$21*E26</f>
@@ -18749,7 +18787,7 @@
       </c>
       <c r="AF43" s="51">
         <f>装备拆分生成表!C$21*D35</f>
-        <v>765</v>
+        <v>613</v>
       </c>
       <c r="AG43" s="51">
         <f>装备拆分生成表!D$21*E35</f>
@@ -18782,7 +18820,7 @@
       </c>
       <c r="N44" s="51">
         <f>装备拆分生成表!F$21*G9</f>
-        <v>143.20000000000002</v>
+        <v>163.4</v>
       </c>
       <c r="O44" s="48"/>
       <c r="Q44" s="41" t="s">
@@ -18802,7 +18840,7 @@
       </c>
       <c r="U44" s="51">
         <f>装备拆分生成表!F$21*G18</f>
-        <v>143.20000000000002</v>
+        <v>163.4</v>
       </c>
       <c r="X44" s="41" t="s">
         <v>156</v>
@@ -18821,7 +18859,7 @@
       </c>
       <c r="AB44" s="51">
         <f>装备拆分生成表!F$21*G27</f>
-        <v>214.79999999999998</v>
+        <v>245.1</v>
       </c>
       <c r="AE44" s="41" t="s">
         <v>156</v>
@@ -18840,7 +18878,7 @@
       </c>
       <c r="AI44" s="51">
         <f>装备拆分生成表!F$21*G36</f>
-        <v>179</v>
+        <v>204.25</v>
       </c>
     </row>
     <row r="45" spans="2:35" x14ac:dyDescent="0.15">
@@ -18853,7 +18891,7 @@
       </c>
       <c r="L45" s="51">
         <f>装备拆分生成表!D$21*E10</f>
-        <v>22.1</v>
+        <v>17.400000000000002</v>
       </c>
       <c r="M45" s="51">
         <f>装备拆分生成表!E$21*F10</f>
@@ -18861,7 +18899,7 @@
       </c>
       <c r="N45" s="51">
         <f>装备拆分生成表!F$21*G10</f>
-        <v>107.39999999999999</v>
+        <v>122.55</v>
       </c>
       <c r="O45" s="48"/>
       <c r="Q45" s="41" t="s">
@@ -18877,11 +18915,11 @@
       </c>
       <c r="T45" s="51">
         <f>装备拆分生成表!E$21*F19</f>
-        <v>22.1</v>
+        <v>17.400000000000002</v>
       </c>
       <c r="U45" s="51">
         <f>装备拆分生成表!F$21*G19</f>
-        <v>107.39999999999999</v>
+        <v>122.55</v>
       </c>
       <c r="X45" s="41" t="s">
         <v>155</v>
@@ -18900,7 +18938,7 @@
       </c>
       <c r="AB45" s="51">
         <f>装备拆分生成表!F$21*G28</f>
-        <v>161.1</v>
+        <v>183.82500000000002</v>
       </c>
       <c r="AE45" s="41" t="s">
         <v>155</v>
@@ -18919,7 +18957,7 @@
       </c>
       <c r="AI45" s="51">
         <f>装备拆分生成表!F$21*G37</f>
-        <v>107.39999999999999</v>
+        <v>122.55</v>
       </c>
     </row>
     <row r="46" spans="2:35" x14ac:dyDescent="0.15">
@@ -18928,7 +18966,7 @@
       </c>
       <c r="K46" s="51">
         <f>装备拆分生成表!C$21*D11</f>
-        <v>612</v>
+        <v>490.40000000000003</v>
       </c>
       <c r="L46" s="51">
         <f>装备拆分生成表!D$21*E11</f>
@@ -18936,7 +18974,7 @@
       </c>
       <c r="M46" s="51">
         <f>装备拆分生成表!E$21*F11</f>
-        <v>44.2</v>
+        <v>34.800000000000004</v>
       </c>
       <c r="N46" s="51">
         <f>装备拆分生成表!F$21*G11</f>
@@ -18948,11 +18986,11 @@
       </c>
       <c r="R46" s="51">
         <f>装备拆分生成表!C$21*D20</f>
-        <v>612</v>
+        <v>490.40000000000003</v>
       </c>
       <c r="S46" s="51">
         <f>装备拆分生成表!D$21*E20</f>
-        <v>44.2</v>
+        <v>34.800000000000004</v>
       </c>
       <c r="T46" s="51">
         <f>装备拆分生成表!E$21*F20</f>
@@ -18967,7 +19005,7 @@
       </c>
       <c r="Y46" s="51">
         <f>装备拆分生成表!C$21*D29</f>
-        <v>765</v>
+        <v>613</v>
       </c>
       <c r="Z46" s="51">
         <f>装备拆分生成表!D$21*E29</f>
@@ -18986,7 +19024,7 @@
       </c>
       <c r="AF46" s="51">
         <f>装备拆分生成表!C$21*D38</f>
-        <v>459</v>
+        <v>367.8</v>
       </c>
       <c r="AG46" s="51">
         <f>装备拆分生成表!D$21*E38</f>
@@ -18994,7 +19032,7 @@
       </c>
       <c r="AH46" s="51">
         <f>装备拆分生成表!E$21*F38</f>
-        <v>44.2</v>
+        <v>34.800000000000004</v>
       </c>
       <c r="AI46" s="51">
         <f>装备拆分生成表!F$21*G38</f>
@@ -19007,11 +19045,11 @@
       </c>
       <c r="K47" s="51">
         <f>装备拆分生成表!C$21*D12</f>
-        <v>153</v>
+        <v>122.60000000000001</v>
       </c>
       <c r="L47" s="51">
         <f>装备拆分生成表!D$21*E12</f>
-        <v>88.4</v>
+        <v>69.600000000000009</v>
       </c>
       <c r="M47" s="51">
         <f>装备拆分生成表!E$21*F12</f>
@@ -19027,7 +19065,7 @@
       </c>
       <c r="R47" s="51">
         <f>装备拆分生成表!C$21*D21</f>
-        <v>153</v>
+        <v>122.60000000000001</v>
       </c>
       <c r="S47" s="51">
         <f>装备拆分生成表!D$21*E21</f>
@@ -19035,7 +19073,7 @@
       </c>
       <c r="T47" s="51">
         <f>装备拆分生成表!E$21*F21</f>
-        <v>88.4</v>
+        <v>69.600000000000009</v>
       </c>
       <c r="U47" s="51">
         <f>装备拆分生成表!F$21*G21</f>
@@ -19046,7 +19084,7 @@
       </c>
       <c r="Y47" s="51">
         <f>装备拆分生成表!C$21*D30</f>
-        <v>306</v>
+        <v>245.20000000000002</v>
       </c>
       <c r="Z47" s="51">
         <f>装备拆分生成表!D$21*E30</f>
@@ -19058,14 +19096,14 @@
       </c>
       <c r="AB47" s="51">
         <f>装备拆分生成表!F$21*G30</f>
-        <v>35.800000000000004</v>
+        <v>40.85</v>
       </c>
       <c r="AE47" s="41" t="s">
         <v>153</v>
       </c>
       <c r="AF47" s="51">
         <f>装备拆分生成表!C$21*D39</f>
-        <v>306</v>
+        <v>245.20000000000002</v>
       </c>
       <c r="AG47" s="51">
         <f>装备拆分生成表!D$21*E39</f>
@@ -19077,7 +19115,7 @@
       </c>
       <c r="AI47" s="51">
         <f>装备拆分生成表!F$21*G39</f>
-        <v>107.39999999999999</v>
+        <v>122.55</v>
       </c>
     </row>
     <row r="48" spans="2:35" x14ac:dyDescent="0.15">
@@ -19090,11 +19128,11 @@
       </c>
       <c r="L48" s="51">
         <f>装备拆分生成表!$H$5*装备拆分生成表!D$20*E7</f>
-        <v>271.32930240000002</v>
+        <v>213.62578560000003</v>
       </c>
       <c r="M48" s="51">
         <f>装备拆分生成表!$H$5*装备拆分生成表!E$20*F7</f>
-        <v>135.66465120000001</v>
+        <v>106.81289280000001</v>
       </c>
       <c r="N48" s="51">
         <f>装备拆分生成表!$H$5*装备拆分生成表!F$20*G7</f>
@@ -19110,11 +19148,11 @@
       </c>
       <c r="S48" s="51">
         <f>装备拆分生成表!$H$5*装备拆分生成表!D$20*E16</f>
-        <v>135.66465120000001</v>
+        <v>106.81289280000001</v>
       </c>
       <c r="T48" s="51">
         <f>装备拆分生成表!$H$5*装备拆分生成表!E$20*F16</f>
-        <v>271.32930240000002</v>
+        <v>213.62578560000003</v>
       </c>
       <c r="U48" s="51">
         <f>装备拆分生成表!$H$5*装备拆分生成表!F$20*G16</f>
@@ -19129,11 +19167,11 @@
       </c>
       <c r="Z48" s="51">
         <f>装备拆分生成表!$H$5*装备拆分生成表!D$20*E25</f>
-        <v>186.53889540000003</v>
+        <v>146.86772760000002</v>
       </c>
       <c r="AA48" s="51">
         <f>装备拆分生成表!$H$5*装备拆分生成表!E$20*F25</f>
-        <v>186.53889540000003</v>
+        <v>146.86772760000002</v>
       </c>
       <c r="AB48" s="51">
         <f>装备拆分生成表!$H$5*装备拆分生成表!F$20*G25</f>
@@ -19148,11 +19186,11 @@
       </c>
       <c r="AG48" s="51">
         <f>装备拆分生成表!$H$5*装备拆分生成表!D$20*E34</f>
-        <v>203.4969768</v>
+        <v>160.21933920000001</v>
       </c>
       <c r="AH48" s="51">
         <f>装备拆分生成表!$H$5*装备拆分生成表!E$20*F34</f>
-        <v>203.4969768</v>
+        <v>160.21933920000001</v>
       </c>
       <c r="AI48" s="51">
         <f>装备拆分生成表!$H$5*装备拆分生成表!F$20*G34</f>
@@ -19165,7 +19203,7 @@
       </c>
       <c r="K49" s="51">
         <f>装备拆分生成表!$H$5*装备拆分生成表!C$20*D8</f>
-        <v>1174.0210200000001</v>
+        <v>940.75148400000012</v>
       </c>
       <c r="L49" s="51">
         <f>装备拆分生成表!$H$5*装备拆分生成表!D$20*E8</f>
@@ -19185,7 +19223,7 @@
       </c>
       <c r="R49" s="51">
         <f>装备拆分生成表!$H$5*装备拆分生成表!C$20*D17</f>
-        <v>1174.0210200000001</v>
+        <v>940.75148400000012</v>
       </c>
       <c r="S49" s="51">
         <f>装备拆分生成表!$H$5*装备拆分生成表!D$20*E17</f>
@@ -19204,7 +19242,7 @@
       </c>
       <c r="Y49" s="51">
         <f>装备拆分生成表!$H$5*装备拆分生成表!C$20*D26</f>
-        <v>1878.4336320000002</v>
+        <v>1505.2023744000003</v>
       </c>
       <c r="Z49" s="51">
         <f>装备拆分生成表!$H$5*装备拆分生成表!D$20*E26</f>
@@ -19223,7 +19261,7 @@
       </c>
       <c r="AF49" s="51">
         <f>装备拆分生成表!$H$5*装备拆分生成表!C$20*D35</f>
-        <v>1174.0210200000001</v>
+        <v>940.75148400000012</v>
       </c>
       <c r="AG49" s="51">
         <f>装备拆分生成表!$H$5*装备拆分生成表!D$20*E35</f>
@@ -19256,7 +19294,7 @@
       </c>
       <c r="N50" s="51">
         <f>装备拆分生成表!$H$5*装备拆分生成表!F$20*G9</f>
-        <v>219.76445760000001</v>
+        <v>250.76475120000006</v>
       </c>
       <c r="O50" s="48"/>
       <c r="Q50" s="41" t="s">
@@ -19276,7 +19314,7 @@
       </c>
       <c r="U50" s="51">
         <f>装备拆分生成表!$H$5*装备拆分生成表!F$20*G18</f>
-        <v>219.76445760000001</v>
+        <v>250.76475120000006</v>
       </c>
       <c r="X50" s="41" t="s">
         <v>150</v>
@@ -19295,7 +19333,7 @@
       </c>
       <c r="AB50" s="51">
         <f>装备拆分生成表!$H$5*装备拆分生成表!F$20*G27</f>
-        <v>329.64668640000002</v>
+        <v>376.14712680000008</v>
       </c>
       <c r="AE50" s="41" t="s">
         <v>150</v>
@@ -19314,7 +19352,7 @@
       </c>
       <c r="AI50" s="51">
         <f>装备拆分生成表!$H$5*装备拆分生成表!F$20*G36</f>
-        <v>274.70557200000002</v>
+        <v>313.45593900000006</v>
       </c>
     </row>
     <row r="51" spans="10:35" x14ac:dyDescent="0.15">
@@ -19327,7 +19365,7 @@
       </c>
       <c r="L51" s="51">
         <f>装备拆分生成表!$H$5*装备拆分生成表!D$20*E10</f>
-        <v>33.916162800000002</v>
+        <v>26.703223200000004</v>
       </c>
       <c r="M51" s="51">
         <f>装备拆分生成表!$H$5*装备拆分生成表!E$20*F10</f>
@@ -19335,7 +19373,7 @@
       </c>
       <c r="N51" s="51">
         <f>装备拆分生成表!$H$5*装备拆分生成表!F$20*G10</f>
-        <v>164.82334320000001</v>
+        <v>188.07356340000004</v>
       </c>
       <c r="O51" s="48"/>
       <c r="Q51" s="41" t="s">
@@ -19351,11 +19389,11 @@
       </c>
       <c r="T51" s="51">
         <f>装备拆分生成表!$H$5*装备拆分生成表!E$20*F19</f>
-        <v>33.916162800000002</v>
+        <v>26.703223200000004</v>
       </c>
       <c r="U51" s="51">
         <f>装备拆分生成表!$H$5*装备拆分生成表!F$20*G19</f>
-        <v>164.82334320000001</v>
+        <v>188.07356340000004</v>
       </c>
       <c r="X51" s="41" t="s">
         <v>149</v>
@@ -19374,7 +19412,7 @@
       </c>
       <c r="AB51" s="51">
         <f>装备拆分生成表!$H$5*装备拆分生成表!F$20*G28</f>
-        <v>247.23501480000002</v>
+        <v>282.11034510000007</v>
       </c>
       <c r="AE51" s="41" t="s">
         <v>149</v>
@@ -19393,7 +19431,7 @@
       </c>
       <c r="AI51" s="51">
         <f>装备拆分生成表!$H$5*装备拆分生成表!F$20*G37</f>
-        <v>164.82334320000001</v>
+        <v>188.07356340000004</v>
       </c>
     </row>
     <row r="52" spans="10:35" x14ac:dyDescent="0.15">
@@ -19402,7 +19440,7 @@
       </c>
       <c r="K52" s="51">
         <f>装备拆分生成表!$H$5*装备拆分生成表!C$20*D11</f>
-        <v>939.21681600000011</v>
+        <v>752.60118720000014</v>
       </c>
       <c r="L52" s="51">
         <f>装备拆分生成表!$H$5*装备拆分生成表!D$20*E11</f>
@@ -19410,7 +19448,7 @@
       </c>
       <c r="M52" s="51">
         <f>装备拆分生成表!$H$5*装备拆分生成表!E$20*F11</f>
-        <v>67.832325600000004</v>
+        <v>53.406446400000007</v>
       </c>
       <c r="N52" s="51">
         <f>装备拆分生成表!$H$5*装备拆分生成表!F$20*G11</f>
@@ -19422,11 +19460,11 @@
       </c>
       <c r="R52" s="51">
         <f>装备拆分生成表!$H$5*装备拆分生成表!C$20*D20</f>
-        <v>939.21681600000011</v>
+        <v>752.60118720000014</v>
       </c>
       <c r="S52" s="51">
         <f>装备拆分生成表!$H$5*装备拆分生成表!D$20*E20</f>
-        <v>67.832325600000004</v>
+        <v>53.406446400000007</v>
       </c>
       <c r="T52" s="51">
         <f>装备拆分生成表!$H$5*装备拆分生成表!E$20*F20</f>
@@ -19441,7 +19479,7 @@
       </c>
       <c r="Y52" s="51">
         <f>装备拆分生成表!$H$5*装备拆分生成表!C$20*D29</f>
-        <v>1174.0210200000001</v>
+        <v>940.75148400000012</v>
       </c>
       <c r="Z52" s="51">
         <f>装备拆分生成表!$H$5*装备拆分生成表!D$20*E29</f>
@@ -19460,7 +19498,7 @@
       </c>
       <c r="AF52" s="51">
         <f>装备拆分生成表!$H$5*装备拆分生成表!C$20*D38</f>
-        <v>704.41261200000008</v>
+        <v>564.45089040000005</v>
       </c>
       <c r="AG52" s="51">
         <f>装备拆分生成表!$H$5*装备拆分生成表!D$20*E38</f>
@@ -19468,7 +19506,7 @@
       </c>
       <c r="AH52" s="51">
         <f>装备拆分生成表!$H$5*装备拆分生成表!E$20*F38</f>
-        <v>67.832325600000004</v>
+        <v>53.406446400000007</v>
       </c>
       <c r="AI52" s="51">
         <f>装备拆分生成表!$H$5*装备拆分生成表!F$20*G38</f>
@@ -19481,11 +19519,11 @@
       </c>
       <c r="K53" s="51">
         <f>装备拆分生成表!$H$5*装备拆分生成表!C$20*D12</f>
-        <v>234.80420400000003</v>
+        <v>188.15029680000004</v>
       </c>
       <c r="L53" s="51">
         <f>装备拆分生成表!$H$5*装备拆分生成表!D$20*E12</f>
-        <v>135.66465120000001</v>
+        <v>106.81289280000001</v>
       </c>
       <c r="M53" s="51">
         <f>装备拆分生成表!$H$5*装备拆分生成表!E$20*F12</f>
@@ -19501,7 +19539,7 @@
       </c>
       <c r="R53" s="51">
         <f>装备拆分生成表!$H$5*装备拆分生成表!C$20*D21</f>
-        <v>234.80420400000003</v>
+        <v>188.15029680000004</v>
       </c>
       <c r="S53" s="51">
         <f>装备拆分生成表!$H$5*装备拆分生成表!D$20*E21</f>
@@ -19509,7 +19547,7 @@
       </c>
       <c r="T53" s="51">
         <f>装备拆分生成表!$H$5*装备拆分生成表!E$20*F21</f>
-        <v>135.66465120000001</v>
+        <v>106.81289280000001</v>
       </c>
       <c r="U53" s="51">
         <f>装备拆分生成表!$H$5*装备拆分生成表!F$20*G21</f>
@@ -19520,7 +19558,7 @@
       </c>
       <c r="Y53" s="51">
         <f>装备拆分生成表!$H$5*装备拆分生成表!C$20*D30</f>
-        <v>469.60840800000005</v>
+        <v>376.30059360000007</v>
       </c>
       <c r="Z53" s="51">
         <f>装备拆分生成表!$H$5*装备拆分生成表!D$20*E30</f>
@@ -19532,14 +19570,14 @@
       </c>
       <c r="AB53" s="51">
         <f>装备拆分生成表!$H$5*装备拆分生成表!F$20*G30</f>
-        <v>54.941114400000004</v>
+        <v>62.691187800000016</v>
       </c>
       <c r="AE53" s="41" t="s">
         <v>147</v>
       </c>
       <c r="AF53" s="51">
         <f>装备拆分生成表!$H$5*装备拆分生成表!C$20*D39</f>
-        <v>469.60840800000005</v>
+        <v>376.30059360000007</v>
       </c>
       <c r="AG53" s="51">
         <f>装备拆分生成表!$H$5*装备拆分生成表!D$20*E39</f>
@@ -19551,7 +19589,7 @@
       </c>
       <c r="AI53" s="51">
         <f>装备拆分生成表!$H$5*装备拆分生成表!F$20*G39</f>
-        <v>164.82334320000001</v>
+        <v>188.07356340000004</v>
       </c>
     </row>
     <row r="54" spans="10:35" x14ac:dyDescent="0.15">
@@ -19564,11 +19602,11 @@
       </c>
       <c r="L54" s="51">
         <f>装备拆分生成表!$H$7*装备拆分生成表!D$20*E7</f>
-        <v>425.59667138560008</v>
+        <v>335.08516208640009</v>
       </c>
       <c r="M54" s="51">
         <f>装备拆分生成表!$H$7*装备拆分生成表!E$20*F7</f>
-        <v>212.79833569280004</v>
+        <v>167.54258104320004</v>
       </c>
       <c r="N54" s="51">
         <f>装备拆分生成表!$H$7*装备拆分生成表!F$20*G7</f>
@@ -19584,11 +19622,11 @@
       </c>
       <c r="S54" s="51">
         <f>装备拆分生成表!$H$7*装备拆分生成表!D$20*E16</f>
-        <v>212.79833569280004</v>
+        <v>167.54258104320004</v>
       </c>
       <c r="T54" s="51">
         <f>装备拆分生成表!$H$7*装备拆分生成表!E$20*F16</f>
-        <v>425.59667138560008</v>
+        <v>335.08516208640009</v>
       </c>
       <c r="U54" s="51">
         <f>装备拆分生成表!$H$7*装备拆分生成表!F$20*G16</f>
@@ -19603,11 +19641,11 @@
       </c>
       <c r="Z54" s="51">
         <f>装备拆分生成表!$H$7*装备拆分生成表!D$20*E25</f>
-        <v>292.59771157760008</v>
+        <v>230.37104893440008</v>
       </c>
       <c r="AA54" s="51">
         <f>装备拆分生成表!$H$7*装备拆分生成表!E$20*F25</f>
-        <v>292.59771157760008</v>
+        <v>230.37104893440008</v>
       </c>
       <c r="AB54" s="51">
         <f>装备拆分生成表!$H$7*装备拆分生成表!F$20*G25</f>
@@ -19622,11 +19660,11 @@
       </c>
       <c r="AG54" s="51">
         <f>装备拆分生成表!$H$7*装备拆分生成表!D$20*E34</f>
-        <v>319.19750353920006</v>
+        <v>251.31387156480005</v>
       </c>
       <c r="AH54" s="51">
         <f>装备拆分生成表!$H$7*装备拆分生成表!E$20*F34</f>
-        <v>319.19750353920006</v>
+        <v>251.31387156480005</v>
       </c>
       <c r="AI54" s="51">
         <f>装备拆分生成表!$H$7*装备拆分生成表!F$20*G34</f>
@@ -19639,7 +19677,7 @@
       </c>
       <c r="K55" s="51">
         <f>装备拆分生成表!$H$7*装备拆分生成表!C$20*D8</f>
-        <v>1841.5240588800004</v>
+        <v>1475.6264680960003</v>
       </c>
       <c r="L55" s="51">
         <f>装备拆分生成表!$H$7*装备拆分生成表!D$20*E8</f>
@@ -19659,7 +19697,7 @@
       </c>
       <c r="R55" s="51">
         <f>装备拆分生成表!$H$7*装备拆分生成表!C$20*D17</f>
-        <v>1841.5240588800004</v>
+        <v>1475.6264680960003</v>
       </c>
       <c r="S55" s="51">
         <f>装备拆分生成表!$H$7*装备拆分生成表!D$20*E17</f>
@@ -19678,7 +19716,7 @@
       </c>
       <c r="Y55" s="51">
         <f>装备拆分生成表!$H$7*装备拆分生成表!C$20*D26</f>
-        <v>2946.438494208001</v>
+        <v>2361.0023489536006</v>
       </c>
       <c r="Z55" s="51">
         <f>装备拆分生成表!$H$7*装备拆分生成表!D$20*E26</f>
@@ -19697,7 +19735,7 @@
       </c>
       <c r="AF55" s="51">
         <f>装备拆分生成表!$H$7*装备拆分生成表!C$20*D35</f>
-        <v>1841.5240588800004</v>
+        <v>1475.6264680960003</v>
       </c>
       <c r="AG55" s="51">
         <f>装备拆分生成表!$H$7*装备拆分生成表!D$20*E35</f>
@@ -19730,7 +19768,7 @@
       </c>
       <c r="N56" s="51">
         <f>装备拆分生成表!$H$7*装备拆分生成表!F$20*G9</f>
-        <v>344.71404605440011</v>
+        <v>393.3399100928001</v>
       </c>
       <c r="O56" s="48"/>
       <c r="Q56" s="41" t="s">
@@ -19750,7 +19788,7 @@
       </c>
       <c r="U56" s="51">
         <f>装备拆分生成表!$H$7*装备拆分生成表!F$20*G18</f>
-        <v>344.71404605440011</v>
+        <v>393.3399100928001</v>
       </c>
       <c r="X56" s="41" t="s">
         <v>144</v>
@@ -19769,7 +19807,7 @@
       </c>
       <c r="AB56" s="51">
         <f>装备拆分生成表!$H$7*装备拆分生成表!F$20*G27</f>
-        <v>517.07106908160006</v>
+        <v>590.00986513920009</v>
       </c>
       <c r="AE56" s="41" t="s">
         <v>144</v>
@@ -19788,7 +19826,7 @@
       </c>
       <c r="AI56" s="51">
         <f>装备拆分生成表!$H$7*装备拆分生成表!F$20*G36</f>
-        <v>430.89255756800009</v>
+        <v>491.67488761600009</v>
       </c>
     </row>
     <row r="57" spans="10:35" x14ac:dyDescent="0.15">
@@ -19801,7 +19839,7 @@
       </c>
       <c r="L57" s="51">
         <f>装备拆分生成表!$H$7*装备拆分生成表!D$20*E10</f>
-        <v>53.199583923200009</v>
+        <v>41.885645260800011</v>
       </c>
       <c r="M57" s="51">
         <f>装备拆分生成表!$H$7*装备拆分生成表!E$20*F10</f>
@@ -19809,7 +19847,7 @@
       </c>
       <c r="N57" s="51">
         <f>装备拆分生成表!$H$7*装备拆分生成表!F$20*G10</f>
-        <v>258.53553454080003</v>
+        <v>295.00493256960004</v>
       </c>
       <c r="O57" s="48"/>
       <c r="Q57" s="41" t="s">
@@ -19825,11 +19863,11 @@
       </c>
       <c r="T57" s="51">
         <f>装备拆分生成表!$H$7*装备拆分生成表!E$20*F19</f>
-        <v>53.199583923200009</v>
+        <v>41.885645260800011</v>
       </c>
       <c r="U57" s="51">
         <f>装备拆分生成表!$H$7*装备拆分生成表!F$20*G19</f>
-        <v>258.53553454080003</v>
+        <v>295.00493256960004</v>
       </c>
       <c r="X57" s="41" t="s">
         <v>143</v>
@@ -19848,7 +19886,7 @@
       </c>
       <c r="AB57" s="51">
         <f>装备拆分生成表!$H$7*装备拆分生成表!F$20*G28</f>
-        <v>387.80330181120007</v>
+        <v>442.50739885440009</v>
       </c>
       <c r="AE57" s="41" t="s">
         <v>143</v>
@@ -19867,7 +19905,7 @@
       </c>
       <c r="AI57" s="51">
         <f>装备拆分生成表!$H$7*装备拆分生成表!F$20*G37</f>
-        <v>258.53553454080003</v>
+        <v>295.00493256960004</v>
       </c>
     </row>
     <row r="58" spans="10:35" x14ac:dyDescent="0.15">
@@ -19876,7 +19914,7 @@
       </c>
       <c r="K58" s="51">
         <f>装备拆分生成表!$H$7*装备拆分生成表!C$20*D11</f>
-        <v>1473.2192471040005</v>
+        <v>1180.5011744768003</v>
       </c>
       <c r="L58" s="51">
         <f>装备拆分生成表!$H$7*装备拆分生成表!D$20*E11</f>
@@ -19884,7 +19922,7 @@
       </c>
       <c r="M58" s="51">
         <f>装备拆分生成表!$H$7*装备拆分生成表!E$20*F11</f>
-        <v>106.39916784640002</v>
+        <v>83.771290521600022</v>
       </c>
       <c r="N58" s="51">
         <f>装备拆分生成表!$H$7*装备拆分生成表!F$20*G11</f>
@@ -19896,11 +19934,11 @@
       </c>
       <c r="R58" s="51">
         <f>装备拆分生成表!$H$7*装备拆分生成表!C$20*D20</f>
-        <v>1473.2192471040005</v>
+        <v>1180.5011744768003</v>
       </c>
       <c r="S58" s="51">
         <f>装备拆分生成表!$H$7*装备拆分生成表!D$20*E20</f>
-        <v>106.39916784640002</v>
+        <v>83.771290521600022</v>
       </c>
       <c r="T58" s="51">
         <f>装备拆分生成表!$H$7*装备拆分生成表!E$20*F20</f>
@@ -19915,7 +19953,7 @@
       </c>
       <c r="Y58" s="51">
         <f>装备拆分生成表!$H$7*装备拆分生成表!C$20*D29</f>
-        <v>1841.5240588800004</v>
+        <v>1475.6264680960003</v>
       </c>
       <c r="Z58" s="51">
         <f>装备拆分生成表!$H$7*装备拆分生成表!D$20*E29</f>
@@ -19934,7 +19972,7 @@
       </c>
       <c r="AF58" s="51">
         <f>装备拆分生成表!$H$7*装备拆分生成表!C$20*D38</f>
-        <v>1104.9144353280003</v>
+        <v>885.37588085760012</v>
       </c>
       <c r="AG58" s="51">
         <f>装备拆分生成表!$H$7*装备拆分生成表!D$20*E38</f>
@@ -19942,7 +19980,7 @@
       </c>
       <c r="AH58" s="51">
         <f>装备拆分生成表!$H$7*装备拆分生成表!E$20*F38</f>
-        <v>106.39916784640002</v>
+        <v>83.771290521600022</v>
       </c>
       <c r="AI58" s="51">
         <f>装备拆分生成表!$H$7*装备拆分生成表!F$20*G38</f>
@@ -19955,11 +19993,11 @@
       </c>
       <c r="K59" s="51">
         <f>装备拆分生成表!$H$7*装备拆分生成表!C$20*D12</f>
-        <v>368.30481177600012</v>
+        <v>295.12529361920008</v>
       </c>
       <c r="L59" s="51">
         <f>装备拆分生成表!$H$7*装备拆分生成表!D$20*E12</f>
-        <v>212.79833569280004</v>
+        <v>167.54258104320004</v>
       </c>
       <c r="M59" s="51">
         <f>装备拆分生成表!$H$7*装备拆分生成表!E$20*F12</f>
@@ -19975,7 +20013,7 @@
       </c>
       <c r="R59" s="51">
         <f>装备拆分生成表!$H$7*装备拆分生成表!C$20*D21</f>
-        <v>368.30481177600012</v>
+        <v>295.12529361920008</v>
       </c>
       <c r="S59" s="51">
         <f>装备拆分生成表!$H$7*装备拆分生成表!D$20*E21</f>
@@ -19983,7 +20021,7 @@
       </c>
       <c r="T59" s="51">
         <f>装备拆分生成表!$H$7*装备拆分生成表!E$20*F21</f>
-        <v>212.79833569280004</v>
+        <v>167.54258104320004</v>
       </c>
       <c r="U59" s="51">
         <f>装备拆分生成表!$H$7*装备拆分生成表!F$20*G21</f>
@@ -19994,7 +20032,7 @@
       </c>
       <c r="Y59" s="51">
         <f>装备拆分生成表!$H$7*装备拆分生成表!C$20*D30</f>
-        <v>736.60962355200024</v>
+        <v>590.25058723840016</v>
       </c>
       <c r="Z59" s="51">
         <f>装备拆分生成表!$H$7*装备拆分生成表!D$20*E30</f>
@@ -20006,14 +20044,14 @@
       </c>
       <c r="AB59" s="51">
         <f>装备拆分生成表!$H$7*装备拆分生成表!F$20*G30</f>
-        <v>86.178511513600029</v>
+        <v>98.334977523200024</v>
       </c>
       <c r="AE59" s="41" t="s">
         <v>141</v>
       </c>
       <c r="AF59" s="51">
         <f>装备拆分生成表!$H$7*装备拆分生成表!C$20*D39</f>
-        <v>736.60962355200024</v>
+        <v>590.25058723840016</v>
       </c>
       <c r="AG59" s="51">
         <f>装备拆分生成表!$H$7*装备拆分生成表!D$20*E39</f>
@@ -20025,7 +20063,7 @@
       </c>
       <c r="AI59" s="51">
         <f>装备拆分生成表!$H$7*装备拆分生成表!F$20*G39</f>
-        <v>258.53553454080003</v>
+        <v>295.00493256960004</v>
       </c>
     </row>
     <row r="60" spans="10:35" x14ac:dyDescent="0.15">
@@ -20038,11 +20076,11 @@
       </c>
       <c r="L60" s="51">
         <f>装备拆分生成表!$H$9*装备拆分生成表!D$20*E7</f>
-        <v>757.55542511837768</v>
+        <v>596.44635280813452</v>
       </c>
       <c r="M60" s="51">
         <f>装备拆分生成表!$H$9*装备拆分生成表!E$20*F7</f>
-        <v>378.77771255918884</v>
+        <v>298.22317640406726</v>
       </c>
       <c r="N60" s="51">
         <f>装备拆分生成表!$H$9*装备拆分生成表!F$20*G7</f>
@@ -20058,11 +20096,11 @@
       </c>
       <c r="S60" s="51">
         <f>装备拆分生成表!$H$9*装备拆分生成表!D$20*E16</f>
-        <v>378.77771255918884</v>
+        <v>298.22317640406726</v>
       </c>
       <c r="T60" s="51">
         <f>装备拆分生成表!$H$9*装备拆分生成表!E$20*F16</f>
-        <v>757.55542511837768</v>
+        <v>596.44635280813452</v>
       </c>
       <c r="U60" s="51">
         <f>装备拆分生成表!$H$9*装备拆分生成表!F$20*G16</f>
@@ -20077,11 +20115,11 @@
       </c>
       <c r="Z60" s="51">
         <f>装备拆分生成表!$H$9*装备拆分生成表!D$20*E25</f>
-        <v>520.81935476888464</v>
+        <v>410.05686755559248</v>
       </c>
       <c r="AA60" s="51">
         <f>装备拆分生成表!$H$9*装备拆分生成表!E$20*F25</f>
-        <v>520.81935476888464</v>
+        <v>410.05686755559248</v>
       </c>
       <c r="AB60" s="51">
         <f>装备拆分生成表!$H$9*装备拆分生成表!F$20*G25</f>
@@ -20096,11 +20134,11 @@
       </c>
       <c r="AG60" s="51">
         <f>装备拆分生成表!$H$9*装备拆分生成表!D$20*E34</f>
-        <v>568.16656883878318</v>
+        <v>447.3347646061008</v>
       </c>
       <c r="AH60" s="51">
         <f>装备拆分生成表!$H$9*装备拆分生成表!E$20*F34</f>
-        <v>568.16656883878318</v>
+        <v>447.3347646061008</v>
       </c>
       <c r="AI60" s="51">
         <f>装备拆分生成表!$H$9*装备拆分生成表!F$20*G34</f>
@@ -20113,7 +20151,7 @@
       </c>
       <c r="K61" s="51">
         <f>装备拆分生成表!$H$9*装备拆分生成表!C$20*D8</f>
-        <v>3277.8840509929801</v>
+        <v>2626.5920565473161</v>
       </c>
       <c r="L61" s="51">
         <f>装备拆分生成表!$H$9*装备拆分生成表!D$20*E8</f>
@@ -20133,7 +20171,7 @@
       </c>
       <c r="R61" s="51">
         <f>装备拆分生成表!$H$9*装备拆分生成表!C$20*D17</f>
-        <v>3277.8840509929801</v>
+        <v>2626.5920565473161</v>
       </c>
       <c r="S61" s="51">
         <f>装备拆分生成表!$H$9*装备拆分生成表!D$20*E17</f>
@@ -20152,7 +20190,7 @@
       </c>
       <c r="Y61" s="51">
         <f>装备拆分生成表!$H$9*装备拆分生成表!C$20*D26</f>
-        <v>5244.6144815887683</v>
+        <v>4202.5472904757062</v>
       </c>
       <c r="Z61" s="51">
         <f>装备拆分生成表!$H$9*装备拆分生成表!D$20*E26</f>
@@ -20171,7 +20209,7 @@
       </c>
       <c r="AF61" s="51">
         <f>装备拆分生成表!$H$9*装备拆分生成表!C$20*D35</f>
-        <v>3277.8840509929801</v>
+        <v>2626.5920565473161</v>
       </c>
       <c r="AG61" s="51">
         <f>装备拆分生成表!$H$9*装备拆分生成表!D$20*E35</f>
@@ -20204,7 +20242,7 @@
       </c>
       <c r="N62" s="51">
         <f>装备拆分生成表!$H$9*装备拆分生成表!F$20*G9</f>
-        <v>613.58561581986248</v>
+        <v>700.13889402908899</v>
       </c>
       <c r="O62" s="48"/>
       <c r="Q62" s="41" t="s">
@@ -20224,7 +20262,7 @@
       </c>
       <c r="U62" s="51">
         <f>装备拆分生成表!$H$9*装备拆分生成表!F$20*G18</f>
-        <v>613.58561581986248</v>
+        <v>700.13889402908899</v>
       </c>
       <c r="X62" s="41" t="s">
         <v>138</v>
@@ -20243,7 +20281,7 @@
       </c>
       <c r="AB62" s="51">
         <f>装备拆分生成表!$H$9*装备拆分生成表!F$20*G27</f>
-        <v>920.37842372979355</v>
+        <v>1050.2083410436333</v>
       </c>
       <c r="AE62" s="41" t="s">
         <v>138</v>
@@ -20262,7 +20300,7 @@
       </c>
       <c r="AI62" s="51">
         <f>装备拆分生成表!$H$9*装备拆分生成表!F$20*G36</f>
-        <v>766.98201977482802</v>
+        <v>875.17361753636112</v>
       </c>
     </row>
     <row r="63" spans="10:35" x14ac:dyDescent="0.15">
@@ -20275,7 +20313,7 @@
       </c>
       <c r="L63" s="51">
         <f>装备拆分生成表!$H$9*装备拆分生成表!D$20*E10</f>
-        <v>94.694428139797211</v>
+        <v>74.555794101016815</v>
       </c>
       <c r="M63" s="51">
         <f>装备拆分生成表!$H$9*装备拆分生成表!E$20*F10</f>
@@ -20283,7 +20321,7 @@
       </c>
       <c r="N63" s="51">
         <f>装备拆分生成表!$H$9*装备拆分生成表!F$20*G10</f>
-        <v>460.18921186489678</v>
+        <v>525.10417052181663</v>
       </c>
       <c r="O63" s="48"/>
       <c r="Q63" s="41" t="s">
@@ -20299,11 +20337,11 @@
       </c>
       <c r="T63" s="51">
         <f>装备拆分生成表!$H$9*装备拆分生成表!E$20*F19</f>
-        <v>94.694428139797211</v>
+        <v>74.555794101016815</v>
       </c>
       <c r="U63" s="51">
         <f>装备拆分生成表!$H$9*装备拆分生成表!F$20*G19</f>
-        <v>460.18921186489678</v>
+        <v>525.10417052181663</v>
       </c>
       <c r="X63" s="41" t="s">
         <v>137</v>
@@ -20322,7 +20360,7 @@
       </c>
       <c r="AB63" s="51">
         <f>装备拆分生成表!$H$9*装备拆分生成表!F$20*G28</f>
-        <v>690.28381779734525</v>
+        <v>787.656255782725</v>
       </c>
       <c r="AE63" s="41" t="s">
         <v>137</v>
@@ -20341,7 +20379,7 @@
       </c>
       <c r="AI63" s="51">
         <f>装备拆分生成表!$H$9*装备拆分生成表!F$20*G37</f>
-        <v>460.18921186489678</v>
+        <v>525.10417052181663</v>
       </c>
     </row>
     <row r="64" spans="10:35" x14ac:dyDescent="0.15">
@@ -20350,7 +20388,7 @@
       </c>
       <c r="K64" s="51">
         <f>装备拆分生成表!$H$9*装备拆分生成表!C$20*D11</f>
-        <v>2622.3072407943841</v>
+        <v>2101.2736452378531</v>
       </c>
       <c r="L64" s="51">
         <f>装备拆分生成表!$H$9*装备拆分生成表!D$20*E11</f>
@@ -20358,7 +20396,7 @@
       </c>
       <c r="M64" s="51">
         <f>装备拆分生成表!$H$9*装备拆分生成表!E$20*F11</f>
-        <v>189.38885627959442</v>
+        <v>149.11158820203363</v>
       </c>
       <c r="N64" s="51">
         <f>装备拆分生成表!$H$9*装备拆分生成表!F$20*G11</f>
@@ -20370,11 +20408,11 @@
       </c>
       <c r="R64" s="51">
         <f>装备拆分生成表!$H$9*装备拆分生成表!C$20*D20</f>
-        <v>2622.3072407943841</v>
+        <v>2101.2736452378531</v>
       </c>
       <c r="S64" s="51">
         <f>装备拆分生成表!$H$9*装备拆分生成表!D$20*E20</f>
-        <v>189.38885627959442</v>
+        <v>149.11158820203363</v>
       </c>
       <c r="T64" s="51">
         <f>装备拆分生成表!$H$9*装备拆分生成表!E$20*F20</f>
@@ -20389,7 +20427,7 @@
       </c>
       <c r="Y64" s="51">
         <f>装备拆分生成表!$H$9*装备拆分生成表!C$20*D29</f>
-        <v>3277.8840509929801</v>
+        <v>2626.5920565473161</v>
       </c>
       <c r="Z64" s="51">
         <f>装备拆分生成表!$H$9*装备拆分生成表!D$20*E29</f>
@@ -20408,7 +20446,7 @@
       </c>
       <c r="AF64" s="51">
         <f>装备拆分生成表!$H$9*装备拆分生成表!C$20*D38</f>
-        <v>1966.730430595788</v>
+        <v>1575.9552339283896</v>
       </c>
       <c r="AG64" s="51">
         <f>装备拆分生成表!$H$9*装备拆分生成表!D$20*E38</f>
@@ -20416,7 +20454,7 @@
       </c>
       <c r="AH64" s="51">
         <f>装备拆分生成表!$H$9*装备拆分生成表!E$20*F38</f>
-        <v>189.38885627959442</v>
+        <v>149.11158820203363</v>
       </c>
       <c r="AI64" s="51">
         <f>装备拆分生成表!$H$9*装备拆分生成表!F$20*G38</f>
@@ -20429,11 +20467,11 @@
       </c>
       <c r="K65" s="51">
         <f>装备拆分生成表!$H$9*装备拆分生成表!C$20*D12</f>
-        <v>655.57681019859604</v>
+        <v>525.31841130946327</v>
       </c>
       <c r="L65" s="51">
         <f>装备拆分生成表!$H$9*装备拆分生成表!D$20*E12</f>
-        <v>378.77771255918884</v>
+        <v>298.22317640406726</v>
       </c>
       <c r="M65" s="51">
         <f>装备拆分生成表!$H$9*装备拆分生成表!E$20*F12</f>
@@ -20449,7 +20487,7 @@
       </c>
       <c r="R65" s="51">
         <f>装备拆分生成表!$H$9*装备拆分生成表!C$20*D21</f>
-        <v>655.57681019859604</v>
+        <v>525.31841130946327</v>
       </c>
       <c r="S65" s="51">
         <f>装备拆分生成表!$H$9*装备拆分生成表!D$20*E21</f>
@@ -20457,7 +20495,7 @@
       </c>
       <c r="T65" s="51">
         <f>装备拆分生成表!$H$9*装备拆分生成表!E$20*F21</f>
-        <v>378.77771255918884</v>
+        <v>298.22317640406726</v>
       </c>
       <c r="U65" s="51">
         <f>装备拆分生成表!$H$9*装备拆分生成表!F$20*G21</f>
@@ -20468,7 +20506,7 @@
       </c>
       <c r="Y65" s="51">
         <f>装备拆分生成表!$H$9*装备拆分生成表!C$20*D30</f>
-        <v>1311.1536203971921</v>
+        <v>1050.6368226189265</v>
       </c>
       <c r="Z65" s="51">
         <f>装备拆分生成表!$H$9*装备拆分生成表!D$20*E30</f>
@@ -20480,14 +20518,14 @@
       </c>
       <c r="AB65" s="51">
         <f>装备拆分生成表!$H$9*装备拆分生成表!F$20*G30</f>
-        <v>153.39640395496562</v>
+        <v>175.03472350727225</v>
       </c>
       <c r="AE65" s="41" t="s">
         <v>135</v>
       </c>
       <c r="AF65" s="51">
         <f>装备拆分生成表!$H$9*装备拆分生成表!C$20*D39</f>
-        <v>1311.1536203971921</v>
+        <v>1050.6368226189265</v>
       </c>
       <c r="AG65" s="51">
         <f>装备拆分生成表!$H$9*装备拆分生成表!D$20*E39</f>
@@ -20499,7 +20537,7 @@
       </c>
       <c r="AI65" s="51">
         <f>装备拆分生成表!$H$9*装备拆分生成表!F$20*G39</f>
-        <v>460.18921186489678</v>
+        <v>525.10417052181663</v>
       </c>
     </row>
     <row r="66" spans="10:35" x14ac:dyDescent="0.15">
@@ -20512,11 +20550,11 @@
       </c>
       <c r="L66" s="51">
         <f>装备拆分生成表!$H$12*装备拆分生成表!D$20*E7</f>
-        <v>1373.0828051757155</v>
+        <v>1081.0697199121018</v>
       </c>
       <c r="M66" s="51">
         <f>装备拆分生成表!$H$12*装备拆分生成表!E$20*F7</f>
-        <v>686.54140258785776</v>
+        <v>540.53485995605092</v>
       </c>
       <c r="N66" s="51">
         <f>装备拆分生成表!$H$12*装备拆分生成表!F$20*G7</f>
@@ -20532,11 +20570,11 @@
       </c>
       <c r="S66" s="51">
         <f>装备拆分生成表!$H$12*装备拆分生成表!D$20*E16</f>
-        <v>686.54140258785776</v>
+        <v>540.53485995605092</v>
       </c>
       <c r="T66" s="51">
         <f>装备拆分生成表!$H$12*装备拆分生成表!E$20*F16</f>
-        <v>1373.0828051757155</v>
+        <v>1081.0697199121018</v>
       </c>
       <c r="U66" s="51">
         <f>装备拆分生成表!$H$12*装备拆分生成表!F$20*G16</f>
@@ -20551,11 +20589,11 @@
       </c>
       <c r="Z66" s="51">
         <f>装备拆分生成表!$H$12*装备拆分生成表!D$20*E25</f>
-        <v>943.99442855830443</v>
+        <v>743.23543243956999</v>
       </c>
       <c r="AA66" s="51">
         <f>装备拆分生成表!$H$12*装备拆分生成表!E$20*F25</f>
-        <v>943.99442855830443</v>
+        <v>743.23543243956999</v>
       </c>
       <c r="AB66" s="51">
         <f>装备拆分生成表!$H$12*装备拆分生成表!F$20*G25</f>
@@ -20570,11 +20608,11 @@
       </c>
       <c r="AG66" s="51">
         <f>装备拆分生成表!$H$12*装备拆分生成表!D$20*E34</f>
-        <v>1029.8121038817865</v>
+        <v>810.80228993407627</v>
       </c>
       <c r="AH66" s="51">
         <f>装备拆分生成表!$H$12*装备拆分生成表!E$20*F34</f>
-        <v>1029.8121038817865</v>
+        <v>810.80228993407627</v>
       </c>
       <c r="AI66" s="51">
         <f>装备拆分生成表!$H$12*装备拆分生成表!F$20*G34</f>
@@ -20587,7 +20625,7 @@
       </c>
       <c r="K67" s="51">
         <f>装备拆分生成表!$H$12*装备拆分生成表!C$20*D8</f>
-        <v>5941.2236762410766</v>
+        <v>4760.7452464520002</v>
       </c>
       <c r="L67" s="51">
         <f>装备拆分生成表!$H$12*装备拆分生成表!D$20*E8</f>
@@ -20607,7 +20645,7 @@
       </c>
       <c r="R67" s="51">
         <f>装备拆分生成表!$H$12*装备拆分生成表!C$20*D17</f>
-        <v>5941.2236762410766</v>
+        <v>4760.7452464520002</v>
       </c>
       <c r="S67" s="51">
         <f>装备拆分生成表!$H$12*装备拆分生成表!D$20*E17</f>
@@ -20626,7 +20664,7 @@
       </c>
       <c r="Y67" s="51">
         <f>装备拆分生成表!$H$12*装备拆分生成表!C$20*D26</f>
-        <v>9505.9578819857234</v>
+        <v>7617.1923943232005</v>
       </c>
       <c r="Z67" s="51">
         <f>装备拆分生成表!$H$12*装备拆分生成表!D$20*E26</f>
@@ -20645,7 +20683,7 @@
       </c>
       <c r="AF67" s="51">
         <f>装备拆分生成表!$H$12*装备拆分生成表!C$20*D35</f>
-        <v>5941.2236762410766</v>
+        <v>4760.7452464520002</v>
       </c>
       <c r="AG67" s="51">
         <f>装备拆分生成表!$H$12*装备拆分生成表!D$20*E35</f>
@@ -20678,7 +20716,7 @@
       </c>
       <c r="N68" s="51">
         <f>装备拆分生成表!$H$12*装备拆分生成表!F$20*G9</f>
-        <v>1112.1349417486565</v>
+        <v>1269.0143120232576</v>
       </c>
       <c r="O68" s="48"/>
       <c r="Q68" s="41" t="s">
@@ -20698,7 +20736,7 @@
       </c>
       <c r="U68" s="51">
         <f>装备拆分生成表!$H$12*装备拆分生成表!F$20*G18</f>
-        <v>1112.1349417486565</v>
+        <v>1269.0143120232576</v>
       </c>
       <c r="X68" s="41" t="s">
         <v>132</v>
@@ -20717,7 +20755,7 @@
       </c>
       <c r="AB68" s="51">
         <f>装备拆分生成表!$H$12*装备拆分生成表!F$20*G27</f>
-        <v>1668.2024126229846</v>
+        <v>1903.5214680348861</v>
       </c>
       <c r="AE68" s="41" t="s">
         <v>132</v>
@@ -20736,7 +20774,7 @@
       </c>
       <c r="AI68" s="51">
         <f>装备拆分生成表!$H$12*装备拆分生成表!F$20*G36</f>
-        <v>1390.1686771858206</v>
+        <v>1586.2678900290719</v>
       </c>
     </row>
     <row r="69" spans="10:35" x14ac:dyDescent="0.15">
@@ -20749,7 +20787,7 @@
       </c>
       <c r="L69" s="51">
         <f>装备拆分生成表!$H$12*装备拆分生成表!D$20*E10</f>
-        <v>171.63535064696444</v>
+        <v>135.13371498901273</v>
       </c>
       <c r="M69" s="51">
         <f>装备拆分生成表!$H$12*装备拆分生成表!E$20*F10</f>
@@ -20757,7 +20795,7 @@
       </c>
       <c r="N69" s="51">
         <f>装备拆分生成表!$H$12*装备拆分生成表!F$20*G10</f>
-        <v>834.10120631149232</v>
+        <v>951.76073401744304</v>
       </c>
       <c r="O69" s="48"/>
       <c r="Q69" s="41" t="s">
@@ -20773,11 +20811,11 @@
       </c>
       <c r="T69" s="51">
         <f>装备拆分生成表!$H$12*装备拆分生成表!E$20*F19</f>
-        <v>171.63535064696444</v>
+        <v>135.13371498901273</v>
       </c>
       <c r="U69" s="51">
         <f>装备拆分生成表!$H$12*装备拆分生成表!F$20*G19</f>
-        <v>834.10120631149232</v>
+        <v>951.76073401744304</v>
       </c>
       <c r="X69" s="41" t="s">
         <v>131</v>
@@ -20796,7 +20834,7 @@
       </c>
       <c r="AB69" s="51">
         <f>装备拆分生成表!$H$12*装备拆分生成表!F$20*G28</f>
-        <v>1251.1518094672385</v>
+        <v>1427.6411010261647</v>
       </c>
       <c r="AE69" s="41" t="s">
         <v>131</v>
@@ -20815,7 +20853,7 @@
       </c>
       <c r="AI69" s="51">
         <f>装备拆分生成表!$H$12*装备拆分生成表!F$20*G37</f>
-        <v>834.10120631149232</v>
+        <v>951.76073401744304</v>
       </c>
     </row>
     <row r="70" spans="10:35" x14ac:dyDescent="0.15">
@@ -20824,7 +20862,7 @@
       </c>
       <c r="K70" s="51">
         <f>装备拆分生成表!$H$12*装备拆分生成表!C$20*D11</f>
-        <v>4752.9789409928617</v>
+        <v>3808.5961971616002</v>
       </c>
       <c r="L70" s="51">
         <f>装备拆分生成表!$H$12*装备拆分生成表!D$20*E11</f>
@@ -20832,7 +20870,7 @@
       </c>
       <c r="M70" s="51">
         <f>装备拆分生成表!$H$12*装备拆分生成表!E$20*F11</f>
-        <v>343.27070129392888</v>
+        <v>270.26742997802546</v>
       </c>
       <c r="N70" s="51">
         <f>装备拆分生成表!$H$12*装备拆分生成表!F$20*G11</f>
@@ -20844,11 +20882,11 @@
       </c>
       <c r="R70" s="51">
         <f>装备拆分生成表!$H$12*装备拆分生成表!C$20*D20</f>
-        <v>4752.9789409928617</v>
+        <v>3808.5961971616002</v>
       </c>
       <c r="S70" s="51">
         <f>装备拆分生成表!$H$12*装备拆分生成表!D$20*E20</f>
-        <v>343.27070129392888</v>
+        <v>270.26742997802546</v>
       </c>
       <c r="T70" s="51">
         <f>装备拆分生成表!$H$12*装备拆分生成表!E$20*F20</f>
@@ -20863,7 +20901,7 @@
       </c>
       <c r="Y70" s="51">
         <f>装备拆分生成表!$H$12*装备拆分生成表!C$20*D29</f>
-        <v>5941.2236762410766</v>
+        <v>4760.7452464520002</v>
       </c>
       <c r="Z70" s="51">
         <f>装备拆分生成表!$H$12*装备拆分生成表!D$20*E29</f>
@@ -20882,7 +20920,7 @@
       </c>
       <c r="AF70" s="51">
         <f>装备拆分生成表!$H$12*装备拆分生成表!C$20*D38</f>
-        <v>3564.7342057446458</v>
+        <v>2856.4471478711998</v>
       </c>
       <c r="AG70" s="51">
         <f>装备拆分生成表!$H$12*装备拆分生成表!D$20*E38</f>
@@ -20890,7 +20928,7 @@
       </c>
       <c r="AH70" s="51">
         <f>装备拆分生成表!$H$12*装备拆分生成表!E$20*F38</f>
-        <v>343.27070129392888</v>
+        <v>270.26742997802546</v>
       </c>
       <c r="AI70" s="51">
         <f>装备拆分生成表!$H$12*装备拆分生成表!F$20*G38</f>
@@ -20903,11 +20941,11 @@
       </c>
       <c r="K71" s="51">
         <f>装备拆分生成表!$H$12*装备拆分生成表!C$20*D12</f>
-        <v>1188.2447352482154</v>
+        <v>952.14904929040006</v>
       </c>
       <c r="L71" s="51">
         <f>装备拆分生成表!$H$12*装备拆分生成表!D$20*E12</f>
-        <v>686.54140258785776</v>
+        <v>540.53485995605092</v>
       </c>
       <c r="M71" s="51">
         <f>装备拆分生成表!$H$12*装备拆分生成表!E$20*F12</f>
@@ -20923,7 +20961,7 @@
       </c>
       <c r="R71" s="51">
         <f>装备拆分生成表!$H$12*装备拆分生成表!C$20*D21</f>
-        <v>1188.2447352482154</v>
+        <v>952.14904929040006</v>
       </c>
       <c r="S71" s="51">
         <f>装备拆分生成表!$H$12*装备拆分生成表!D$20*E21</f>
@@ -20931,7 +20969,7 @@
       </c>
       <c r="T71" s="51">
         <f>装备拆分生成表!$H$12*装备拆分生成表!E$20*F21</f>
-        <v>686.54140258785776</v>
+        <v>540.53485995605092</v>
       </c>
       <c r="U71" s="51">
         <f>装备拆分生成表!$H$12*装备拆分生成表!F$20*G21</f>
@@ -20942,7 +20980,7 @@
       </c>
       <c r="Y71" s="51">
         <f>装备拆分生成表!$H$12*装备拆分生成表!C$20*D30</f>
-        <v>2376.4894704964308</v>
+        <v>1904.2980985808001</v>
       </c>
       <c r="Z71" s="51">
         <f>装备拆分生成表!$H$12*装备拆分生成表!D$20*E30</f>
@@ -20954,14 +20992,14 @@
       </c>
       <c r="AB71" s="51">
         <f>装备拆分生成表!$H$12*装备拆分生成表!F$20*G30</f>
-        <v>278.03373543716413</v>
+        <v>317.2535780058144</v>
       </c>
       <c r="AE71" s="41" t="s">
         <v>129</v>
       </c>
       <c r="AF71" s="51">
         <f>装备拆分生成表!$H$12*装备拆分生成表!C$20*D39</f>
-        <v>2376.4894704964308</v>
+        <v>1904.2980985808001</v>
       </c>
       <c r="AG71" s="51">
         <f>装备拆分生成表!$H$12*装备拆分生成表!D$20*E39</f>
@@ -20973,7 +21011,7 @@
       </c>
       <c r="AI71" s="51">
         <f>装备拆分生成表!$H$12*装备拆分生成表!F$20*G39</f>
-        <v>834.10120631149232</v>
+        <v>951.76073401744304</v>
       </c>
     </row>
     <row r="72" spans="10:35" x14ac:dyDescent="0.15">
@@ -21176,7 +21214,7 @@
       <c r="O84" s="48"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -21264,11 +21302,11 @@
       </c>
       <c r="B5" s="48">
         <f>装备拆分分析表!L3</f>
-        <v>8.8000000000000007</v>
+        <v>6.9333333333333336</v>
       </c>
       <c r="C5" s="48">
         <f>装备拆分分析表!M3</f>
-        <v>4.4000000000000004</v>
+        <v>3.4666666666666668</v>
       </c>
       <c r="D5" s="48"/>
       <c r="E5" s="48">
@@ -21299,7 +21337,7 @@
       </c>
       <c r="F6" s="48">
         <f>装备拆分分析表!K4</f>
-        <v>38.055555555555557</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -21317,7 +21355,7 @@
       <c r="D7" s="48"/>
       <c r="E7" s="48">
         <f>装备拆分分析表!N5</f>
-        <v>7.1111111111111116</v>
+        <v>8.1333333333333329</v>
       </c>
       <c r="F7" s="48">
         <f>装备拆分分析表!K5</f>
@@ -21330,7 +21368,7 @@
       </c>
       <c r="B8" s="48">
         <f>装备拆分分析表!L6</f>
-        <v>1.1000000000000001</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C8" s="48">
         <f>装备拆分分析表!M6</f>
@@ -21339,7 +21377,7 @@
       <c r="D8" s="48"/>
       <c r="E8" s="48">
         <f>装备拆分分析表!N6</f>
-        <v>5.333333333333333</v>
+        <v>6.1</v>
       </c>
       <c r="F8" s="48">
         <f>装备拆分分析表!K6</f>
@@ -21356,7 +21394,7 @@
       </c>
       <c r="C9" s="48">
         <f>装备拆分分析表!M7</f>
-        <v>2.2000000000000002</v>
+        <v>1.7333333333333334</v>
       </c>
       <c r="D9" s="48"/>
       <c r="E9" s="48">
@@ -21365,7 +21403,7 @@
       </c>
       <c r="F9" s="48">
         <f>装备拆分分析表!K7</f>
-        <v>30.444444444444446</v>
+        <v>24.400000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -21374,7 +21412,7 @@
       </c>
       <c r="B10" s="48">
         <f>装备拆分分析表!L8</f>
-        <v>4.4000000000000004</v>
+        <v>3.4666666666666668</v>
       </c>
       <c r="C10" s="48">
         <f>装备拆分分析表!M8</f>
@@ -21387,7 +21425,7 @@
       </c>
       <c r="F10" s="48">
         <f>装备拆分分析表!K8</f>
-        <v>7.6111111111111116</v>
+        <v>6.1000000000000005</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -21396,11 +21434,11 @@
       </c>
       <c r="B11" s="48">
         <f>装备拆分分析表!L11</f>
-        <v>12.8</v>
+        <v>10.133333333333333</v>
       </c>
       <c r="C11" s="48">
         <f>装备拆分分析表!M11</f>
-        <v>6.4</v>
+        <v>5.0666666666666664</v>
       </c>
       <c r="D11" s="48"/>
       <c r="E11" s="48">
@@ -21431,7 +21469,7 @@
       </c>
       <c r="F12" s="48">
         <f>装备拆分分析表!K12</f>
-        <v>55.555555555555557</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -21449,7 +21487,7 @@
       <c r="D13" s="48"/>
       <c r="E13" s="48">
         <f>装备拆分分析表!N13</f>
-        <v>10.4</v>
+        <v>11.866666666666667</v>
       </c>
       <c r="F13" s="48">
         <f>装备拆分分析表!K13</f>
@@ -21462,7 +21500,7 @@
       </c>
       <c r="B14" s="48">
         <f>装备拆分分析表!L14</f>
-        <v>1.6</v>
+        <v>1.2666666666666666</v>
       </c>
       <c r="C14" s="48">
         <f>装备拆分分析表!M14</f>
@@ -21471,7 +21509,7 @@
       <c r="D14" s="48"/>
       <c r="E14" s="48">
         <f>装备拆分分析表!N14</f>
-        <v>7.8</v>
+        <v>8.9</v>
       </c>
       <c r="F14" s="48">
         <f>装备拆分分析表!K14</f>
@@ -21488,7 +21526,7 @@
       </c>
       <c r="C15" s="48">
         <f>装备拆分分析表!M15</f>
-        <v>3.2</v>
+        <v>2.5333333333333332</v>
       </c>
       <c r="D15" s="48"/>
       <c r="E15" s="48">
@@ -21497,7 +21535,7 @@
       </c>
       <c r="F15" s="48">
         <f>装备拆分分析表!K15</f>
-        <v>44.44444444444445</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -21506,7 +21544,7 @@
       </c>
       <c r="B16" s="48">
         <f>装备拆分分析表!L16</f>
-        <v>6.4</v>
+        <v>5.0666666666666664</v>
       </c>
       <c r="C16" s="48">
         <f>装备拆分分析表!M16</f>
@@ -21519,7 +21557,7 @@
       </c>
       <c r="F16" s="48">
         <f>装备拆分分析表!K16</f>
-        <v>11.111111111111112</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -21528,11 +21566,11 @@
       </c>
       <c r="B17" s="48">
         <f>装备拆分分析表!L19</f>
-        <v>19.37777777777778</v>
+        <v>15.200000000000001</v>
       </c>
       <c r="C17" s="48">
         <f>装备拆分分析表!M19</f>
-        <v>9.68888888888889</v>
+        <v>7.6000000000000005</v>
       </c>
       <c r="D17" s="48"/>
       <c r="E17" s="48">
@@ -21563,7 +21601,7 @@
       </c>
       <c r="F18" s="48">
         <f>装备拆分分析表!K20</f>
-        <v>83.666666666666671</v>
+        <v>67.055555555555557</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
@@ -21581,7 +21619,7 @@
       <c r="D19" s="48"/>
       <c r="E19" s="48">
         <f>装备拆分分析表!N21</f>
-        <v>15.644444444444446</v>
+        <v>17.866666666666667</v>
       </c>
       <c r="F19" s="48">
         <f>装备拆分分析表!K21</f>
@@ -21594,7 +21632,7 @@
       </c>
       <c r="B20" s="48">
         <f>装备拆分分析表!L22</f>
-        <v>2.4222222222222225</v>
+        <v>1.9000000000000001</v>
       </c>
       <c r="C20" s="48">
         <f>装备拆分分析表!M22</f>
@@ -21603,7 +21641,7 @@
       <c r="D20" s="48"/>
       <c r="E20" s="48">
         <f>装备拆分分析表!N22</f>
-        <v>11.733333333333334</v>
+        <v>13.399999999999999</v>
       </c>
       <c r="F20" s="48">
         <f>装备拆分分析表!K22</f>
@@ -21620,7 +21658,7 @@
       </c>
       <c r="C21" s="48">
         <f>装备拆分分析表!M23</f>
-        <v>4.844444444444445</v>
+        <v>3.8000000000000003</v>
       </c>
       <c r="D21" s="48"/>
       <c r="E21" s="48">
@@ -21629,7 +21667,7 @@
       </c>
       <c r="F21" s="48">
         <f>装备拆分分析表!K23</f>
-        <v>66.933333333333337</v>
+        <v>53.644444444444446</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
@@ -21638,7 +21676,7 @@
       </c>
       <c r="B22" s="48">
         <f>装备拆分分析表!L24</f>
-        <v>9.68888888888889</v>
+        <v>7.6000000000000005</v>
       </c>
       <c r="C22" s="48">
         <f>装备拆分分析表!M24</f>
@@ -21651,7 +21689,7 @@
       </c>
       <c r="F22" s="48">
         <f>装备拆分分析表!K24</f>
-        <v>16.733333333333334</v>
+        <v>13.411111111111111</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
@@ -21660,11 +21698,11 @@
       </c>
       <c r="B23" s="48">
         <f>装备拆分分析表!L27</f>
-        <v>41.955555555555556</v>
+        <v>32.977777777777781</v>
       </c>
       <c r="C23" s="48">
         <f>装备拆分分析表!M27</f>
-        <v>20.977777777777778</v>
+        <v>16.488888888888891</v>
       </c>
       <c r="D23" s="48"/>
       <c r="E23" s="48">
@@ -21695,7 +21733,7 @@
       </c>
       <c r="F24" s="48">
         <f>装备拆分分析表!K28</f>
-        <v>181.33333333333334</v>
+        <v>145.33333333333334</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
@@ -21713,7 +21751,7 @@
       <c r="D25" s="48"/>
       <c r="E25" s="48">
         <f>装备拆分分析表!N29</f>
-        <v>33.955555555555556</v>
+        <v>38.75555555555556</v>
       </c>
       <c r="F25" s="48">
         <f>装备拆分分析表!K29</f>
@@ -21726,7 +21764,7 @@
       </c>
       <c r="B26" s="48">
         <f>装备拆分分析表!L30</f>
-        <v>5.2444444444444445</v>
+        <v>4.1222222222222227</v>
       </c>
       <c r="C26" s="48">
         <f>装备拆分分析表!M30</f>
@@ -21735,7 +21773,7 @@
       <c r="D26" s="48"/>
       <c r="E26" s="48">
         <f>装备拆分分析表!N30</f>
-        <v>25.466666666666665</v>
+        <v>29.066666666666663</v>
       </c>
       <c r="F26" s="48">
         <f>装备拆分分析表!K30</f>
@@ -21752,7 +21790,7 @@
       </c>
       <c r="C27" s="48">
         <f>装备拆分分析表!M31</f>
-        <v>10.488888888888889</v>
+        <v>8.2444444444444454</v>
       </c>
       <c r="D27" s="48"/>
       <c r="E27" s="48">
@@ -21761,7 +21799,7 @@
       </c>
       <c r="F27" s="48">
         <f>装备拆分分析表!K31</f>
-        <v>145.06666666666669</v>
+        <v>116.26666666666668</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
@@ -21770,7 +21808,7 @@
       </c>
       <c r="B28" s="48">
         <f>装备拆分分析表!L32</f>
-        <v>20.977777777777778</v>
+        <v>16.488888888888891</v>
       </c>
       <c r="C28" s="48">
         <f>装备拆分分析表!M32</f>
@@ -21783,7 +21821,7 @@
       </c>
       <c r="F28" s="48">
         <f>装备拆分分析表!K32</f>
-        <v>36.266666666666673</v>
+        <v>29.06666666666667</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
@@ -21792,11 +21830,11 @@
       </c>
       <c r="B29" s="48">
         <f>装备拆分分析表!L35</f>
-        <v>62.933333333333337</v>
+        <v>49.511111111111113</v>
       </c>
       <c r="C29" s="48">
         <f>装备拆分分析表!M35</f>
-        <v>31.466666666666669</v>
+        <v>24.755555555555556</v>
       </c>
       <c r="D29" s="48"/>
       <c r="E29" s="48">
@@ -21827,7 +21865,7 @@
       </c>
       <c r="F30" s="48">
         <f>装备拆分分析表!K36</f>
-        <v>272.33333333333331</v>
+        <v>218.22222222222223</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
@@ -21845,7 +21883,7 @@
       <c r="D31" s="48"/>
       <c r="E31" s="48">
         <f>装备拆分分析表!N37</f>
-        <v>50.977777777777781</v>
+        <v>58.177777777777784</v>
       </c>
       <c r="F31" s="48">
         <f>装备拆分分析表!K37</f>
@@ -21858,7 +21896,7 @@
       </c>
       <c r="B32" s="48">
         <f>装备拆分分析表!L38</f>
-        <v>7.8666666666666671</v>
+        <v>6.1888888888888891</v>
       </c>
       <c r="C32" s="48">
         <f>装备拆分分析表!M38</f>
@@ -21867,7 +21905,7 @@
       <c r="D32" s="48"/>
       <c r="E32" s="48">
         <f>装备拆分分析表!N38</f>
-        <v>38.233333333333334</v>
+        <v>43.633333333333333</v>
       </c>
       <c r="F32" s="48">
         <f>装备拆分分析表!K38</f>
@@ -21884,7 +21922,7 @@
       </c>
       <c r="C33" s="48">
         <f>装备拆分分析表!M39</f>
-        <v>15.733333333333334</v>
+        <v>12.377777777777778</v>
       </c>
       <c r="D33" s="48"/>
       <c r="E33" s="48">
@@ -21893,7 +21931,7 @@
       </c>
       <c r="F33" s="48">
         <f>装备拆分分析表!K39</f>
-        <v>217.86666666666667</v>
+        <v>174.57777777777778</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
@@ -21902,7 +21940,7 @@
       </c>
       <c r="B34" s="48">
         <f>装备拆分分析表!L40</f>
-        <v>31.466666666666669</v>
+        <v>24.755555555555556</v>
       </c>
       <c r="C34" s="48">
         <f>装备拆分分析表!M40</f>
@@ -21915,7 +21953,7 @@
       </c>
       <c r="F34" s="48">
         <f>装备拆分分析表!K40</f>
-        <v>54.466666666666669</v>
+        <v>43.644444444444446</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
@@ -21925,11 +21963,11 @@
       </c>
       <c r="B35" s="48">
         <f>装备拆分分析表!S3</f>
-        <v>4.4000000000000004</v>
+        <v>3.4666666666666668</v>
       </c>
       <c r="C35" s="48">
         <f>装备拆分分析表!T3</f>
-        <v>8.8000000000000007</v>
+        <v>6.9333333333333336</v>
       </c>
       <c r="D35" s="48"/>
       <c r="E35" s="48">
@@ -21961,7 +21999,7 @@
       </c>
       <c r="F36" s="48">
         <f>装备拆分分析表!R4</f>
-        <v>38.055555555555557</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
@@ -21980,7 +22018,7 @@
       <c r="D37" s="48"/>
       <c r="E37" s="48">
         <f>装备拆分分析表!U5</f>
-        <v>7.1111111111111116</v>
+        <v>8.1333333333333329</v>
       </c>
       <c r="F37" s="48">
         <f>装备拆分分析表!R5</f>
@@ -21998,12 +22036,12 @@
       </c>
       <c r="C38" s="48">
         <f>装备拆分分析表!T6</f>
-        <v>1.1000000000000001</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="D38" s="48"/>
       <c r="E38" s="48">
         <f>装备拆分分析表!U6</f>
-        <v>5.333333333333333</v>
+        <v>6.1</v>
       </c>
       <c r="F38" s="48">
         <f>装备拆分分析表!R6</f>
@@ -22017,7 +22055,7 @@
       </c>
       <c r="B39" s="48">
         <f>装备拆分分析表!S7</f>
-        <v>2.2000000000000002</v>
+        <v>1.7333333333333334</v>
       </c>
       <c r="C39" s="48">
         <f>装备拆分分析表!T7</f>
@@ -22030,7 +22068,7 @@
       </c>
       <c r="F39" s="48">
         <f>装备拆分分析表!R7</f>
-        <v>30.444444444444446</v>
+        <v>24.400000000000002</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
@@ -22044,7 +22082,7 @@
       </c>
       <c r="C40" s="48">
         <f>装备拆分分析表!T8</f>
-        <v>4.4000000000000004</v>
+        <v>3.4666666666666668</v>
       </c>
       <c r="D40" s="48"/>
       <c r="E40" s="48">
@@ -22053,7 +22091,7 @@
       </c>
       <c r="F40" s="48">
         <f>装备拆分分析表!R8</f>
-        <v>7.6111111111111116</v>
+        <v>6.1000000000000005</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
@@ -22063,11 +22101,11 @@
       </c>
       <c r="B41" s="48">
         <f>装备拆分分析表!S11</f>
-        <v>6.4</v>
+        <v>5.0666666666666664</v>
       </c>
       <c r="C41" s="48">
         <f>装备拆分分析表!T11</f>
-        <v>12.8</v>
+        <v>10.133333333333333</v>
       </c>
       <c r="D41" s="48"/>
       <c r="E41" s="48">
@@ -22099,7 +22137,7 @@
       </c>
       <c r="F42" s="48">
         <f>装备拆分分析表!R12</f>
-        <v>55.555555555555557</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
@@ -22118,7 +22156,7 @@
       <c r="D43" s="48"/>
       <c r="E43" s="48">
         <f>装备拆分分析表!U13</f>
-        <v>10.4</v>
+        <v>11.866666666666667</v>
       </c>
       <c r="F43" s="48">
         <f>装备拆分分析表!R13</f>
@@ -22136,12 +22174,12 @@
       </c>
       <c r="C44" s="48">
         <f>装备拆分分析表!T14</f>
-        <v>1.6</v>
+        <v>1.2666666666666666</v>
       </c>
       <c r="D44" s="48"/>
       <c r="E44" s="48">
         <f>装备拆分分析表!U14</f>
-        <v>7.8</v>
+        <v>8.9</v>
       </c>
       <c r="F44" s="48">
         <f>装备拆分分析表!R14</f>
@@ -22155,7 +22193,7 @@
       </c>
       <c r="B45" s="48">
         <f>装备拆分分析表!S15</f>
-        <v>3.2</v>
+        <v>2.5333333333333332</v>
       </c>
       <c r="C45" s="48">
         <f>装备拆分分析表!T15</f>
@@ -22168,7 +22206,7 @@
       </c>
       <c r="F45" s="48">
         <f>装备拆分分析表!R15</f>
-        <v>44.44444444444445</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
@@ -22182,7 +22220,7 @@
       </c>
       <c r="C46" s="48">
         <f>装备拆分分析表!T16</f>
-        <v>6.4</v>
+        <v>5.0666666666666664</v>
       </c>
       <c r="D46" s="48"/>
       <c r="E46" s="48">
@@ -22191,7 +22229,7 @@
       </c>
       <c r="F46" s="48">
         <f>装备拆分分析表!R16</f>
-        <v>11.111111111111112</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
@@ -22201,11 +22239,11 @@
       </c>
       <c r="B47" s="48">
         <f>装备拆分分析表!S19</f>
-        <v>9.68888888888889</v>
+        <v>7.6000000000000005</v>
       </c>
       <c r="C47" s="48">
         <f>装备拆分分析表!T19</f>
-        <v>19.37777777777778</v>
+        <v>15.200000000000001</v>
       </c>
       <c r="D47" s="48"/>
       <c r="E47" s="48">
@@ -22237,7 +22275,7 @@
       </c>
       <c r="F48" s="48">
         <f>装备拆分分析表!R20</f>
-        <v>83.666666666666671</v>
+        <v>67.055555555555557</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
@@ -22256,7 +22294,7 @@
       <c r="D49" s="48"/>
       <c r="E49" s="48">
         <f>装备拆分分析表!U21</f>
-        <v>15.644444444444446</v>
+        <v>17.866666666666667</v>
       </c>
       <c r="F49" s="48">
         <f>装备拆分分析表!R21</f>
@@ -22274,12 +22312,12 @@
       </c>
       <c r="C50" s="48">
         <f>装备拆分分析表!T22</f>
-        <v>2.4222222222222225</v>
+        <v>1.9000000000000001</v>
       </c>
       <c r="D50" s="48"/>
       <c r="E50" s="48">
         <f>装备拆分分析表!U22</f>
-        <v>11.733333333333334</v>
+        <v>13.399999999999999</v>
       </c>
       <c r="F50" s="48">
         <f>装备拆分分析表!R22</f>
@@ -22293,7 +22331,7 @@
       </c>
       <c r="B51" s="48">
         <f>装备拆分分析表!S23</f>
-        <v>4.844444444444445</v>
+        <v>3.8000000000000003</v>
       </c>
       <c r="C51" s="48">
         <f>装备拆分分析表!T23</f>
@@ -22306,7 +22344,7 @@
       </c>
       <c r="F51" s="48">
         <f>装备拆分分析表!R23</f>
-        <v>66.933333333333337</v>
+        <v>53.644444444444446</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
@@ -22320,7 +22358,7 @@
       </c>
       <c r="C52" s="48">
         <f>装备拆分分析表!T24</f>
-        <v>9.68888888888889</v>
+        <v>7.6000000000000005</v>
       </c>
       <c r="D52" s="48"/>
       <c r="E52" s="48">
@@ -22329,7 +22367,7 @@
       </c>
       <c r="F52" s="48">
         <f>装备拆分分析表!R24</f>
-        <v>16.733333333333334</v>
+        <v>13.411111111111111</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
@@ -22339,11 +22377,11 @@
       </c>
       <c r="B53" s="48">
         <f>装备拆分分析表!S27</f>
-        <v>20.977777777777778</v>
+        <v>16.488888888888891</v>
       </c>
       <c r="C53" s="48">
         <f>装备拆分分析表!T27</f>
-        <v>41.955555555555556</v>
+        <v>32.977777777777781</v>
       </c>
       <c r="D53" s="48"/>
       <c r="E53" s="48">
@@ -22375,7 +22413,7 @@
       </c>
       <c r="F54" s="48">
         <f>装备拆分分析表!R28</f>
-        <v>181.33333333333334</v>
+        <v>145.33333333333334</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
@@ -22394,7 +22432,7 @@
       <c r="D55" s="48"/>
       <c r="E55" s="48">
         <f>装备拆分分析表!U29</f>
-        <v>33.955555555555556</v>
+        <v>38.75555555555556</v>
       </c>
       <c r="F55" s="48">
         <f>装备拆分分析表!R29</f>
@@ -22412,12 +22450,12 @@
       </c>
       <c r="C56" s="48">
         <f>装备拆分分析表!T30</f>
-        <v>5.2444444444444445</v>
+        <v>4.1222222222222227</v>
       </c>
       <c r="D56" s="48"/>
       <c r="E56" s="48">
         <f>装备拆分分析表!U30</f>
-        <v>25.466666666666665</v>
+        <v>29.066666666666663</v>
       </c>
       <c r="F56" s="48">
         <f>装备拆分分析表!R30</f>
@@ -22431,7 +22469,7 @@
       </c>
       <c r="B57" s="48">
         <f>装备拆分分析表!S31</f>
-        <v>10.488888888888889</v>
+        <v>8.2444444444444454</v>
       </c>
       <c r="C57" s="48">
         <f>装备拆分分析表!T31</f>
@@ -22444,7 +22482,7 @@
       </c>
       <c r="F57" s="48">
         <f>装备拆分分析表!R31</f>
-        <v>145.06666666666669</v>
+        <v>116.26666666666668</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
@@ -22458,7 +22496,7 @@
       </c>
       <c r="C58" s="48">
         <f>装备拆分分析表!T32</f>
-        <v>20.977777777777778</v>
+        <v>16.488888888888891</v>
       </c>
       <c r="D58" s="48"/>
       <c r="E58" s="48">
@@ -22467,7 +22505,7 @@
       </c>
       <c r="F58" s="48">
         <f>装备拆分分析表!R32</f>
-        <v>36.266666666666673</v>
+        <v>29.06666666666667</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
@@ -22477,11 +22515,11 @@
       </c>
       <c r="B59" s="48">
         <f>装备拆分分析表!S35</f>
-        <v>31.466666666666669</v>
+        <v>24.755555555555556</v>
       </c>
       <c r="C59" s="48">
         <f>装备拆分分析表!T35</f>
-        <v>62.933333333333337</v>
+        <v>49.511111111111113</v>
       </c>
       <c r="D59" s="48"/>
       <c r="E59" s="48">
@@ -22513,7 +22551,7 @@
       </c>
       <c r="F60" s="48">
         <f>装备拆分分析表!R36</f>
-        <v>272.33333333333331</v>
+        <v>218.22222222222223</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
@@ -22532,7 +22570,7 @@
       <c r="D61" s="48"/>
       <c r="E61" s="48">
         <f>装备拆分分析表!U37</f>
-        <v>50.977777777777781</v>
+        <v>58.177777777777784</v>
       </c>
       <c r="F61" s="48">
         <f>装备拆分分析表!R37</f>
@@ -22550,12 +22588,12 @@
       </c>
       <c r="C62" s="48">
         <f>装备拆分分析表!T38</f>
-        <v>7.8666666666666671</v>
+        <v>6.1888888888888891</v>
       </c>
       <c r="D62" s="48"/>
       <c r="E62" s="48">
         <f>装备拆分分析表!U38</f>
-        <v>38.233333333333334</v>
+        <v>43.633333333333333</v>
       </c>
       <c r="F62" s="48">
         <f>装备拆分分析表!R38</f>
@@ -22569,7 +22607,7 @@
       </c>
       <c r="B63" s="48">
         <f>装备拆分分析表!S39</f>
-        <v>15.733333333333334</v>
+        <v>12.377777777777778</v>
       </c>
       <c r="C63" s="48">
         <f>装备拆分分析表!T39</f>
@@ -22582,7 +22620,7 @@
       </c>
       <c r="F63" s="48">
         <f>装备拆分分析表!R39</f>
-        <v>217.86666666666667</v>
+        <v>174.57777777777778</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
@@ -22596,7 +22634,7 @@
       </c>
       <c r="C64" s="48">
         <f>装备拆分分析表!T40</f>
-        <v>31.466666666666669</v>
+        <v>24.755555555555556</v>
       </c>
       <c r="D64" s="48"/>
       <c r="E64" s="48">
@@ -22605,7 +22643,7 @@
       </c>
       <c r="F64" s="48">
         <f>装备拆分分析表!R40</f>
-        <v>54.466666666666669</v>
+        <v>43.644444444444446</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
@@ -22615,11 +22653,11 @@
       </c>
       <c r="B65" s="48">
         <f>装备拆分分析表!Z3</f>
-        <v>6.0500000000000007</v>
+        <v>4.7666666666666666</v>
       </c>
       <c r="C65" s="48">
         <f>装备拆分分析表!AA3</f>
-        <v>6.0500000000000007</v>
+        <v>4.7666666666666666</v>
       </c>
       <c r="D65" s="48"/>
       <c r="E65" s="48">
@@ -22651,7 +22689,7 @@
       </c>
       <c r="F66" s="48">
         <f>装备拆分分析表!Y4</f>
-        <v>60.888888888888893</v>
+        <v>48.800000000000004</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
@@ -22670,7 +22708,7 @@
       <c r="D67" s="48"/>
       <c r="E67" s="48">
         <f>装备拆分分析表!AB5</f>
-        <v>10.666666666666666</v>
+        <v>12.2</v>
       </c>
       <c r="F67" s="48">
         <f>装备拆分分析表!Y5</f>
@@ -22693,7 +22731,7 @@
       <c r="D68" s="48"/>
       <c r="E68" s="48">
         <f>装备拆分分析表!AB6</f>
-        <v>8</v>
+        <v>9.15</v>
       </c>
       <c r="F68" s="48">
         <f>装备拆分分析表!Y6</f>
@@ -22720,7 +22758,7 @@
       </c>
       <c r="F69" s="48">
         <f>装备拆分分析表!Y7</f>
-        <v>38.055555555555557</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
@@ -22739,11 +22777,11 @@
       <c r="D70" s="48"/>
       <c r="E70" s="48">
         <f>装备拆分分析表!AB8</f>
-        <v>1.7777777777777779</v>
+        <v>2.0333333333333332</v>
       </c>
       <c r="F70" s="48">
         <f>装备拆分分析表!Y8</f>
-        <v>15.222222222222223</v>
+        <v>12.200000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
@@ -22753,11 +22791,11 @@
       </c>
       <c r="B71" s="48">
         <f>装备拆分分析表!Z11</f>
-        <v>8.8000000000000007</v>
+        <v>6.9666666666666668</v>
       </c>
       <c r="C71" s="48">
         <f>装备拆分分析表!AA11</f>
-        <v>8.8000000000000007</v>
+        <v>6.9666666666666668</v>
       </c>
       <c r="D71" s="48"/>
       <c r="E71" s="48">
@@ -22789,7 +22827,7 @@
       </c>
       <c r="F72" s="48">
         <f>装备拆分分析表!Y12</f>
-        <v>88.8888888888889</v>
+        <v>71.2</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
@@ -22808,7 +22846,7 @@
       <c r="D73" s="48"/>
       <c r="E73" s="48">
         <f>装备拆分分析表!AB13</f>
-        <v>15.6</v>
+        <v>17.8</v>
       </c>
       <c r="F73" s="48">
         <f>装备拆分分析表!Y13</f>
@@ -22831,7 +22869,7 @@
       <c r="D74" s="48"/>
       <c r="E74" s="48">
         <f>装备拆分分析表!AB14</f>
-        <v>11.700000000000001</v>
+        <v>13.350000000000001</v>
       </c>
       <c r="F74" s="48">
         <f>装备拆分分析表!Y14</f>
@@ -22858,7 +22896,7 @@
       </c>
       <c r="F75" s="48">
         <f>装备拆分分析表!Y15</f>
-        <v>55.555555555555557</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
@@ -22877,11 +22915,11 @@
       <c r="D76" s="48"/>
       <c r="E76" s="48">
         <f>装备拆分分析表!AB16</f>
-        <v>2.6</v>
+        <v>2.9666666666666668</v>
       </c>
       <c r="F76" s="48">
         <f>装备拆分分析表!Y16</f>
-        <v>22.222222222222225</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
@@ -22891,11 +22929,11 @@
       </c>
       <c r="B77" s="48">
         <f>装备拆分分析表!Z19</f>
-        <v>13.322222222222223</v>
+        <v>10.450000000000001</v>
       </c>
       <c r="C77" s="48">
         <f>装备拆分分析表!AA19</f>
-        <v>13.322222222222223</v>
+        <v>10.450000000000001</v>
       </c>
       <c r="D77" s="48"/>
       <c r="E77" s="48">
@@ -22927,7 +22965,7 @@
       </c>
       <c r="F78" s="48">
         <f>装备拆分分析表!Y20</f>
-        <v>133.86666666666667</v>
+        <v>107.28888888888889</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
@@ -22946,7 +22984,7 @@
       <c r="D79" s="48"/>
       <c r="E79" s="48">
         <f>装备拆分分析表!AB21</f>
-        <v>23.466666666666669</v>
+        <v>26.799999999999997</v>
       </c>
       <c r="F79" s="48">
         <f>装备拆分分析表!Y21</f>
@@ -22969,7 +23007,7 @@
       <c r="D80" s="48"/>
       <c r="E80" s="48">
         <f>装备拆分分析表!AB22</f>
-        <v>17.600000000000001</v>
+        <v>20.099999999999998</v>
       </c>
       <c r="F80" s="48">
         <f>装备拆分分析表!Y22</f>
@@ -22996,7 +23034,7 @@
       </c>
       <c r="F81" s="48">
         <f>装备拆分分析表!Y23</f>
-        <v>83.666666666666671</v>
+        <v>67.055555555555557</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
@@ -23015,11 +23053,11 @@
       <c r="D82" s="48"/>
       <c r="E82" s="48">
         <f>装备拆分分析表!AB24</f>
-        <v>3.9111111111111114</v>
+        <v>4.4666666666666668</v>
       </c>
       <c r="F82" s="48">
         <f>装备拆分分析表!Y24</f>
-        <v>33.466666666666669</v>
+        <v>26.822222222222223</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
@@ -23029,11 +23067,11 @@
       </c>
       <c r="B83" s="48">
         <f>装备拆分分析表!Z27</f>
-        <v>28.844444444444445</v>
+        <v>22.672222222222224</v>
       </c>
       <c r="C83" s="48">
         <f>装备拆分分析表!AA27</f>
-        <v>28.844444444444445</v>
+        <v>22.672222222222224</v>
       </c>
       <c r="D83" s="48"/>
       <c r="E83" s="48">
@@ -23065,7 +23103,7 @@
       </c>
       <c r="F84" s="48">
         <f>装备拆分分析表!Y28</f>
-        <v>290.13333333333338</v>
+        <v>232.53333333333336</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
@@ -23084,7 +23122,7 @@
       <c r="D85" s="48"/>
       <c r="E85" s="48">
         <f>装备拆分分析表!AB29</f>
-        <v>50.93333333333333</v>
+        <v>58.133333333333326</v>
       </c>
       <c r="F85" s="48">
         <f>装备拆分分析表!Y29</f>
@@ -23107,7 +23145,7 @@
       <c r="D86" s="48"/>
       <c r="E86" s="48">
         <f>装备拆分分析表!AB30</f>
-        <v>38.200000000000003</v>
+        <v>43.6</v>
       </c>
       <c r="F86" s="48">
         <f>装备拆分分析表!Y30</f>
@@ -23134,7 +23172,7 @@
       </c>
       <c r="F87" s="48">
         <f>装备拆分分析表!Y31</f>
-        <v>181.33333333333334</v>
+        <v>145.33333333333334</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
@@ -23153,11 +23191,11 @@
       <c r="D88" s="48"/>
       <c r="E88" s="48">
         <f>装备拆分分析表!AB32</f>
-        <v>8.4888888888888889</v>
+        <v>9.68888888888889</v>
       </c>
       <c r="F88" s="48">
         <f>装备拆分分析表!Y32</f>
-        <v>72.533333333333346</v>
+        <v>58.13333333333334</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
@@ -23167,11 +23205,11 @@
       </c>
       <c r="B89" s="48">
         <f>装备拆分分析表!Z35</f>
-        <v>43.266666666666673</v>
+        <v>34.038888888888891</v>
       </c>
       <c r="C89" s="48">
         <f>装备拆分分析表!AA35</f>
-        <v>43.266666666666673</v>
+        <v>34.038888888888891</v>
       </c>
       <c r="D89" s="48"/>
       <c r="E89" s="48">
@@ -23203,7 +23241,7 @@
       </c>
       <c r="F90" s="48">
         <f>装备拆分分析表!Y36</f>
-        <v>435.73333333333335</v>
+        <v>349.15555555555557</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
@@ -23222,7 +23260,7 @@
       <c r="D91" s="48"/>
       <c r="E91" s="48">
         <f>装备拆分分析表!AB37</f>
-        <v>76.466666666666669</v>
+        <v>87.266666666666666</v>
       </c>
       <c r="F91" s="48">
         <f>装备拆分分析表!Y37</f>
@@ -23245,7 +23283,7 @@
       <c r="D92" s="48"/>
       <c r="E92" s="48">
         <f>装备拆分分析表!AB38</f>
-        <v>57.35</v>
+        <v>65.45</v>
       </c>
       <c r="F92" s="48">
         <f>装备拆分分析表!Y38</f>
@@ -23272,7 +23310,7 @@
       </c>
       <c r="F93" s="48">
         <f>装备拆分分析表!Y39</f>
-        <v>272.33333333333331</v>
+        <v>218.22222222222223</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
@@ -23291,11 +23329,11 @@
       <c r="D94" s="48"/>
       <c r="E94" s="48">
         <f>装备拆分分析表!AB40</f>
-        <v>12.744444444444445</v>
+        <v>14.544444444444446</v>
       </c>
       <c r="F94" s="48">
         <f>装备拆分分析表!Y40</f>
-        <v>108.93333333333334</v>
+        <v>87.288888888888891</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
@@ -23305,11 +23343,11 @@
       </c>
       <c r="B95" s="48">
         <f>装备拆分分析表!AG3</f>
-        <v>6.6</v>
+        <v>5.1999999999999993</v>
       </c>
       <c r="C95" s="48">
         <f>装备拆分分析表!AH3</f>
-        <v>6.6</v>
+        <v>5.1999999999999993</v>
       </c>
       <c r="D95" s="48"/>
       <c r="E95" s="48">
@@ -23341,7 +23379,7 @@
       </c>
       <c r="F96" s="48">
         <f>装备拆分分析表!AF4</f>
-        <v>38.055555555555557</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
@@ -23360,7 +23398,7 @@
       <c r="D97" s="48"/>
       <c r="E97" s="48">
         <f>装备拆分分析表!AI5</f>
-        <v>8.8888888888888893</v>
+        <v>10.166666666666666</v>
       </c>
       <c r="F97" s="48">
         <f>装备拆分分析表!AF5</f>
@@ -23383,7 +23421,7 @@
       <c r="D98" s="48"/>
       <c r="E98" s="48">
         <f>装备拆分分析表!AI6</f>
-        <v>5.333333333333333</v>
+        <v>6.1</v>
       </c>
       <c r="F98" s="48">
         <f>装备拆分分析表!AF6</f>
@@ -23401,7 +23439,7 @@
       </c>
       <c r="C99" s="48">
         <f>装备拆分分析表!AH7</f>
-        <v>2.2000000000000002</v>
+        <v>1.7333333333333334</v>
       </c>
       <c r="D99" s="48"/>
       <c r="E99" s="48">
@@ -23410,7 +23448,7 @@
       </c>
       <c r="F99" s="48">
         <f>装备拆分分析表!AF7</f>
-        <v>22.833333333333332</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.15">
@@ -23429,11 +23467,11 @@
       <c r="D100" s="48"/>
       <c r="E100" s="48">
         <f>装备拆分分析表!AI8</f>
-        <v>5.333333333333333</v>
+        <v>6.1</v>
       </c>
       <c r="F100" s="48">
         <f>装备拆分分析表!AF8</f>
-        <v>15.222222222222223</v>
+        <v>12.200000000000001</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.15">
@@ -23443,11 +23481,11 @@
       </c>
       <c r="B101" s="48">
         <f>装备拆分分析表!AG11</f>
-        <v>9.6</v>
+        <v>7.6</v>
       </c>
       <c r="C101" s="48">
         <f>装备拆分分析表!AH11</f>
-        <v>9.6</v>
+        <v>7.6</v>
       </c>
       <c r="D101" s="48"/>
       <c r="E101" s="48">
@@ -23479,7 +23517,7 @@
       </c>
       <c r="F102" s="48">
         <f>装备拆分分析表!AF12</f>
-        <v>55.555555555555557</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.15">
@@ -23498,7 +23536,7 @@
       <c r="D103" s="48"/>
       <c r="E103" s="48">
         <f>装备拆分分析表!AI13</f>
-        <v>13</v>
+        <v>14.833333333333334</v>
       </c>
       <c r="F103" s="48">
         <f>装备拆分分析表!AF13</f>
@@ -23521,7 +23559,7 @@
       <c r="D104" s="48"/>
       <c r="E104" s="48">
         <f>装备拆分分析表!AI14</f>
-        <v>7.8</v>
+        <v>8.9</v>
       </c>
       <c r="F104" s="48">
         <f>装备拆分分析表!AF14</f>
@@ -23539,7 +23577,7 @@
       </c>
       <c r="C105" s="48">
         <f>装备拆分分析表!AH15</f>
-        <v>3.2</v>
+        <v>2.5333333333333332</v>
       </c>
       <c r="D105" s="48"/>
       <c r="E105" s="48">
@@ -23548,7 +23586,7 @@
       </c>
       <c r="F105" s="48">
         <f>装备拆分分析表!AF15</f>
-        <v>33.333333333333336</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.15">
@@ -23567,11 +23605,11 @@
       <c r="D106" s="48"/>
       <c r="E106" s="48">
         <f>装备拆分分析表!AI16</f>
-        <v>7.8</v>
+        <v>8.9</v>
       </c>
       <c r="F106" s="48">
         <f>装备拆分分析表!AF16</f>
-        <v>22.222222222222225</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.15">
@@ -23581,11 +23619,11 @@
       </c>
       <c r="B107" s="48">
         <f>装备拆分分析表!AG19</f>
-        <v>14.533333333333331</v>
+        <v>11.4</v>
       </c>
       <c r="C107" s="48">
         <f>装备拆分分析表!AH19</f>
-        <v>14.533333333333331</v>
+        <v>11.4</v>
       </c>
       <c r="D107" s="48"/>
       <c r="E107" s="48">
@@ -23617,7 +23655,7 @@
       </c>
       <c r="F108" s="48">
         <f>装备拆分分析表!AF20</f>
-        <v>83.666666666666671</v>
+        <v>67.055555555555557</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.15">
@@ -23636,7 +23674,7 @@
       <c r="D109" s="48"/>
       <c r="E109" s="48">
         <f>装备拆分分析表!AI21</f>
-        <v>19.555555555555557</v>
+        <v>22.333333333333332</v>
       </c>
       <c r="F109" s="48">
         <f>装备拆分分析表!AF21</f>
@@ -23659,7 +23697,7 @@
       <c r="D110" s="48"/>
       <c r="E110" s="48">
         <f>装备拆分分析表!AI22</f>
-        <v>11.733333333333334</v>
+        <v>13.399999999999999</v>
       </c>
       <c r="F110" s="48">
         <f>装备拆分分析表!AF22</f>
@@ -23677,7 +23715,7 @@
       </c>
       <c r="C111" s="48">
         <f>装备拆分分析表!AH23</f>
-        <v>4.844444444444445</v>
+        <v>3.8000000000000003</v>
       </c>
       <c r="D111" s="48"/>
       <c r="E111" s="48">
@@ -23686,7 +23724,7 @@
       </c>
       <c r="F111" s="48">
         <f>装备拆分分析表!AF23</f>
-        <v>50.2</v>
+        <v>40.233333333333334</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.15">
@@ -23705,11 +23743,11 @@
       <c r="D112" s="48"/>
       <c r="E112" s="48">
         <f>装备拆分分析表!AI24</f>
-        <v>11.733333333333334</v>
+        <v>13.399999999999999</v>
       </c>
       <c r="F112" s="48">
         <f>装备拆分分析表!AF24</f>
-        <v>33.466666666666669</v>
+        <v>26.822222222222223</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.15">
@@ -23719,11 +23757,11 @@
       </c>
       <c r="B113" s="48">
         <f>装备拆分分析表!AG27</f>
-        <v>31.466666666666665</v>
+        <v>24.733333333333331</v>
       </c>
       <c r="C113" s="48">
         <f>装备拆分分析表!AH27</f>
-        <v>31.466666666666665</v>
+        <v>24.733333333333331</v>
       </c>
       <c r="D113" s="48"/>
       <c r="E113" s="48">
@@ -23755,7 +23793,7 @@
       </c>
       <c r="F114" s="48">
         <f>装备拆分分析表!AF28</f>
-        <v>181.33333333333334</v>
+        <v>145.33333333333334</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.15">
@@ -23774,7 +23812,7 @@
       <c r="D115" s="48"/>
       <c r="E115" s="48">
         <f>装备拆分分析表!AI29</f>
-        <v>42.444444444444443</v>
+        <v>48.444444444444443</v>
       </c>
       <c r="F115" s="48">
         <f>装备拆分分析表!AF29</f>
@@ -23797,7 +23835,7 @@
       <c r="D116" s="48"/>
       <c r="E116" s="48">
         <f>装备拆分分析表!AI30</f>
-        <v>25.466666666666665</v>
+        <v>29.066666666666663</v>
       </c>
       <c r="F116" s="48">
         <f>装备拆分分析表!AF30</f>
@@ -23815,7 +23853,7 @@
       </c>
       <c r="C117" s="48">
         <f>装备拆分分析表!AH31</f>
-        <v>10.488888888888889</v>
+        <v>8.2444444444444454</v>
       </c>
       <c r="D117" s="48"/>
       <c r="E117" s="48">
@@ -23824,7 +23862,7 @@
       </c>
       <c r="F117" s="48">
         <f>装备拆分分析表!AF31</f>
-        <v>108.8</v>
+        <v>87.2</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.15">
@@ -23843,11 +23881,11 @@
       <c r="D118" s="48"/>
       <c r="E118" s="48">
         <f>装备拆分分析表!AI32</f>
-        <v>25.466666666666665</v>
+        <v>29.066666666666663</v>
       </c>
       <c r="F118" s="48">
         <f>装备拆分分析表!AF32</f>
-        <v>72.533333333333346</v>
+        <v>58.13333333333334</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.15">
@@ -23857,11 +23895,11 @@
       </c>
       <c r="B119" s="48">
         <f>装备拆分分析表!AG35</f>
-        <v>47.2</v>
+        <v>37.133333333333333</v>
       </c>
       <c r="C119" s="48">
         <f>装备拆分分析表!AH35</f>
-        <v>47.2</v>
+        <v>37.133333333333333</v>
       </c>
       <c r="D119" s="48"/>
       <c r="E119" s="48">
@@ -23893,7 +23931,7 @@
       </c>
       <c r="F120" s="48">
         <f>装备拆分分析表!AF36</f>
-        <v>272.33333333333331</v>
+        <v>218.22222222222223</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.15">
@@ -23912,7 +23950,7 @@
       <c r="D121" s="48"/>
       <c r="E121" s="48">
         <f>装备拆分分析表!AI37</f>
-        <v>63.722222222222221</v>
+        <v>72.722222222222229</v>
       </c>
       <c r="F121" s="48">
         <f>装备拆分分析表!AF37</f>
@@ -23935,7 +23973,7 @@
       <c r="D122" s="48"/>
       <c r="E122" s="48">
         <f>装备拆分分析表!AI38</f>
-        <v>38.233333333333334</v>
+        <v>43.633333333333333</v>
       </c>
       <c r="F122" s="48">
         <f>装备拆分分析表!AF38</f>
@@ -23953,7 +23991,7 @@
       </c>
       <c r="C123" s="48">
         <f>装备拆分分析表!AH39</f>
-        <v>15.733333333333334</v>
+        <v>12.377777777777778</v>
       </c>
       <c r="D123" s="48"/>
       <c r="E123" s="48">
@@ -23962,7 +24000,7 @@
       </c>
       <c r="F123" s="48">
         <f>装备拆分分析表!AF39</f>
-        <v>163.39999999999998</v>
+        <v>130.93333333333334</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.15">
@@ -23981,11 +24019,11 @@
       <c r="D124" s="48"/>
       <c r="E124" s="48">
         <f>装备拆分分析表!AI40</f>
-        <v>38.233333333333334</v>
+        <v>43.633333333333333</v>
       </c>
       <c r="F124" s="48">
         <f>装备拆分分析表!AF40</f>
-        <v>108.93333333333334</v>
+        <v>87.288888888888891</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.15">
@@ -23994,11 +24032,11 @@
       </c>
       <c r="B125" s="48">
         <f>装备拆分分析表!L42</f>
-        <v>176.8</v>
+        <v>139.20000000000002</v>
       </c>
       <c r="C125" s="48">
         <f>装备拆分分析表!M42</f>
-        <v>88.4</v>
+        <v>69.600000000000009</v>
       </c>
       <c r="D125" s="48"/>
       <c r="E125" s="48">
@@ -24029,7 +24067,7 @@
       </c>
       <c r="F126" s="48">
         <f>装备拆分分析表!K43</f>
-        <v>765</v>
+        <v>613</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.15">
@@ -24047,7 +24085,7 @@
       <c r="D127" s="48"/>
       <c r="E127" s="48">
         <f>装备拆分分析表!N44</f>
-        <v>143.20000000000002</v>
+        <v>163.4</v>
       </c>
       <c r="F127" s="48">
         <f>装备拆分分析表!K44</f>
@@ -24060,7 +24098,7 @@
       </c>
       <c r="B128" s="48">
         <f>装备拆分分析表!L45</f>
-        <v>22.1</v>
+        <v>17.400000000000002</v>
       </c>
       <c r="C128" s="48">
         <f>装备拆分分析表!M45</f>
@@ -24069,7 +24107,7 @@
       <c r="D128" s="48"/>
       <c r="E128" s="48">
         <f>装备拆分分析表!N45</f>
-        <v>107.39999999999999</v>
+        <v>122.55</v>
       </c>
       <c r="F128" s="48">
         <f>装备拆分分析表!K45</f>
@@ -24086,7 +24124,7 @@
       </c>
       <c r="C129" s="48">
         <f>装备拆分分析表!M46</f>
-        <v>44.2</v>
+        <v>34.800000000000004</v>
       </c>
       <c r="D129" s="48"/>
       <c r="E129" s="48">
@@ -24095,7 +24133,7 @@
       </c>
       <c r="F129" s="48">
         <f>装备拆分分析表!K46</f>
-        <v>612</v>
+        <v>490.40000000000003</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.15">
@@ -24104,7 +24142,7 @@
       </c>
       <c r="B130" s="48">
         <f>装备拆分分析表!L47</f>
-        <v>88.4</v>
+        <v>69.600000000000009</v>
       </c>
       <c r="C130" s="48">
         <f>装备拆分分析表!M47</f>
@@ -24117,7 +24155,7 @@
       </c>
       <c r="F130" s="48">
         <f>装备拆分分析表!K47</f>
-        <v>153</v>
+        <v>122.60000000000001</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.15">
@@ -24126,11 +24164,11 @@
       </c>
       <c r="B131" s="48">
         <f>装备拆分分析表!L48</f>
-        <v>271.32930240000002</v>
+        <v>213.62578560000003</v>
       </c>
       <c r="C131" s="48">
         <f>装备拆分分析表!M48</f>
-        <v>135.66465120000001</v>
+        <v>106.81289280000001</v>
       </c>
       <c r="D131" s="48"/>
       <c r="E131" s="48">
@@ -24161,7 +24199,7 @@
       </c>
       <c r="F132" s="48">
         <f>装备拆分分析表!K49</f>
-        <v>1174.0210200000001</v>
+        <v>940.75148400000012</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.15">
@@ -24179,7 +24217,7 @@
       <c r="D133" s="48"/>
       <c r="E133" s="48">
         <f>装备拆分分析表!N50</f>
-        <v>219.76445760000001</v>
+        <v>250.76475120000006</v>
       </c>
       <c r="F133" s="48">
         <f>装备拆分分析表!K50</f>
@@ -24192,7 +24230,7 @@
       </c>
       <c r="B134" s="48">
         <f>装备拆分分析表!L51</f>
-        <v>33.916162800000002</v>
+        <v>26.703223200000004</v>
       </c>
       <c r="C134" s="48">
         <f>装备拆分分析表!M51</f>
@@ -24201,7 +24239,7 @@
       <c r="D134" s="48"/>
       <c r="E134" s="48">
         <f>装备拆分分析表!N51</f>
-        <v>164.82334320000001</v>
+        <v>188.07356340000004</v>
       </c>
       <c r="F134" s="48">
         <f>装备拆分分析表!K51</f>
@@ -24218,7 +24256,7 @@
       </c>
       <c r="C135" s="48">
         <f>装备拆分分析表!M52</f>
-        <v>67.832325600000004</v>
+        <v>53.406446400000007</v>
       </c>
       <c r="D135" s="48"/>
       <c r="E135" s="48">
@@ -24227,7 +24265,7 @@
       </c>
       <c r="F135" s="48">
         <f>装备拆分分析表!K52</f>
-        <v>939.21681600000011</v>
+        <v>752.60118720000014</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.15">
@@ -24236,7 +24274,7 @@
       </c>
       <c r="B136" s="48">
         <f>装备拆分分析表!L53</f>
-        <v>135.66465120000001</v>
+        <v>106.81289280000001</v>
       </c>
       <c r="C136" s="48">
         <f>装备拆分分析表!M53</f>
@@ -24249,7 +24287,7 @@
       </c>
       <c r="F136" s="48">
         <f>装备拆分分析表!K53</f>
-        <v>234.80420400000003</v>
+        <v>188.15029680000004</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.15">
@@ -24258,11 +24296,11 @@
       </c>
       <c r="B137" s="48">
         <f>装备拆分分析表!L54</f>
-        <v>425.59667138560008</v>
+        <v>335.08516208640009</v>
       </c>
       <c r="C137" s="48">
         <f>装备拆分分析表!M54</f>
-        <v>212.79833569280004</v>
+        <v>167.54258104320004</v>
       </c>
       <c r="D137" s="48"/>
       <c r="E137" s="48">
@@ -24293,7 +24331,7 @@
       </c>
       <c r="F138" s="48">
         <f>装备拆分分析表!K55</f>
-        <v>1841.5240588800004</v>
+        <v>1475.6264680960003</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.15">
@@ -24311,7 +24349,7 @@
       <c r="D139" s="48"/>
       <c r="E139" s="48">
         <f>装备拆分分析表!N56</f>
-        <v>344.71404605440011</v>
+        <v>393.3399100928001</v>
       </c>
       <c r="F139" s="48">
         <f>装备拆分分析表!K56</f>
@@ -24324,7 +24362,7 @@
       </c>
       <c r="B140" s="48">
         <f>装备拆分分析表!L57</f>
-        <v>53.199583923200009</v>
+        <v>41.885645260800011</v>
       </c>
       <c r="C140" s="48">
         <f>装备拆分分析表!M57</f>
@@ -24333,7 +24371,7 @@
       <c r="D140" s="48"/>
       <c r="E140" s="48">
         <f>装备拆分分析表!N57</f>
-        <v>258.53553454080003</v>
+        <v>295.00493256960004</v>
       </c>
       <c r="F140" s="48">
         <f>装备拆分分析表!K57</f>
@@ -24350,7 +24388,7 @@
       </c>
       <c r="C141" s="48">
         <f>装备拆分分析表!M58</f>
-        <v>106.39916784640002</v>
+        <v>83.771290521600022</v>
       </c>
       <c r="D141" s="48"/>
       <c r="E141" s="48">
@@ -24359,7 +24397,7 @@
       </c>
       <c r="F141" s="48">
         <f>装备拆分分析表!K58</f>
-        <v>1473.2192471040005</v>
+        <v>1180.5011744768003</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.15">
@@ -24368,7 +24406,7 @@
       </c>
       <c r="B142" s="48">
         <f>装备拆分分析表!L59</f>
-        <v>212.79833569280004</v>
+        <v>167.54258104320004</v>
       </c>
       <c r="C142" s="48">
         <f>装备拆分分析表!M59</f>
@@ -24381,7 +24419,7 @@
       </c>
       <c r="F142" s="48">
         <f>装备拆分分析表!K59</f>
-        <v>368.30481177600012</v>
+        <v>295.12529361920008</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.15">
@@ -24390,11 +24428,11 @@
       </c>
       <c r="B143" s="48">
         <f>装备拆分分析表!L60</f>
-        <v>757.55542511837768</v>
+        <v>596.44635280813452</v>
       </c>
       <c r="C143" s="48">
         <f>装备拆分分析表!M60</f>
-        <v>378.77771255918884</v>
+        <v>298.22317640406726</v>
       </c>
       <c r="D143" s="48"/>
       <c r="E143" s="48">
@@ -24425,7 +24463,7 @@
       </c>
       <c r="F144" s="48">
         <f>装备拆分分析表!K61</f>
-        <v>3277.8840509929801</v>
+        <v>2626.5920565473161</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.15">
@@ -24443,7 +24481,7 @@
       <c r="D145" s="48"/>
       <c r="E145" s="48">
         <f>装备拆分分析表!N62</f>
-        <v>613.58561581986248</v>
+        <v>700.13889402908899</v>
       </c>
       <c r="F145" s="48">
         <f>装备拆分分析表!K62</f>
@@ -24456,7 +24494,7 @@
       </c>
       <c r="B146" s="48">
         <f>装备拆分分析表!L63</f>
-        <v>94.694428139797211</v>
+        <v>74.555794101016815</v>
       </c>
       <c r="C146" s="48">
         <f>装备拆分分析表!M63</f>
@@ -24465,7 +24503,7 @@
       <c r="D146" s="48"/>
       <c r="E146" s="48">
         <f>装备拆分分析表!N63</f>
-        <v>460.18921186489678</v>
+        <v>525.10417052181663</v>
       </c>
       <c r="F146" s="48">
         <f>装备拆分分析表!K63</f>
@@ -24482,7 +24520,7 @@
       </c>
       <c r="C147" s="48">
         <f>装备拆分分析表!M64</f>
-        <v>189.38885627959442</v>
+        <v>149.11158820203363</v>
       </c>
       <c r="D147" s="48"/>
       <c r="E147" s="48">
@@ -24491,7 +24529,7 @@
       </c>
       <c r="F147" s="48">
         <f>装备拆分分析表!K64</f>
-        <v>2622.3072407943841</v>
+        <v>2101.2736452378531</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.15">
@@ -24500,7 +24538,7 @@
       </c>
       <c r="B148" s="48">
         <f>装备拆分分析表!L65</f>
-        <v>378.77771255918884</v>
+        <v>298.22317640406726</v>
       </c>
       <c r="C148" s="48">
         <f>装备拆分分析表!M65</f>
@@ -24513,7 +24551,7 @@
       </c>
       <c r="F148" s="48">
         <f>装备拆分分析表!K65</f>
-        <v>655.57681019859604</v>
+        <v>525.31841130946327</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.15">
@@ -24522,11 +24560,11 @@
       </c>
       <c r="B149" s="48">
         <f>装备拆分分析表!L66</f>
-        <v>1373.0828051757155</v>
+        <v>1081.0697199121018</v>
       </c>
       <c r="C149" s="48">
         <f>装备拆分分析表!M66</f>
-        <v>686.54140258785776</v>
+        <v>540.53485995605092</v>
       </c>
       <c r="D149" s="48"/>
       <c r="E149" s="48">
@@ -24557,7 +24595,7 @@
       </c>
       <c r="F150" s="48">
         <f>装备拆分分析表!K67</f>
-        <v>5941.2236762410766</v>
+        <v>4760.7452464520002</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.15">
@@ -24575,7 +24613,7 @@
       <c r="D151" s="48"/>
       <c r="E151" s="48">
         <f>装备拆分分析表!N68</f>
-        <v>1112.1349417486565</v>
+        <v>1269.0143120232576</v>
       </c>
       <c r="F151" s="48">
         <f>装备拆分分析表!K68</f>
@@ -24588,7 +24626,7 @@
       </c>
       <c r="B152" s="48">
         <f>装备拆分分析表!L69</f>
-        <v>171.63535064696444</v>
+        <v>135.13371498901273</v>
       </c>
       <c r="C152" s="48">
         <f>装备拆分分析表!M69</f>
@@ -24597,7 +24635,7 @@
       <c r="D152" s="48"/>
       <c r="E152" s="48">
         <f>装备拆分分析表!N69</f>
-        <v>834.10120631149232</v>
+        <v>951.76073401744304</v>
       </c>
       <c r="F152" s="48">
         <f>装备拆分分析表!K69</f>
@@ -24614,7 +24652,7 @@
       </c>
       <c r="C153" s="48">
         <f>装备拆分分析表!M70</f>
-        <v>343.27070129392888</v>
+        <v>270.26742997802546</v>
       </c>
       <c r="D153" s="48"/>
       <c r="E153" s="48">
@@ -24623,7 +24661,7 @@
       </c>
       <c r="F153" s="48">
         <f>装备拆分分析表!K70</f>
-        <v>4752.9789409928617</v>
+        <v>3808.5961971616002</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.15">
@@ -24632,7 +24670,7 @@
       </c>
       <c r="B154" s="48">
         <f>装备拆分分析表!L71</f>
-        <v>686.54140258785776</v>
+        <v>540.53485995605092</v>
       </c>
       <c r="C154" s="48">
         <f>装备拆分分析表!M71</f>
@@ -24645,7 +24683,7 @@
       </c>
       <c r="F154" s="48">
         <f>装备拆分分析表!K71</f>
-        <v>1188.2447352482154</v>
+        <v>952.14904929040006</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.15">
@@ -24655,11 +24693,11 @@
       </c>
       <c r="B155" s="48">
         <f>装备拆分分析表!S42</f>
-        <v>88.4</v>
+        <v>69.600000000000009</v>
       </c>
       <c r="C155" s="48">
         <f>装备拆分分析表!T42</f>
-        <v>176.8</v>
+        <v>139.20000000000002</v>
       </c>
       <c r="D155" s="48"/>
       <c r="E155" s="48">
@@ -24691,7 +24729,7 @@
       </c>
       <c r="F156" s="48">
         <f>装备拆分分析表!R43</f>
-        <v>765</v>
+        <v>613</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.15">
@@ -24710,7 +24748,7 @@
       <c r="D157" s="48"/>
       <c r="E157" s="48">
         <f>装备拆分分析表!U44</f>
-        <v>143.20000000000002</v>
+        <v>163.4</v>
       </c>
       <c r="F157" s="48">
         <f>装备拆分分析表!R44</f>
@@ -24728,12 +24766,12 @@
       </c>
       <c r="C158" s="48">
         <f>装备拆分分析表!T45</f>
-        <v>22.1</v>
+        <v>17.400000000000002</v>
       </c>
       <c r="D158" s="48"/>
       <c r="E158" s="48">
         <f>装备拆分分析表!U45</f>
-        <v>107.39999999999999</v>
+        <v>122.55</v>
       </c>
       <c r="F158" s="48">
         <f>装备拆分分析表!R45</f>
@@ -24747,7 +24785,7 @@
       </c>
       <c r="B159" s="48">
         <f>装备拆分分析表!S46</f>
-        <v>44.2</v>
+        <v>34.800000000000004</v>
       </c>
       <c r="C159" s="48">
         <f>装备拆分分析表!T46</f>
@@ -24760,7 +24798,7 @@
       </c>
       <c r="F159" s="48">
         <f>装备拆分分析表!R46</f>
-        <v>612</v>
+        <v>490.40000000000003</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.15">
@@ -24774,7 +24812,7 @@
       </c>
       <c r="C160" s="48">
         <f>装备拆分分析表!T47</f>
-        <v>88.4</v>
+        <v>69.600000000000009</v>
       </c>
       <c r="D160" s="48"/>
       <c r="E160" s="48">
@@ -24783,7 +24821,7 @@
       </c>
       <c r="F160" s="48">
         <f>装备拆分分析表!R47</f>
-        <v>153</v>
+        <v>122.60000000000001</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.15">
@@ -24793,11 +24831,11 @@
       </c>
       <c r="B161" s="48">
         <f>装备拆分分析表!S48</f>
-        <v>135.66465120000001</v>
+        <v>106.81289280000001</v>
       </c>
       <c r="C161" s="48">
         <f>装备拆分分析表!T48</f>
-        <v>271.32930240000002</v>
+        <v>213.62578560000003</v>
       </c>
       <c r="D161" s="48"/>
       <c r="E161" s="48">
@@ -24829,7 +24867,7 @@
       </c>
       <c r="F162" s="48">
         <f>装备拆分分析表!R49</f>
-        <v>1174.0210200000001</v>
+        <v>940.75148400000012</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.15">
@@ -24848,7 +24886,7 @@
       <c r="D163" s="48"/>
       <c r="E163" s="48">
         <f>装备拆分分析表!U50</f>
-        <v>219.76445760000001</v>
+        <v>250.76475120000006</v>
       </c>
       <c r="F163" s="48">
         <f>装备拆分分析表!R50</f>
@@ -24866,12 +24904,12 @@
       </c>
       <c r="C164" s="48">
         <f>装备拆分分析表!T51</f>
-        <v>33.916162800000002</v>
+        <v>26.703223200000004</v>
       </c>
       <c r="D164" s="48"/>
       <c r="E164" s="48">
         <f>装备拆分分析表!U51</f>
-        <v>164.82334320000001</v>
+        <v>188.07356340000004</v>
       </c>
       <c r="F164" s="48">
         <f>装备拆分分析表!R51</f>
@@ -24885,7 +24923,7 @@
       </c>
       <c r="B165" s="48">
         <f>装备拆分分析表!S52</f>
-        <v>67.832325600000004</v>
+        <v>53.406446400000007</v>
       </c>
       <c r="C165" s="48">
         <f>装备拆分分析表!T52</f>
@@ -24898,7 +24936,7 @@
       </c>
       <c r="F165" s="48">
         <f>装备拆分分析表!R52</f>
-        <v>939.21681600000011</v>
+        <v>752.60118720000014</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.15">
@@ -24912,7 +24950,7 @@
       </c>
       <c r="C166" s="48">
         <f>装备拆分分析表!T53</f>
-        <v>135.66465120000001</v>
+        <v>106.81289280000001</v>
       </c>
       <c r="D166" s="48"/>
       <c r="E166" s="48">
@@ -24921,7 +24959,7 @@
       </c>
       <c r="F166" s="48">
         <f>装备拆分分析表!R53</f>
-        <v>234.80420400000003</v>
+        <v>188.15029680000004</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.15">
@@ -24931,11 +24969,11 @@
       </c>
       <c r="B167" s="48">
         <f>装备拆分分析表!S54</f>
-        <v>212.79833569280004</v>
+        <v>167.54258104320004</v>
       </c>
       <c r="C167" s="48">
         <f>装备拆分分析表!T54</f>
-        <v>425.59667138560008</v>
+        <v>335.08516208640009</v>
       </c>
       <c r="D167" s="48"/>
       <c r="E167" s="48">
@@ -24967,7 +25005,7 @@
       </c>
       <c r="F168" s="48">
         <f>装备拆分分析表!R55</f>
-        <v>1841.5240588800004</v>
+        <v>1475.6264680960003</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.15">
@@ -24986,7 +25024,7 @@
       <c r="D169" s="48"/>
       <c r="E169" s="48">
         <f>装备拆分分析表!U56</f>
-        <v>344.71404605440011</v>
+        <v>393.3399100928001</v>
       </c>
       <c r="F169" s="48">
         <f>装备拆分分析表!R56</f>
@@ -25004,12 +25042,12 @@
       </c>
       <c r="C170" s="48">
         <f>装备拆分分析表!T57</f>
-        <v>53.199583923200009</v>
+        <v>41.885645260800011</v>
       </c>
       <c r="D170" s="48"/>
       <c r="E170" s="48">
         <f>装备拆分分析表!U57</f>
-        <v>258.53553454080003</v>
+        <v>295.00493256960004</v>
       </c>
       <c r="F170" s="48">
         <f>装备拆分分析表!R57</f>
@@ -25023,7 +25061,7 @@
       </c>
       <c r="B171" s="48">
         <f>装备拆分分析表!S58</f>
-        <v>106.39916784640002</v>
+        <v>83.771290521600022</v>
       </c>
       <c r="C171" s="48">
         <f>装备拆分分析表!T58</f>
@@ -25036,7 +25074,7 @@
       </c>
       <c r="F171" s="48">
         <f>装备拆分分析表!R58</f>
-        <v>1473.2192471040005</v>
+        <v>1180.5011744768003</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.15">
@@ -25050,7 +25088,7 @@
       </c>
       <c r="C172" s="48">
         <f>装备拆分分析表!T59</f>
-        <v>212.79833569280004</v>
+        <v>167.54258104320004</v>
       </c>
       <c r="D172" s="48"/>
       <c r="E172" s="48">
@@ -25059,7 +25097,7 @@
       </c>
       <c r="F172" s="48">
         <f>装备拆分分析表!R59</f>
-        <v>368.30481177600012</v>
+        <v>295.12529361920008</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.15">
@@ -25069,11 +25107,11 @@
       </c>
       <c r="B173" s="48">
         <f>装备拆分分析表!S60</f>
-        <v>378.77771255918884</v>
+        <v>298.22317640406726</v>
       </c>
       <c r="C173" s="48">
         <f>装备拆分分析表!T60</f>
-        <v>757.55542511837768</v>
+        <v>596.44635280813452</v>
       </c>
       <c r="D173" s="48"/>
       <c r="E173" s="48">
@@ -25105,7 +25143,7 @@
       </c>
       <c r="F174" s="48">
         <f>装备拆分分析表!R61</f>
-        <v>3277.8840509929801</v>
+        <v>2626.5920565473161</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.15">
@@ -25124,7 +25162,7 @@
       <c r="D175" s="48"/>
       <c r="E175" s="48">
         <f>装备拆分分析表!U62</f>
-        <v>613.58561581986248</v>
+        <v>700.13889402908899</v>
       </c>
       <c r="F175" s="48">
         <f>装备拆分分析表!R62</f>
@@ -25142,12 +25180,12 @@
       </c>
       <c r="C176" s="48">
         <f>装备拆分分析表!T63</f>
-        <v>94.694428139797211</v>
+        <v>74.555794101016815</v>
       </c>
       <c r="D176" s="48"/>
       <c r="E176" s="48">
         <f>装备拆分分析表!U63</f>
-        <v>460.18921186489678</v>
+        <v>525.10417052181663</v>
       </c>
       <c r="F176" s="48">
         <f>装备拆分分析表!R63</f>
@@ -25161,7 +25199,7 @@
       </c>
       <c r="B177" s="48">
         <f>装备拆分分析表!S64</f>
-        <v>189.38885627959442</v>
+        <v>149.11158820203363</v>
       </c>
       <c r="C177" s="48">
         <f>装备拆分分析表!T64</f>
@@ -25174,7 +25212,7 @@
       </c>
       <c r="F177" s="48">
         <f>装备拆分分析表!R64</f>
-        <v>2622.3072407943841</v>
+        <v>2101.2736452378531</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.15">
@@ -25188,7 +25226,7 @@
       </c>
       <c r="C178" s="48">
         <f>装备拆分分析表!T65</f>
-        <v>378.77771255918884</v>
+        <v>298.22317640406726</v>
       </c>
       <c r="D178" s="48"/>
       <c r="E178" s="48">
@@ -25197,7 +25235,7 @@
       </c>
       <c r="F178" s="48">
         <f>装备拆分分析表!R65</f>
-        <v>655.57681019859604</v>
+        <v>525.31841130946327</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.15">
@@ -25207,11 +25245,11 @@
       </c>
       <c r="B179" s="48">
         <f>装备拆分分析表!S66</f>
-        <v>686.54140258785776</v>
+        <v>540.53485995605092</v>
       </c>
       <c r="C179" s="48">
         <f>装备拆分分析表!T66</f>
-        <v>1373.0828051757155</v>
+        <v>1081.0697199121018</v>
       </c>
       <c r="D179" s="48"/>
       <c r="E179" s="48">
@@ -25243,7 +25281,7 @@
       </c>
       <c r="F180" s="48">
         <f>装备拆分分析表!R67</f>
-        <v>5941.2236762410766</v>
+        <v>4760.7452464520002</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.15">
@@ -25262,7 +25300,7 @@
       <c r="D181" s="48"/>
       <c r="E181" s="48">
         <f>装备拆分分析表!U68</f>
-        <v>1112.1349417486565</v>
+        <v>1269.0143120232576</v>
       </c>
       <c r="F181" s="48">
         <f>装备拆分分析表!R68</f>
@@ -25280,12 +25318,12 @@
       </c>
       <c r="C182" s="48">
         <f>装备拆分分析表!T69</f>
-        <v>171.63535064696444</v>
+        <v>135.13371498901273</v>
       </c>
       <c r="D182" s="48"/>
       <c r="E182" s="48">
         <f>装备拆分分析表!U69</f>
-        <v>834.10120631149232</v>
+        <v>951.76073401744304</v>
       </c>
       <c r="F182" s="48">
         <f>装备拆分分析表!R69</f>
@@ -25299,7 +25337,7 @@
       </c>
       <c r="B183" s="48">
         <f>装备拆分分析表!S70</f>
-        <v>343.27070129392888</v>
+        <v>270.26742997802546</v>
       </c>
       <c r="C183" s="48">
         <f>装备拆分分析表!T70</f>
@@ -25312,7 +25350,7 @@
       </c>
       <c r="F183" s="48">
         <f>装备拆分分析表!R70</f>
-        <v>4752.9789409928617</v>
+        <v>3808.5961971616002</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.15">
@@ -25326,7 +25364,7 @@
       </c>
       <c r="C184" s="48">
         <f>装备拆分分析表!T71</f>
-        <v>686.54140258785776</v>
+        <v>540.53485995605092</v>
       </c>
       <c r="D184" s="48"/>
       <c r="E184" s="48">
@@ -25335,7 +25373,7 @@
       </c>
       <c r="F184" s="48">
         <f>装备拆分分析表!R71</f>
-        <v>1188.2447352482154</v>
+        <v>952.14904929040006</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.15">
@@ -25345,11 +25383,11 @@
       </c>
       <c r="B185" s="48">
         <f>装备拆分分析表!Z42</f>
-        <v>121.55000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="C185" s="48">
         <f>装备拆分分析表!AA42</f>
-        <v>121.55000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="D185" s="48"/>
       <c r="E185" s="48">
@@ -25381,7 +25419,7 @@
       </c>
       <c r="F186" s="48">
         <f>装备拆分分析表!Y43</f>
-        <v>1224</v>
+        <v>980.80000000000007</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.15">
@@ -25400,7 +25438,7 @@
       <c r="D187" s="48"/>
       <c r="E187" s="48">
         <f>装备拆分分析表!AB44</f>
-        <v>214.79999999999998</v>
+        <v>245.1</v>
       </c>
       <c r="F187" s="48">
         <f>装备拆分分析表!Y44</f>
@@ -25423,7 +25461,7 @@
       <c r="D188" s="48"/>
       <c r="E188" s="48">
         <f>装备拆分分析表!AB45</f>
-        <v>161.1</v>
+        <v>183.82500000000002</v>
       </c>
       <c r="F188" s="48">
         <f>装备拆分分析表!Y45</f>
@@ -25450,7 +25488,7 @@
       </c>
       <c r="F189" s="48">
         <f>装备拆分分析表!Y46</f>
-        <v>765</v>
+        <v>613</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.15">
@@ -25469,11 +25507,11 @@
       <c r="D190" s="48"/>
       <c r="E190" s="48">
         <f>装备拆分分析表!AB47</f>
-        <v>35.800000000000004</v>
+        <v>40.85</v>
       </c>
       <c r="F190" s="48">
         <f>装备拆分分析表!Y47</f>
-        <v>306</v>
+        <v>245.20000000000002</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.15">
@@ -25483,11 +25521,11 @@
       </c>
       <c r="B191" s="48">
         <f>装备拆分分析表!Z48</f>
-        <v>186.53889540000003</v>
+        <v>146.86772760000002</v>
       </c>
       <c r="C191" s="48">
         <f>装备拆分分析表!AA48</f>
-        <v>186.53889540000003</v>
+        <v>146.86772760000002</v>
       </c>
       <c r="D191" s="48"/>
       <c r="E191" s="48">
@@ -25519,7 +25557,7 @@
       </c>
       <c r="F192" s="48">
         <f>装备拆分分析表!Y49</f>
-        <v>1878.4336320000002</v>
+        <v>1505.2023744000003</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.15">
@@ -25538,7 +25576,7 @@
       <c r="D193" s="48"/>
       <c r="E193" s="48">
         <f>装备拆分分析表!AB50</f>
-        <v>329.64668640000002</v>
+        <v>376.14712680000008</v>
       </c>
       <c r="F193" s="48">
         <f>装备拆分分析表!Y50</f>
@@ -25561,7 +25599,7 @@
       <c r="D194" s="48"/>
       <c r="E194" s="48">
         <f>装备拆分分析表!AB51</f>
-        <v>247.23501480000002</v>
+        <v>282.11034510000007</v>
       </c>
       <c r="F194" s="48">
         <f>装备拆分分析表!Y51</f>
@@ -25588,7 +25626,7 @@
       </c>
       <c r="F195" s="48">
         <f>装备拆分分析表!Y52</f>
-        <v>1174.0210200000001</v>
+        <v>940.75148400000012</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.15">
@@ -25607,11 +25645,11 @@
       <c r="D196" s="48"/>
       <c r="E196" s="48">
         <f>装备拆分分析表!AB53</f>
-        <v>54.941114400000004</v>
+        <v>62.691187800000016</v>
       </c>
       <c r="F196" s="48">
         <f>装备拆分分析表!Y53</f>
-        <v>469.60840800000005</v>
+        <v>376.30059360000007</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.15">
@@ -25621,11 +25659,11 @@
       </c>
       <c r="B197" s="48">
         <f>装备拆分分析表!Z54</f>
-        <v>292.59771157760008</v>
+        <v>230.37104893440008</v>
       </c>
       <c r="C197" s="48">
         <f>装备拆分分析表!AA54</f>
-        <v>292.59771157760008</v>
+        <v>230.37104893440008</v>
       </c>
       <c r="D197" s="48"/>
       <c r="E197" s="48">
@@ -25657,7 +25695,7 @@
       </c>
       <c r="F198" s="48">
         <f>装备拆分分析表!Y55</f>
-        <v>2946.438494208001</v>
+        <v>2361.0023489536006</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.15">
@@ -25676,7 +25714,7 @@
       <c r="D199" s="48"/>
       <c r="E199" s="48">
         <f>装备拆分分析表!AB56</f>
-        <v>517.07106908160006</v>
+        <v>590.00986513920009</v>
       </c>
       <c r="F199" s="48">
         <f>装备拆分分析表!Y56</f>
@@ -25699,7 +25737,7 @@
       <c r="D200" s="48"/>
       <c r="E200" s="48">
         <f>装备拆分分析表!AB57</f>
-        <v>387.80330181120007</v>
+        <v>442.50739885440009</v>
       </c>
       <c r="F200" s="48">
         <f>装备拆分分析表!Y57</f>
@@ -25726,7 +25764,7 @@
       </c>
       <c r="F201" s="48">
         <f>装备拆分分析表!Y58</f>
-        <v>1841.5240588800004</v>
+        <v>1475.6264680960003</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.15">
@@ -25745,11 +25783,11 @@
       <c r="D202" s="48"/>
       <c r="E202" s="48">
         <f>装备拆分分析表!AB59</f>
-        <v>86.178511513600029</v>
+        <v>98.334977523200024</v>
       </c>
       <c r="F202" s="48">
         <f>装备拆分分析表!Y59</f>
-        <v>736.60962355200024</v>
+        <v>590.25058723840016</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.15">
@@ -25759,11 +25797,11 @@
       </c>
       <c r="B203" s="48">
         <f>装备拆分分析表!Z60</f>
-        <v>520.81935476888464</v>
+        <v>410.05686755559248</v>
       </c>
       <c r="C203" s="48">
         <f>装备拆分分析表!AA60</f>
-        <v>520.81935476888464</v>
+        <v>410.05686755559248</v>
       </c>
       <c r="D203" s="48"/>
       <c r="E203" s="48">
@@ -25795,7 +25833,7 @@
       </c>
       <c r="F204" s="48">
         <f>装备拆分分析表!Y55</f>
-        <v>2946.438494208001</v>
+        <v>2361.0023489536006</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.15">
@@ -25814,7 +25852,7 @@
       <c r="D205" s="48"/>
       <c r="E205" s="48">
         <f>装备拆分分析表!AB56</f>
-        <v>517.07106908160006</v>
+        <v>590.00986513920009</v>
       </c>
       <c r="F205" s="48">
         <f>装备拆分分析表!Y56</f>
@@ -25837,7 +25875,7 @@
       <c r="D206" s="48"/>
       <c r="E206" s="48">
         <f>装备拆分分析表!AB57</f>
-        <v>387.80330181120007</v>
+        <v>442.50739885440009</v>
       </c>
       <c r="F206" s="48">
         <f>装备拆分分析表!Y57</f>
@@ -25864,7 +25902,7 @@
       </c>
       <c r="F207" s="48">
         <f>装备拆分分析表!Y58</f>
-        <v>1841.5240588800004</v>
+        <v>1475.6264680960003</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.15">
@@ -25883,11 +25921,11 @@
       <c r="D208" s="48"/>
       <c r="E208" s="48">
         <f>装备拆分分析表!AB59</f>
-        <v>86.178511513600029</v>
+        <v>98.334977523200024</v>
       </c>
       <c r="F208" s="48">
         <f>装备拆分分析表!Y59</f>
-        <v>736.60962355200024</v>
+        <v>590.25058723840016</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.15">
@@ -25897,11 +25935,11 @@
       </c>
       <c r="B209" s="48">
         <f>装备拆分分析表!Z66</f>
-        <v>943.99442855830443</v>
+        <v>743.23543243956999</v>
       </c>
       <c r="C209" s="48">
         <f>装备拆分分析表!AA66</f>
-        <v>943.99442855830443</v>
+        <v>743.23543243956999</v>
       </c>
       <c r="D209" s="48"/>
       <c r="E209" s="48">
@@ -25933,7 +25971,7 @@
       </c>
       <c r="F210" s="48">
         <f>装备拆分分析表!Y67</f>
-        <v>9505.9578819857234</v>
+        <v>7617.1923943232005</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.15">
@@ -25952,7 +25990,7 @@
       <c r="D211" s="48"/>
       <c r="E211" s="48">
         <f>装备拆分分析表!AB68</f>
-        <v>1668.2024126229846</v>
+        <v>1903.5214680348861</v>
       </c>
       <c r="F211" s="48">
         <f>装备拆分分析表!Y68</f>
@@ -25975,7 +26013,7 @@
       <c r="D212" s="48"/>
       <c r="E212" s="48">
         <f>装备拆分分析表!AB69</f>
-        <v>1251.1518094672385</v>
+        <v>1427.6411010261647</v>
       </c>
       <c r="F212" s="48">
         <f>装备拆分分析表!Y69</f>
@@ -26002,7 +26040,7 @@
       </c>
       <c r="F213" s="48">
         <f>装备拆分分析表!Y70</f>
-        <v>5941.2236762410766</v>
+        <v>4760.7452464520002</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.15">
@@ -26021,11 +26059,11 @@
       <c r="D214" s="48"/>
       <c r="E214" s="48">
         <f>装备拆分分析表!AB71</f>
-        <v>278.03373543716413</v>
+        <v>317.2535780058144</v>
       </c>
       <c r="F214" s="48">
         <f>装备拆分分析表!Y71</f>
-        <v>2376.4894704964308</v>
+        <v>1904.2980985808001</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.15">
@@ -26035,11 +26073,11 @@
       </c>
       <c r="B215" s="48">
         <f>装备拆分分析表!AG42</f>
-        <v>132.6</v>
+        <v>104.39999999999999</v>
       </c>
       <c r="C215" s="48">
         <f>装备拆分分析表!AH42</f>
-        <v>132.6</v>
+        <v>104.39999999999999</v>
       </c>
       <c r="D215" s="48"/>
       <c r="E215" s="48">
@@ -26071,7 +26109,7 @@
       </c>
       <c r="F216" s="48">
         <f>装备拆分分析表!AF43</f>
-        <v>765</v>
+        <v>613</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.15">
@@ -26090,7 +26128,7 @@
       <c r="D217" s="48"/>
       <c r="E217" s="48">
         <f>装备拆分分析表!AI44</f>
-        <v>179</v>
+        <v>204.25</v>
       </c>
       <c r="F217" s="48">
         <f>装备拆分分析表!AF44</f>
@@ -26113,7 +26151,7 @@
       <c r="D218" s="48"/>
       <c r="E218" s="48">
         <f>装备拆分分析表!AI45</f>
-        <v>107.39999999999999</v>
+        <v>122.55</v>
       </c>
       <c r="F218" s="48">
         <f>装备拆分分析表!AF45</f>
@@ -26131,7 +26169,7 @@
       </c>
       <c r="C219" s="48">
         <f>装备拆分分析表!AH46</f>
-        <v>44.2</v>
+        <v>34.800000000000004</v>
       </c>
       <c r="D219" s="48"/>
       <c r="E219" s="48">
@@ -26140,7 +26178,7 @@
       </c>
       <c r="F219" s="48">
         <f>装备拆分分析表!AF46</f>
-        <v>459</v>
+        <v>367.8</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.15">
@@ -26159,11 +26197,11 @@
       <c r="D220" s="48"/>
       <c r="E220" s="48">
         <f>装备拆分分析表!AI47</f>
-        <v>107.39999999999999</v>
+        <v>122.55</v>
       </c>
       <c r="F220" s="48">
         <f>装备拆分分析表!AF47</f>
-        <v>306</v>
+        <v>245.20000000000002</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.15">
@@ -26173,11 +26211,11 @@
       </c>
       <c r="B221" s="48">
         <f>装备拆分分析表!AG48</f>
-        <v>203.4969768</v>
+        <v>160.21933920000001</v>
       </c>
       <c r="C221" s="48">
         <f>装备拆分分析表!AH48</f>
-        <v>203.4969768</v>
+        <v>160.21933920000001</v>
       </c>
       <c r="D221" s="48"/>
       <c r="E221" s="48">
@@ -26209,7 +26247,7 @@
       </c>
       <c r="F222" s="48">
         <f>装备拆分分析表!AF49</f>
-        <v>1174.0210200000001</v>
+        <v>940.75148400000012</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.15">
@@ -26228,7 +26266,7 @@
       <c r="D223" s="48"/>
       <c r="E223" s="48">
         <f>装备拆分分析表!AI50</f>
-        <v>274.70557200000002</v>
+        <v>313.45593900000006</v>
       </c>
       <c r="F223" s="48">
         <f>装备拆分分析表!AF50</f>
@@ -26251,7 +26289,7 @@
       <c r="D224" s="48"/>
       <c r="E224" s="48">
         <f>装备拆分分析表!AI51</f>
-        <v>164.82334320000001</v>
+        <v>188.07356340000004</v>
       </c>
       <c r="F224" s="48">
         <f>装备拆分分析表!AF51</f>
@@ -26269,7 +26307,7 @@
       </c>
       <c r="C225" s="48">
         <f>装备拆分分析表!AH52</f>
-        <v>67.832325600000004</v>
+        <v>53.406446400000007</v>
       </c>
       <c r="D225" s="48"/>
       <c r="E225" s="48">
@@ -26278,7 +26316,7 @@
       </c>
       <c r="F225" s="48">
         <f>装备拆分分析表!AF52</f>
-        <v>704.41261200000008</v>
+        <v>564.45089040000005</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.15">
@@ -26297,11 +26335,11 @@
       <c r="D226" s="48"/>
       <c r="E226" s="48">
         <f>装备拆分分析表!AI53</f>
-        <v>164.82334320000001</v>
+        <v>188.07356340000004</v>
       </c>
       <c r="F226" s="48">
         <f>装备拆分分析表!AF53</f>
-        <v>469.60840800000005</v>
+        <v>376.30059360000007</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.15">
@@ -26311,11 +26349,11 @@
       </c>
       <c r="B227" s="48">
         <f>装备拆分分析表!AG54</f>
-        <v>319.19750353920006</v>
+        <v>251.31387156480005</v>
       </c>
       <c r="C227" s="48">
         <f>装备拆分分析表!AH54</f>
-        <v>319.19750353920006</v>
+        <v>251.31387156480005</v>
       </c>
       <c r="D227" s="48"/>
       <c r="E227" s="48">
@@ -26347,7 +26385,7 @@
       </c>
       <c r="F228" s="48">
         <f>装备拆分分析表!AF55</f>
-        <v>1841.5240588800004</v>
+        <v>1475.6264680960003</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.15">
@@ -26366,7 +26404,7 @@
       <c r="D229" s="48"/>
       <c r="E229" s="48">
         <f>装备拆分分析表!AI56</f>
-        <v>430.89255756800009</v>
+        <v>491.67488761600009</v>
       </c>
       <c r="F229" s="48">
         <f>装备拆分分析表!AF56</f>
@@ -26389,7 +26427,7 @@
       <c r="D230" s="48"/>
       <c r="E230" s="48">
         <f>装备拆分分析表!AI57</f>
-        <v>258.53553454080003</v>
+        <v>295.00493256960004</v>
       </c>
       <c r="F230" s="48">
         <f>装备拆分分析表!AF57</f>
@@ -26407,7 +26445,7 @@
       </c>
       <c r="C231" s="48">
         <f>装备拆分分析表!AH58</f>
-        <v>106.39916784640002</v>
+        <v>83.771290521600022</v>
       </c>
       <c r="D231" s="48"/>
       <c r="E231" s="48">
@@ -26416,7 +26454,7 @@
       </c>
       <c r="F231" s="48">
         <f>装备拆分分析表!AF58</f>
-        <v>1104.9144353280003</v>
+        <v>885.37588085760012</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.15">
@@ -26435,11 +26473,11 @@
       <c r="D232" s="48"/>
       <c r="E232" s="48">
         <f>装备拆分分析表!AI59</f>
-        <v>258.53553454080003</v>
+        <v>295.00493256960004</v>
       </c>
       <c r="F232" s="48">
         <f>装备拆分分析表!AF59</f>
-        <v>736.60962355200024</v>
+        <v>590.25058723840016</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.15">
@@ -26449,11 +26487,11 @@
       </c>
       <c r="B233" s="48">
         <f>装备拆分分析表!AG60</f>
-        <v>568.16656883878318</v>
+        <v>447.3347646061008</v>
       </c>
       <c r="C233" s="48">
         <f>装备拆分分析表!AH60</f>
-        <v>568.16656883878318</v>
+        <v>447.3347646061008</v>
       </c>
       <c r="D233" s="48"/>
       <c r="E233" s="48">
@@ -26485,7 +26523,7 @@
       </c>
       <c r="F234" s="48">
         <f>装备拆分分析表!AF61</f>
-        <v>3277.8840509929801</v>
+        <v>2626.5920565473161</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.15">
@@ -26504,7 +26542,7 @@
       <c r="D235" s="48"/>
       <c r="E235" s="48">
         <f>装备拆分分析表!AI62</f>
-        <v>766.98201977482802</v>
+        <v>875.17361753636112</v>
       </c>
       <c r="F235" s="48">
         <f>装备拆分分析表!AF62</f>
@@ -26527,7 +26565,7 @@
       <c r="D236" s="48"/>
       <c r="E236" s="48">
         <f>装备拆分分析表!AI63</f>
-        <v>460.18921186489678</v>
+        <v>525.10417052181663</v>
       </c>
       <c r="F236" s="48">
         <f>装备拆分分析表!AF63</f>
@@ -26545,7 +26583,7 @@
       </c>
       <c r="C237" s="48">
         <f>装备拆分分析表!AH64</f>
-        <v>189.38885627959442</v>
+        <v>149.11158820203363</v>
       </c>
       <c r="D237" s="48"/>
       <c r="E237" s="48">
@@ -26554,7 +26592,7 @@
       </c>
       <c r="F237" s="48">
         <f>装备拆分分析表!AF64</f>
-        <v>1966.730430595788</v>
+        <v>1575.9552339283896</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.15">
@@ -26573,11 +26611,11 @@
       <c r="D238" s="48"/>
       <c r="E238" s="48">
         <f>装备拆分分析表!AI65</f>
-        <v>460.18921186489678</v>
+        <v>525.10417052181663</v>
       </c>
       <c r="F238" s="48">
         <f>装备拆分分析表!AF65</f>
-        <v>1311.1536203971921</v>
+        <v>1050.6368226189265</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.15">
@@ -26587,11 +26625,11 @@
       </c>
       <c r="B239" s="48">
         <f>装备拆分分析表!AG66</f>
-        <v>1029.8121038817865</v>
+        <v>810.80228993407627</v>
       </c>
       <c r="C239" s="48">
         <f>装备拆分分析表!AH66</f>
-        <v>1029.8121038817865</v>
+        <v>810.80228993407627</v>
       </c>
       <c r="D239" s="48"/>
       <c r="E239" s="48">
@@ -26623,7 +26661,7 @@
       </c>
       <c r="F240" s="48">
         <f>装备拆分分析表!AF67</f>
-        <v>5941.2236762410766</v>
+        <v>4760.7452464520002</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.15">
@@ -26642,7 +26680,7 @@
       <c r="D241" s="48"/>
       <c r="E241" s="48">
         <f>装备拆分分析表!AI68</f>
-        <v>1390.1686771858206</v>
+        <v>1586.2678900290719</v>
       </c>
       <c r="F241" s="48">
         <f>装备拆分分析表!AF68</f>
@@ -26665,7 +26703,7 @@
       <c r="D242" s="48"/>
       <c r="E242" s="48">
         <f>装备拆分分析表!AI69</f>
-        <v>834.10120631149232</v>
+        <v>951.76073401744304</v>
       </c>
       <c r="F242" s="48">
         <f>装备拆分分析表!AF69</f>
@@ -26683,7 +26721,7 @@
       </c>
       <c r="C243" s="48">
         <f>装备拆分分析表!AH70</f>
-        <v>343.27070129392888</v>
+        <v>270.26742997802546</v>
       </c>
       <c r="D243" s="48"/>
       <c r="E243" s="48">
@@ -26692,7 +26730,7 @@
       </c>
       <c r="F243" s="48">
         <f>装备拆分分析表!AF70</f>
-        <v>3564.7342057446458</v>
+        <v>2856.4471478711998</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.15">
@@ -26711,11 +26749,11 @@
       <c r="D244" s="48"/>
       <c r="E244" s="48">
         <f>装备拆分分析表!AI71</f>
-        <v>834.10120631149232</v>
+        <v>951.76073401744304</v>
       </c>
       <c r="F244" s="48">
         <f>装备拆分分析表!AF71</f>
-        <v>2376.4894704964308</v>
+        <v>1904.2980985808001</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.15">
@@ -26726,7 +26764,7 @@
       <c r="F245" s="48"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -26736,7 +26774,7 @@
   <dimension ref="A1:O151"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+      <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -29995,7 +30033,7 @@
       <c r="K151" s="53"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -30006,7 +30044,7 @@
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -30677,7 +30715,45 @@
       <c r="A37" s="55"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>286</v>
+      </c>
+      <c r="C13" s="30">
+        <v>2.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
